--- a/data/100 Day Tracker Data.xlsx
+++ b/data/100 Day Tracker Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f6c5a3bf1cc44f38/Documents/GitHub/transition-agenda/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:1_{649DB1B5-EAD9-8742-AB41-7C4D3A095435}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{59492FEE-BAAE-40C4-9DC1-E73801AD238B}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="13_ncr:1_{649DB1B5-EAD9-8742-AB41-7C4D3A095435}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{027273CD-8056-4E0C-81F4-889D8C9C6FCD}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3315" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-3315" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Committees (old)" sheetId="3" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Actions!$A$1:$O$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Actions!$A$1:$L$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -112,21 +112,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="144">
   <si>
     <t>Action #</t>
   </si>
   <si>
-    <t>Subgroup (Leave blank if not relevant)</t>
-  </si>
-  <si>
-    <t>Outcome</t>
-  </si>
-  <si>
     <t>Action</t>
-  </si>
-  <si>
-    <t>Sub-Action (Leave blank if not relevant)</t>
   </si>
   <si>
     <t>Description</t>
@@ -551,6 +542,9 @@
   <si>
     <t>Committee</t>
   </si>
+  <si>
+    <t>In Progress</t>
+  </si>
 </sst>
 </file>
 
@@ -672,7 +666,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -733,9 +727,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1307,35 +1298,32 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12.33203125" customWidth="1"/>
     <col min="2" max="2" width="30.44140625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" style="25" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.6640625" style="25" customWidth="1"/>
-    <col min="6" max="6" width="33.44140625" style="25" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" style="25" customWidth="1"/>
-    <col min="8" max="8" width="27.77734375" style="25" customWidth="1"/>
-    <col min="9" max="9" width="22.33203125" style="25" customWidth="1"/>
-    <col min="10" max="10" width="19.44140625" style="26" customWidth="1"/>
-    <col min="11" max="11" width="19.44140625" customWidth="1"/>
-    <col min="12" max="15" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="57.6640625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="25" customWidth="1"/>
+    <col min="5" max="5" width="27.77734375" style="25" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" style="25" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" style="26" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" customWidth="1"/>
+    <col min="9" max="12" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="28.8">
+    <row r="1" spans="1:12" ht="28.8">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C1" s="28" t="s">
         <v>1</v>
@@ -1349,13 +1337,13 @@
       <c r="F1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="27" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="27" t="s">
@@ -1367,1410 +1355,1281 @@
       <c r="L1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="31.5" customHeight="1">
+    </row>
+    <row r="2" spans="1:12" ht="31.5" customHeight="1">
       <c r="A2" s="29">
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="30"/>
+        <v>69</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>75</v>
+      </c>
       <c r="D2" s="30"/>
       <c r="E2" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="I2" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="32">
+        <v>112</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="32">
         <v>44228</v>
       </c>
+      <c r="I2" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="29">
+        <v>1</v>
+      </c>
       <c r="L2" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="33" t="str">
-        <f>IFERROR(VLOOKUP(A2, 'Progress Updates'!A:E, 5, FALSE), "Not yet started")</f>
-        <v>In progress</v>
-      </c>
-      <c r="N2" s="29">
-        <v>1</v>
-      </c>
-      <c r="O2" s="29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="31.5" customHeight="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="31.5" customHeight="1">
       <c r="A3" s="29">
         <v>2</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="30"/>
+        <v>69</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>76</v>
+      </c>
       <c r="D3" s="30"/>
       <c r="E3" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="I3" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="32">
+        <v>113</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="32">
         <v>44228</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="29">
+        <v>1</v>
       </c>
       <c r="L3" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="33" t="str">
-        <f>IFERROR(VLOOKUP(A3, 'Progress Updates'!A:E, 5, FALSE), "Not yet started")</f>
-        <v>Not yet started</v>
-      </c>
-      <c r="N3" s="29">
-        <v>1</v>
-      </c>
-      <c r="O3" s="29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="31.5" customHeight="1">
+    </row>
+    <row r="4" spans="1:12" ht="31.5" customHeight="1">
       <c r="A4" s="29">
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="30"/>
+        <v>69</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>77</v>
+      </c>
       <c r="D4" s="30"/>
       <c r="E4" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="I4" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="32">
+        <v>114</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="32">
         <v>44228</v>
       </c>
+      <c r="I4" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="K4" s="29">
+        <v>1</v>
+      </c>
       <c r="L4" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="33" t="str">
-        <f>IFERROR(VLOOKUP(A4, 'Progress Updates'!A:E, 5, FALSE), "Not yet started")</f>
-        <v>Not yet started</v>
-      </c>
-      <c r="N4" s="29">
-        <v>1</v>
-      </c>
-      <c r="O4" s="29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="31.5" customHeight="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="31.5" customHeight="1">
       <c r="A5" s="29">
         <v>4</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="30"/>
+        <v>69</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" s="30"/>
       <c r="E5" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="I5" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="32">
+        <v>112</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="32">
         <v>44228</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="K5" s="29">
+        <v>1</v>
       </c>
       <c r="L5" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="33" t="str">
-        <f>IFERROR(VLOOKUP(A5, 'Progress Updates'!A:E, 5, FALSE), "Not yet started")</f>
-        <v>Not yet started</v>
-      </c>
-      <c r="N5" s="29">
-        <v>1</v>
-      </c>
-      <c r="O5" s="29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="31.5" customHeight="1">
+    </row>
+    <row r="6" spans="1:12" ht="31.5" customHeight="1">
       <c r="A6" s="29">
         <v>5</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="30"/>
+        <v>69</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" s="30"/>
       <c r="E6" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="I6" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="32">
+        <v>115</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="32">
         <v>44228</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="33" t="str">
+        <f>IFERROR(VLOOKUP(A6, 'Progress Updates'!A:E, 5, FALSE), "Not yet started")</f>
+        <v>Not yet started</v>
+      </c>
+      <c r="K6" s="29">
+        <v>1</v>
       </c>
       <c r="L6" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="33" t="str">
-        <f>IFERROR(VLOOKUP(A6, 'Progress Updates'!A:E, 5, FALSE), "Not yet started")</f>
-        <v>Not yet started</v>
-      </c>
-      <c r="N6" s="29">
-        <v>1</v>
-      </c>
-      <c r="O6" s="29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="31.5" customHeight="1">
+    </row>
+    <row r="7" spans="1:12" ht="31.5" customHeight="1">
       <c r="A7" s="29">
         <v>6</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="30"/>
+        <v>69</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>80</v>
+      </c>
       <c r="D7" s="30"/>
       <c r="E7" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="I7" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="32">
+        <v>116</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="32">
         <v>44228</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="33" t="str">
+        <f>IFERROR(VLOOKUP(A7, 'Progress Updates'!A:E, 5, FALSE), "Not yet started")</f>
+        <v>Not yet started</v>
+      </c>
+      <c r="K7" s="29">
+        <v>1</v>
       </c>
       <c r="L7" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="M7" s="33" t="str">
-        <f>IFERROR(VLOOKUP(A7, 'Progress Updates'!A:E, 5, FALSE), "Not yet started")</f>
-        <v>Not yet started</v>
-      </c>
-      <c r="N7" s="29">
-        <v>1</v>
-      </c>
-      <c r="O7" s="29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="31.5" customHeight="1">
+    </row>
+    <row r="8" spans="1:12" ht="31.5" customHeight="1">
       <c r="A8" s="29">
         <v>7</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="30"/>
+        <v>70</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>81</v>
+      </c>
       <c r="D8" s="30"/>
       <c r="E8" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="I8" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="32">
+        <v>117</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="32">
         <v>44228</v>
       </c>
+      <c r="I8" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" s="29">
+        <v>1</v>
+      </c>
       <c r="L8" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="M8" s="33" t="str">
-        <f>IFERROR(VLOOKUP(A8, 'Progress Updates'!A:E, 5, FALSE), "Not yet started")</f>
-        <v>Not yet started</v>
-      </c>
-      <c r="N8" s="29">
-        <v>1</v>
-      </c>
-      <c r="O8" s="29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="31.5" customHeight="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="31.5" customHeight="1">
       <c r="A9" s="29">
         <v>8</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="30"/>
+        <v>70</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>82</v>
+      </c>
       <c r="D9" s="30"/>
       <c r="E9" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="I9" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="32">
+        <v>118</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="32">
         <v>44229</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="K9" s="29">
+        <v>1</v>
       </c>
       <c r="L9" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="33" t="str">
-        <f>IFERROR(VLOOKUP(A9, 'Progress Updates'!A:E, 5, FALSE), "Not yet started")</f>
-        <v>Not yet started</v>
-      </c>
-      <c r="N9" s="29">
-        <v>1</v>
-      </c>
-      <c r="O9" s="29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="31.5" customHeight="1">
+    </row>
+    <row r="10" spans="1:12" ht="31.5" customHeight="1">
       <c r="A10" s="29">
         <v>9</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="30"/>
+        <v>70</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>83</v>
+      </c>
       <c r="D10" s="30"/>
       <c r="E10" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="I10" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="32">
+        <v>119</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="32">
         <v>44230</v>
       </c>
-      <c r="L10" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" s="33" t="str">
+      <c r="I10" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="33" t="str">
         <f>IFERROR(VLOOKUP(A10, 'Progress Updates'!A:E, 5, FALSE), "Not yet started")</f>
         <v>Not yet started</v>
       </c>
-      <c r="N10" s="29">
+      <c r="K10" s="29">
         <v>1</v>
       </c>
-      <c r="O10" s="29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="31.5" customHeight="1">
+      <c r="L10" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="31.5" customHeight="1">
       <c r="A11" s="29">
         <v>10</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="30"/>
+        <v>70</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>84</v>
+      </c>
       <c r="D11" s="30"/>
       <c r="E11" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="I11" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="32">
+        <v>119</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="32">
         <v>44231</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="33" t="str">
+        <f>IFERROR(VLOOKUP(A11, 'Progress Updates'!A:E, 5, FALSE), "Not yet started")</f>
+        <v>Not yet started</v>
+      </c>
+      <c r="K11" s="29">
+        <v>1</v>
       </c>
       <c r="L11" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="M11" s="33" t="str">
-        <f>IFERROR(VLOOKUP(A11, 'Progress Updates'!A:E, 5, FALSE), "Not yet started")</f>
-        <v>Not yet started</v>
-      </c>
-      <c r="N11" s="29">
-        <v>1</v>
-      </c>
-      <c r="O11" s="29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="31.5" customHeight="1">
+    </row>
+    <row r="12" spans="1:12" ht="31.5" customHeight="1">
       <c r="A12" s="29">
         <v>11</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="30"/>
+        <v>70</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>85</v>
+      </c>
       <c r="D12" s="30"/>
       <c r="E12" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="I12" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="32">
+        <v>120</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="32">
         <v>44232</v>
+      </c>
+      <c r="I12" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="33" t="str">
+        <f>IFERROR(VLOOKUP(A12, 'Progress Updates'!A:E, 5, FALSE), "Not yet started")</f>
+        <v>Not yet started</v>
+      </c>
+      <c r="K12" s="29">
+        <v>1</v>
       </c>
       <c r="L12" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="M12" s="33" t="str">
-        <f>IFERROR(VLOOKUP(A12, 'Progress Updates'!A:E, 5, FALSE), "Not yet started")</f>
-        <v>Not yet started</v>
-      </c>
-      <c r="N12" s="29">
-        <v>1</v>
-      </c>
-      <c r="O12" s="29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="31.5" customHeight="1">
+    </row>
+    <row r="13" spans="1:12" ht="31.5" customHeight="1">
       <c r="A13" s="29">
         <v>12</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="30"/>
+        <v>70</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>86</v>
+      </c>
       <c r="D13" s="30"/>
       <c r="E13" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="I13" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="32">
+        <v>121</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="32">
         <v>44233</v>
+      </c>
+      <c r="I13" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="33" t="str">
+        <f>IFERROR(VLOOKUP(A13, 'Progress Updates'!A:E, 5, FALSE), "Not yet started")</f>
+        <v>Not yet started</v>
+      </c>
+      <c r="K13" s="29">
+        <v>1</v>
       </c>
       <c r="L13" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="M13" s="33" t="str">
-        <f>IFERROR(VLOOKUP(A13, 'Progress Updates'!A:E, 5, FALSE), "Not yet started")</f>
-        <v>Not yet started</v>
-      </c>
-      <c r="N13" s="29">
-        <v>1</v>
-      </c>
-      <c r="O13" s="29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="31.5" customHeight="1">
+    </row>
+    <row r="14" spans="1:12" ht="31.5" customHeight="1">
       <c r="A14" s="29">
         <v>13</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="30"/>
+        <v>70</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>87</v>
+      </c>
       <c r="D14" s="30"/>
       <c r="E14" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="I14" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="32">
+        <v>122</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="32">
         <v>44234</v>
       </c>
-      <c r="L14" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="M14" s="33" t="str">
+      <c r="I14" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="33" t="str">
         <f>IFERROR(VLOOKUP(A14, 'Progress Updates'!A:E, 5, FALSE), "Not yet started")</f>
         <v>Not yet started</v>
       </c>
-      <c r="N14" s="29">
+      <c r="K14" s="29">
         <v>1</v>
       </c>
-      <c r="O14" s="29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="31.5" customHeight="1">
+      <c r="L14" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="31.5" customHeight="1">
       <c r="A15" s="29">
         <v>14</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="30"/>
+        <v>70</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>88</v>
+      </c>
       <c r="D15" s="30"/>
       <c r="E15" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="I15" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="32">
+        <v>123</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="32">
         <v>44235</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="33" t="str">
+        <f>IFERROR(VLOOKUP(A15, 'Progress Updates'!A:E, 5, FALSE), "Not yet started")</f>
+        <v>Not yet started</v>
+      </c>
+      <c r="K15" s="29">
+        <v>1</v>
       </c>
       <c r="L15" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="M15" s="33" t="str">
-        <f>IFERROR(VLOOKUP(A15, 'Progress Updates'!A:E, 5, FALSE), "Not yet started")</f>
-        <v>Not yet started</v>
-      </c>
-      <c r="N15" s="29">
-        <v>1</v>
-      </c>
-      <c r="O15" s="29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="31.5" customHeight="1">
+    </row>
+    <row r="16" spans="1:12" ht="31.5" customHeight="1">
       <c r="A16" s="29">
         <v>15</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="30"/>
+        <v>71</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>89</v>
+      </c>
       <c r="D16" s="30"/>
       <c r="E16" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="I16" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" s="32">
+        <v>124</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="32">
         <v>44236</v>
       </c>
-      <c r="L16" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="M16" s="33" t="str">
+      <c r="I16" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="33" t="str">
         <f>IFERROR(VLOOKUP(A16, 'Progress Updates'!A:E, 5, FALSE), "Not yet started")</f>
         <v>Not yet started</v>
       </c>
-      <c r="N16" s="29">
+      <c r="K16" s="29">
         <v>1</v>
       </c>
-      <c r="O16" s="29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="31.5" customHeight="1">
+      <c r="L16" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="31.5" customHeight="1">
       <c r="A17" s="29">
         <v>16</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="30"/>
+        <v>71</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>90</v>
+      </c>
       <c r="D17" s="30"/>
       <c r="E17" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="I17" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="K17" s="32">
+        <v>125</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="32">
         <v>44237</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="33" t="str">
+        <f>IFERROR(VLOOKUP(A17, 'Progress Updates'!A:E, 5, FALSE), "Not yet started")</f>
+        <v>Not yet started</v>
+      </c>
+      <c r="K17" s="29">
+        <v>1</v>
       </c>
       <c r="L17" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="M17" s="33" t="str">
-        <f>IFERROR(VLOOKUP(A17, 'Progress Updates'!A:E, 5, FALSE), "Not yet started")</f>
-        <v>Not yet started</v>
-      </c>
-      <c r="N17" s="29">
-        <v>1</v>
-      </c>
-      <c r="O17" s="29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="31.5" customHeight="1">
+    </row>
+    <row r="18" spans="1:12" ht="31.5" customHeight="1">
       <c r="A18" s="29">
         <v>17</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="30"/>
+        <v>71</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>91</v>
+      </c>
       <c r="D18" s="30"/>
       <c r="E18" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="I18" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="K18" s="32">
+        <v>126</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="32">
         <v>44238</v>
+      </c>
+      <c r="I18" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="33" t="str">
+        <f>IFERROR(VLOOKUP(A18, 'Progress Updates'!A:E, 5, FALSE), "Not yet started")</f>
+        <v>Not yet started</v>
+      </c>
+      <c r="K18" s="29">
+        <v>1</v>
       </c>
       <c r="L18" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="M18" s="33" t="str">
-        <f>IFERROR(VLOOKUP(A18, 'Progress Updates'!A:E, 5, FALSE), "Not yet started")</f>
-        <v>Not yet started</v>
-      </c>
-      <c r="N18" s="29">
-        <v>1</v>
-      </c>
-      <c r="O18" s="29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="31.5" customHeight="1">
+    </row>
+    <row r="19" spans="1:12" ht="31.5" customHeight="1">
       <c r="A19" s="29">
         <v>18</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="30"/>
+        <v>71</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>92</v>
+      </c>
       <c r="D19" s="30"/>
       <c r="E19" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="I19" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="K19" s="32">
+        <v>127</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="32">
         <v>44239</v>
+      </c>
+      <c r="I19" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="33" t="str">
+        <f>IFERROR(VLOOKUP(A19, 'Progress Updates'!A:E, 5, FALSE), "Not yet started")</f>
+        <v>Not yet started</v>
+      </c>
+      <c r="K19" s="29">
+        <v>1</v>
       </c>
       <c r="L19" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="M19" s="33" t="str">
-        <f>IFERROR(VLOOKUP(A19, 'Progress Updates'!A:E, 5, FALSE), "Not yet started")</f>
-        <v>Not yet started</v>
-      </c>
-      <c r="N19" s="29">
-        <v>1</v>
-      </c>
-      <c r="O19" s="29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="31.5" customHeight="1">
+    </row>
+    <row r="20" spans="1:12" ht="31.5" customHeight="1">
       <c r="A20" s="29">
         <v>19</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="30"/>
+        <v>72</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>93</v>
+      </c>
       <c r="D20" s="30"/>
       <c r="E20" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="I20" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" s="32">
+        <v>118</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="32">
         <v>44240</v>
       </c>
+      <c r="I20" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="K20" s="29">
+        <v>1</v>
+      </c>
       <c r="L20" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="M20" s="33" t="str">
-        <f>IFERROR(VLOOKUP(A20, 'Progress Updates'!A:E, 5, FALSE), "Not yet started")</f>
-        <v>Not yet started</v>
-      </c>
-      <c r="N20" s="29">
-        <v>1</v>
-      </c>
-      <c r="O20" s="29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="31.5" customHeight="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="31.5" customHeight="1">
       <c r="A21" s="29">
         <v>20</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="30"/>
+        <v>72</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>94</v>
+      </c>
       <c r="D21" s="30"/>
       <c r="E21" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="F21" s="34"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="I21" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="K21" s="32">
+        <v>118</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="32">
         <v>44241</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="K21" s="29">
+        <v>1</v>
       </c>
       <c r="L21" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="M21" s="33" t="str">
-        <f>IFERROR(VLOOKUP(A21, 'Progress Updates'!A:E, 5, FALSE), "Not yet started")</f>
-        <v>Not yet started</v>
-      </c>
-      <c r="N21" s="29">
-        <v>1</v>
-      </c>
-      <c r="O21" s="29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="31.5" customHeight="1">
+    </row>
+    <row r="22" spans="1:12" ht="31.5" customHeight="1">
       <c r="A22" s="29">
         <v>21</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="30"/>
+        <v>72</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>95</v>
+      </c>
       <c r="D22" s="30"/>
       <c r="E22" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="I22" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="K22" s="32">
+        <v>128</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="32">
         <v>44242</v>
       </c>
-      <c r="L22" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="M22" s="33" t="str">
+      <c r="I22" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="33" t="str">
         <f>IFERROR(VLOOKUP(A22, 'Progress Updates'!A:E, 5, FALSE), "Not yet started")</f>
         <v>Not yet started</v>
       </c>
-      <c r="N22" s="29">
+      <c r="K22" s="29">
         <v>1</v>
       </c>
-      <c r="O22" s="29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="31.5" customHeight="1">
+      <c r="L22" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="31.5" customHeight="1">
       <c r="A23" s="29">
         <v>22</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="30"/>
+        <v>72</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>96</v>
+      </c>
       <c r="D23" s="30"/>
       <c r="E23" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="I23" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="K23" s="32">
+        <v>129</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="32">
         <v>44243</v>
+      </c>
+      <c r="I23" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="33" t="str">
+        <f>IFERROR(VLOOKUP(A23, 'Progress Updates'!A:E, 5, FALSE), "Not yet started")</f>
+        <v>Not yet started</v>
+      </c>
+      <c r="K23" s="29">
+        <v>1</v>
       </c>
       <c r="L23" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="M23" s="33" t="str">
-        <f>IFERROR(VLOOKUP(A23, 'Progress Updates'!A:E, 5, FALSE), "Not yet started")</f>
-        <v>Not yet started</v>
-      </c>
-      <c r="N23" s="29">
-        <v>1</v>
-      </c>
-      <c r="O23" s="29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="31.5" customHeight="1">
+    </row>
+    <row r="24" spans="1:12" ht="31.5" customHeight="1">
       <c r="A24" s="29">
         <v>23</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="30"/>
+        <v>72</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>97</v>
+      </c>
       <c r="D24" s="30"/>
       <c r="E24" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="I24" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="J24" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" s="32">
+        <v>129</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="32">
         <v>44244</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="33" t="str">
+        <f>IFERROR(VLOOKUP(A24, 'Progress Updates'!A:E, 5, FALSE), "Not yet started")</f>
+        <v>Not yet started</v>
+      </c>
+      <c r="K24" s="29">
+        <v>1</v>
       </c>
       <c r="L24" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="M24" s="33" t="str">
-        <f>IFERROR(VLOOKUP(A24, 'Progress Updates'!A:E, 5, FALSE), "Not yet started")</f>
-        <v>Not yet started</v>
-      </c>
-      <c r="N24" s="29">
-        <v>1</v>
-      </c>
-      <c r="O24" s="29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="31.5" customHeight="1">
+    </row>
+    <row r="25" spans="1:12" ht="31.5" customHeight="1">
       <c r="A25" s="29">
         <v>24</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="30"/>
+        <v>72</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>98</v>
+      </c>
       <c r="D25" s="30"/>
       <c r="E25" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="I25" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="J25" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="K25" s="32">
+        <v>115</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="32">
         <v>44245</v>
+      </c>
+      <c r="I25" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="33" t="str">
+        <f>IFERROR(VLOOKUP(A25, 'Progress Updates'!A:E, 5, FALSE), "Not yet started")</f>
+        <v>Not yet started</v>
+      </c>
+      <c r="K25" s="29">
+        <v>1</v>
       </c>
       <c r="L25" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="M25" s="33" t="str">
-        <f>IFERROR(VLOOKUP(A25, 'Progress Updates'!A:E, 5, FALSE), "Not yet started")</f>
-        <v>Not yet started</v>
-      </c>
-      <c r="N25" s="29">
-        <v>1</v>
-      </c>
-      <c r="O25" s="29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="31.5" customHeight="1">
+    </row>
+    <row r="26" spans="1:12" ht="31.5" customHeight="1">
       <c r="A26" s="29">
         <v>25</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="30"/>
+        <v>72</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>99</v>
+      </c>
       <c r="D26" s="30"/>
       <c r="E26" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="I26" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="J26" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="K26" s="32">
+        <v>130</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="32">
         <v>44246</v>
       </c>
-      <c r="L26" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="M26" s="33" t="str">
+      <c r="I26" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="33" t="str">
         <f>IFERROR(VLOOKUP(A26, 'Progress Updates'!A:E, 5, FALSE), "Not yet started")</f>
         <v>Not yet started</v>
       </c>
-      <c r="N26" s="29">
+      <c r="K26" s="29">
         <v>1</v>
       </c>
-      <c r="O26" s="29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="31.5" customHeight="1">
+      <c r="L26" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="31.5" customHeight="1">
       <c r="A27" s="29">
         <v>26</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="30"/>
+        <v>72</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>100</v>
+      </c>
       <c r="D27" s="30"/>
       <c r="E27" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="I27" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="J27" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="K27" s="32">
+        <v>131</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="32">
         <v>44247</v>
+      </c>
+      <c r="I27" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="33" t="str">
+        <f>IFERROR(VLOOKUP(A27, 'Progress Updates'!A:E, 5, FALSE), "Not yet started")</f>
+        <v>Not yet started</v>
+      </c>
+      <c r="K27" s="29">
+        <v>1</v>
       </c>
       <c r="L27" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="M27" s="33" t="str">
-        <f>IFERROR(VLOOKUP(A27, 'Progress Updates'!A:E, 5, FALSE), "Not yet started")</f>
-        <v>Not yet started</v>
-      </c>
-      <c r="N27" s="29">
-        <v>1</v>
-      </c>
-      <c r="O27" s="29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="31.5" customHeight="1">
+    </row>
+    <row r="28" spans="1:12" ht="31.5" customHeight="1">
       <c r="A28" s="29">
         <v>27</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="36"/>
+        <v>72</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="35"/>
       <c r="E28" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="F28" s="35"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="I28" s="30"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="33" t="str">
+        <v>132</v>
+      </c>
+      <c r="F28" s="30"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="33" t="str">
         <f>IFERROR(VLOOKUP(A28, 'Progress Updates'!A:E, 5, FALSE), "Not yet started")</f>
         <v>Not yet started</v>
       </c>
-      <c r="N28" s="29">
+      <c r="K28" s="29">
         <v>1</v>
       </c>
-      <c r="O28" s="29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="31.5" customHeight="1">
+      <c r="L28" s="29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="31.5" customHeight="1">
       <c r="A29" s="29">
         <v>28</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="36"/>
+        <v>73</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="34"/>
       <c r="E29" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="I29" s="30"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="33" t="str">
+        <v>133</v>
+      </c>
+      <c r="F29" s="30"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="33" t="str">
         <f>IFERROR(VLOOKUP(A29, 'Progress Updates'!A:E, 5, FALSE), "Not yet started")</f>
         <v>Not yet started</v>
       </c>
-      <c r="N29" s="29">
+      <c r="K29" s="29">
         <v>1</v>
       </c>
-      <c r="O29" s="29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="31.5" customHeight="1">
+      <c r="L29" s="29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="31.5" customHeight="1">
       <c r="A30" s="29">
         <v>29</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="36"/>
+        <v>73</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="35"/>
       <c r="E30" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="F30" s="35"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="I30" s="30"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="33" t="str">
+        <v>120</v>
+      </c>
+      <c r="F30" s="30"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="33" t="str">
         <f>IFERROR(VLOOKUP(A30, 'Progress Updates'!A:E, 5, FALSE), "Not yet started")</f>
         <v>Not yet started</v>
       </c>
-      <c r="N30" s="29">
+      <c r="K30" s="29">
         <v>1</v>
       </c>
-      <c r="O30" s="29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="31.5" customHeight="1">
+      <c r="L30" s="29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="31.5" customHeight="1">
       <c r="A31" s="29">
         <v>30</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="36"/>
+        <v>73</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="35"/>
       <c r="E31" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="F31" s="35"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="I31" s="30"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="33" t="str">
+        <v>130</v>
+      </c>
+      <c r="F31" s="30"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="33" t="str">
         <f>IFERROR(VLOOKUP(A31, 'Progress Updates'!A:E, 5, FALSE), "Not yet started")</f>
         <v>Not yet started</v>
       </c>
-      <c r="N31" s="29">
+      <c r="K31" s="29">
         <v>1</v>
       </c>
-      <c r="O31" s="29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="31.5" customHeight="1">
+      <c r="L31" s="29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="31.5" customHeight="1">
       <c r="A32" s="29">
         <v>31</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="36"/>
+        <v>73</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="34"/>
       <c r="E32" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="I32" s="30"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="33" t="str">
+        <v>130</v>
+      </c>
+      <c r="F32" s="30"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="33" t="str">
         <f>IFERROR(VLOOKUP(A32, 'Progress Updates'!A:E, 5, FALSE), "Not yet started")</f>
         <v>Not yet started</v>
       </c>
-      <c r="N32" s="29">
+      <c r="K32" s="29">
         <v>1</v>
       </c>
-      <c r="O32" s="29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="31.5" customHeight="1">
+      <c r="L32" s="29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="31.5" customHeight="1">
       <c r="A33" s="29">
         <v>32</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="35"/>
-      <c r="D33" s="36"/>
+        <v>73</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" s="34"/>
       <c r="E33" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="I33" s="30"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="33" t="str">
-        <f>IFERROR(VLOOKUP(A33, 'Progress Updates'!A:E, 5, FALSE), "Not yet started")</f>
-        <v>Not yet started</v>
-      </c>
-      <c r="N33" s="29">
+        <v>120</v>
+      </c>
+      <c r="F33" s="30"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="K33" s="29">
         <v>1</v>
       </c>
-      <c r="O33" s="29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="31.5" customHeight="1">
+      <c r="L33" s="29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="31.5" customHeight="1">
       <c r="A34" s="29">
         <v>33</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="35"/>
-      <c r="D34" s="36"/>
+        <v>73</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="34"/>
       <c r="E34" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="I34" s="30"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="33" t="str">
+        <v>134</v>
+      </c>
+      <c r="F34" s="30"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="33" t="str">
         <f>IFERROR(VLOOKUP(A34, 'Progress Updates'!A:E, 5, FALSE), "Not yet started")</f>
         <v>Not yet started</v>
       </c>
-      <c r="N34" s="29">
+      <c r="K34" s="29">
         <v>1</v>
       </c>
-      <c r="O34" s="29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="31.5" customHeight="1">
+      <c r="L34" s="29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="31.5" customHeight="1">
       <c r="A35" s="29">
         <v>34</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="35"/>
-      <c r="D35" s="36"/>
+        <v>74</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="34"/>
       <c r="E35" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="I35" s="30"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="33" t="str">
+        <v>135</v>
+      </c>
+      <c r="F35" s="30"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="33" t="str">
         <f>IFERROR(VLOOKUP(A35, 'Progress Updates'!A:E, 5, FALSE), "Not yet started")</f>
         <v>Not yet started</v>
       </c>
-      <c r="N35" s="29">
+      <c r="K35" s="29">
         <v>1</v>
       </c>
-      <c r="O35" s="29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="31.5" customHeight="1">
+      <c r="L35" s="29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="31.5" customHeight="1">
       <c r="A36" s="29">
         <v>35</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="35"/>
-      <c r="D36" s="36"/>
+        <v>74</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="34"/>
       <c r="E36" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="I36" s="30"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="33" t="str">
+        <v>120</v>
+      </c>
+      <c r="F36" s="30"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="33" t="str">
         <f>IFERROR(VLOOKUP(A36, 'Progress Updates'!A:E, 5, FALSE), "Not yet started")</f>
         <v>Not yet started</v>
       </c>
-      <c r="N36" s="29">
+      <c r="K36" s="29">
         <v>1</v>
       </c>
-      <c r="O36" s="29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="31.5" customHeight="1">
+      <c r="L36" s="29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="31.5" customHeight="1">
       <c r="A37" s="29">
         <v>36</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" s="35"/>
-      <c r="D37" s="36"/>
+        <v>74</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="34"/>
       <c r="E37" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="I37" s="30"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="33" t="str">
+        <v>136</v>
+      </c>
+      <c r="F37" s="30"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="33" t="str">
         <f>IFERROR(VLOOKUP(A37, 'Progress Updates'!A:E, 5, FALSE), "Not yet started")</f>
         <v>Not yet started</v>
       </c>
-      <c r="N37" s="29">
+      <c r="K37" s="29">
         <v>1</v>
       </c>
-      <c r="O37" s="29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="31.5" customHeight="1">
+      <c r="L37" s="29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="31.5" customHeight="1">
       <c r="A38" s="29">
         <v>37</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="35"/>
-      <c r="D38" s="36"/>
+        <v>74</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="34"/>
       <c r="E38" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="I38" s="30"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="33" t="str">
+        <v>137</v>
+      </c>
+      <c r="F38" s="30"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="33" t="str">
         <f>IFERROR(VLOOKUP(A38, 'Progress Updates'!A:E, 5, FALSE), "Not yet started")</f>
         <v>Not yet started</v>
       </c>
-      <c r="N38" s="29">
+      <c r="K38" s="29">
         <v>1</v>
       </c>
-      <c r="O38" s="29" t="s">
-        <v>18</v>
+      <c r="L38" s="29" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O38" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L38" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
@@ -2808,22 +2667,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="42.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="13.8">
@@ -2839,7 +2698,7 @@
         <v>44173</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F2" s="7"/>
     </row>
@@ -3203,7 +3062,7 @@
         <v>44197</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F26" s="7"/>
     </row>
@@ -3630,7 +3489,7 @@
         <v>44222</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F51" s="7"/>
     </row>
@@ -4057,7 +3916,7 @@
         <v>44247</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F76" s="11"/>
     </row>
@@ -4484,7 +4343,7 @@
         <v>44272</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F101" s="7"/>
     </row>
@@ -4861,7 +4720,7 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
@@ -4876,19 +4735,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.6">
       <c r="A1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>39</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1">
@@ -4896,10 +4755,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
@@ -4909,10 +4768,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -4922,10 +4781,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -4935,10 +4794,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -4948,10 +4807,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
@@ -4961,10 +4820,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -5003,16 +4862,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
@@ -5027,10 +4886,10 @@
         <v>44179</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
@@ -12092,7 +11951,7 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -12122,7 +11981,7 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -12152,7 +12011,7 @@
     </row>
     <row r="4" spans="1:26" ht="13.8">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -12182,7 +12041,7 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -12212,7 +12071,7 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -12242,7 +12101,7 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -12300,7 +12159,7 @@
     </row>
     <row r="9" spans="1:26" ht="13.8">
       <c r="A9" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -12330,7 +12189,7 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -12360,7 +12219,7 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="A11" s="20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -40094,28 +39953,28 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="22" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B2" s="22"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B3" s="22"/>
     </row>
@@ -40146,19 +40005,19 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.6">
       <c r="A1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>39</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="22.5" customHeight="1">
@@ -40166,15 +40025,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
       <c r="H2" s="23" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="22.5" customHeight="1">
@@ -40182,15 +40041,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="H3" s="24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="22.5" customHeight="1">
@@ -40198,15 +40057,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="H4" s="24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="22.5" customHeight="1">
@@ -40214,15 +40073,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="H5" s="24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="22.5" customHeight="1">
@@ -40230,15 +40089,15 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="H6" s="24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="22.5" customHeight="1">
@@ -40246,15 +40105,15 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="H7" s="24" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="22.5" customHeight="1">
@@ -40262,10 +40121,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -40275,10 +40134,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -40288,10 +40147,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -40301,10 +40160,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>

--- a/data/100 Day Tracker Data.xlsx
+++ b/data/100 Day Tracker Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f6c5a3bf1cc44f38/Documents/GitHub/transition-agenda/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{DDCC89A2-715E-D94B-9C42-6A6B9CB22DF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{86E5A7C2-3098-47A8-8A64-37CFD0AA1D29}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{DDCC89A2-715E-D94B-9C42-6A6B9CB22DF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{522B3493-1CFD-4580-9F56-E3964313164A}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -450,9 +450,6 @@
     <t xml:space="preserve">Design and release Open Checkbook for Baltimore to increase transparency and accountability. </t>
   </si>
   <si>
-    <t>MO, MONSE, BCHD, BPD</t>
-  </si>
-  <si>
     <t>Leading an Effective Coronavirus Response for All</t>
   </si>
   <si>
@@ -541,6 +538,9 @@
   </si>
   <si>
     <t>Department of Finance &amp; Baltimore City IT</t>
+  </si>
+  <si>
+    <t>Mayor's Office, Mayor's Office of Neighborhood Safety and Engagement, Baltimore City Health Department, &amp; Baltimore Police Department</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1299,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C1" s="28" t="s">
         <v>1</v>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F2" s="30" t="s">
         <v>13</v>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="D3" s="30"/>
       <c r="E3" s="31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F3" s="30" t="s">
         <v>13</v>
@@ -1436,8 +1436,8 @@
         <v>77</v>
       </c>
       <c r="D4" s="30"/>
-      <c r="E4" s="31" t="s">
-        <v>112</v>
+      <c r="E4" s="30" t="s">
+        <v>142</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>13</v>
@@ -1452,7 +1452,7 @@
         <v>12</v>
       </c>
       <c r="J4" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K4" s="29">
         <v>1</v>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="D5" s="30"/>
       <c r="E5" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F5" s="30" t="s">
         <v>13</v>
@@ -1488,7 +1488,7 @@
         <v>12</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K5" s="29">
         <v>1</v>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="D6" s="30"/>
       <c r="E6" s="31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>13</v>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="D7" s="30"/>
       <c r="E7" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F7" s="30" t="s">
         <v>13</v>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="D8" s="30"/>
       <c r="E8" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F8" s="30" t="s">
         <v>13</v>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="D9" s="30"/>
       <c r="E9" s="31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F9" s="30" t="s">
         <v>13</v>
@@ -1634,7 +1634,7 @@
         <v>12</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K9" s="29">
         <v>1</v>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="D10" s="30"/>
       <c r="E10" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F10" s="30" t="s">
         <v>13</v>
@@ -1692,7 +1692,7 @@
       </c>
       <c r="D11" s="30"/>
       <c r="E11" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F11" s="30" t="s">
         <v>16</v>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="D12" s="30"/>
       <c r="E12" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F12" s="30" t="s">
         <v>16</v>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="D13" s="30"/>
       <c r="E13" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F13" s="30" t="s">
         <v>13</v>
@@ -1803,7 +1803,7 @@
       </c>
       <c r="D14" s="30"/>
       <c r="E14" s="31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F14" s="30" t="s">
         <v>13</v>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="D15" s="30"/>
       <c r="E15" s="31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F15" s="30" t="s">
         <v>16</v>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="D16" s="30"/>
       <c r="E16" s="31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F16" s="30" t="s">
         <v>16</v>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="D17" s="30"/>
       <c r="E17" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F17" s="30" t="s">
         <v>16</v>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="D18" s="30"/>
       <c r="E18" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F18" s="30" t="s">
         <v>13</v>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="D19" s="30"/>
       <c r="E19" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F19" s="30" t="s">
         <v>13</v>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="D20" s="30"/>
       <c r="E20" s="31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F20" s="30" t="s">
         <v>13</v>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="D21" s="30"/>
       <c r="E21" s="31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>13</v>
@@ -2076,7 +2076,7 @@
         <v>12</v>
       </c>
       <c r="J21" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K21" s="29">
         <v>1</v>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="D22" s="30"/>
       <c r="E22" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>13</v>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="D23" s="30"/>
       <c r="E23" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>13</v>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="D24" s="30"/>
       <c r="E24" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F24" s="30" t="s">
         <v>13</v>
@@ -2208,7 +2208,7 @@
       </c>
       <c r="D25" s="30"/>
       <c r="E25" s="31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F25" s="30" t="s">
         <v>13</v>
@@ -2245,7 +2245,7 @@
       </c>
       <c r="D26" s="30"/>
       <c r="E26" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F26" s="30" t="s">
         <v>13</v>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="D27" s="30"/>
       <c r="E27" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F27" s="30" t="s">
         <v>13</v>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="D28" s="35"/>
       <c r="E28" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F28" s="30"/>
       <c r="G28" s="29"/>
@@ -2348,7 +2348,7 @@
       </c>
       <c r="D29" s="34"/>
       <c r="E29" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F29" s="30"/>
       <c r="G29" s="29"/>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="D30" s="35"/>
       <c r="E30" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F30" s="30"/>
       <c r="G30" s="29"/>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="D31" s="35"/>
       <c r="E31" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F31" s="30"/>
       <c r="G31" s="29"/>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="D32" s="34"/>
       <c r="E32" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F32" s="30"/>
       <c r="G32" s="29"/>
@@ -2464,14 +2464,14 @@
       </c>
       <c r="D33" s="34"/>
       <c r="E33" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F33" s="30"/>
       <c r="G33" s="29"/>
       <c r="H33" s="29"/>
       <c r="I33" s="29"/>
       <c r="J33" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K33" s="29">
         <v>1</v>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="D34" s="34"/>
       <c r="E34" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F34" s="30"/>
       <c r="G34" s="29"/>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="D35" s="34"/>
       <c r="E35" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F35" s="30"/>
       <c r="G35" s="29"/>
@@ -2550,7 +2550,7 @@
       </c>
       <c r="D36" s="34"/>
       <c r="E36" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F36" s="30"/>
       <c r="G36" s="29"/>
@@ -2579,7 +2579,7 @@
       </c>
       <c r="D37" s="34"/>
       <c r="E37" s="31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F37" s="30"/>
       <c r="G37" s="29"/>
@@ -2608,7 +2608,7 @@
       </c>
       <c r="D38" s="34"/>
       <c r="E38" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F38" s="30"/>
       <c r="G38" s="29"/>
@@ -4769,7 +4769,7 @@
         <v>70</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -4782,7 +4782,7 @@
         <v>71</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -4795,7 +4795,7 @@
         <v>72</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -4808,7 +4808,7 @@
         <v>73</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>

--- a/data/100 Day Tracker Data.xlsx
+++ b/data/100 Day Tracker Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f6c5a3bf1cc44f38/Documents/GitHub/transition-agenda/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{DDCC89A2-715E-D94B-9C42-6A6B9CB22DF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CEADC786-E188-4044-9BD0-C933A8DE10DD}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{DDCC89A2-715E-D94B-9C42-6A6B9CB22DF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{81DD3598-23CF-4020-B225-FADB3D7EF8E4}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-285" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="144">
   <si>
     <t>Action #</t>
   </si>
@@ -526,6 +526,9 @@
 &lt;/ul&gt;
 &lt;p&gt;&lt;span style="font-size: 16px;"&gt;We have bold plans to reshape Baltimore&amp;rsquo;s government over the coming months. This work will involve unprecedented transparency, accountability, and urgency as we seek to build a Baltimore where every resident can thrive.&lt;/span&gt;&lt;/p&gt;
 &lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Not Yet Started</t>
   </si>
 </sst>
 </file>
@@ -1282,9 +1285,9 @@
   </sheetPr>
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1508,9 +1511,8 @@
       <c r="I6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="33" t="str">
-        <f>IFERROR(VLOOKUP(A6, 'Progress Updates'!A:C, 5, FALSE), "Not yet started")</f>
-        <v>Not yet started</v>
+      <c r="J6" s="33" t="s">
+        <v>143</v>
       </c>
       <c r="K6" s="29">
         <v>1</v>
@@ -1545,9 +1547,8 @@
       <c r="I7" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="33" t="str">
-        <f>IFERROR(VLOOKUP(A7, 'Progress Updates'!A:C, 5, FALSE), "Not yet started")</f>
-        <v>Not yet started</v>
+      <c r="J7" s="33" t="s">
+        <v>143</v>
       </c>
       <c r="K7" s="29">
         <v>1</v>
@@ -1654,9 +1655,8 @@
       <c r="I10" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="33" t="str">
-        <f>IFERROR(VLOOKUP(A10, 'Progress Updates'!A:C, 5, FALSE), "Not yet started")</f>
-        <v>Not yet started</v>
+      <c r="J10" s="33" t="s">
+        <v>143</v>
       </c>
       <c r="K10" s="29">
         <v>1</v>
@@ -1691,9 +1691,8 @@
       <c r="I11" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="33" t="str">
-        <f>IFERROR(VLOOKUP(A11, 'Progress Updates'!A:C, 5, FALSE), "Not yet started")</f>
-        <v>Not yet started</v>
+      <c r="J11" s="33" t="s">
+        <v>143</v>
       </c>
       <c r="K11" s="29">
         <v>1</v>
@@ -1728,9 +1727,8 @@
       <c r="I12" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="33" t="str">
-        <f>IFERROR(VLOOKUP(A12, 'Progress Updates'!A:C, 5, FALSE), "Not yet started")</f>
-        <v>Not yet started</v>
+      <c r="J12" s="33" t="s">
+        <v>143</v>
       </c>
       <c r="K12" s="29">
         <v>1</v>
@@ -1765,9 +1763,8 @@
       <c r="I13" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="33" t="str">
-        <f>IFERROR(VLOOKUP(A13, 'Progress Updates'!A:C, 5, FALSE), "Not yet started")</f>
-        <v>Not yet started</v>
+      <c r="J13" s="33" t="s">
+        <v>143</v>
       </c>
       <c r="K13" s="29">
         <v>1</v>
@@ -1802,9 +1799,8 @@
       <c r="I14" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="33" t="str">
-        <f>IFERROR(VLOOKUP(A14, 'Progress Updates'!A:C, 5, FALSE), "Not yet started")</f>
-        <v>Not yet started</v>
+      <c r="J14" s="33" t="s">
+        <v>143</v>
       </c>
       <c r="K14" s="29">
         <v>1</v>
@@ -1839,9 +1835,8 @@
       <c r="I15" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="33" t="str">
-        <f>IFERROR(VLOOKUP(A15, 'Progress Updates'!A:C, 5, FALSE), "Not yet started")</f>
-        <v>Not yet started</v>
+      <c r="J15" s="33" t="s">
+        <v>143</v>
       </c>
       <c r="K15" s="29">
         <v>1</v>
@@ -1876,9 +1871,8 @@
       <c r="I16" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="J16" s="33" t="str">
-        <f>IFERROR(VLOOKUP(A16, 'Progress Updates'!A:C, 5, FALSE), "Not yet started")</f>
-        <v>Not yet started</v>
+      <c r="J16" s="33" t="s">
+        <v>143</v>
       </c>
       <c r="K16" s="29">
         <v>1</v>
@@ -1913,9 +1907,8 @@
       <c r="I17" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="J17" s="33" t="str">
-        <f>IFERROR(VLOOKUP(A17, 'Progress Updates'!A:C, 5, FALSE), "Not yet started")</f>
-        <v>Not yet started</v>
+      <c r="J17" s="33" t="s">
+        <v>143</v>
       </c>
       <c r="K17" s="29">
         <v>1</v>
@@ -1950,9 +1943,8 @@
       <c r="I18" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="J18" s="33" t="str">
-        <f>IFERROR(VLOOKUP(A18, 'Progress Updates'!A:C, 5, FALSE), "Not yet started")</f>
-        <v>Not yet started</v>
+      <c r="J18" s="33" t="s">
+        <v>143</v>
       </c>
       <c r="K18" s="29">
         <v>1</v>
@@ -1987,9 +1979,8 @@
       <c r="I19" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="J19" s="33" t="str">
-        <f>IFERROR(VLOOKUP(A19, 'Progress Updates'!A:C, 5, FALSE), "Not yet started")</f>
-        <v>Not yet started</v>
+      <c r="J19" s="33" t="s">
+        <v>143</v>
       </c>
       <c r="K19" s="29">
         <v>1</v>
@@ -2096,9 +2087,8 @@
       <c r="I22" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="J22" s="33" t="str">
-        <f>IFERROR(VLOOKUP(A22, 'Progress Updates'!A:C, 5, FALSE), "Not yet started")</f>
-        <v>Not yet started</v>
+      <c r="J22" s="33" t="s">
+        <v>143</v>
       </c>
       <c r="K22" s="29">
         <v>1</v>
@@ -2133,9 +2123,8 @@
       <c r="I23" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="J23" s="33" t="str">
-        <f>IFERROR(VLOOKUP(A23, 'Progress Updates'!A:C, 5, FALSE), "Not yet started")</f>
-        <v>Not yet started</v>
+      <c r="J23" s="33" t="s">
+        <v>143</v>
       </c>
       <c r="K23" s="29">
         <v>1</v>
@@ -2170,9 +2159,8 @@
       <c r="I24" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="J24" s="33" t="str">
-        <f>IFERROR(VLOOKUP(A24, 'Progress Updates'!A:C, 5, FALSE), "Not yet started")</f>
-        <v>Not yet started</v>
+      <c r="J24" s="33" t="s">
+        <v>143</v>
       </c>
       <c r="K24" s="29">
         <v>1</v>
@@ -2207,9 +2195,8 @@
       <c r="I25" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="J25" s="33" t="str">
-        <f>IFERROR(VLOOKUP(A25, 'Progress Updates'!A:C, 5, FALSE), "Not yet started")</f>
-        <v>Not yet started</v>
+      <c r="J25" s="33" t="s">
+        <v>143</v>
       </c>
       <c r="K25" s="29">
         <v>1</v>
@@ -2244,9 +2231,8 @@
       <c r="I26" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="J26" s="33" t="str">
-        <f>IFERROR(VLOOKUP(A26, 'Progress Updates'!A:C, 5, FALSE), "Not yet started")</f>
-        <v>Not yet started</v>
+      <c r="J26" s="33" t="s">
+        <v>143</v>
       </c>
       <c r="K26" s="29">
         <v>1</v>
@@ -2281,9 +2267,8 @@
       <c r="I27" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="J27" s="33" t="str">
-        <f>IFERROR(VLOOKUP(A27, 'Progress Updates'!A:C, 5, FALSE), "Not yet started")</f>
-        <v>Not yet started</v>
+      <c r="J27" s="33" t="s">
+        <v>143</v>
       </c>
       <c r="K27" s="29">
         <v>1</v>
@@ -2310,9 +2295,8 @@
       <c r="G28" s="29"/>
       <c r="H28" s="29"/>
       <c r="I28" s="29"/>
-      <c r="J28" s="33" t="str">
-        <f>IFERROR(VLOOKUP(A28, 'Progress Updates'!A:C, 5, FALSE), "Not yet started")</f>
-        <v>Not yet started</v>
+      <c r="J28" s="33" t="s">
+        <v>143</v>
       </c>
       <c r="K28" s="29">
         <v>1</v>
@@ -2339,9 +2323,8 @@
       <c r="G29" s="29"/>
       <c r="H29" s="29"/>
       <c r="I29" s="29"/>
-      <c r="J29" s="33" t="str">
-        <f>IFERROR(VLOOKUP(A29, 'Progress Updates'!A:C, 5, FALSE), "Not yet started")</f>
-        <v>Not yet started</v>
+      <c r="J29" s="33" t="s">
+        <v>143</v>
       </c>
       <c r="K29" s="29">
         <v>1</v>
@@ -2368,9 +2351,8 @@
       <c r="G30" s="29"/>
       <c r="H30" s="29"/>
       <c r="I30" s="29"/>
-      <c r="J30" s="33" t="str">
-        <f>IFERROR(VLOOKUP(A30, 'Progress Updates'!A:C, 5, FALSE), "Not yet started")</f>
-        <v>Not yet started</v>
+      <c r="J30" s="33" t="s">
+        <v>143</v>
       </c>
       <c r="K30" s="29">
         <v>1</v>
@@ -2397,9 +2379,8 @@
       <c r="G31" s="29"/>
       <c r="H31" s="29"/>
       <c r="I31" s="29"/>
-      <c r="J31" s="33" t="str">
-        <f>IFERROR(VLOOKUP(A31, 'Progress Updates'!A:C, 5, FALSE), "Not yet started")</f>
-        <v>Not yet started</v>
+      <c r="J31" s="33" t="s">
+        <v>143</v>
       </c>
       <c r="K31" s="29">
         <v>1</v>
@@ -2426,9 +2407,8 @@
       <c r="G32" s="29"/>
       <c r="H32" s="29"/>
       <c r="I32" s="29"/>
-      <c r="J32" s="33" t="str">
-        <f>IFERROR(VLOOKUP(A32, 'Progress Updates'!A:C, 5, FALSE), "Not yet started")</f>
-        <v>Not yet started</v>
+      <c r="J32" s="33" t="s">
+        <v>143</v>
       </c>
       <c r="K32" s="29">
         <v>1</v>
@@ -2483,9 +2463,8 @@
       <c r="G34" s="29"/>
       <c r="H34" s="29"/>
       <c r="I34" s="29"/>
-      <c r="J34" s="33" t="str">
-        <f>IFERROR(VLOOKUP(A34, 'Progress Updates'!A:C, 5, FALSE), "Not yet started")</f>
-        <v>Not yet started</v>
+      <c r="J34" s="33" t="s">
+        <v>143</v>
       </c>
       <c r="K34" s="29">
         <v>1</v>
@@ -2512,9 +2491,8 @@
       <c r="G35" s="29"/>
       <c r="H35" s="29"/>
       <c r="I35" s="29"/>
-      <c r="J35" s="33" t="str">
-        <f>IFERROR(VLOOKUP(A35, 'Progress Updates'!A:C, 5, FALSE), "Not yet started")</f>
-        <v>Not yet started</v>
+      <c r="J35" s="33" t="s">
+        <v>143</v>
       </c>
       <c r="K35" s="29">
         <v>1</v>
@@ -2541,9 +2519,8 @@
       <c r="G36" s="29"/>
       <c r="H36" s="29"/>
       <c r="I36" s="29"/>
-      <c r="J36" s="33" t="str">
-        <f>IFERROR(VLOOKUP(A36, 'Progress Updates'!A:C, 5, FALSE), "Not yet started")</f>
-        <v>Not yet started</v>
+      <c r="J36" s="33" t="s">
+        <v>143</v>
       </c>
       <c r="K36" s="29">
         <v>1</v>
@@ -2570,9 +2547,8 @@
       <c r="G37" s="29"/>
       <c r="H37" s="29"/>
       <c r="I37" s="29"/>
-      <c r="J37" s="33" t="str">
-        <f>IFERROR(VLOOKUP(A37, 'Progress Updates'!A:C, 5, FALSE), "Not yet started")</f>
-        <v>Not yet started</v>
+      <c r="J37" s="33" t="s">
+        <v>143</v>
       </c>
       <c r="K37" s="29">
         <v>1</v>
@@ -2599,9 +2575,8 @@
       <c r="G38" s="29"/>
       <c r="H38" s="29"/>
       <c r="I38" s="29"/>
-      <c r="J38" s="33" t="str">
-        <f>IFERROR(VLOOKUP(A38, 'Progress Updates'!A:C, 5, FALSE), "Not yet started")</f>
-        <v>Not yet started</v>
+      <c r="J38" s="33" t="s">
+        <v>143</v>
       </c>
       <c r="K38" s="29">
         <v>1</v>
@@ -2611,7 +2586,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L38" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L38" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L38">
+      <sortCondition ref="A1:A38"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -4829,9 +4808,9 @@
   </sheetPr>
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>

--- a/data/100 Day Tracker Data.xlsx
+++ b/data/100 Day Tracker Data.xlsx
@@ -1626,8 +1626,8 @@
         <v>Oficina de Seguridad y Barrio de compromiso del Alcalde</v>
       </c>
       <c r="J5" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E5,""en"",""es"")"),"En progreso")</f>
-        <v>En progreso</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E5,""en"",""es"")"),"En curso")</f>
+        <v>En curso</v>
       </c>
       <c r="K5" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B5,""en"",""fr"")"),"Public Safety Building")</f>
@@ -1878,8 +1878,8 @@
         <v>Departamento de Policía de Baltimore, Oficina de Seguridad y Barrio de compromiso del Alcalde</v>
       </c>
       <c r="J8" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E8,""en"",""es"")"),"En progreso")</f>
-        <v>En progreso</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E8,""en"",""es"")"),"En curso")</f>
+        <v>En curso</v>
       </c>
       <c r="K8" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B8,""en"",""fr"")"),"Public Safety Building")</f>
@@ -3474,8 +3474,8 @@
         <v>Oficina del Alcalde, Asamblea General de Maryland</v>
       </c>
       <c r="J27" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E27,""en"",""es"")"),"En progreso")</f>
-        <v>En progreso</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E27,""en"",""es"")"),"En curso")</f>
+        <v>En curso</v>
       </c>
       <c r="K27" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B27,""en"",""fr"")"),"Prioriser Notre jeunesse")</f>
@@ -3558,8 +3558,8 @@
         <v>Oficina de Desarrollo de Empleo del Alcalde</v>
       </c>
       <c r="J28" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E28,""en"",""es"")"),"En progreso")</f>
-        <v>En progreso</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E28,""en"",""es"")"),"En curso")</f>
+        <v>En curso</v>
       </c>
       <c r="K28" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B28,""en"",""fr"")"),"Prioriser Notre jeunesse")</f>
@@ -3642,8 +3642,8 @@
         <v>Baltimore Departamento de Salud de la Ciudad, Oficina de Seguridad y Barrio de compromiso del Alcalde</v>
       </c>
       <c r="J29" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E29,""en"",""es"")"),"En progreso")</f>
-        <v>En progreso</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E29,""en"",""es"")"),"En curso")</f>
+        <v>En curso</v>
       </c>
       <c r="K29" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B29,""en"",""fr"")"),"Prioriser Notre jeunesse")</f>
@@ -3978,8 +3978,8 @@
         <v>Oficina de Evaluación de la Innovación y del Alcalde</v>
       </c>
       <c r="J33" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E33,""en"",""es"")"),"En progreso")</f>
-        <v>En progreso</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E33,""en"",""es"")"),"En curso")</f>
+        <v>En curso</v>
       </c>
       <c r="K33" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B33,""en"",""fr"")"),"Public Trust Building")</f>
@@ -4146,8 +4146,8 @@
         <v>Baltimore Departamento de Obras Públicas de la ciudad</v>
       </c>
       <c r="J35" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E35,""en"",""es"")"),"En progreso")</f>
-        <v>En progreso</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E35,""en"",""es"")"),"En curso")</f>
+        <v>En curso</v>
       </c>
       <c r="K35" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B35,""en"",""fr"")"),"Public Trust Building")</f>
@@ -4467,22 +4467,70 @@
         <v>30</v>
       </c>
       <c r="F39" s="3"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="6"/>
-      <c r="V39" s="6"/>
+      <c r="G39" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B39,""en"",""es"")"),"Fomento de la confianza pública")</f>
+        <v>Fomento de la confianza pública</v>
+      </c>
+      <c r="H39" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(C39,""en"",""es"")"),"Publicar un conjunto claro y conciso de procedimientos para solicitar y recibir propiedades de propiedad municipal para el desarrollo.")</f>
+        <v>Publicar un conjunto claro y conciso de procedimientos para solicitar y recibir propiedades de propiedad municipal para el desarrollo.</v>
+      </c>
+      <c r="I39" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(D39,""en"",""es"")"),"Baltimore Departamento de Vivienda y Desarrollo Comunitario de la Ciudad")</f>
+        <v>Baltimore Departamento de Vivienda y Desarrollo Comunitario de la Ciudad</v>
+      </c>
+      <c r="J39" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E39,""en"",""es"")"),"Todavía no empezado")</f>
+        <v>Todavía no empezado</v>
+      </c>
+      <c r="K39" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B39,""en"",""fr"")"),"Public Trust Building")</f>
+        <v>Public Trust Building</v>
+      </c>
+      <c r="L39" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C39,""en"",""fr"")"),"Publier un ensemble clair et concis des procédures pour demander et recevoir des propriétés appartenant à la ville pour le développement.")</f>
+        <v>Publier un ensemble clair et concis des procédures pour demander et recevoir des propriétés appartenant à la ville pour le développement.</v>
+      </c>
+      <c r="M39" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D39,""en"",""fr"")"),"Baltimore ministère du Logement et du développement communautaire")</f>
+        <v>Baltimore ministère du Logement et du développement communautaire</v>
+      </c>
+      <c r="N39" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($E39,""en"",""fr"")"),"Pas encore commencé")</f>
+        <v>Pas encore commencé</v>
+      </c>
+      <c r="O39" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B39,""en"",""ko"")"),"건물 대중의 신뢰")</f>
+        <v>건물 대중의 신뢰</v>
+      </c>
+      <c r="P39" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C39,""en"",""ko"")"),"신청 및 개발을위한 도시 소유의 등록 정보를 수신하기위한 절차를 명확하고 간결한 세트를 게시합니다.")</f>
+        <v>신청 및 개발을위한 도시 소유의 등록 정보를 수신하기위한 절차를 명확하고 간결한 세트를 게시합니다.</v>
+      </c>
+      <c r="Q39" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D39,""en"",""ko"")"),"주택 및 지역 사회 개발의 볼티모어시 교육청")</f>
+        <v>주택 및 지역 사회 개발의 볼티모어시 교육청</v>
+      </c>
+      <c r="R39" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($E39,""en"",""ko"")"),"아직 시작되지")</f>
+        <v>아직 시작되지</v>
+      </c>
+      <c r="S39" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B39,""en"",""zh"")"),"建立公众信任")</f>
+        <v>建立公众信任</v>
+      </c>
+      <c r="T39" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C39,""en"",""zh"")"),"发表一个清晰，简明的一套程序申请和发展受到市拥有的财产。")</f>
+        <v>发表一个清晰，简明的一套程序申请和发展受到市拥有的财产。</v>
+      </c>
+      <c r="U39" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D39,""en"",""zh"")"),"住房和社区发展的巴尔的摩市教育局")</f>
+        <v>住房和社区发展的巴尔的摩市教育局</v>
+      </c>
+      <c r="V39" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($E39,""en"",""zh"")"),"还没开始")</f>
+        <v>还没开始</v>
+      </c>
     </row>
     <row r="40" ht="31.5" customHeight="1">
       <c r="A40" s="3">
@@ -4501,22 +4549,70 @@
         <v>30</v>
       </c>
       <c r="F40" s="3"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="6"/>
+      <c r="G40" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B40,""en"",""es"")"),"Fomento de la confianza pública")</f>
+        <v>Fomento de la confianza pública</v>
+      </c>
+      <c r="H40" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(C40,""en"",""es"")"),"Hacer compromisos más fuertes para la limpieza de las copias de seguridad de aguas residuales.")</f>
+        <v>Hacer compromisos más fuertes para la limpieza de las copias de seguridad de aguas residuales.</v>
+      </c>
+      <c r="I40" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(D40,""en"",""es"")"),"Baltimore Departamento de Obras Públicas de la ciudad")</f>
+        <v>Baltimore Departamento de Obras Públicas de la ciudad</v>
+      </c>
+      <c r="J40" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E40,""en"",""es"")"),"Todavía no empezado")</f>
+        <v>Todavía no empezado</v>
+      </c>
+      <c r="K40" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B40,""en"",""fr"")"),"Public Trust Building")</f>
+        <v>Public Trust Building</v>
+      </c>
+      <c r="L40" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C40,""en"",""fr"")"),"Faire des engagements plus forts pour le nettoyage des refoulements d'égouts.")</f>
+        <v>Faire des engagements plus forts pour le nettoyage des refoulements d'égouts.</v>
+      </c>
+      <c r="M40" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D40,""en"",""fr"")"),"Baltimore ministère des Travaux publics Ville")</f>
+        <v>Baltimore ministère des Travaux publics Ville</v>
+      </c>
+      <c r="N40" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($E40,""en"",""fr"")"),"Pas encore commencé")</f>
+        <v>Pas encore commencé</v>
+      </c>
+      <c r="O40" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B40,""en"",""ko"")"),"건물 대중의 신뢰")</f>
+        <v>건물 대중의 신뢰</v>
+      </c>
+      <c r="P40" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C40,""en"",""ko"")"),"하수 백업을 청소에 강한 약속을합니다.")</f>
+        <v>하수 백업을 청소에 강한 약속을합니다.</v>
+      </c>
+      <c r="Q40" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D40,""en"",""ko"")"),"공공의 볼티모어시 교육청")</f>
+        <v>공공의 볼티모어시 교육청</v>
+      </c>
+      <c r="R40" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($E40,""en"",""ko"")"),"아직 시작되지")</f>
+        <v>아직 시작되지</v>
+      </c>
+      <c r="S40" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B40,""en"",""zh"")"),"建立公众信任")</f>
+        <v>建立公众信任</v>
+      </c>
+      <c r="T40" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C40,""en"",""zh"")"),"请对清理污水备份更坚定的承诺。")</f>
+        <v>请对清理污水备份更坚定的承诺。</v>
+      </c>
+      <c r="U40" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D40,""en"",""zh"")"),"公共工程的巴尔的摩市教育局")</f>
+        <v>公共工程的巴尔的摩市教育局</v>
+      </c>
+      <c r="V40" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($E40,""en"",""zh"")"),"还没开始")</f>
+        <v>还没开始</v>
+      </c>
     </row>
     <row r="41" ht="31.5" customHeight="1">
       <c r="A41" s="3">
@@ -4535,22 +4631,70 @@
         <v>25</v>
       </c>
       <c r="F41" s="3"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
-      <c r="U41" s="6"/>
-      <c r="V41" s="6"/>
+      <c r="G41" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B41,""en"",""es"")"),"COVID-19 Recuperación")</f>
+        <v>COVID-19 Recuperación</v>
+      </c>
+      <c r="H41" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(C41,""en"",""es"")"),"Desarrollar y comunicar una estrategia de vacunación priorización COVID-19.")</f>
+        <v>Desarrollar y comunicar una estrategia de vacunación priorización COVID-19.</v>
+      </c>
+      <c r="I41" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(D41,""en"",""es"")"),"Departamento de Salud de la Ciudad de Baltimore")</f>
+        <v>Departamento de Salud de la Ciudad de Baltimore</v>
+      </c>
+      <c r="J41" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E41,""en"",""es"")"),"Completar")</f>
+        <v>Completar</v>
+      </c>
+      <c r="K41" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B41,""en"",""fr"")"),"Covid-19 Récupération")</f>
+        <v>Covid-19 Récupération</v>
+      </c>
+      <c r="L41" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C41,""en"",""fr"")"),"Élaborer et communiquer une stratégie d'établissement des priorités de vaccination Covid-19.")</f>
+        <v>Élaborer et communiquer une stratégie d'établissement des priorités de vaccination Covid-19.</v>
+      </c>
+      <c r="M41" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D41,""en"",""fr"")"),"Baltimore Département de la santé")</f>
+        <v>Baltimore Département de la santé</v>
+      </c>
+      <c r="N41" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($E41,""en"",""fr"")"),"Achevée")</f>
+        <v>Achevée</v>
+      </c>
+      <c r="O41" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B41,""en"",""ko"")"),"COVID-19 복구")</f>
+        <v>COVID-19 복구</v>
+      </c>
+      <c r="P41" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C41,""en"",""ko"")"),"개발과 COVID-19 백신 접종 우선 순위 전략을 전달합니다.")</f>
+        <v>개발과 COVID-19 백신 접종 우선 순위 전략을 전달합니다.</v>
+      </c>
+      <c r="Q41" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D41,""en"",""ko"")"),"볼티모어시 보건국")</f>
+        <v>볼티모어시 보건국</v>
+      </c>
+      <c r="R41" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($E41,""en"",""ko"")"),"완전한")</f>
+        <v>완전한</v>
+      </c>
+      <c r="S41" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B41,""en"",""zh"")"),"COVID-19恢复")</f>
+        <v>COVID-19恢复</v>
+      </c>
+      <c r="T41" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C41,""en"",""zh"")"),"制定并传达COVID-19疫苗接种优先战略。")</f>
+        <v>制定并传达COVID-19疫苗接种优先战略。</v>
+      </c>
+      <c r="U41" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D41,""en"",""zh"")"),"巴尔的摩市卫生局")</f>
+        <v>巴尔的摩市卫生局</v>
+      </c>
+      <c r="V41" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($E41,""en"",""zh"")"),"完成")</f>
+        <v>完成</v>
+      </c>
     </row>
     <row r="42" ht="31.5" customHeight="1">
       <c r="A42" s="3">
@@ -4569,22 +4713,70 @@
         <v>30</v>
       </c>
       <c r="F42" s="3"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
-      <c r="U42" s="6"/>
-      <c r="V42" s="6"/>
+      <c r="G42" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B42,""en"",""es"")"),"COVID-19 Recuperación")</f>
+        <v>COVID-19 Recuperación</v>
+      </c>
+      <c r="H42" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(C42,""en"",""es"")"),"Crear un panel de control para realizar un seguimiento de CARES fondos de la Ley para garantizar una distribución equitativa.")</f>
+        <v>Crear un panel de control para realizar un seguimiento de CARES fondos de la Ley para garantizar una distribución equitativa.</v>
+      </c>
+      <c r="I42" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(D42,""en"",""es"")"),"Departamento de Finanzas de la Ciudad de Baltimore")</f>
+        <v>Departamento de Finanzas de la Ciudad de Baltimore</v>
+      </c>
+      <c r="J42" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E42,""en"",""es"")"),"Todavía no empezado")</f>
+        <v>Todavía no empezado</v>
+      </c>
+      <c r="K42" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B42,""en"",""fr"")"),"Covid-19 Récupération")</f>
+        <v>Covid-19 Récupération</v>
+      </c>
+      <c r="L42" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C42,""en"",""fr"")"),"Créer un tableau de bord pour suivre CARES Loi sur le financement pour assurer une répartition équitable.")</f>
+        <v>Créer un tableau de bord pour suivre CARES Loi sur le financement pour assurer une répartition équitable.</v>
+      </c>
+      <c r="M42" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D42,""en"",""fr"")"),"Baltimore ministère des Finances")</f>
+        <v>Baltimore ministère des Finances</v>
+      </c>
+      <c r="N42" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($E42,""en"",""fr"")"),"Pas encore commencé")</f>
+        <v>Pas encore commencé</v>
+      </c>
+      <c r="O42" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B42,""en"",""ko"")"),"COVID-19 복구")</f>
+        <v>COVID-19 복구</v>
+      </c>
+      <c r="P42" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C42,""en"",""ko"")"),"CARES는 공정한 분배를 보장하기 위해 자금 행동을 추적 할 수있는 대시 보드를 생성합니다.")</f>
+        <v>CARES는 공정한 분배를 보장하기 위해 자금 행동을 추적 할 수있는 대시 보드를 생성합니다.</v>
+      </c>
+      <c r="Q42" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D42,""en"",""ko"")"),"금융의 볼티모어시 교육청")</f>
+        <v>금융의 볼티모어시 교육청</v>
+      </c>
+      <c r="R42" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($E42,""en"",""ko"")"),"아직 시작되지")</f>
+        <v>아직 시작되지</v>
+      </c>
+      <c r="S42" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B42,""en"",""zh"")"),"COVID-19恢复")</f>
+        <v>COVID-19恢复</v>
+      </c>
+      <c r="T42" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C42,""en"",""zh"")"),"创建仪表板以跟踪CARES行动资金，以确保公平分配。")</f>
+        <v>创建仪表板以跟踪CARES行动资金，以确保公平分配。</v>
+      </c>
+      <c r="U42" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D42,""en"",""zh"")"),"财政巴尔的摩市教育局")</f>
+        <v>财政巴尔的摩市教育局</v>
+      </c>
+      <c r="V42" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($E42,""en"",""zh"")"),"还没开始")</f>
+        <v>还没开始</v>
+      </c>
     </row>
     <row r="43" ht="31.5" customHeight="1">
       <c r="A43" s="3">
@@ -4603,22 +4795,70 @@
         <v>32</v>
       </c>
       <c r="F43" s="3"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="6"/>
+      <c r="G43" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B43,""en"",""es"")"),"COVID-19 Recuperación")</f>
+        <v>COVID-19 Recuperación</v>
+      </c>
+      <c r="H43" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(C43,""en"",""es"")"),"Uso Relocalización Rápida CARES dinero de la Ley 500 para mover personas y familias a una vivienda más permanente.")</f>
+        <v>Uso Relocalización Rápida CARES dinero de la Ley 500 para mover personas y familias a una vivienda más permanente.</v>
+      </c>
+      <c r="I43" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(D43,""en"",""es"")"),"Oficina de Servicios para Desamparados del Alcalde")</f>
+        <v>Oficina de Servicios para Desamparados del Alcalde</v>
+      </c>
+      <c r="J43" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E43,""en"",""es"")"),"En curso")</f>
+        <v>En curso</v>
+      </c>
+      <c r="K43" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B43,""en"",""fr"")"),"Covid-19 Récupération")</f>
+        <v>Covid-19 Récupération</v>
+      </c>
+      <c r="L43" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C43,""en"",""fr"")"),"Utilisation rapide Relogement CARES dollars Loi pour déplacer 500 personnes et les familles à un logement permanent.")</f>
+        <v>Utilisation rapide Relogement CARES dollars Loi pour déplacer 500 personnes et les familles à un logement permanent.</v>
+      </c>
+      <c r="M43" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D43,""en"",""fr"")"),"Bureau des services sans-abri du maire")</f>
+        <v>Bureau des services sans-abri du maire</v>
+      </c>
+      <c r="N43" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($E43,""en"",""fr"")"),"En cours")</f>
+        <v>En cours</v>
+      </c>
+      <c r="O43" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B43,""en"",""ko"")"),"COVID-19 복구")</f>
+        <v>COVID-19 복구</v>
+      </c>
+      <c r="P43" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C43,""en"",""ko"")"),"사용 빠른 새 집을 마련하는 것 500 사람과 더 영구적 인 주택에 가족을 이동하는 법 달러를 신경 쓰지.")</f>
+        <v>사용 빠른 새 집을 마련하는 것 500 사람과 더 영구적 인 주택에 가족을 이동하는 법 달러를 신경 쓰지.</v>
+      </c>
+      <c r="Q43" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D43,""en"",""ko"")"),"노숙자 서비스의 시장실")</f>
+        <v>노숙자 서비스의 시장실</v>
+      </c>
+      <c r="R43" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($E43,""en"",""ko"")"),"진행 중")</f>
+        <v>진행 중</v>
+      </c>
+      <c r="S43" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B43,""en"",""zh"")"),"COVID-19恢复")</f>
+        <v>COVID-19恢复</v>
+      </c>
+      <c r="T43" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C43,""en"",""zh"")"),"使用快速安置在乎法案元移动500人及家庭较长期的住房。")</f>
+        <v>使用快速安置在乎法案元移动500人及家庭较长期的住房。</v>
+      </c>
+      <c r="U43" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D43,""en"",""zh"")"),"无家可归者服务的市长办公室")</f>
+        <v>无家可归者服务的市长办公室</v>
+      </c>
+      <c r="V43" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($E43,""en"",""zh"")"),"进行中")</f>
+        <v>进行中</v>
+      </c>
     </row>
     <row r="44" ht="31.5" customHeight="1">
       <c r="A44" s="3">
@@ -4637,22 +4877,70 @@
         <v>25</v>
       </c>
       <c r="F44" s="3"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
-      <c r="U44" s="6"/>
-      <c r="V44" s="6"/>
+      <c r="G44" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B44,""en"",""es"")"),"COVID-19 Recuperación")</f>
+        <v>COVID-19 Recuperación</v>
+      </c>
+      <c r="H44" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(C44,""en"",""es"")"),"Extender refugio de emergencia en hoteles locales cuando expira CARES financiación de la Ley.")</f>
+        <v>Extender refugio de emergencia en hoteles locales cuando expira CARES financiación de la Ley.</v>
+      </c>
+      <c r="I44" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(D44,""en"",""es"")"),"Oficina de Servicios para Desamparados del Alcalde")</f>
+        <v>Oficina de Servicios para Desamparados del Alcalde</v>
+      </c>
+      <c r="J44" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E44,""en"",""es"")"),"Completar")</f>
+        <v>Completar</v>
+      </c>
+      <c r="K44" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B44,""en"",""fr"")"),"Covid-19 Récupération")</f>
+        <v>Covid-19 Récupération</v>
+      </c>
+      <c r="L44" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C44,""en"",""fr"")"),"Étendre des abris d'urgence dans des hôtels locaux lorsque CARES Loi sur le financement prend fin.")</f>
+        <v>Étendre des abris d'urgence dans des hôtels locaux lorsque CARES Loi sur le financement prend fin.</v>
+      </c>
+      <c r="M44" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D44,""en"",""fr"")"),"Bureau des services sans-abri du maire")</f>
+        <v>Bureau des services sans-abri du maire</v>
+      </c>
+      <c r="N44" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($E44,""en"",""fr"")"),"Achevée")</f>
+        <v>Achevée</v>
+      </c>
+      <c r="O44" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B44,""en"",""ko"")"),"COVID-19 복구")</f>
+        <v>COVID-19 복구</v>
+      </c>
+      <c r="P44" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C44,""en"",""ko"")"),"CARES 법의 자금이 만료 될 때 지역의 호텔에서 긴급 피난처를 확장합니다.")</f>
+        <v>CARES 법의 자금이 만료 될 때 지역의 호텔에서 긴급 피난처를 확장합니다.</v>
+      </c>
+      <c r="Q44" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D44,""en"",""ko"")"),"노숙자 서비스의 시장실")</f>
+        <v>노숙자 서비스의 시장실</v>
+      </c>
+      <c r="R44" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($E44,""en"",""ko"")"),"완전한")</f>
+        <v>완전한</v>
+      </c>
+      <c r="S44" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B44,""en"",""zh"")"),"COVID-19恢复")</f>
+        <v>COVID-19恢复</v>
+      </c>
+      <c r="T44" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C44,""en"",""zh"")"),"延长紧急避难所在当地酒店时CARES法案资金到期。")</f>
+        <v>延长紧急避难所在当地酒店时CARES法案资金到期。</v>
+      </c>
+      <c r="U44" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D44,""en"",""zh"")"),"无家可归者服务的市长办公室")</f>
+        <v>无家可归者服务的市长办公室</v>
+      </c>
+      <c r="V44" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($E44,""en"",""zh"")"),"完成")</f>
+        <v>完成</v>
+      </c>
     </row>
     <row r="45" ht="31.5" customHeight="1">
       <c r="A45" s="3">
@@ -4671,22 +4959,70 @@
         <v>25</v>
       </c>
       <c r="F45" s="3"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
-      <c r="U45" s="6"/>
-      <c r="V45" s="6"/>
+      <c r="G45" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B45,""en"",""es"")"),"COVID-19 Recuperación")</f>
+        <v>COVID-19 Recuperación</v>
+      </c>
+      <c r="H45" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(C45,""en"",""es"")"),"Cap restaurante gastos de envío en los servicios de aplicaciones de terceros.")</f>
+        <v>Cap restaurante gastos de envío en los servicios de aplicaciones de terceros.</v>
+      </c>
+      <c r="I45" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(D45,""en"",""es"")"),"Departamento de Finanzas de la Ciudad de Baltimore")</f>
+        <v>Departamento de Finanzas de la Ciudad de Baltimore</v>
+      </c>
+      <c r="J45" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E45,""en"",""es"")"),"Completar")</f>
+        <v>Completar</v>
+      </c>
+      <c r="K45" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B45,""en"",""fr"")"),"Covid-19 Récupération")</f>
+        <v>Covid-19 Récupération</v>
+      </c>
+      <c r="L45" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C45,""en"",""fr"")"),"frais de livraison Cap restaurant sur les services d'applications tiers.")</f>
+        <v>frais de livraison Cap restaurant sur les services d'applications tiers.</v>
+      </c>
+      <c r="M45" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D45,""en"",""fr"")"),"Baltimore ministère des Finances")</f>
+        <v>Baltimore ministère des Finances</v>
+      </c>
+      <c r="N45" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($E45,""en"",""fr"")"),"Achevée")</f>
+        <v>Achevée</v>
+      </c>
+      <c r="O45" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B45,""en"",""ko"")"),"COVID-19 복구")</f>
+        <v>COVID-19 복구</v>
+      </c>
+      <c r="P45" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C45,""en"",""ko"")"),"타사 응용 프로그램 서비스에 캡 레스토랑 배달 수수료.")</f>
+        <v>타사 응용 프로그램 서비스에 캡 레스토랑 배달 수수료.</v>
+      </c>
+      <c r="Q45" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D45,""en"",""ko"")"),"금융의 볼티모어시 교육청")</f>
+        <v>금융의 볼티모어시 교육청</v>
+      </c>
+      <c r="R45" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($E45,""en"",""ko"")"),"완전한")</f>
+        <v>완전한</v>
+      </c>
+      <c r="S45" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B45,""en"",""zh"")"),"COVID-19恢复")</f>
+        <v>COVID-19恢复</v>
+      </c>
+      <c r="T45" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C45,""en"",""zh"")"),"在第三方应用服务帽餐厅送货费。")</f>
+        <v>在第三方应用服务帽餐厅送货费。</v>
+      </c>
+      <c r="U45" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D45,""en"",""zh"")"),"财政巴尔的摩市教育局")</f>
+        <v>财政巴尔的摩市教育局</v>
+      </c>
+      <c r="V45" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($E45,""en"",""zh"")"),"完成")</f>
+        <v>完成</v>
+      </c>
     </row>
     <row r="46" ht="31.5" customHeight="1">
       <c r="A46" s="3">
@@ -4705,22 +5041,70 @@
         <v>30</v>
       </c>
       <c r="F46" s="3"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6"/>
-      <c r="S46" s="6"/>
-      <c r="T46" s="6"/>
-      <c r="U46" s="6"/>
-      <c r="V46" s="6"/>
+      <c r="G46" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B46,""en"",""es"")"),"COVID-19 Recuperación")</f>
+        <v>COVID-19 Recuperación</v>
+      </c>
+      <c r="H46" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(C46,""en"",""es"")"),"Identificar claro punto de contacto para las empresas locales de gobierno de la ciudad más efectiva navegar.")</f>
+        <v>Identificar claro punto de contacto para las empresas locales de gobierno de la ciudad más efectiva navegar.</v>
+      </c>
+      <c r="I46" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(D46,""en"",""es"")"),"Oficina del Alcalde, Baltimore Development Corporation")</f>
+        <v>Oficina del Alcalde, Baltimore Development Corporation</v>
+      </c>
+      <c r="J46" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E46,""en"",""es"")"),"Todavía no empezado")</f>
+        <v>Todavía no empezado</v>
+      </c>
+      <c r="K46" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B46,""en"",""fr"")"),"Covid-19 Récupération")</f>
+        <v>Covid-19 Récupération</v>
+      </c>
+      <c r="L46" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C46,""en"",""fr"")"),"Identifier clairement des contacts points pour les entreprises locales au gouvernement de la ville plus naviguer efficacement.")</f>
+        <v>Identifier clairement des contacts points pour les entreprises locales au gouvernement de la ville plus naviguer efficacement.</v>
+      </c>
+      <c r="M46" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D46,""en"",""fr"")"),"Bureau du maire, Baltimore Development Corporation")</f>
+        <v>Bureau du maire, Baltimore Development Corporation</v>
+      </c>
+      <c r="N46" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($E46,""en"",""fr"")"),"Pas encore commencé")</f>
+        <v>Pas encore commencé</v>
+      </c>
+      <c r="O46" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B46,""en"",""ko"")"),"COVID-19 복구")</f>
+        <v>COVID-19 복구</v>
+      </c>
+      <c r="P46" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C46,""en"",""ko"")"),"보다 효과적으로 탐색시 정부에 지역 기업을위한 접촉의 명확한 지점을 확인합니다.")</f>
+        <v>보다 효과적으로 탐색시 정부에 지역 기업을위한 접촉의 명확한 지점을 확인합니다.</v>
+      </c>
+      <c r="Q46" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D46,""en"",""ko"")"),"시장의 사무실, 볼티모어 개발 공사")</f>
+        <v>시장의 사무실, 볼티모어 개발 공사</v>
+      </c>
+      <c r="R46" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($E46,""en"",""ko"")"),"아직 시작되지")</f>
+        <v>아직 시작되지</v>
+      </c>
+      <c r="S46" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B46,""en"",""zh"")"),"COVID-19恢复")</f>
+        <v>COVID-19恢复</v>
+      </c>
+      <c r="T46" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C46,""en"",""zh"")"),"确定为当地企业接触的明确的指向，更有效导航市政府。")</f>
+        <v>确定为当地企业接触的明确的指向，更有效导航市政府。</v>
+      </c>
+      <c r="U46" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D46,""en"",""zh"")"),"市长办公室，巴尔的摩开发公司")</f>
+        <v>市长办公室，巴尔的摩开发公司</v>
+      </c>
+      <c r="V46" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($E46,""en"",""zh"")"),"还没开始")</f>
+        <v>还没开始</v>
+      </c>
     </row>
     <row r="47" ht="31.5" customHeight="1">
       <c r="A47" s="3">
@@ -4739,22 +5123,70 @@
         <v>30</v>
       </c>
       <c r="F47" s="3"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="6"/>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
-      <c r="U47" s="6"/>
-      <c r="V47" s="6"/>
+      <c r="G47" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B47,""en"",""es"")"),"Administración responsable de los recursos de la ciudad")</f>
+        <v>Administración responsable de los recursos de la ciudad</v>
+      </c>
+      <c r="H47" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(C47,""en"",""es"")"),"Begin, evaluación holística de arriba a abajo de agencias de la ciudad y al proceso de propiedad de la ciudad de inventario.")</f>
+        <v>Begin, evaluación holística de arriba a abajo de agencias de la ciudad y al proceso de propiedad de la ciudad de inventario.</v>
+      </c>
+      <c r="I47" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(D47,""en"",""es"")"),"Baltimore Departamento de Servicios Generales City")</f>
+        <v>Baltimore Departamento de Servicios Generales City</v>
+      </c>
+      <c r="J47" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E47,""en"",""es"")"),"Todavía no empezado")</f>
+        <v>Todavía no empezado</v>
+      </c>
+      <c r="K47" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B47,""en"",""fr"")"),"Une gestion responsable des ressources sur la ville")</f>
+        <v>Une gestion responsable des ressources sur la ville</v>
+      </c>
+      <c r="L47" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C47,""en"",""fr"")"),"Commencez l'évaluation globale, de haut en bas des agences de la ville et le processus de propriété de la ville d'inventaire.")</f>
+        <v>Commencez l'évaluation globale, de haut en bas des agences de la ville et le processus de propriété de la ville d'inventaire.</v>
+      </c>
+      <c r="M47" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D47,""en"",""fr"")"),"Baltimore Département des services généraux")</f>
+        <v>Baltimore Département des services généraux</v>
+      </c>
+      <c r="N47" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($E47,""en"",""fr"")"),"Pas encore commencé")</f>
+        <v>Pas encore commencé</v>
+      </c>
+      <c r="O47" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B47,""en"",""ko"")"),"도시 자원의 책임있는 청지기")</f>
+        <v>도시 자원의 책임있는 청지기</v>
+      </c>
+      <c r="P47" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C47,""en"",""ko"")"),"재고 도시의 속성에 도시 기관 및 과정의 전체적인, 위에서 아래로 평가를 시작합니다.")</f>
+        <v>재고 도시의 속성에 도시 기관 및 과정의 전체적인, 위에서 아래로 평가를 시작합니다.</v>
+      </c>
+      <c r="Q47" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D47,""en"",""ko"")"),"일반 서비스의 볼티모어시 교육청")</f>
+        <v>일반 서비스의 볼티모어시 교육청</v>
+      </c>
+      <c r="R47" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($E47,""en"",""ko"")"),"아직 시작되지")</f>
+        <v>아직 시작되지</v>
+      </c>
+      <c r="S47" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B47,""en"",""zh"")"),"城市资源的负责任的管理")</f>
+        <v>城市资源的负责任的管理</v>
+      </c>
+      <c r="T47" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C47,""en"",""zh"")"),"开始全面的，从高端到低端的城市机构和过程的评估，盘点城市属性。")</f>
+        <v>开始全面的，从高端到低端的城市机构和过程的评估，盘点城市属性。</v>
+      </c>
+      <c r="U47" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D47,""en"",""zh"")"),"总务处的巴尔的摩市教育局")</f>
+        <v>总务处的巴尔的摩市教育局</v>
+      </c>
+      <c r="V47" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($E47,""en"",""zh"")"),"还没开始")</f>
+        <v>还没开始</v>
+      </c>
     </row>
     <row r="48" ht="31.5" customHeight="1">
       <c r="A48" s="3">
@@ -4773,22 +5205,70 @@
         <v>30</v>
       </c>
       <c r="F48" s="3"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6"/>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
-      <c r="U48" s="6"/>
-      <c r="V48" s="6"/>
+      <c r="G48" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B48,""en"",""es"")"),"Administración responsable de los recursos de la ciudad")</f>
+        <v>Administración responsable de los recursos de la ciudad</v>
+      </c>
+      <c r="H48" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(C48,""en"",""es"")"),"Comenzar una revisión integral de los créditos fiscales a las ineficiencias de dirección, redundancias, o nuevos créditos que construir una ciudad más equitativa.")</f>
+        <v>Comenzar una revisión integral de los créditos fiscales a las ineficiencias de dirección, redundancias, o nuevos créditos que construir una ciudad más equitativa.</v>
+      </c>
+      <c r="I48" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(D48,""en"",""es"")"),"Departamento de Finanzas de la Ciudad de Baltimore")</f>
+        <v>Departamento de Finanzas de la Ciudad de Baltimore</v>
+      </c>
+      <c r="J48" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E48,""en"",""es"")"),"Todavía no empezado")</f>
+        <v>Todavía no empezado</v>
+      </c>
+      <c r="K48" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B48,""en"",""fr"")"),"Une gestion responsable des ressources sur la ville")</f>
+        <v>Une gestion responsable des ressources sur la ville</v>
+      </c>
+      <c r="L48" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C48,""en"",""fr"")"),"Commencez un examen global des crédits d'impôt à l'inefficacité de l'adresse, les licenciements, ou de nouveaux crédits qui construire une ville plus équitable.")</f>
+        <v>Commencez un examen global des crédits d'impôt à l'inefficacité de l'adresse, les licenciements, ou de nouveaux crédits qui construire une ville plus équitable.</v>
+      </c>
+      <c r="M48" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D48,""en"",""fr"")"),"Baltimore ministère des Finances")</f>
+        <v>Baltimore ministère des Finances</v>
+      </c>
+      <c r="N48" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($E48,""en"",""fr"")"),"Pas encore commencé")</f>
+        <v>Pas encore commencé</v>
+      </c>
+      <c r="O48" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B48,""en"",""ko"")"),"도시 자원의 책임있는 청지기")</f>
+        <v>도시 자원의 책임있는 청지기</v>
+      </c>
+      <c r="P48" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C48,""en"",""ko"")"),"좀 더 평등 한 도시를 건설 할 주소 비효율, 중복, 또는 새로운 크레딧에 대한 세액 공제에 대한 전체적인 검토를 시작합니다.")</f>
+        <v>좀 더 평등 한 도시를 건설 할 주소 비효율, 중복, 또는 새로운 크레딧에 대한 세액 공제에 대한 전체적인 검토를 시작합니다.</v>
+      </c>
+      <c r="Q48" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D48,""en"",""ko"")"),"금융의 볼티모어시 교육청")</f>
+        <v>금융의 볼티모어시 교육청</v>
+      </c>
+      <c r="R48" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($E48,""en"",""ko"")"),"아직 시작되지")</f>
+        <v>아직 시작되지</v>
+      </c>
+      <c r="S48" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B48,""en"",""zh"")"),"城市资源的负责任的管理")</f>
+        <v>城市资源的负责任的管理</v>
+      </c>
+      <c r="T48" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C48,""en"",""zh"")"),"开始的税收抵免，以解决低效率，冗余，或者新的学分，将建立一个更公平的城市全面检讨。")</f>
+        <v>开始的税收抵免，以解决低效率，冗余，或者新的学分，将建立一个更公平的城市全面检讨。</v>
+      </c>
+      <c r="U48" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D48,""en"",""zh"")"),"财政巴尔的摩市教育局")</f>
+        <v>财政巴尔的摩市教育局</v>
+      </c>
+      <c r="V48" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($E48,""en"",""zh"")"),"还没开始")</f>
+        <v>还没开始</v>
+      </c>
     </row>
     <row r="49" ht="31.5" customHeight="1">
       <c r="A49" s="3">
@@ -4807,22 +5287,70 @@
         <v>30</v>
       </c>
       <c r="F49" s="3"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
-      <c r="R49" s="6"/>
-      <c r="S49" s="6"/>
-      <c r="T49" s="6"/>
-      <c r="U49" s="6"/>
-      <c r="V49" s="6"/>
+      <c r="G49" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B49,""en"",""es"")"),"Administración responsable de los recursos de la ciudad")</f>
+        <v>Administración responsable de los recursos de la ciudad</v>
+      </c>
+      <c r="H49" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(C49,""en"",""es"")"),"Anunciar nuevos criterios para la evaluación de las solicitudes de presupuesto de capital.")</f>
+        <v>Anunciar nuevos criterios para la evaluación de las solicitudes de presupuesto de capital.</v>
+      </c>
+      <c r="I49" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(D49,""en"",""es"")"),"Oficina del Alcalde, Departamento de Finanzas de Baltimore")</f>
+        <v>Oficina del Alcalde, Departamento de Finanzas de Baltimore</v>
+      </c>
+      <c r="J49" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E49,""en"",""es"")"),"Todavía no empezado")</f>
+        <v>Todavía no empezado</v>
+      </c>
+      <c r="K49" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B49,""en"",""fr"")"),"Une gestion responsable des ressources sur la ville")</f>
+        <v>Une gestion responsable des ressources sur la ville</v>
+      </c>
+      <c r="L49" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C49,""en"",""fr"")"),"Annoncer de nouveaux critères d'évaluation des demandes de budget d'immobilisations.")</f>
+        <v>Annoncer de nouveaux critères d'évaluation des demandes de budget d'immobilisations.</v>
+      </c>
+      <c r="M49" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D49,""en"",""fr"")"),"Bureau du maire, ministère des Finances Baltimore")</f>
+        <v>Bureau du maire, ministère des Finances Baltimore</v>
+      </c>
+      <c r="N49" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($E49,""en"",""fr"")"),"Pas encore commencé")</f>
+        <v>Pas encore commencé</v>
+      </c>
+      <c r="O49" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B49,""en"",""ko"")"),"도시 자원의 책임있는 청지기")</f>
+        <v>도시 자원의 책임있는 청지기</v>
+      </c>
+      <c r="P49" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C49,""en"",""ko"")"),"자본 예산 요청의 평가를위한 새로운 기준을 발표.")</f>
+        <v>자본 예산 요청의 평가를위한 새로운 기준을 발표.</v>
+      </c>
+      <c r="Q49" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D49,""en"",""ko"")"),"시장의 사무실, 금융의 볼티모어시 교육청")</f>
+        <v>시장의 사무실, 금융의 볼티모어시 교육청</v>
+      </c>
+      <c r="R49" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($E49,""en"",""ko"")"),"아직 시작되지")</f>
+        <v>아직 시작되지</v>
+      </c>
+      <c r="S49" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B49,""en"",""zh"")"),"城市资源的负责任的管理")</f>
+        <v>城市资源的负责任的管理</v>
+      </c>
+      <c r="T49" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C49,""en"",""zh"")"),"宣布资金预算请求评估的新标准。")</f>
+        <v>宣布资金预算请求评估的新标准。</v>
+      </c>
+      <c r="U49" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D49,""en"",""zh"")"),"市长办公室，财务巴尔的摩市教育局")</f>
+        <v>市长办公室，财务巴尔的摩市教育局</v>
+      </c>
+      <c r="V49" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($E49,""en"",""zh"")"),"还没开始")</f>
+        <v>还没开始</v>
+      </c>
     </row>
     <row r="50" ht="31.5" customHeight="1">
       <c r="A50" s="3">
@@ -4841,22 +5369,70 @@
         <v>30</v>
       </c>
       <c r="F50" s="3"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="6"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="6"/>
-      <c r="R50" s="6"/>
-      <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
-      <c r="U50" s="6"/>
-      <c r="V50" s="6"/>
+      <c r="G50" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B50,""en"",""es"")"),"Administración responsable de los recursos de la ciudad")</f>
+        <v>Administración responsable de los recursos de la ciudad</v>
+      </c>
+      <c r="H50" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(C50,""en"",""es"")"),"Ampliar la participación comunitaria en el proceso presupuestario.")</f>
+        <v>Ampliar la participación comunitaria en el proceso presupuestario.</v>
+      </c>
+      <c r="I50" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(D50,""en"",""es"")"),"Departamento de Finanzas de la Ciudad de Baltimore")</f>
+        <v>Departamento de Finanzas de la Ciudad de Baltimore</v>
+      </c>
+      <c r="J50" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E50,""en"",""es"")"),"Todavía no empezado")</f>
+        <v>Todavía no empezado</v>
+      </c>
+      <c r="K50" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B50,""en"",""fr"")"),"Une gestion responsable des ressources sur la ville")</f>
+        <v>Une gestion responsable des ressources sur la ville</v>
+      </c>
+      <c r="L50" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C50,""en"",""fr"")"),"Développer l'engagement communautaire dans le processus budgétaire.")</f>
+        <v>Développer l'engagement communautaire dans le processus budgétaire.</v>
+      </c>
+      <c r="M50" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D50,""en"",""fr"")"),"Baltimore ministère des Finances")</f>
+        <v>Baltimore ministère des Finances</v>
+      </c>
+      <c r="N50" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($E50,""en"",""fr"")"),"Pas encore commencé")</f>
+        <v>Pas encore commencé</v>
+      </c>
+      <c r="O50" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B50,""en"",""ko"")"),"도시 자원의 책임있는 청지기")</f>
+        <v>도시 자원의 책임있는 청지기</v>
+      </c>
+      <c r="P50" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C50,""en"",""ko"")"),"예산 과정에서 사회 참여를 확장합니다.")</f>
+        <v>예산 과정에서 사회 참여를 확장합니다.</v>
+      </c>
+      <c r="Q50" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D50,""en"",""ko"")"),"금융의 볼티모어시 교육청")</f>
+        <v>금융의 볼티모어시 교육청</v>
+      </c>
+      <c r="R50" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($E50,""en"",""ko"")"),"아직 시작되지")</f>
+        <v>아직 시작되지</v>
+      </c>
+      <c r="S50" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B50,""en"",""zh"")"),"城市资源的负责任的管理")</f>
+        <v>城市资源的负责任的管理</v>
+      </c>
+      <c r="T50" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C50,""en"",""zh"")"),"展开在预算过程中的社区参与。")</f>
+        <v>展开在预算过程中的社区参与。</v>
+      </c>
+      <c r="U50" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D50,""en"",""zh"")"),"财政巴尔的摩市教育局")</f>
+        <v>财政巴尔的摩市教育局</v>
+      </c>
+      <c r="V50" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($E50,""en"",""zh"")"),"还没开始")</f>
+        <v>还没开始</v>
+      </c>
     </row>
     <row r="51" ht="31.5" customHeight="1">
       <c r="A51" s="3">
@@ -4875,22 +5451,70 @@
         <v>30</v>
       </c>
       <c r="F51" s="3"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="6"/>
-      <c r="V51" s="6"/>
+      <c r="G51" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B51,""en"",""es"")"),"Administración responsable de los recursos de la ciudad")</f>
+        <v>Administración responsable de los recursos de la ciudad</v>
+      </c>
+      <c r="H51" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(C51,""en"",""es"")"),"Comprometerse a actualizar el plan financiero de 10 años de la Ciudad.")</f>
+        <v>Comprometerse a actualizar el plan financiero de 10 años de la Ciudad.</v>
+      </c>
+      <c r="I51" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(D51,""en"",""es"")"),"Departamento de Finanzas de la Ciudad de Baltimore")</f>
+        <v>Departamento de Finanzas de la Ciudad de Baltimore</v>
+      </c>
+      <c r="J51" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E51,""en"",""es"")"),"Todavía no empezado")</f>
+        <v>Todavía no empezado</v>
+      </c>
+      <c r="K51" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B51,""en"",""fr"")"),"Une gestion responsable des ressources sur la ville")</f>
+        <v>Une gestion responsable des ressources sur la ville</v>
+      </c>
+      <c r="L51" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C51,""en"",""fr"")"),"Engagez-vous à la mise à jour plan financier à 10 ans de la ville.")</f>
+        <v>Engagez-vous à la mise à jour plan financier à 10 ans de la ville.</v>
+      </c>
+      <c r="M51" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D51,""en"",""fr"")"),"Baltimore ministère des Finances")</f>
+        <v>Baltimore ministère des Finances</v>
+      </c>
+      <c r="N51" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($E51,""en"",""fr"")"),"Pas encore commencé")</f>
+        <v>Pas encore commencé</v>
+      </c>
+      <c r="O51" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B51,""en"",""ko"")"),"도시 자원의 책임있는 청지기")</f>
+        <v>도시 자원의 책임있는 청지기</v>
+      </c>
+      <c r="P51" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C51,""en"",""ko"")"),"도시의 10 년 재정 계획을 업데이트하기 커밋.")</f>
+        <v>도시의 10 년 재정 계획을 업데이트하기 커밋.</v>
+      </c>
+      <c r="Q51" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D51,""en"",""ko"")"),"금융의 볼티모어시 교육청")</f>
+        <v>금융의 볼티모어시 교육청</v>
+      </c>
+      <c r="R51" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($E51,""en"",""ko"")"),"아직 시작되지")</f>
+        <v>아직 시작되지</v>
+      </c>
+      <c r="S51" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B51,""en"",""zh"")"),"城市资源的负责任的管理")</f>
+        <v>城市资源的负责任的管理</v>
+      </c>
+      <c r="T51" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C51,""en"",""zh"")"),"承诺更新城市的10年财政计划。")</f>
+        <v>承诺更新城市的10年财政计划。</v>
+      </c>
+      <c r="U51" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D51,""en"",""zh"")"),"财政巴尔的摩市教育局")</f>
+        <v>财政巴尔的摩市教育局</v>
+      </c>
+      <c r="V51" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($E51,""en"",""zh"")"),"还没开始")</f>
+        <v>还没开始</v>
+      </c>
     </row>
     <row r="52" ht="31.5" customHeight="1">
       <c r="A52" s="3">
@@ -4909,22 +5533,70 @@
         <v>30</v>
       </c>
       <c r="F52" s="3"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="6"/>
-      <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
-      <c r="U52" s="6"/>
-      <c r="V52" s="6"/>
+      <c r="G52" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B52,""en"",""es"")"),"Administración responsable de los recursos de la ciudad")</f>
+        <v>Administración responsable de los recursos de la ciudad</v>
+      </c>
+      <c r="H52" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(C52,""en"",""es"")"),"Diseñar y liberar abierta del talonario de cheques para Baltimore para aumentar la transparencia y la rendición de cuentas.")</f>
+        <v>Diseñar y liberar abierta del talonario de cheques para Baltimore para aumentar la transparencia y la rendición de cuentas.</v>
+      </c>
+      <c r="I52" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(D52,""en"",""es"")"),"Información y tecnología de Baltimore City, Departamento de Finanzas de Baltimore")</f>
+        <v>Información y tecnología de Baltimore City, Departamento de Finanzas de Baltimore</v>
+      </c>
+      <c r="J52" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E52,""en"",""es"")"),"Todavía no empezado")</f>
+        <v>Todavía no empezado</v>
+      </c>
+      <c r="K52" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B52,""en"",""fr"")"),"Une gestion responsable des ressources sur la ville")</f>
+        <v>Une gestion responsable des ressources sur la ville</v>
+      </c>
+      <c r="L52" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C52,""en"",""fr"")"),"Concevoir et libérer Ouvrir Chéquier pour Baltimore pour accroître la transparence et la responsabilité.")</f>
+        <v>Concevoir et libérer Ouvrir Chéquier pour Baltimore pour accroître la transparence et la responsabilité.</v>
+      </c>
+      <c r="M52" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D52,""en"",""fr"")"),"Baltimore information et technologie, ministère des Finances Baltimore")</f>
+        <v>Baltimore information et technologie, ministère des Finances Baltimore</v>
+      </c>
+      <c r="N52" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($E52,""en"",""fr"")"),"Pas encore commencé")</f>
+        <v>Pas encore commencé</v>
+      </c>
+      <c r="O52" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B52,""en"",""ko"")"),"도시 자원의 책임있는 청지기")</f>
+        <v>도시 자원의 책임있는 청지기</v>
+      </c>
+      <c r="P52" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C52,""en"",""ko"")"),"디자인과 볼티모어는 투명성과 책임 성을 높이기 위해 오픈 수표를 놓습니다.")</f>
+        <v>디자인과 볼티모어는 투명성과 책임 성을 높이기 위해 오픈 수표를 놓습니다.</v>
+      </c>
+      <c r="Q52" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D52,""en"",""ko"")"),"볼티모어시 정보 기술, 금융의 볼티모어시 교육청")</f>
+        <v>볼티모어시 정보 기술, 금융의 볼티모어시 교육청</v>
+      </c>
+      <c r="R52" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($E52,""en"",""ko"")"),"아직 시작되지")</f>
+        <v>아직 시작되지</v>
+      </c>
+      <c r="S52" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B52,""en"",""zh"")"),"城市资源的负责任的管理")</f>
+        <v>城市资源的负责任的管理</v>
+      </c>
+      <c r="T52" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C52,""en"",""zh"")"),"设计和释放打开支票簿的巴尔的摩增加透明度和问责制。")</f>
+        <v>设计和释放打开支票簿的巴尔的摩增加透明度和问责制。</v>
+      </c>
+      <c r="U52" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D52,""en"",""zh"")"),"巴尔的摩市信息技术，金融的巴尔的摩市教育局")</f>
+        <v>巴尔的摩市信息技术，金融的巴尔的摩市教育局</v>
+      </c>
+      <c r="V52" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($E52,""en"",""zh"")"),"还没开始")</f>
+        <v>还没开始</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="$A$1:$F$52">

--- a/data/100 Day Tracker Data.xlsx
+++ b/data/100 Day Tracker Data.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="226">
   <si>
     <t>Action #</t>
   </si>
@@ -256,301 +256,307 @@
     <t>Mayor's Office, Baltimore City Department of Housing &amp; Community Development</t>
   </si>
   <si>
+    <t>Create improved transparency into the retention, attraction, and growth of City neighborhoods.</t>
+  </si>
+  <si>
+    <t>Baltimore City Department of Housing &amp; Community Development, Baltimore City Department of Planning, Baltimore City Department of Finance</t>
+  </si>
+  <si>
+    <t>Begin top-to-bottom review of the procurement process.</t>
+  </si>
+  <si>
+    <t>Baltimore City Department of Finance, Baltimore City Bureau of Procurement</t>
+  </si>
+  <si>
+    <t>Activate small and local business preference in the procurement process.</t>
+  </si>
+  <si>
+    <t>Prioritize tracking data for City developments and projects that receive TIFs around local hiring and workforce development.</t>
+  </si>
+  <si>
+    <t>Baltimore Development Corporation</t>
+  </si>
+  <si>
+    <t>Establish a Hiring Task Force to review HR practices, policy interventions, best practices, and barriers through a lens of equity and meet workforce needs.</t>
+  </si>
+  <si>
+    <t>Baltimore City Department of Human Resources</t>
+  </si>
+  <si>
+    <t>Establish a resident preference program for City jobs.</t>
+  </si>
+  <si>
+    <t>Prioritize the Baltimore Greenway Trails Network.</t>
+  </si>
+  <si>
+    <t>Baltimore City Department of Planning, Baltimore City Department of Transportation, Baltimore City Department of Recreation &amp; Parks</t>
+  </si>
+  <si>
+    <t>Join Climate Mayors in supporting the spirit and goals of the Paris Climate Agreement.</t>
+  </si>
+  <si>
+    <t>Baltimore City Department of Planning</t>
+  </si>
+  <si>
+    <t>Prioritizing Our Youth</t>
+  </si>
+  <si>
+    <t>Support the overrides of the Blueprint for Maryland's Future and Built to Learn.</t>
+  </si>
+  <si>
+    <t>Mayor's Office, Maryland General Assembly</t>
+  </si>
+  <si>
+    <t>Prepare to significantly increase the capacity of virtual YouthWorks in 2021.</t>
+  </si>
+  <si>
+    <t>Mayor's Office of Employment Development</t>
+  </si>
+  <si>
+    <t>Begin implementation of the Elijah Cummings Healing City Act to ensure trauma-informed practice across city government.</t>
+  </si>
+  <si>
+    <t>Baltimore City Health Department, Mayor's Office of Neighborhood Safety &amp; Engagement</t>
+  </si>
+  <si>
+    <t>Develop plan for equitable and age-appropriate access in partnership with sports, arts, and cultural institutions that create recreational services during this unprecedented pandemic.</t>
+  </si>
+  <si>
+    <t>Baltimore City Department of Recreation &amp; Parks</t>
+  </si>
+  <si>
+    <t>Building Public Trust</t>
+  </si>
+  <si>
+    <t>Hire Baltimore's first Chief Administrative Officer.</t>
+  </si>
+  <si>
+    <t>Kick off community engagement plan to introduce Chief Administrative Officer and other senior officials to public.</t>
+  </si>
+  <si>
+    <t>Establish, through CitiStat, performance management to ensure greater accountability and more equitable delivery of City services for residents.</t>
+  </si>
+  <si>
+    <t>Mayor's Office of Performance &amp; Innovation</t>
+  </si>
+  <si>
+    <t>Restore recycling services, which were suspended due to COVID-19.</t>
+  </si>
+  <si>
+    <t>Baltimore City Department of Public Works</t>
+  </si>
+  <si>
+    <t>Announce plan to reform the water billing program.</t>
+  </si>
+  <si>
+    <t>Appoint a permanent Housing Commissioner.</t>
+  </si>
+  <si>
+    <t>Appoint a permanent Homeless Services director.</t>
+  </si>
+  <si>
+    <t>Mayor's Office of Homeless Services</t>
+  </si>
+  <si>
+    <t>Initiate a Fix-it First campaign to fill backlog of transportation and infrastructure related 311 service requests, particularly where there has historically been a longer response time.</t>
+  </si>
+  <si>
+    <t>Baltimore City Department of Public Works, Baltimore City Department of Transportation</t>
+  </si>
+  <si>
+    <t>Publish a clear and concise set of procedures to apply for and receive city-owned properties for development.</t>
+  </si>
+  <si>
+    <t>Make stronger commitments to cleaning up sewage backups.</t>
+  </si>
+  <si>
+    <t>COVID-19 Recovery</t>
+  </si>
+  <si>
+    <t>Develop and communicate a COVID-19 vaccination prioritization strategy.</t>
+  </si>
+  <si>
+    <t>Baltimore City Health Department</t>
+  </si>
+  <si>
+    <t>Create a dashboard to track CARES act funding to ensure equitable distribution.</t>
+  </si>
+  <si>
+    <t>Use Rapid Rehousing CARES Act dollars to move 500 people and families to more permanent housing.</t>
+  </si>
+  <si>
+    <t>Extend emergency shelter in local hotels when CARES Act funding expires.</t>
+  </si>
+  <si>
+    <t>Cap restaurant delivery fees on third-party app services.</t>
+  </si>
+  <si>
+    <t>Identify clear point of contact for local businesses to more effectively navigate city government.</t>
+  </si>
+  <si>
+    <t>Mayor's Office, Baltimore Development Corporation</t>
+  </si>
+  <si>
+    <t>Responsible Stewardship of City Resources</t>
+  </si>
+  <si>
+    <t>Begin holistic, top-to-bottom assessment of city agencies and process to inventory city property.</t>
+  </si>
+  <si>
+    <t>Baltimore City Department of General Services</t>
+  </si>
+  <si>
+    <t>Begin a holistic review of tax credits to address inefficiencies, redundancies, or new credits that would build a more equitable city.</t>
+  </si>
+  <si>
+    <t>Announce new criteria for evaluation of capital budget requests.</t>
+  </si>
+  <si>
+    <t>Mayor's Office, Baltimore City Department of Finance</t>
+  </si>
+  <si>
+    <t>Expand community engagement in the budget process.</t>
+  </si>
+  <si>
+    <t>Commit to updating the City's 10-year financial plan.</t>
+  </si>
+  <si>
+    <t>Design and release Open Checkbook for Baltimore to increase transparency and accountability.</t>
+  </si>
+  <si>
+    <t>Baltimore City Information &amp; Technology, Baltimore City Department of Finance</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Exec Team</t>
+  </si>
+  <si>
+    <t>MONSE</t>
+  </si>
+  <si>
+    <t>Sunny</t>
+  </si>
+  <si>
+    <t>BPD</t>
+  </si>
+  <si>
+    <t>Complete/Will have updates</t>
+  </si>
+  <si>
+    <t>MO, MONSE, BCHD, BPD</t>
+  </si>
+  <si>
+    <t>DHCD</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>DOT</t>
+  </si>
+  <si>
+    <t>BPD, MONSE</t>
+  </si>
+  <si>
+    <t>BPD, MONSE, DPW, DHCD, BCHD</t>
+  </si>
+  <si>
+    <t>Sunny/Chris/Daniel</t>
+  </si>
+  <si>
+    <t>MO, MONSE</t>
+  </si>
+  <si>
+    <t>Sunny/Scott/Stefanie</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>Michael/Sunny</t>
+  </si>
+  <si>
+    <t>MO, ECR</t>
+  </si>
+  <si>
+    <t>Chris/Michael</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>MO, DOP</t>
+  </si>
+  <si>
+    <t>DOF</t>
+  </si>
+  <si>
+    <t>MO, DHCD</t>
+  </si>
+  <si>
     <t>Create a Neighborhood Stat to track progress on retention, attraction, and growth in neighborhoods.</t>
   </si>
   <si>
-    <t>Baltimore City Department of Housing &amp; Community Development, Mayor's Office of Performance &amp; Innovation</t>
-  </si>
-  <si>
-    <t>Begin top-to-bottom review of the procurement process.</t>
-  </si>
-  <si>
-    <t>Baltimore City Department of Finance, Baltimore City Bureau of Procurement</t>
-  </si>
-  <si>
-    <t>Activate small and local business preference in the procurement process.</t>
-  </si>
-  <si>
-    <t>Prioritize tracking data for City developments and projects that receive TIFs around local hiring and workforce development.</t>
-  </si>
-  <si>
-    <t>Baltimore Development Corporation</t>
-  </si>
-  <si>
-    <t>Establish a Hiring Task Force to review HR practices, policy interventions, best practices, and barriers through a lens of equity and meet workforce needs.</t>
-  </si>
-  <si>
-    <t>Baltimore City Department of Human Resources</t>
-  </si>
-  <si>
-    <t>Establish a resident preference program for City jobs.</t>
-  </si>
-  <si>
-    <t>Prioritize the Baltimore Greenway Trails Network.</t>
-  </si>
-  <si>
-    <t>Baltimore City Department of Planning, Baltimore City Department of Transportation, Baltimore City Department of Recreation &amp; Parks</t>
-  </si>
-  <si>
-    <t>Join Climate Mayors in supporting the spirit and goals of the Paris Climate Agreement.</t>
-  </si>
-  <si>
-    <t>Baltimore City Department of Planning</t>
-  </si>
-  <si>
-    <t>Prioritizing Our Youth</t>
-  </si>
-  <si>
-    <t>Support the overrides of the Blueprint for Maryland's Future and Built to Learn.</t>
-  </si>
-  <si>
-    <t>Mayor's Office, Maryland General Assembly</t>
-  </si>
-  <si>
-    <t>Prepare to significantly increase the capacity of virtual YouthWorks in 2021.</t>
-  </si>
-  <si>
-    <t>Mayor's Office of Employment Development</t>
-  </si>
-  <si>
-    <t>Begin implementation of the Elijah Cummings Healing City Act to ensure trauma-informed practice across city government.</t>
-  </si>
-  <si>
-    <t>Baltimore City Health Department, Mayor's Office of Neighborhood Safety &amp; Engagement</t>
-  </si>
-  <si>
-    <t>Develop plan for equitable and age-appropriate access in partnership with sports, arts, and cultural institutions that create recreational services during this unprecedented pandemic.</t>
-  </si>
-  <si>
-    <t>Baltimore City Department of Recreation &amp; Parks</t>
-  </si>
-  <si>
-    <t>Building Public Trust</t>
-  </si>
-  <si>
-    <t>Hire Baltimore's first Chief Administrative Officer.</t>
-  </si>
-  <si>
-    <t>Kick off community engagement plan to introduce Chief Administrative Officer and other senior officials to public.</t>
+    <t>DHCD, OPI</t>
+  </si>
+  <si>
+    <t>DOF, BOP</t>
+  </si>
+  <si>
+    <t>Michael/Chris</t>
+  </si>
+  <si>
+    <t>Chris/Daniel</t>
+  </si>
+  <si>
+    <t>BDC</t>
+  </si>
+  <si>
+    <t>DHR</t>
+  </si>
+  <si>
+    <t>Chris/Michael/Leslie</t>
+  </si>
+  <si>
+    <t>DOP, DOT, DRP</t>
+  </si>
+  <si>
+    <t>DOP</t>
+  </si>
+  <si>
+    <t>Stefanie</t>
+  </si>
+  <si>
+    <t>MO, MGA</t>
+  </si>
+  <si>
+    <t>Natasha</t>
+  </si>
+  <si>
+    <t>MOED</t>
+  </si>
+  <si>
+    <t>BCHD, MONSE</t>
+  </si>
+  <si>
+    <t>Natasha/Sunny</t>
+  </si>
+  <si>
+    <t>DRP</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>Stefanie/Scott</t>
   </si>
   <si>
     <t>Establish a regular Stat program to ensure greater accountability and more equitable service delivery across City government.</t>
-  </si>
-  <si>
-    <t>Mayor's Office of Performance &amp; Innovation</t>
-  </si>
-  <si>
-    <t>Restore recycling services, which were suspended due to COVID-19.</t>
-  </si>
-  <si>
-    <t>Baltimore City Department of Public Works</t>
-  </si>
-  <si>
-    <t>Announce plan to reform the water billing program.</t>
-  </si>
-  <si>
-    <t>Appoint a permanent Housing Commissioner.</t>
-  </si>
-  <si>
-    <t>Appoint a permanent Homeless Services director.</t>
-  </si>
-  <si>
-    <t>Mayor's Office of Homeless Services</t>
-  </si>
-  <si>
-    <t>Initiate a Fix-it First campaign to fill backlog of transportation and infrastructure related 311 service requests, particularly where there has historically been a longer response time.</t>
-  </si>
-  <si>
-    <t>Baltimore City Department of Public Works, Baltimore City Department of Transportation</t>
-  </si>
-  <si>
-    <t>Publish a clear and concise set of procedures to apply for and receive city-owned properties for development.</t>
-  </si>
-  <si>
-    <t>Make stronger commitments to cleaning up sewage backups.</t>
-  </si>
-  <si>
-    <t>COVID-19 Recovery</t>
-  </si>
-  <si>
-    <t>Develop and communicate a COVID-19 vaccination prioritization strategy.</t>
-  </si>
-  <si>
-    <t>Baltimore City Health Department</t>
-  </si>
-  <si>
-    <t>Create a dashboard to track CARES act funding to ensure equitable distribution.</t>
-  </si>
-  <si>
-    <t>Use Rapid Rehousing CARES Act dollars to move 500 people and families to more permanent housing.</t>
-  </si>
-  <si>
-    <t>Extend emergency shelter in local hotels when CARES Act funding expires.</t>
-  </si>
-  <si>
-    <t>Cap restaurant delivery fees on third-party app services.</t>
-  </si>
-  <si>
-    <t>Identify clear point of contact for local businesses to more effectively navigate city government.</t>
-  </si>
-  <si>
-    <t>Mayor's Office, Baltimore Development Corporation</t>
-  </si>
-  <si>
-    <t>Responsible Stewardship of City Resources</t>
-  </si>
-  <si>
-    <t>Begin holistic, top-to-bottom assessment of city agencies and process to inventory city property.</t>
-  </si>
-  <si>
-    <t>Baltimore City Department of General Services</t>
-  </si>
-  <si>
-    <t>Begin a holistic review of tax credits to address inefficiencies, redundancies, or new credits that would build a more equitable city.</t>
-  </si>
-  <si>
-    <t>Announce new criteria for evaluation of capital budget requests.</t>
-  </si>
-  <si>
-    <t>Mayor's Office, Baltimore City Department of Finance</t>
-  </si>
-  <si>
-    <t>Expand community engagement in the budget process.</t>
-  </si>
-  <si>
-    <t>Commit to updating the City's 10-year financial plan.</t>
-  </si>
-  <si>
-    <t>Design and release Open Checkbook for Baltimore to increase transparency and accountability.</t>
-  </si>
-  <si>
-    <t>Baltimore City Information &amp; Technology, Baltimore City Department of Finance</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Exec Team</t>
-  </si>
-  <si>
-    <t>MONSE</t>
-  </si>
-  <si>
-    <t>Sunny</t>
-  </si>
-  <si>
-    <t>BPD</t>
-  </si>
-  <si>
-    <t>Complete/Will have updates</t>
-  </si>
-  <si>
-    <t>MO, MONSE, BCHD, BPD</t>
-  </si>
-  <si>
-    <t>DHCD</t>
-  </si>
-  <si>
-    <t>Daniel</t>
-  </si>
-  <si>
-    <t>DOT</t>
-  </si>
-  <si>
-    <t>BPD, MONSE</t>
-  </si>
-  <si>
-    <t>BPD, MONSE, DPW, DHCD, BCHD</t>
-  </si>
-  <si>
-    <t>Sunny/Chris/Daniel</t>
-  </si>
-  <si>
-    <t>MO, MONSE</t>
-  </si>
-  <si>
-    <t>Sunny/Scott/Stefanie</t>
-  </si>
-  <si>
-    <t>MO</t>
-  </si>
-  <si>
-    <t>Michael/Sunny</t>
-  </si>
-  <si>
-    <t>MO, ECR</t>
-  </si>
-  <si>
-    <t>Chris/Michael</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>Chris</t>
-  </si>
-  <si>
-    <t>MO, DOP</t>
-  </si>
-  <si>
-    <t>DOF</t>
-  </si>
-  <si>
-    <t>MO, DHCD</t>
-  </si>
-  <si>
-    <t>DHCD, OPI</t>
-  </si>
-  <si>
-    <t>DOF, BOP</t>
-  </si>
-  <si>
-    <t>Michael/Chris</t>
-  </si>
-  <si>
-    <t>Chris/Daniel</t>
-  </si>
-  <si>
-    <t>BDC</t>
-  </si>
-  <si>
-    <t>DHR</t>
-  </si>
-  <si>
-    <t>Chris/Michael/Leslie</t>
-  </si>
-  <si>
-    <t>DOP, DOT, DRP</t>
-  </si>
-  <si>
-    <t>DOP</t>
-  </si>
-  <si>
-    <t>Stefanie</t>
-  </si>
-  <si>
-    <t>MO, MGA</t>
-  </si>
-  <si>
-    <t>Natasha</t>
-  </si>
-  <si>
-    <t>MOED</t>
-  </si>
-  <si>
-    <t>BCHD, MONSE</t>
-  </si>
-  <si>
-    <t>Natasha/Sunny</t>
-  </si>
-  <si>
-    <t>DRP</t>
-  </si>
-  <si>
-    <t>Scott</t>
-  </si>
-  <si>
-    <t>Stefanie/Scott</t>
   </si>
   <si>
     <t>OPI</t>
@@ -2794,12 +2800,12 @@
         <v>Haciendo Baltimore equitativa</v>
       </c>
       <c r="H19" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(C19,""en"",""es"")"),"Crear un Stat Barrio pista al progreso en la retención, atracción, y el crecimiento en los barrios.")</f>
-        <v>Crear un Stat Barrio pista al progreso en la retención, atracción, y el crecimiento en los barrios.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(C19,""en"",""es"")"),"Crear una mayor transparencia en la retención, atracción, y el crecimiento de los barrios de la ciudad.")</f>
+        <v>Crear una mayor transparencia en la retención, atracción, y el crecimiento de los barrios de la ciudad.</v>
       </c>
       <c r="I19" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(D19,""en"",""es"")"),"Baltimore Departamento de Vivienda y Desarrollo Comunitario, Oficina de Evaluación de la Innovación y del Alcalde de la ciudad")</f>
-        <v>Baltimore Departamento de Vivienda y Desarrollo Comunitario, Oficina de Evaluación de la Innovación y del Alcalde de la ciudad</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(D19,""en"",""es"")"),"Baltimore Departamento Ciudad de Vivienda y Desarrollo Comunitario, Baltimore Departamento de Planificación Urbana, Departamento de Finanzas de la Ciudad de Baltimore")</f>
+        <v>Baltimore Departamento Ciudad de Vivienda y Desarrollo Comunitario, Baltimore Departamento de Planificación Urbana, Departamento de Finanzas de la Ciudad de Baltimore</v>
       </c>
       <c r="J19" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E19,""en"",""es"")"),"Todavía no empezado")</f>
@@ -2810,12 +2816,12 @@
         <v>Faire Baltimore équitable</v>
       </c>
       <c r="L19" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C19,""en"",""fr"")"),"Créer un quartier Stat au progrès de la piste sur la rétention, l'attraction et la croissance dans les quartiers.")</f>
-        <v>Créer un quartier Stat au progrès de la piste sur la rétention, l'attraction et la croissance dans les quartiers.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C19,""en"",""fr"")"),"Créer une meilleure transparence dans la rétention, l'attraction et la croissance des quartiers la ville.")</f>
+        <v>Créer une meilleure transparence dans la rétention, l'attraction et la croissance des quartiers la ville.</v>
       </c>
       <c r="M19" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D19,""en"",""fr"")"),"Baltimore ministère du Logement et du Développement communautaire, Bureau du maire de la performance et l'innovation")</f>
-        <v>Baltimore ministère du Logement et du Développement communautaire, Bureau du maire de la performance et l'innovation</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D19,""en"",""fr"")"),"Baltimore ministère du Logement et du Développement communautaire, Baltimore Département de la planification urbaine, ministère des Finances Baltimore")</f>
+        <v>Baltimore ministère du Logement et du Développement communautaire, Baltimore Département de la planification urbaine, ministère des Finances Baltimore</v>
       </c>
       <c r="N19" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($E19,""en"",""fr"")"),"Pas encore commencé")</f>
@@ -2826,12 +2832,12 @@
         <v>볼티모어 공평한 만들기</v>
       </c>
       <c r="P19" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C19,""en"",""ko"")"),"지역의 유지, 매력, 성장에 트랙 진행에 환경 통계를 작성합니다.")</f>
-        <v>지역의 유지, 매력, 성장에 트랙 진행에 환경 통계를 작성합니다.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C19,""en"",""ko"")"),"도시 지역의 유지, 매력, 성장에 개선 된 투명성을 만듭니다.")</f>
+        <v>도시 지역의 유지, 매력, 성장에 개선 된 투명성을 만듭니다.</v>
       </c>
       <c r="Q19" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D19,""en"",""ko"")"),"주택 및 지역 사회 개발, 성능 및 혁신의 시장의 사무실의 볼티모어시 교육청")</f>
-        <v>주택 및 지역 사회 개발, 성능 및 혁신의 시장의 사무실의 볼티모어시 교육청</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D19,""en"",""ko"")"),"주택 및 지역 사회 개발의 볼티모어시 교육청, 계획의 볼티모어시 교육청, 금융의 볼티모어시 교육청")</f>
+        <v>주택 및 지역 사회 개발의 볼티모어시 교육청, 계획의 볼티모어시 교육청, 금융의 볼티모어시 교육청</v>
       </c>
       <c r="R19" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($E19,""en"",""ko"")"),"아직 시작되지")</f>
@@ -2842,12 +2848,12 @@
         <v>制作巴尔的摩公平</v>
       </c>
       <c r="T19" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C19,""en"",""zh"")"),"创建一个邻居Stat公司对保留的吸引力，并在社区增长的轨道上前进。")</f>
-        <v>创建一个邻居Stat公司对保留的吸引力，并在社区增长的轨道上前进。</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C19,""en"",""zh"")"),"创建提高透明度到保留，吸引力和城市社区的发展。")</f>
+        <v>创建提高透明度到保留，吸引力和城市社区的发展。</v>
       </c>
       <c r="U19" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D19,""en"",""zh"")"),"住房和社区发展，性能和创新的市长办公室的巴尔的摩市教育局")</f>
-        <v>住房和社区发展，性能和创新的市长办公室的巴尔的摩市教育局</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D19,""en"",""zh"")"),"住房和社区发展的巴尔的摩市教育局，规划的巴尔的摩市教育局，财政巴尔的摩市教育局")</f>
+        <v>住房和社区发展的巴尔的摩市教育局，规划的巴尔的摩市教育局，财政巴尔的摩市教育局</v>
       </c>
       <c r="V19" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($E19,""en"",""zh"")"),"还没开始")</f>
@@ -3970,8 +3976,8 @@
         <v>Fomento de la confianza pública</v>
       </c>
       <c r="H33" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(C33,""en"",""es"")"),"Establecer un programa regular de estadísticas para asegurar una mayor responsabilidad y la prestación de servicios más equitativa en todo el gobierno de la ciudad.")</f>
-        <v>Establecer un programa regular de estadísticas para asegurar una mayor responsabilidad y la prestación de servicios más equitativa en todo el gobierno de la ciudad.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(C33,""en"",""es"")"),"Establecer, a través CitiStat, la gestión del rendimiento para garantizar una mayor rendición de cuentas y la entrega más equitativa de los servicios municipales para los residentes.")</f>
+        <v>Establecer, a través CitiStat, la gestión del rendimiento para garantizar una mayor rendición de cuentas y la entrega más equitativa de los servicios municipales para los residentes.</v>
       </c>
       <c r="I33" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(D33,""en"",""es"")"),"Oficina de Evaluación de la Innovación y del Alcalde")</f>
@@ -3986,8 +3992,8 @@
         <v>Public Trust Building</v>
       </c>
       <c r="L33" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C33,""en"",""fr"")"),"Mettre en place un programme régulier Stat pour assurer une plus grande responsabilisation et une prestation de services équitable au sein du gouvernement municipal.")</f>
-        <v>Mettre en place un programme régulier Stat pour assurer une plus grande responsabilisation et une prestation de services équitable au sein du gouvernement municipal.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C33,""en"",""fr"")"),"Mettre en place, par le biais CitiStat, la gestion du rendement pour assurer une plus grande responsabilisation et la prestation plus équitable des services de la Ville pour les résidents.")</f>
+        <v>Mettre en place, par le biais CitiStat, la gestion du rendement pour assurer une plus grande responsabilisation et la prestation plus équitable des services de la Ville pour les résidents.</v>
       </c>
       <c r="M33" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D33,""en"",""fr"")"),"Bureau de la performance et l'innovation du maire")</f>
@@ -4002,8 +4008,8 @@
         <v>건물 대중의 신뢰</v>
       </c>
       <c r="P33" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C33,""en"",""ko"")"),"더 큰 책임과시 정부에서 더 평등 한 서비스 제공을 보장하기 위해 정기적 인 통계 프로그램을 설정합니다.")</f>
-        <v>더 큰 책임과시 정부에서 더 평등 한 서비스 제공을 보장하기 위해 정기적 인 통계 프로그램을 설정합니다.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C33,""en"",""ko"")"),"CitiStat을 통해 수립, 성과 관리는 더 큰 책임과 주민을위한 도시 서비스의 형평성 배달을 보장합니다.")</f>
+        <v>CitiStat을 통해 수립, 성과 관리는 더 큰 책임과 주민을위한 도시 서비스의 형평성 배달을 보장합니다.</v>
       </c>
       <c r="Q33" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D33,""en"",""ko"")"),"성능 및 혁신의 시장실")</f>
@@ -4018,8 +4024,8 @@
         <v>建立公众信任</v>
       </c>
       <c r="T33" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C33,""en"",""zh"")"),"建立定期统计方案，以确保更大的责任感和整个城市的政府更公平的服务交付。")</f>
-        <v>建立定期统计方案，以确保更大的责任感和整个城市的政府更公平的服务交付。</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C33,""en"",""zh"")"),"建立，通过CitiStat，绩效管理，以确保更大的责任感和居民更公平的交付市服务。")</f>
+        <v>建立，通过CitiStat，绩效管理，以确保更大的责任感和居民更公平的交付市服务。</v>
       </c>
       <c r="U33" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D33,""en"",""zh"")"),"性能和创新的市长办公室")</f>
@@ -5867,10 +5873,10 @@
     </row>
     <row r="21">
       <c r="A21" s="10" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="9" t="s">
@@ -5882,11 +5888,11 @@
         <v>59</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23">
@@ -5894,11 +5900,11 @@
         <v>61</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24">
@@ -5906,7 +5912,7 @@
         <v>62</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="9" t="s">
@@ -5918,11 +5924,11 @@
         <v>64</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26">
@@ -5930,7 +5936,7 @@
         <v>66</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="9" t="s">
@@ -5942,7 +5948,7 @@
         <v>67</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="9" t="s">
@@ -5954,13 +5960,13 @@
         <v>69</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29">
@@ -5982,13 +5988,13 @@
         <v>72</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32">
@@ -5996,7 +6002,7 @@
         <v>74</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>32</v>
@@ -6010,13 +6016,13 @@
         <v>76</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34">
@@ -6024,11 +6030,11 @@
         <v>78</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35">
@@ -6068,15 +6074,15 @@
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="10" t="s">
-        <v>83</v>
+        <v>157</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>32</v>
@@ -6090,7 +6096,7 @@
         <v>85</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>25</v>
@@ -6104,7 +6110,7 @@
         <v>87</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>32</v>
@@ -6130,7 +6136,7 @@
         <v>89</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="9" t="s">
@@ -6142,11 +6148,11 @@
         <v>91</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45">
@@ -6166,7 +6172,7 @@
         <v>94</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="9" t="s">
@@ -6192,7 +6198,7 @@
         <v>96</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>25</v>
@@ -6218,7 +6224,7 @@
         <v>99</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>32</v>
@@ -6232,7 +6238,7 @@
         <v>100</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>25</v>
@@ -6252,7 +6258,7 @@
         <v>25</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54">
@@ -6260,7 +6266,7 @@
         <v>102</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="9" t="s">
@@ -6286,11 +6292,11 @@
         <v>105</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="58">
@@ -6310,7 +6316,7 @@
         <v>108</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C59" s="11"/>
       <c r="D59" s="9" t="s">
@@ -6338,7 +6344,7 @@
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="62">
@@ -6346,7 +6352,7 @@
         <v>112</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C62" s="11"/>
       <c r="D62" s="9" t="s">
@@ -6377,7 +6383,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="14" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B1" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($A1,""en"",""es"")"),"Prioridades y Progreso")</f>
@@ -6398,7 +6404,7 @@
     </row>
     <row r="2">
       <c r="A2" s="14" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B2" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($A2,""en"",""es"")"),"Descargar datos (csv)")</f>
@@ -6419,7 +6425,7 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B3" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($A3,""en"",""es"")"),"Sobre esta Iniciativa")</f>
@@ -6440,7 +6446,7 @@
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B4" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($A4,""en"",""es"")"),"Recursos y Evaluación")</f>
@@ -6484,19 +6490,19 @@
   <sheetData>
     <row r="1" ht="42.75" customHeight="1">
       <c r="A1" s="16" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2">
@@ -6511,7 +6517,7 @@
         <v>44173</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E2" s="22"/>
     </row>
@@ -6849,7 +6855,7 @@
         <v>44197</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E26" s="22"/>
     </row>
@@ -7201,7 +7207,7 @@
         <v>44222</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E51" s="22"/>
     </row>
@@ -7553,7 +7559,7 @@
         <v>44247</v>
       </c>
       <c r="D76" s="23" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E76" s="26"/>
     </row>
@@ -7905,7 +7911,7 @@
         <v>44272</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E101" s="22"/>
     </row>
@@ -7939,16 +7945,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="27" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>10</v>
@@ -7968,7 +7974,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B2,""en"",""es"")"),"Edificio de Seguridad Pública")</f>
@@ -7995,7 +8001,7 @@
         <v>45</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D3" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B3,""en"",""es"")"),"Haciendo Baltimore equitativa")</f>
@@ -8022,7 +8028,7 @@
         <v>71</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D4" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B4,""en"",""es"")"),"Priorización de nuestra juventud")</f>
@@ -8049,7 +8055,7 @@
         <v>80</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D5" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B5,""en"",""es"")"),"Fomento de la confianza pública")</f>
@@ -8076,7 +8082,7 @@
         <v>95</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D6" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B6,""en"",""es"")"),"COVID-19 Recuperación")</f>
@@ -8103,7 +8109,7 @@
         <v>104</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D7" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B7,""en"",""es"")"),"Administración responsable de los recursos de la ciudad")</f>
@@ -8146,13 +8152,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="29" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2">
@@ -8163,7 +8169,7 @@
         <v>44179.0</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3">
@@ -13172,57 +13178,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="34" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="35" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B2" s="36" t="s">
         <v>97</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="35" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="35" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B4" s="36" t="s">
         <v>63</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="35" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6">
@@ -13233,18 +13239,18 @@
         <v>27</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="35" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B7" s="36" t="s">
         <v>106</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8">
@@ -13255,18 +13261,18 @@
         <v>34</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="35" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B9" s="36" t="s">
         <v>65</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10">
@@ -13277,18 +13283,18 @@
         <v>54</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="35" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B11" s="36" t="s">
         <v>70</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12">
@@ -13299,51 +13305,51 @@
         <v>36</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="35" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B13" s="36" t="s">
         <v>86</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="35" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>79</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="35" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="35" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17">
@@ -13354,29 +13360,29 @@
         <v>44</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="35" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B18" s="36" t="s">
         <v>75</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="35" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B19" s="38" t="s">
         <v>90</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20">
@@ -13387,18 +13393,18 @@
         <v>24</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="35" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B21" s="36" t="s">
         <v>84</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/data/100 Day Tracker Data.xlsx
+++ b/data/100 Day Tracker Data.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="228">
   <si>
     <t>Action #</t>
   </si>
@@ -163,280 +163,283 @@
     <t>Complete</t>
   </si>
   <si>
+    <t>Hold PoliceStat meetings every-other-week to build stronger accountability within BPD and improve service delivery.</t>
+  </si>
+  <si>
+    <t>Baltimore Police Department, Mayor's Office of Performance &amp; Innovation</t>
+  </si>
+  <si>
+    <t>Set clear, coordinated public safety vision that addresses violence today and root causes.</t>
+  </si>
+  <si>
+    <t>Mayor's Office, Mayor's Office of Neighborhood Safety &amp; Engagement, Baltimore City Health Department, Baltimore Police Department</t>
+  </si>
+  <si>
+    <t>Not Yet Started</t>
+  </si>
+  <si>
+    <t>Task Mayor's Office of Neighborhood Safety and Engagement with coordinating public safety strategy.</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Introduce local housing voucher program.</t>
+  </si>
+  <si>
+    <t>Baltimore City Department of Housing &amp; Community Development</t>
+  </si>
+  <si>
+    <t>Adopt and support Complete Streets manual increase quality of life and mobility in Baltimore.</t>
+  </si>
+  <si>
+    <t>Baltimore City Department of Transportation</t>
+  </si>
+  <si>
+    <t>Begin implementing a Group Violence Reduction Strategy.</t>
+  </si>
+  <si>
+    <t>Baltimore Police Department, Mayor's Office of Neighborhood Safety &amp; Engagement</t>
+  </si>
+  <si>
+    <t>Proactively deploy City agencies to address environmental concerns that contribute to neighborhood safety.</t>
+  </si>
+  <si>
+    <t>Baltimore Police Department, Mayor's Office of Neighborhood Safety &amp; Engagement, Baltimore City Department of Public Works, Baltimore City Department of Housing &amp; Community Development, Baltimore City Health Department</t>
+  </si>
+  <si>
+    <t>Meet with community leaders and residents around a shared vision for public safety.</t>
+  </si>
+  <si>
+    <t>Mayor's Office, Mayor's Office of Neighborhood Safety &amp; Engagement</t>
+  </si>
+  <si>
+    <t>Convene the first meeting of the Public Safety Advisory Commission.</t>
+  </si>
+  <si>
+    <t>Mayor's Office</t>
+  </si>
+  <si>
+    <t>Making Baltimore Equitable</t>
+  </si>
+  <si>
+    <t>Hire Baltimore's first Chief Equity Officer.</t>
+  </si>
+  <si>
+    <t>Mayor's Office, Baltimore City Office of Equity &amp; Civil Rights</t>
+  </si>
+  <si>
+    <t>Hire a Digital Equity Director.</t>
+  </si>
+  <si>
+    <t>Identify a senior official in each agency to be responsible for equity and sustainable action.</t>
+  </si>
+  <si>
+    <t>Commit to Baltimore's zero waste goals and begin shifts toward a more sustainable city.</t>
+  </si>
+  <si>
+    <t>Mayor's Office, Baltimore City Department of Planning</t>
+  </si>
+  <si>
+    <t>Elevate Sustainability Director to a cabinet-level position.</t>
+  </si>
+  <si>
+    <t>Remove the most vulnerable residents from tax sale.</t>
+  </si>
+  <si>
+    <t>Baltimore City Department of Finance</t>
+  </si>
+  <si>
+    <t>Announce a back-to-basics community development strategy that centers community input.</t>
+  </si>
+  <si>
+    <t>Mayor's Office, Baltimore City Department of Housing &amp; Community Development</t>
+  </si>
+  <si>
+    <t>Create improved transparency into the retention, attraction, and growth of City neighborhoods.</t>
+  </si>
+  <si>
+    <t>Baltimore City Department of Housing &amp; Community Development, Baltimore City Department of Planning, Baltimore City Department of Finance</t>
+  </si>
+  <si>
+    <t>Begin top-to-bottom review of the procurement process.</t>
+  </si>
+  <si>
+    <t>Baltimore City Department of Finance, Baltimore City Bureau of Procurement</t>
+  </si>
+  <si>
+    <t>Activate small and local business preference in the procurement process.</t>
+  </si>
+  <si>
+    <t>Prioritize tracking data for City developments and projects that receive TIFs around local hiring and workforce development.</t>
+  </si>
+  <si>
+    <t>Baltimore Development Corporation</t>
+  </si>
+  <si>
+    <t>Establish a Hiring Task Force to review HR practices, policy interventions, best practices, and barriers through a lens of equity and meet workforce needs.</t>
+  </si>
+  <si>
+    <t>Baltimore City Department of Human Resources</t>
+  </si>
+  <si>
+    <t>Establish a resident preference program for City jobs.</t>
+  </si>
+  <si>
+    <t>Prioritize the Baltimore Greenway Trails Network.</t>
+  </si>
+  <si>
+    <t>Baltimore City Department of Planning, Baltimore City Department of Transportation, Baltimore City Department of Recreation &amp; Parks</t>
+  </si>
+  <si>
+    <t>Join Climate Mayors in supporting the spirit and goals of the Paris Climate Agreement.</t>
+  </si>
+  <si>
+    <t>Baltimore City Department of Planning</t>
+  </si>
+  <si>
+    <t>Prioritizing Our Youth</t>
+  </si>
+  <si>
+    <t>Support the overrides of the Blueprint for Maryland's Future and Built to Learn.</t>
+  </si>
+  <si>
+    <t>Mayor's Office, Maryland General Assembly</t>
+  </si>
+  <si>
+    <t>Prepare to significantly increase the capacity of virtual YouthWorks in 2021.</t>
+  </si>
+  <si>
+    <t>Mayor's Office of Employment Development</t>
+  </si>
+  <si>
+    <t>Begin implementation of the Elijah Cummings Healing City Act to ensure trauma-informed practice across city government.</t>
+  </si>
+  <si>
+    <t>Baltimore City Health Department, Mayor's Office of Neighborhood Safety &amp; Engagement</t>
+  </si>
+  <si>
+    <t>Develop plan for equitable and age-appropriate access in partnership with sports, arts, and cultural institutions that create recreational services during this unprecedented pandemic.</t>
+  </si>
+  <si>
+    <t>Baltimore City Department of Recreation &amp; Parks</t>
+  </si>
+  <si>
+    <t>Building Public Trust</t>
+  </si>
+  <si>
+    <t>Hire Baltimore's first Chief Administrative Officer.</t>
+  </si>
+  <si>
+    <t>Kick off community engagement plan to introduce Chief Administrative Officer and other senior officials to public.</t>
+  </si>
+  <si>
+    <t>Establish, through CitiStat, performance management to ensure greater accountability and more equitable delivery of City services for residents.</t>
+  </si>
+  <si>
+    <t>Mayor's Office of Performance &amp; Innovation</t>
+  </si>
+  <si>
+    <t>Restore recycling services, which were suspended due to COVID-19.</t>
+  </si>
+  <si>
+    <t>Baltimore City Department of Public Works</t>
+  </si>
+  <si>
+    <t>Announce plan to reform the water billing program.</t>
+  </si>
+  <si>
+    <t>Appoint a permanent Housing Commissioner.</t>
+  </si>
+  <si>
+    <t>Appoint a permanent Homeless Services director.</t>
+  </si>
+  <si>
+    <t>Mayor's Office of Homeless Services</t>
+  </si>
+  <si>
+    <t>Initiate a Fix-it First campaign to fill backlog of transportation and infrastructure related 311 service requests, particularly where there has historically been a longer response time.</t>
+  </si>
+  <si>
+    <t>Baltimore City Department of Public Works, Baltimore City Department of Transportation</t>
+  </si>
+  <si>
+    <t>Publish a clear and concise set of procedures to apply for and receive city-owned properties for development.</t>
+  </si>
+  <si>
+    <t>Make stronger commitments to cleaning up sewage backups.</t>
+  </si>
+  <si>
+    <t>COVID-19 Recovery</t>
+  </si>
+  <si>
+    <t>Develop and communicate a COVID-19 vaccination prioritization strategy.</t>
+  </si>
+  <si>
+    <t>Baltimore City Health Department</t>
+  </si>
+  <si>
+    <t>Create a dashboard to track CARES act funding to ensure equitable distribution.</t>
+  </si>
+  <si>
+    <t>Use Rapid Rehousing CARES Act dollars to move 500 people and families to more permanent housing.</t>
+  </si>
+  <si>
+    <t>Extend emergency shelter in local hotels when CARES Act funding expires.</t>
+  </si>
+  <si>
+    <t>Cap restaurant delivery fees on third-party app services.</t>
+  </si>
+  <si>
+    <t>Identify clear point of contact for local businesses to more effectively navigate city government.</t>
+  </si>
+  <si>
+    <t>Mayor's Office, Baltimore Development Corporation</t>
+  </si>
+  <si>
+    <t>Responsible Stewardship of City Resources</t>
+  </si>
+  <si>
+    <t>Begin holistic, top-to-bottom assessment of city agencies and process to inventory city property.</t>
+  </si>
+  <si>
+    <t>Baltimore City Department of General Services</t>
+  </si>
+  <si>
+    <t>Begin a holistic review of tax credits to address inefficiencies, redundancies, or new credits that would build a more equitable city.</t>
+  </si>
+  <si>
+    <t>Announce new criteria for evaluation of capital budget requests.</t>
+  </si>
+  <si>
+    <t>Mayor's Office, Baltimore City Department of Finance</t>
+  </si>
+  <si>
+    <t>Expand community engagement in the budget process.</t>
+  </si>
+  <si>
+    <t>Commit to updating the City's 10-year financial plan.</t>
+  </si>
+  <si>
+    <t>Design and release Open Checkbook for Baltimore to increase transparency and accountability.</t>
+  </si>
+  <si>
+    <t>Baltimore City Information &amp; Technology, Baltimore City Department of Finance</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Exec Team</t>
+  </si>
+  <si>
+    <t>MONSE</t>
+  </si>
+  <si>
+    <t>Sunny</t>
+  </si>
+  <si>
     <t>Establish monthly PoliceStat meetings to build stronger accountability within BPD and improve service delivery.</t>
-  </si>
-  <si>
-    <t>Baltimore Police Department</t>
-  </si>
-  <si>
-    <t>Set clear, coordinated public safety vision that addresses violence today and root causes.</t>
-  </si>
-  <si>
-    <t>Mayor's Office, Mayor's Office of Neighborhood Safety &amp; Engagement, Baltimore City Health Department, Baltimore Police Department</t>
-  </si>
-  <si>
-    <t>Not Yet Started</t>
-  </si>
-  <si>
-    <t>Task Mayor's Office of Neighborhood Safety and Engagement with coordinating public safety strategy.</t>
-  </si>
-  <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <t>Introduce local housing voucher program.</t>
-  </si>
-  <si>
-    <t>Baltimore City Department of Housing &amp; Community Development</t>
-  </si>
-  <si>
-    <t>Adopt and support Complete Streets manual increase quality of life and mobility in Baltimore.</t>
-  </si>
-  <si>
-    <t>Baltimore City Department of Transportation</t>
-  </si>
-  <si>
-    <t>Begin implementing a Group Violence Reduction Strategy.</t>
-  </si>
-  <si>
-    <t>Baltimore Police Department, Mayor's Office of Neighborhood Safety &amp; Engagement</t>
-  </si>
-  <si>
-    <t>Proactively deploy City agencies to address environmental concerns that contribute to neighborhood safety.</t>
-  </si>
-  <si>
-    <t>Baltimore Police Department, Mayor's Office of Neighborhood Safety &amp; Engagement, Baltimore City Department of Public Works, Baltimore City Department of Housing &amp; Community Development, Baltimore City Health Department</t>
-  </si>
-  <si>
-    <t>Meet with community leaders and residents around a shared vision for public safety.</t>
-  </si>
-  <si>
-    <t>Mayor's Office, Mayor's Office of Neighborhood Safety &amp; Engagement</t>
-  </si>
-  <si>
-    <t>Convene the first meeting of the Public Safety Advisory Commission.</t>
-  </si>
-  <si>
-    <t>Mayor's Office</t>
-  </si>
-  <si>
-    <t>Making Baltimore Equitable</t>
-  </si>
-  <si>
-    <t>Hire Baltimore's first Chief Equity Officer.</t>
-  </si>
-  <si>
-    <t>Mayor's Office, Baltimore City Office of Equity &amp; Civil Rights</t>
-  </si>
-  <si>
-    <t>Hire a Digital Equity Director.</t>
-  </si>
-  <si>
-    <t>Identify a senior official in each agency to be responsible for equity and sustainable action.</t>
-  </si>
-  <si>
-    <t>Commit to Baltimore's zero waste goals and begin shifts toward a more sustainable city.</t>
-  </si>
-  <si>
-    <t>Mayor's Office, Baltimore City Department of Planning</t>
-  </si>
-  <si>
-    <t>Elevate Sustainability Director to a cabinet-level position.</t>
-  </si>
-  <si>
-    <t>Remove the most vulnerable residents from tax sale.</t>
-  </si>
-  <si>
-    <t>Baltimore City Department of Finance</t>
-  </si>
-  <si>
-    <t>Announce a back-to-basics community development strategy that centers community input.</t>
-  </si>
-  <si>
-    <t>Mayor's Office, Baltimore City Department of Housing &amp; Community Development</t>
-  </si>
-  <si>
-    <t>Create improved transparency into the retention, attraction, and growth of City neighborhoods.</t>
-  </si>
-  <si>
-    <t>Baltimore City Department of Housing &amp; Community Development, Baltimore City Department of Planning, Baltimore City Department of Finance</t>
-  </si>
-  <si>
-    <t>Begin top-to-bottom review of the procurement process.</t>
-  </si>
-  <si>
-    <t>Baltimore City Department of Finance, Baltimore City Bureau of Procurement</t>
-  </si>
-  <si>
-    <t>Activate small and local business preference in the procurement process.</t>
-  </si>
-  <si>
-    <t>Prioritize tracking data for City developments and projects that receive TIFs around local hiring and workforce development.</t>
-  </si>
-  <si>
-    <t>Baltimore Development Corporation</t>
-  </si>
-  <si>
-    <t>Establish a Hiring Task Force to review HR practices, policy interventions, best practices, and barriers through a lens of equity and meet workforce needs.</t>
-  </si>
-  <si>
-    <t>Baltimore City Department of Human Resources</t>
-  </si>
-  <si>
-    <t>Establish a resident preference program for City jobs.</t>
-  </si>
-  <si>
-    <t>Prioritize the Baltimore Greenway Trails Network.</t>
-  </si>
-  <si>
-    <t>Baltimore City Department of Planning, Baltimore City Department of Transportation, Baltimore City Department of Recreation &amp; Parks</t>
-  </si>
-  <si>
-    <t>Join Climate Mayors in supporting the spirit and goals of the Paris Climate Agreement.</t>
-  </si>
-  <si>
-    <t>Baltimore City Department of Planning</t>
-  </si>
-  <si>
-    <t>Prioritizing Our Youth</t>
-  </si>
-  <si>
-    <t>Support the overrides of the Blueprint for Maryland's Future and Built to Learn.</t>
-  </si>
-  <si>
-    <t>Mayor's Office, Maryland General Assembly</t>
-  </si>
-  <si>
-    <t>Prepare to significantly increase the capacity of virtual YouthWorks in 2021.</t>
-  </si>
-  <si>
-    <t>Mayor's Office of Employment Development</t>
-  </si>
-  <si>
-    <t>Begin implementation of the Elijah Cummings Healing City Act to ensure trauma-informed practice across city government.</t>
-  </si>
-  <si>
-    <t>Baltimore City Health Department, Mayor's Office of Neighborhood Safety &amp; Engagement</t>
-  </si>
-  <si>
-    <t>Develop plan for equitable and age-appropriate access in partnership with sports, arts, and cultural institutions that create recreational services during this unprecedented pandemic.</t>
-  </si>
-  <si>
-    <t>Baltimore City Department of Recreation &amp; Parks</t>
-  </si>
-  <si>
-    <t>Building Public Trust</t>
-  </si>
-  <si>
-    <t>Hire Baltimore's first Chief Administrative Officer.</t>
-  </si>
-  <si>
-    <t>Kick off community engagement plan to introduce Chief Administrative Officer and other senior officials to public.</t>
-  </si>
-  <si>
-    <t>Establish, through CitiStat, performance management to ensure greater accountability and more equitable delivery of City services for residents.</t>
-  </si>
-  <si>
-    <t>Mayor's Office of Performance &amp; Innovation</t>
-  </si>
-  <si>
-    <t>Restore recycling services, which were suspended due to COVID-19.</t>
-  </si>
-  <si>
-    <t>Baltimore City Department of Public Works</t>
-  </si>
-  <si>
-    <t>Announce plan to reform the water billing program.</t>
-  </si>
-  <si>
-    <t>Appoint a permanent Housing Commissioner.</t>
-  </si>
-  <si>
-    <t>Appoint a permanent Homeless Services director.</t>
-  </si>
-  <si>
-    <t>Mayor's Office of Homeless Services</t>
-  </si>
-  <si>
-    <t>Initiate a Fix-it First campaign to fill backlog of transportation and infrastructure related 311 service requests, particularly where there has historically been a longer response time.</t>
-  </si>
-  <si>
-    <t>Baltimore City Department of Public Works, Baltimore City Department of Transportation</t>
-  </si>
-  <si>
-    <t>Publish a clear and concise set of procedures to apply for and receive city-owned properties for development.</t>
-  </si>
-  <si>
-    <t>Make stronger commitments to cleaning up sewage backups.</t>
-  </si>
-  <si>
-    <t>COVID-19 Recovery</t>
-  </si>
-  <si>
-    <t>Develop and communicate a COVID-19 vaccination prioritization strategy.</t>
-  </si>
-  <si>
-    <t>Baltimore City Health Department</t>
-  </si>
-  <si>
-    <t>Create a dashboard to track CARES act funding to ensure equitable distribution.</t>
-  </si>
-  <si>
-    <t>Use Rapid Rehousing CARES Act dollars to move 500 people and families to more permanent housing.</t>
-  </si>
-  <si>
-    <t>Extend emergency shelter in local hotels when CARES Act funding expires.</t>
-  </si>
-  <si>
-    <t>Cap restaurant delivery fees on third-party app services.</t>
-  </si>
-  <si>
-    <t>Identify clear point of contact for local businesses to more effectively navigate city government.</t>
-  </si>
-  <si>
-    <t>Mayor's Office, Baltimore Development Corporation</t>
-  </si>
-  <si>
-    <t>Responsible Stewardship of City Resources</t>
-  </si>
-  <si>
-    <t>Begin holistic, top-to-bottom assessment of city agencies and process to inventory city property.</t>
-  </si>
-  <si>
-    <t>Baltimore City Department of General Services</t>
-  </si>
-  <si>
-    <t>Begin a holistic review of tax credits to address inefficiencies, redundancies, or new credits that would build a more equitable city.</t>
-  </si>
-  <si>
-    <t>Announce new criteria for evaluation of capital budget requests.</t>
-  </si>
-  <si>
-    <t>Mayor's Office, Baltimore City Department of Finance</t>
-  </si>
-  <si>
-    <t>Expand community engagement in the budget process.</t>
-  </si>
-  <si>
-    <t>Commit to updating the City's 10-year financial plan.</t>
-  </si>
-  <si>
-    <t>Design and release Open Checkbook for Baltimore to increase transparency and accountability.</t>
-  </si>
-  <si>
-    <t>Baltimore City Information &amp; Technology, Baltimore City Department of Finance</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Exec Team</t>
-  </si>
-  <si>
-    <t>MONSE</t>
-  </si>
-  <si>
-    <t>Sunny</t>
   </si>
   <si>
     <t>BPD</t>
@@ -710,6 +713,9 @@
   </si>
   <si>
     <t>procurement.baltimorecity.gov</t>
+  </si>
+  <si>
+    <t>Baltimore Police Department</t>
   </si>
   <si>
     <t>baltimorepolice.org</t>
@@ -1456,12 +1462,12 @@
         <v>Edificio de Seguridad Pública</v>
       </c>
       <c r="H3" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(C3,""en"",""es"")"),"Establecer reuniones mensuales PoliceStat para construir mayor responsabilidad dentro de la DBP y mejorar la prestación de servicios.")</f>
-        <v>Establecer reuniones mensuales PoliceStat para construir mayor responsabilidad dentro de la DBP y mejorar la prestación de servicios.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(C3,""en"",""es"")"),"Celebrar reuniones PoliceStat cada dos semanas para construir mayor responsabilidad dentro de la DBP y mejorar la prestación de servicios.")</f>
+        <v>Celebrar reuniones PoliceStat cada dos semanas para construir mayor responsabilidad dentro de la DBP y mejorar la prestación de servicios.</v>
       </c>
       <c r="I3" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(D3,""en"",""es"")"),"Departamento de Policía de Baltimore")</f>
-        <v>Departamento de Policía de Baltimore</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(D3,""en"",""es"")"),"Departamento de Policía de Baltimore, Oficina de Evaluación de la Innovación y del Alcalde")</f>
+        <v>Departamento de Policía de Baltimore, Oficina de Evaluación de la Innovación y del Alcalde</v>
       </c>
       <c r="J3" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E3,""en"",""es"")"),"Completar")</f>
@@ -1472,12 +1478,12 @@
         <v>Public Safety Building</v>
       </c>
       <c r="L3" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C3,""en"",""fr"")"),"Mettre en place des réunions mensuelles PoliceStat pour renforcer la responsabilisation plus forte au sein BPD et d'améliorer la prestation des services.")</f>
-        <v>Mettre en place des réunions mensuelles PoliceStat pour renforcer la responsabilisation plus forte au sein BPD et d'améliorer la prestation des services.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C3,""en"",""fr"")"),"Tenir des réunions PoliceStat chaque-autre semaine pour renforcer la responsabilisation plus forte au sein BPD et d'améliorer la prestation des services.")</f>
+        <v>Tenir des réunions PoliceStat chaque-autre semaine pour renforcer la responsabilisation plus forte au sein BPD et d'améliorer la prestation des services.</v>
       </c>
       <c r="M3" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D3,""en"",""fr"")"),"Baltimore Police Department")</f>
-        <v>Baltimore Police Department</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D3,""en"",""fr"")"),"Baltimore Police Department, Bureau de la performance et l'innovation du maire")</f>
+        <v>Baltimore Police Department, Bureau de la performance et l'innovation du maire</v>
       </c>
       <c r="N3" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($E3,""en"",""fr"")"),"Achevée")</f>
@@ -1488,12 +1494,12 @@
         <v>건물 공공 안전</v>
       </c>
       <c r="P3" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C3,""en"",""ko"")"),"BPD에서 강한 책임을 구축하고 서비스 제공을 개선하기 위해 매월 PoliceStat 미팅을 설정합니다.")</f>
-        <v>BPD에서 강한 책임을 구축하고 서비스 제공을 개선하기 위해 매월 PoliceStat 미팅을 설정합니다.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C3,""en"",""ko"")"),"BPD에서 강한 책임을 구축하고 서비스 제공을 개선하기 위해 모든-다른 주 PoliceStat 회의를 잡으십시오.")</f>
+        <v>BPD에서 강한 책임을 구축하고 서비스 제공을 개선하기 위해 모든-다른 주 PoliceStat 회의를 잡으십시오.</v>
       </c>
       <c r="Q3" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D3,""en"",""ko"")"),"볼티모어 경찰")</f>
-        <v>볼티모어 경찰</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D3,""en"",""ko"")"),"볼티모어 경찰서, 성능 및 혁신의 시장실")</f>
+        <v>볼티모어 경찰서, 성능 및 혁신의 시장실</v>
       </c>
       <c r="R3" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($E3,""en"",""ko"")"),"완전한")</f>
@@ -1504,12 +1510,12 @@
         <v>大厦公共安全</v>
       </c>
       <c r="T3" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C3,""en"",""zh"")"),"建立每月PoliceStat会议中BPD建立更强大的问责制和提高服务质量。")</f>
-        <v>建立每月PoliceStat会议中BPD建立更强大的问责制和提高服务质量。</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($C3,""en"",""zh"")"),"保持PoliceStat会议每隔一个星期内BPD建立更强大的问责制和提高服务质量。")</f>
+        <v>保持PoliceStat会议每隔一个星期内BPD建立更强大的问责制和提高服务质量。</v>
       </c>
       <c r="U3" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D3,""en"",""zh"")"),"巴尔的摩警察局")</f>
-        <v>巴尔的摩警察局</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($D3,""en"",""zh"")"),"巴尔的摩警察局，性能和创新的市长办公室")</f>
+        <v>巴尔的摩警察局，性能和创新的市长办公室</v>
       </c>
       <c r="V3" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($E3,""en"",""zh"")"),"完成")</f>
@@ -5659,13 +5665,13 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>117</v>
@@ -5676,7 +5682,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="9" t="s">
@@ -5702,11 +5708,11 @@
         <v>33</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7">
@@ -5714,11 +5720,11 @@
         <v>35</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8">
@@ -5726,7 +5732,7 @@
         <v>37</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>32</v>
@@ -5740,11 +5746,11 @@
         <v>39</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10">
@@ -5752,11 +5758,11 @@
         <v>41</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11">
@@ -5764,11 +5770,11 @@
         <v>43</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12">
@@ -5790,13 +5796,13 @@
         <v>46</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15">
@@ -5804,11 +5810,11 @@
         <v>48</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16">
@@ -5816,11 +5822,11 @@
         <v>49</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17">
@@ -5828,11 +5834,11 @@
         <v>50</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18">
@@ -5840,11 +5846,11 @@
         <v>52</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19">
@@ -5852,11 +5858,11 @@
         <v>53</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20">
@@ -5864,23 +5870,23 @@
         <v>55</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22">
@@ -5888,11 +5894,11 @@
         <v>59</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23">
@@ -5900,11 +5906,11 @@
         <v>61</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24">
@@ -5912,11 +5918,11 @@
         <v>62</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25">
@@ -5924,11 +5930,11 @@
         <v>64</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26">
@@ -5936,11 +5942,11 @@
         <v>66</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27">
@@ -5948,11 +5954,11 @@
         <v>67</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28">
@@ -5960,13 +5966,13 @@
         <v>69</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29">
@@ -5988,13 +5994,13 @@
         <v>72</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32">
@@ -6002,13 +6008,13 @@
         <v>74</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33">
@@ -6016,13 +6022,13 @@
         <v>76</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34">
@@ -6030,11 +6036,11 @@
         <v>78</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35">
@@ -6056,13 +6062,13 @@
         <v>81</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38">
@@ -6070,25 +6076,25 @@
         <v>82</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40">
@@ -6096,13 +6102,13 @@
         <v>85</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41">
@@ -6110,13 +6116,13 @@
         <v>87</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42">
@@ -6124,11 +6130,11 @@
         <v>88</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43">
@@ -6136,11 +6142,11 @@
         <v>89</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44">
@@ -6148,11 +6154,11 @@
         <v>91</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45">
@@ -6160,11 +6166,11 @@
         <v>93</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46">
@@ -6172,11 +6178,11 @@
         <v>94</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47">
@@ -6198,7 +6204,7 @@
         <v>96</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>25</v>
@@ -6212,11 +6218,11 @@
         <v>98</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51">
@@ -6224,13 +6230,13 @@
         <v>99</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52">
@@ -6238,13 +6244,13 @@
         <v>100</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53">
@@ -6252,13 +6258,13 @@
         <v>101</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54">
@@ -6266,11 +6272,11 @@
         <v>102</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55">
@@ -6292,11 +6298,11 @@
         <v>105</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58">
@@ -6304,11 +6310,11 @@
         <v>107</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59">
@@ -6316,11 +6322,11 @@
         <v>108</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C59" s="11"/>
       <c r="D59" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60">
@@ -6328,11 +6334,11 @@
         <v>110</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C60" s="11"/>
       <c r="D60" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61">
@@ -6340,11 +6346,11 @@
         <v>111</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62">
@@ -6352,11 +6358,11 @@
         <v>112</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C62" s="11"/>
       <c r="D62" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -6383,7 +6389,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B1" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($A1,""en"",""es"")"),"Prioridades y Progreso")</f>
@@ -6404,7 +6410,7 @@
     </row>
     <row r="2">
       <c r="A2" s="14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B2" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($A2,""en"",""es"")"),"Descargar datos (csv)")</f>
@@ -6425,7 +6431,7 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B3" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($A3,""en"",""es"")"),"Sobre esta Iniciativa")</f>
@@ -6446,7 +6452,7 @@
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B4" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($A4,""en"",""es"")"),"Recursos y Evaluación")</f>
@@ -6490,19 +6496,19 @@
   <sheetData>
     <row r="1" ht="42.75" customHeight="1">
       <c r="A1" s="16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2">
@@ -6517,7 +6523,7 @@
         <v>44173</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E2" s="22"/>
     </row>
@@ -6855,7 +6861,7 @@
         <v>44197</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E26" s="22"/>
     </row>
@@ -7207,7 +7213,7 @@
         <v>44222</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E51" s="22"/>
     </row>
@@ -7559,7 +7565,7 @@
         <v>44247</v>
       </c>
       <c r="D76" s="23" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E76" s="26"/>
     </row>
@@ -7911,7 +7917,7 @@
         <v>44272</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E101" s="22"/>
     </row>
@@ -7945,16 +7951,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>10</v>
@@ -7974,7 +7980,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D2" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B2,""en"",""es"")"),"Edificio de Seguridad Pública")</f>
@@ -8001,7 +8007,7 @@
         <v>45</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D3" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B3,""en"",""es"")"),"Haciendo Baltimore equitativa")</f>
@@ -8028,7 +8034,7 @@
         <v>71</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D4" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B4,""en"",""es"")"),"Priorización de nuestra juventud")</f>
@@ -8055,7 +8061,7 @@
         <v>80</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D5" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B5,""en"",""es"")"),"Fomento de la confianza pública")</f>
@@ -8082,7 +8088,7 @@
         <v>95</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D6" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B6,""en"",""es"")"),"COVID-19 Recuperación")</f>
@@ -8109,7 +8115,7 @@
         <v>104</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D7" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE($B7,""en"",""es"")"),"Administración responsable de los recursos de la ciudad")</f>
@@ -8152,13 +8158,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="29" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2">
@@ -8169,7 +8175,7 @@
         <v>44179.0</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3">
@@ -13178,211 +13184,211 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="34" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="35" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B2" s="36" t="s">
         <v>97</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="35" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="35" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B4" s="36" t="s">
         <v>63</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="35" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="35" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>27</v>
+        <v>207</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="35" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B7" s="36" t="s">
         <v>106</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="35" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B8" s="36" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="35" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B9" s="36" t="s">
         <v>65</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="35" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="35" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B11" s="36" t="s">
         <v>70</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="35" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B12" s="36" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="35" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B13" s="36" t="s">
         <v>86</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="35" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>79</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="35" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="35" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="35" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B17" s="36" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="35" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B18" s="36" t="s">
         <v>75</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="35" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B19" s="38" t="s">
         <v>90</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20">
@@ -13393,18 +13399,18 @@
         <v>24</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="35" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B21" s="36" t="s">
         <v>84</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/data/100 Day Tracker Data.xlsx
+++ b/data/100 Day Tracker Data.xlsx
@@ -791,7 +791,7 @@
     <numFmt numFmtId="166" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
     <numFmt numFmtId="167" formatCode="M/d/yyyy"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="16">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -800,16 +800,7 @@
     <font>
       <b/>
       <sz val="11.0"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
       <color theme="1"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
       <name val="Roboto"/>
     </font>
     <font>
@@ -827,7 +818,10 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
       <sz val="12.0"/>
@@ -846,10 +840,6 @@
     <font>
       <b/>
       <sz val="9.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -953,151 +943,145 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="4" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="3" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="4" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="12" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="2" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1351,1179 +1335,1179 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" ht="31.5" customHeight="1">
-      <c r="A2" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="3" ht="31.5" customHeight="1">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2.0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="4" ht="31.5" customHeight="1">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3.0</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="5" ht="31.5" customHeight="1">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>4.0</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="6" ht="31.5" customHeight="1">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>5.0</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="7" ht="31.5" customHeight="1">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>6.0</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="8" ht="31.5" customHeight="1">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>7.0</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="9" ht="31.5" customHeight="1">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>8.0</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="10" ht="31.5" customHeight="1">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>9.0</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="11" ht="31.5" customHeight="1">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>10.0</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="12" ht="31.5" customHeight="1">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>11.0</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="13" ht="31.5" customHeight="1">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>12.0</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="14" ht="31.5" customHeight="1">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>13.0</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="15" ht="31.5" customHeight="1">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>14.0</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="16" ht="31.5" customHeight="1">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>15.0</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="17" ht="31.5" customHeight="1">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>16.0</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="18" ht="31.5" customHeight="1">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>17.0</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="19" ht="31.5" customHeight="1">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>18.0</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="20" ht="31.5" customHeight="1">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>19.0</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="21" ht="31.5" customHeight="1">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>20.0</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="22" ht="31.5" customHeight="1">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>21.0</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="23" ht="31.5" customHeight="1">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>22.0</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="24" ht="31.5" customHeight="1">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>23.0</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="25" ht="31.5" customHeight="1">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>24.0</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="26" ht="31.5" customHeight="1">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>25.0</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="27" ht="31.5" customHeight="1">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>26.0</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="28" ht="31.5" customHeight="1">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>27.0</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="29" ht="31.5" customHeight="1">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>28.0</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="30" ht="31.5" customHeight="1">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>29.0</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="31" ht="31.5" customHeight="1">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>30.0</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="32" ht="31.5" customHeight="1">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>31.0</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="33" ht="31.5" customHeight="1">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>32.0</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="34" ht="31.5" customHeight="1">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>33.0</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="35" ht="31.5" customHeight="1">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>34.0</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="36" ht="31.5" customHeight="1">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>35.0</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="37" ht="31.5" customHeight="1">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <v>36.0</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="38" ht="31.5" customHeight="1">
-      <c r="A38" s="4">
+      <c r="A38" s="3">
         <v>37.0</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="39" ht="31.5" customHeight="1">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <v>38.0</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="40" ht="31.5" customHeight="1">
-      <c r="A40" s="4">
+      <c r="A40" s="3">
         <v>39.0</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="41" ht="31.5" customHeight="1">
-      <c r="A41" s="4">
+      <c r="A41" s="3">
         <v>40.0</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="42" ht="31.5" customHeight="1">
-      <c r="A42" s="4">
+      <c r="A42" s="3">
         <v>41.0</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="43" ht="31.5" customHeight="1">
-      <c r="A43" s="4">
+      <c r="A43" s="3">
         <v>42.0</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="44" ht="31.5" customHeight="1">
-      <c r="A44" s="4">
+      <c r="A44" s="3">
         <v>43.0</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="45" ht="31.5" customHeight="1">
-      <c r="A45" s="4">
+      <c r="A45" s="3">
         <v>44.0</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="46" ht="31.5" customHeight="1">
-      <c r="A46" s="4">
+      <c r="A46" s="3">
         <v>45.0</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="47" ht="31.5" customHeight="1">
-      <c r="A47" s="4">
+      <c r="A47" s="3">
         <v>46.0</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="48" ht="31.5" customHeight="1">
-      <c r="A48" s="4">
+      <c r="A48" s="3">
         <v>47.0</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="49" ht="31.5" customHeight="1">
-      <c r="A49" s="4">
+      <c r="A49" s="3">
         <v>48.0</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="50" ht="31.5" customHeight="1">
-      <c r="A50" s="4">
+      <c r="A50" s="3">
         <v>49.0</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="51" ht="31.5" customHeight="1">
-      <c r="A51" s="4">
+      <c r="A51" s="3">
         <v>50.0</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="52" ht="31.5" customHeight="1">
-      <c r="A52" s="4">
+      <c r="A52" s="3">
         <v>51.0</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F52" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="53" ht="31.5" customHeight="1">
-      <c r="A53" s="4">
+      <c r="A53" s="3">
         <v>52.0</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="54" ht="31.5" customHeight="1">
-      <c r="A54" s="4">
+      <c r="A54" s="3">
         <v>53.0</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F54" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="55" ht="31.5" customHeight="1">
-      <c r="A55" s="4">
+      <c r="A55" s="3">
         <v>54.0</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D55" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E55" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="56" ht="31.5" customHeight="1">
-      <c r="A56" s="4">
+      <c r="A56" s="3">
         <v>55.0</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D56" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E56" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F56" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="57" ht="31.5" customHeight="1">
-      <c r="A57" s="4">
+      <c r="A57" s="3">
         <v>56.0</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="D57" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E57" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F57" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="58" ht="31.5" customHeight="1">
-      <c r="A58" s="4">
+      <c r="A58" s="3">
         <v>57.0</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F58" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="59" ht="31.5" customHeight="1">
-      <c r="A59" s="11">
+      <c r="A59" s="9">
         <v>58.0</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D59" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E59" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59" s="3">
         <v>1.0</v>
       </c>
     </row>
@@ -2555,730 +2539,730 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="14" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="12" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="14" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="12" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="14" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="12" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="12" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="14" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="12" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="14" t="s">
+      <c r="C10" s="14"/>
+      <c r="D10" s="12" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="14" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="12" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
     </row>
     <row r="14">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="14" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="12" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="14" t="s">
+      <c r="C16" s="14"/>
+      <c r="D16" s="12" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="14" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="12" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="14" t="s">
+      <c r="C18" s="14"/>
+      <c r="D18" s="12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="14" t="s">
+      <c r="C19" s="14"/>
+      <c r="D19" s="12" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="14" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="12" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="14" t="s">
+      <c r="C21" s="14"/>
+      <c r="D21" s="12" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="14" t="s">
+      <c r="C22" s="14"/>
+      <c r="D22" s="12" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="14" t="s">
+      <c r="C23" s="14"/>
+      <c r="D23" s="12" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="14" t="s">
+      <c r="C24" s="14"/>
+      <c r="D24" s="12" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="14" t="s">
+      <c r="C25" s="14"/>
+      <c r="D25" s="12" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="14" t="s">
+      <c r="C26" s="14"/>
+      <c r="D26" s="12" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="14" t="s">
+      <c r="C27" s="14"/>
+      <c r="D27" s="12" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="12" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
     </row>
     <row r="30">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
     </row>
     <row r="31">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="12" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="12" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="12" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="14" t="s">
+      <c r="C34" s="14"/>
+      <c r="D34" s="12" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
     </row>
     <row r="36">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
     </row>
     <row r="37">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="12" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="14" t="s">
+      <c r="C38" s="14"/>
+      <c r="D38" s="12" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="12" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="12" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="12" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="14" t="s">
+      <c r="C42" s="14"/>
+      <c r="D42" s="12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="14" t="s">
+      <c r="C43" s="14"/>
+      <c r="D43" s="12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="14" t="s">
+      <c r="C44" s="14"/>
+      <c r="D44" s="12" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="14" t="s">
+      <c r="C45" s="14"/>
+      <c r="D45" s="12" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="14" t="s">
+      <c r="C46" s="14"/>
+      <c r="D46" s="12" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
     </row>
     <row r="48">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
     </row>
     <row r="49">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="D49" s="12" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="14" t="s">
+      <c r="C50" s="14"/>
+      <c r="D50" s="12" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C51" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D51" s="12" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D52" s="12" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="D53" s="12" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C54" s="16"/>
-      <c r="D54" s="14" t="s">
+      <c r="C54" s="14"/>
+      <c r="D54" s="12" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="16"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
     </row>
     <row r="56">
-      <c r="A56" s="18" t="s">
+      <c r="A56" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
     </row>
     <row r="57">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="C57" s="16"/>
-      <c r="D57" s="14" t="s">
+      <c r="C57" s="14"/>
+      <c r="D57" s="12" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C58" s="16"/>
-      <c r="D58" s="14" t="s">
+      <c r="C58" s="14"/>
+      <c r="D58" s="12" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="C59" s="16"/>
-      <c r="D59" s="14" t="s">
+      <c r="C59" s="14"/>
+      <c r="D59" s="12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C60" s="16"/>
-      <c r="D60" s="14" t="s">
+      <c r="C60" s="14"/>
+      <c r="D60" s="12" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="15" t="s">
+      <c r="A61" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C61" s="16"/>
-      <c r="D61" s="14" t="s">
+      <c r="C61" s="14"/>
+      <c r="D61" s="12" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="C62" s="16"/>
-      <c r="D62" s="14" t="s">
+      <c r="C62" s="14"/>
+      <c r="D62" s="12" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3306,1431 +3290,1431 @@
   </cols>
   <sheetData>
     <row r="1" ht="42.75" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="18" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="23">
+      <c r="A2" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="21">
         <v>44173.0</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="22">
         <f t="shared" ref="C2:C101" si="1">B2</f>
         <v>44173</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="E2" s="25"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3">
-      <c r="A3" s="22">
+      <c r="A3" s="20">
         <v>2.0</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="21">
         <v>44174.0</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="22">
         <f t="shared" si="1"/>
         <v>44174</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4">
-      <c r="A4" s="22">
+      <c r="A4" s="20">
         <v>3.0</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="21">
         <v>44175.0</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="22">
         <f t="shared" si="1"/>
         <v>44175</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
     </row>
     <row r="5">
-      <c r="A5" s="22">
+      <c r="A5" s="20">
         <v>4.0</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="21">
         <v>44176.0</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="22">
         <f t="shared" si="1"/>
         <v>44176</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
     </row>
     <row r="6">
-      <c r="A6" s="26">
+      <c r="A6" s="24">
         <v>5.0</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="25">
         <v>44177.0</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="26">
         <f t="shared" si="1"/>
         <v>44177</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7">
-      <c r="A7" s="26">
+      <c r="A7" s="24">
         <v>6.0</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="25">
         <v>44178.0</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="26">
         <f t="shared" si="1"/>
         <v>44178</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8">
-      <c r="A8" s="22">
+      <c r="A8" s="20">
         <v>7.0</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="21">
         <v>44179.0</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="22">
         <f t="shared" si="1"/>
         <v>44179</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
     </row>
     <row r="9">
-      <c r="A9" s="22">
+      <c r="A9" s="20">
         <v>8.0</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="21">
         <v>44180.0</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="22">
         <f t="shared" si="1"/>
         <v>44180</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
     </row>
     <row r="10">
-      <c r="A10" s="22">
+      <c r="A10" s="20">
         <v>9.0</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="21">
         <v>44181.0</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="22">
         <f t="shared" si="1"/>
         <v>44181</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
     </row>
     <row r="11">
-      <c r="A11" s="22">
+      <c r="A11" s="20">
         <v>10.0</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="21">
         <v>44182.0</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="22">
         <f t="shared" si="1"/>
         <v>44182</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
     </row>
     <row r="12">
-      <c r="A12" s="22">
+      <c r="A12" s="20">
         <v>11.0</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="21">
         <v>44183.0</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="22">
         <f t="shared" si="1"/>
         <v>44183</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
     </row>
     <row r="13">
-      <c r="A13" s="26">
+      <c r="A13" s="24">
         <v>12.0</v>
       </c>
-      <c r="B13" s="27">
+      <c r="B13" s="25">
         <v>44184.0</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="26">
         <f t="shared" si="1"/>
         <v>44184</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
     </row>
     <row r="14">
-      <c r="A14" s="26">
+      <c r="A14" s="24">
         <v>13.0</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="25">
         <v>44185.0</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="26">
         <f t="shared" si="1"/>
         <v>44185</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
     </row>
     <row r="15">
-      <c r="A15" s="22">
+      <c r="A15" s="20">
         <v>14.0</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="21">
         <v>44186.0</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="22">
         <f t="shared" si="1"/>
         <v>44186</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
     </row>
     <row r="16">
-      <c r="A16" s="22">
+      <c r="A16" s="20">
         <v>15.0</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="21">
         <v>44187.0</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="22">
         <f t="shared" si="1"/>
         <v>44187</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
     </row>
     <row r="17">
-      <c r="A17" s="22">
+      <c r="A17" s="20">
         <v>16.0</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="21">
         <v>44188.0</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="22">
         <f t="shared" si="1"/>
         <v>44188</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
     </row>
     <row r="18">
-      <c r="A18" s="22">
+      <c r="A18" s="20">
         <v>17.0</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="21">
         <v>44189.0</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="22">
         <f t="shared" si="1"/>
         <v>44189</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
     </row>
     <row r="19">
-      <c r="A19" s="22">
+      <c r="A19" s="20">
         <v>18.0</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="21">
         <v>44190.0</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="22">
         <f t="shared" si="1"/>
         <v>44190</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
     </row>
     <row r="20">
-      <c r="A20" s="26">
+      <c r="A20" s="24">
         <v>19.0</v>
       </c>
-      <c r="B20" s="27">
+      <c r="B20" s="25">
         <v>44191.0</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="26">
         <f t="shared" si="1"/>
         <v>44191</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
     </row>
     <row r="21">
-      <c r="A21" s="26">
+      <c r="A21" s="24">
         <v>20.0</v>
       </c>
-      <c r="B21" s="27">
+      <c r="B21" s="25">
         <v>44192.0</v>
       </c>
-      <c r="C21" s="28">
+      <c r="C21" s="26">
         <f t="shared" si="1"/>
         <v>44192</v>
       </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
     </row>
     <row r="22">
-      <c r="A22" s="22">
+      <c r="A22" s="20">
         <v>21.0</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="21">
         <v>44193.0</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="22">
         <f t="shared" si="1"/>
         <v>44193</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
     </row>
     <row r="23">
-      <c r="A23" s="22">
+      <c r="A23" s="20">
         <v>22.0</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="21">
         <v>44194.0</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="22">
         <f t="shared" si="1"/>
         <v>44194</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
     </row>
     <row r="24">
-      <c r="A24" s="22">
+      <c r="A24" s="20">
         <v>23.0</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24" s="21">
         <v>44195.0</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="22">
         <f t="shared" si="1"/>
         <v>44195</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
     </row>
     <row r="25">
-      <c r="A25" s="22">
+      <c r="A25" s="20">
         <v>24.0</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="21">
         <v>44196.0</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="22">
         <f t="shared" si="1"/>
         <v>44196</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
     </row>
     <row r="26">
-      <c r="A26" s="22">
+      <c r="A26" s="20">
         <v>25.0</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="21">
         <v>44197.0</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="22">
         <f t="shared" si="1"/>
         <v>44197</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="E26" s="25"/>
+      <c r="E26" s="23"/>
     </row>
     <row r="27">
-      <c r="A27" s="26">
+      <c r="A27" s="24">
         <v>26.0</v>
       </c>
-      <c r="B27" s="27">
+      <c r="B27" s="25">
         <v>44198.0</v>
       </c>
-      <c r="C27" s="28">
+      <c r="C27" s="26">
         <f t="shared" si="1"/>
         <v>44198</v>
       </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
     </row>
     <row r="28">
-      <c r="A28" s="26">
+      <c r="A28" s="24">
         <v>27.0</v>
       </c>
-      <c r="B28" s="27">
+      <c r="B28" s="25">
         <v>44199.0</v>
       </c>
-      <c r="C28" s="28">
+      <c r="C28" s="26">
         <f t="shared" si="1"/>
         <v>44199</v>
       </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
     </row>
     <row r="29">
-      <c r="A29" s="22">
+      <c r="A29" s="20">
         <v>28.0</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="21">
         <v>44200.0</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="22">
         <f t="shared" si="1"/>
         <v>44200</v>
       </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
     </row>
     <row r="30">
-      <c r="A30" s="22">
+      <c r="A30" s="20">
         <v>29.0</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="21">
         <v>44201.0</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C30" s="22">
         <f t="shared" si="1"/>
         <v>44201</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
     </row>
     <row r="31">
-      <c r="A31" s="22">
+      <c r="A31" s="20">
         <v>30.0</v>
       </c>
-      <c r="B31" s="23">
+      <c r="B31" s="21">
         <v>44202.0</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="22">
         <f t="shared" si="1"/>
         <v>44202</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
     </row>
     <row r="32">
-      <c r="A32" s="22">
+      <c r="A32" s="20">
         <v>31.0</v>
       </c>
-      <c r="B32" s="23">
+      <c r="B32" s="21">
         <v>44203.0</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="22">
         <f t="shared" si="1"/>
         <v>44203</v>
       </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
     </row>
     <row r="33">
-      <c r="A33" s="22">
+      <c r="A33" s="20">
         <v>32.0</v>
       </c>
-      <c r="B33" s="23">
+      <c r="B33" s="21">
         <v>44204.0</v>
       </c>
-      <c r="C33" s="24">
+      <c r="C33" s="22">
         <f t="shared" si="1"/>
         <v>44204</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
     </row>
     <row r="34">
-      <c r="A34" s="26">
+      <c r="A34" s="24">
         <v>33.0</v>
       </c>
-      <c r="B34" s="27">
+      <c r="B34" s="25">
         <v>44205.0</v>
       </c>
-      <c r="C34" s="28">
+      <c r="C34" s="26">
         <f t="shared" si="1"/>
         <v>44205</v>
       </c>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
     </row>
     <row r="35">
-      <c r="A35" s="26">
+      <c r="A35" s="24">
         <v>34.0</v>
       </c>
-      <c r="B35" s="27">
+      <c r="B35" s="25">
         <v>44206.0</v>
       </c>
-      <c r="C35" s="28">
+      <c r="C35" s="26">
         <f t="shared" si="1"/>
         <v>44206</v>
       </c>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
     </row>
     <row r="36">
-      <c r="A36" s="22">
+      <c r="A36" s="20">
         <v>35.0</v>
       </c>
-      <c r="B36" s="23">
+      <c r="B36" s="21">
         <v>44207.0</v>
       </c>
-      <c r="C36" s="24">
+      <c r="C36" s="22">
         <f t="shared" si="1"/>
         <v>44207</v>
       </c>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
     </row>
     <row r="37">
-      <c r="A37" s="22">
+      <c r="A37" s="20">
         <v>36.0</v>
       </c>
-      <c r="B37" s="23">
+      <c r="B37" s="21">
         <v>44208.0</v>
       </c>
-      <c r="C37" s="24">
+      <c r="C37" s="22">
         <f t="shared" si="1"/>
         <v>44208</v>
       </c>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
     </row>
     <row r="38">
-      <c r="A38" s="22">
+      <c r="A38" s="20">
         <v>37.0</v>
       </c>
-      <c r="B38" s="23">
+      <c r="B38" s="21">
         <v>44209.0</v>
       </c>
-      <c r="C38" s="24">
+      <c r="C38" s="22">
         <f t="shared" si="1"/>
         <v>44209</v>
       </c>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
     </row>
     <row r="39">
-      <c r="A39" s="22">
+      <c r="A39" s="20">
         <v>38.0</v>
       </c>
-      <c r="B39" s="23">
+      <c r="B39" s="21">
         <v>44210.0</v>
       </c>
-      <c r="C39" s="24">
+      <c r="C39" s="22">
         <f t="shared" si="1"/>
         <v>44210</v>
       </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
     </row>
     <row r="40">
-      <c r="A40" s="22">
+      <c r="A40" s="20">
         <v>39.0</v>
       </c>
-      <c r="B40" s="23">
+      <c r="B40" s="21">
         <v>44211.0</v>
       </c>
-      <c r="C40" s="24">
+      <c r="C40" s="22">
         <f t="shared" si="1"/>
         <v>44211</v>
       </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
     </row>
     <row r="41">
-      <c r="A41" s="26">
+      <c r="A41" s="24">
         <v>40.0</v>
       </c>
-      <c r="B41" s="27">
+      <c r="B41" s="25">
         <v>44212.0</v>
       </c>
-      <c r="C41" s="28">
+      <c r="C41" s="26">
         <f t="shared" si="1"/>
         <v>44212</v>
       </c>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
     </row>
     <row r="42">
-      <c r="A42" s="26">
+      <c r="A42" s="24">
         <v>41.0</v>
       </c>
-      <c r="B42" s="27">
+      <c r="B42" s="25">
         <v>44213.0</v>
       </c>
-      <c r="C42" s="28">
+      <c r="C42" s="26">
         <f t="shared" si="1"/>
         <v>44213</v>
       </c>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
     </row>
     <row r="43">
-      <c r="A43" s="22">
+      <c r="A43" s="20">
         <v>42.0</v>
       </c>
-      <c r="B43" s="23">
+      <c r="B43" s="21">
         <v>44214.0</v>
       </c>
-      <c r="C43" s="24">
+      <c r="C43" s="22">
         <f t="shared" si="1"/>
         <v>44214</v>
       </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
     </row>
     <row r="44">
-      <c r="A44" s="22">
+      <c r="A44" s="20">
         <v>43.0</v>
       </c>
-      <c r="B44" s="23">
+      <c r="B44" s="21">
         <v>44215.0</v>
       </c>
-      <c r="C44" s="24">
+      <c r="C44" s="22">
         <f t="shared" si="1"/>
         <v>44215</v>
       </c>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
     </row>
     <row r="45">
-      <c r="A45" s="22">
+      <c r="A45" s="20">
         <v>44.0</v>
       </c>
-      <c r="B45" s="23">
+      <c r="B45" s="21">
         <v>44216.0</v>
       </c>
-      <c r="C45" s="24">
+      <c r="C45" s="22">
         <f t="shared" si="1"/>
         <v>44216</v>
       </c>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
     </row>
     <row r="46">
-      <c r="A46" s="22">
+      <c r="A46" s="20">
         <v>45.0</v>
       </c>
-      <c r="B46" s="23">
+      <c r="B46" s="21">
         <v>44217.0</v>
       </c>
-      <c r="C46" s="24">
+      <c r="C46" s="22">
         <f t="shared" si="1"/>
         <v>44217</v>
       </c>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
     </row>
     <row r="47">
-      <c r="A47" s="22">
+      <c r="A47" s="20">
         <v>46.0</v>
       </c>
-      <c r="B47" s="23">
+      <c r="B47" s="21">
         <v>44218.0</v>
       </c>
-      <c r="C47" s="24">
+      <c r="C47" s="22">
         <f t="shared" si="1"/>
         <v>44218</v>
       </c>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
     </row>
     <row r="48">
-      <c r="A48" s="26">
+      <c r="A48" s="24">
         <v>47.0</v>
       </c>
-      <c r="B48" s="27">
+      <c r="B48" s="25">
         <v>44219.0</v>
       </c>
-      <c r="C48" s="28">
+      <c r="C48" s="26">
         <f t="shared" si="1"/>
         <v>44219</v>
       </c>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
     </row>
     <row r="49">
-      <c r="A49" s="26">
+      <c r="A49" s="24">
         <v>48.0</v>
       </c>
-      <c r="B49" s="27">
+      <c r="B49" s="25">
         <v>44220.0</v>
       </c>
-      <c r="C49" s="28">
+      <c r="C49" s="26">
         <f t="shared" si="1"/>
         <v>44220</v>
       </c>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
     </row>
     <row r="50">
-      <c r="A50" s="22">
+      <c r="A50" s="20">
         <v>49.0</v>
       </c>
-      <c r="B50" s="23">
+      <c r="B50" s="21">
         <v>44221.0</v>
       </c>
-      <c r="C50" s="24">
+      <c r="C50" s="22">
         <f t="shared" si="1"/>
         <v>44221</v>
       </c>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
     </row>
     <row r="51">
-      <c r="A51" s="22">
+      <c r="A51" s="20">
         <v>50.0</v>
       </c>
-      <c r="B51" s="23">
+      <c r="B51" s="21">
         <v>44222.0</v>
       </c>
-      <c r="C51" s="24">
+      <c r="C51" s="22">
         <f t="shared" si="1"/>
         <v>44222</v>
       </c>
-      <c r="D51" s="22" t="s">
+      <c r="D51" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="E51" s="25"/>
+      <c r="E51" s="23"/>
     </row>
     <row r="52">
-      <c r="A52" s="22">
+      <c r="A52" s="20">
         <v>51.0</v>
       </c>
-      <c r="B52" s="23">
+      <c r="B52" s="21">
         <v>44223.0</v>
       </c>
-      <c r="C52" s="24">
+      <c r="C52" s="22">
         <f t="shared" si="1"/>
         <v>44223</v>
       </c>
-      <c r="D52" s="22"/>
-      <c r="E52" s="25"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="23"/>
     </row>
     <row r="53">
-      <c r="A53" s="22">
+      <c r="A53" s="20">
         <v>52.0</v>
       </c>
-      <c r="B53" s="23">
+      <c r="B53" s="21">
         <v>44224.0</v>
       </c>
-      <c r="C53" s="24">
+      <c r="C53" s="22">
         <f t="shared" si="1"/>
         <v>44224</v>
       </c>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
     </row>
     <row r="54">
-      <c r="A54" s="22">
+      <c r="A54" s="20">
         <v>53.0</v>
       </c>
-      <c r="B54" s="23">
+      <c r="B54" s="21">
         <v>44225.0</v>
       </c>
-      <c r="C54" s="24">
+      <c r="C54" s="22">
         <f t="shared" si="1"/>
         <v>44225</v>
       </c>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
     </row>
     <row r="55">
-      <c r="A55" s="26">
+      <c r="A55" s="24">
         <v>54.0</v>
       </c>
-      <c r="B55" s="27">
+      <c r="B55" s="25">
         <v>44226.0</v>
       </c>
-      <c r="C55" s="28">
+      <c r="C55" s="26">
         <f t="shared" si="1"/>
         <v>44226</v>
       </c>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
     </row>
     <row r="56">
-      <c r="A56" s="26">
+      <c r="A56" s="24">
         <v>55.0</v>
       </c>
-      <c r="B56" s="27">
+      <c r="B56" s="25">
         <v>44227.0</v>
       </c>
-      <c r="C56" s="28">
+      <c r="C56" s="26">
         <f t="shared" si="1"/>
         <v>44227</v>
       </c>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
     </row>
     <row r="57">
-      <c r="A57" s="22">
+      <c r="A57" s="20">
         <v>56.0</v>
       </c>
-      <c r="B57" s="23">
+      <c r="B57" s="21">
         <v>44228.0</v>
       </c>
-      <c r="C57" s="24">
+      <c r="C57" s="22">
         <f t="shared" si="1"/>
         <v>44228</v>
       </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
     </row>
     <row r="58">
-      <c r="A58" s="22">
+      <c r="A58" s="20">
         <v>57.0</v>
       </c>
-      <c r="B58" s="23">
+      <c r="B58" s="21">
         <v>44229.0</v>
       </c>
-      <c r="C58" s="24">
+      <c r="C58" s="22">
         <f t="shared" si="1"/>
         <v>44229</v>
       </c>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
     </row>
     <row r="59">
-      <c r="A59" s="22">
+      <c r="A59" s="20">
         <v>58.0</v>
       </c>
-      <c r="B59" s="23">
+      <c r="B59" s="21">
         <v>44230.0</v>
       </c>
-      <c r="C59" s="24">
+      <c r="C59" s="22">
         <f t="shared" si="1"/>
         <v>44230</v>
       </c>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
     </row>
     <row r="60">
-      <c r="A60" s="22">
+      <c r="A60" s="20">
         <v>59.0</v>
       </c>
-      <c r="B60" s="23">
+      <c r="B60" s="21">
         <v>44231.0</v>
       </c>
-      <c r="C60" s="24">
+      <c r="C60" s="22">
         <f t="shared" si="1"/>
         <v>44231</v>
       </c>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
     </row>
     <row r="61">
-      <c r="A61" s="22">
+      <c r="A61" s="20">
         <v>60.0</v>
       </c>
-      <c r="B61" s="23">
+      <c r="B61" s="21">
         <v>44232.0</v>
       </c>
-      <c r="C61" s="24">
+      <c r="C61" s="22">
         <f t="shared" si="1"/>
         <v>44232</v>
       </c>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
     </row>
     <row r="62">
-      <c r="A62" s="26">
+      <c r="A62" s="24">
         <v>61.0</v>
       </c>
-      <c r="B62" s="27">
+      <c r="B62" s="25">
         <v>44233.0</v>
       </c>
-      <c r="C62" s="28">
+      <c r="C62" s="26">
         <f t="shared" si="1"/>
         <v>44233</v>
       </c>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
     </row>
     <row r="63">
-      <c r="A63" s="26">
+      <c r="A63" s="24">
         <v>62.0</v>
       </c>
-      <c r="B63" s="27">
+      <c r="B63" s="25">
         <v>44234.0</v>
       </c>
-      <c r="C63" s="28">
+      <c r="C63" s="26">
         <f t="shared" si="1"/>
         <v>44234</v>
       </c>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
     </row>
     <row r="64">
-      <c r="A64" s="22">
+      <c r="A64" s="20">
         <v>63.0</v>
       </c>
-      <c r="B64" s="23">
+      <c r="B64" s="21">
         <v>44235.0</v>
       </c>
-      <c r="C64" s="24">
+      <c r="C64" s="22">
         <f t="shared" si="1"/>
         <v>44235</v>
       </c>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
     </row>
     <row r="65">
-      <c r="A65" s="22">
+      <c r="A65" s="20">
         <v>64.0</v>
       </c>
-      <c r="B65" s="23">
+      <c r="B65" s="21">
         <v>44236.0</v>
       </c>
-      <c r="C65" s="24">
+      <c r="C65" s="22">
         <f t="shared" si="1"/>
         <v>44236</v>
       </c>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
     </row>
     <row r="66">
-      <c r="A66" s="22">
+      <c r="A66" s="20">
         <v>65.0</v>
       </c>
-      <c r="B66" s="23">
+      <c r="B66" s="21">
         <v>44237.0</v>
       </c>
-      <c r="C66" s="24">
+      <c r="C66" s="22">
         <f t="shared" si="1"/>
         <v>44237</v>
       </c>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
     </row>
     <row r="67">
-      <c r="A67" s="22">
+      <c r="A67" s="20">
         <v>66.0</v>
       </c>
-      <c r="B67" s="23">
+      <c r="B67" s="21">
         <v>44238.0</v>
       </c>
-      <c r="C67" s="24">
+      <c r="C67" s="22">
         <f t="shared" si="1"/>
         <v>44238</v>
       </c>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
     </row>
     <row r="68">
-      <c r="A68" s="22">
+      <c r="A68" s="20">
         <v>67.0</v>
       </c>
-      <c r="B68" s="23">
+      <c r="B68" s="21">
         <v>44239.0</v>
       </c>
-      <c r="C68" s="24">
+      <c r="C68" s="22">
         <f t="shared" si="1"/>
         <v>44239</v>
       </c>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
     </row>
     <row r="69">
-      <c r="A69" s="26">
+      <c r="A69" s="24">
         <v>68.0</v>
       </c>
-      <c r="B69" s="27">
+      <c r="B69" s="25">
         <v>44240.0</v>
       </c>
-      <c r="C69" s="28">
+      <c r="C69" s="26">
         <f t="shared" si="1"/>
         <v>44240</v>
       </c>
-      <c r="D69" s="29"/>
-      <c r="E69" s="29"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
     </row>
     <row r="70">
-      <c r="A70" s="26">
+      <c r="A70" s="24">
         <v>69.0</v>
       </c>
-      <c r="B70" s="27">
+      <c r="B70" s="25">
         <v>44241.0</v>
       </c>
-      <c r="C70" s="28">
+      <c r="C70" s="26">
         <f t="shared" si="1"/>
         <v>44241</v>
       </c>
-      <c r="D70" s="29"/>
-      <c r="E70" s="29"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
     </row>
     <row r="71">
-      <c r="A71" s="22">
+      <c r="A71" s="20">
         <v>70.0</v>
       </c>
-      <c r="B71" s="23">
+      <c r="B71" s="21">
         <v>44242.0</v>
       </c>
-      <c r="C71" s="24">
+      <c r="C71" s="22">
         <f t="shared" si="1"/>
         <v>44242</v>
       </c>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
     </row>
     <row r="72">
-      <c r="A72" s="22">
+      <c r="A72" s="20">
         <v>71.0</v>
       </c>
-      <c r="B72" s="23">
+      <c r="B72" s="21">
         <v>44243.0</v>
       </c>
-      <c r="C72" s="24">
+      <c r="C72" s="22">
         <f t="shared" si="1"/>
         <v>44243</v>
       </c>
-      <c r="D72" s="25"/>
-      <c r="E72" s="25"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
     </row>
     <row r="73">
-      <c r="A73" s="22">
+      <c r="A73" s="20">
         <v>72.0</v>
       </c>
-      <c r="B73" s="23">
+      <c r="B73" s="21">
         <v>44244.0</v>
       </c>
-      <c r="C73" s="24">
+      <c r="C73" s="22">
         <f t="shared" si="1"/>
         <v>44244</v>
       </c>
-      <c r="D73" s="25"/>
-      <c r="E73" s="25"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
     </row>
     <row r="74">
-      <c r="A74" s="22">
+      <c r="A74" s="20">
         <v>73.0</v>
       </c>
-      <c r="B74" s="23">
+      <c r="B74" s="21">
         <v>44245.0</v>
       </c>
-      <c r="C74" s="24">
+      <c r="C74" s="22">
         <f t="shared" si="1"/>
         <v>44245</v>
       </c>
-      <c r="D74" s="25"/>
-      <c r="E74" s="25"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="23"/>
     </row>
     <row r="75">
-      <c r="A75" s="22">
+      <c r="A75" s="20">
         <v>74.0</v>
       </c>
-      <c r="B75" s="23">
+      <c r="B75" s="21">
         <v>44246.0</v>
       </c>
-      <c r="C75" s="24">
+      <c r="C75" s="22">
         <f t="shared" si="1"/>
         <v>44246</v>
       </c>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
     </row>
     <row r="76">
-      <c r="A76" s="26">
+      <c r="A76" s="24">
         <v>75.0</v>
       </c>
-      <c r="B76" s="27">
+      <c r="B76" s="25">
         <v>44247.0</v>
       </c>
-      <c r="C76" s="28">
+      <c r="C76" s="26">
         <f t="shared" si="1"/>
         <v>44247</v>
       </c>
-      <c r="D76" s="26" t="s">
+      <c r="D76" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="E76" s="29"/>
+      <c r="E76" s="27"/>
     </row>
     <row r="77">
-      <c r="A77" s="26">
+      <c r="A77" s="24">
         <v>76.0</v>
       </c>
-      <c r="B77" s="27">
+      <c r="B77" s="25">
         <v>44248.0</v>
       </c>
-      <c r="C77" s="28">
+      <c r="C77" s="26">
         <f t="shared" si="1"/>
         <v>44248</v>
       </c>
-      <c r="D77" s="29"/>
-      <c r="E77" s="29"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="27"/>
     </row>
     <row r="78">
-      <c r="A78" s="22">
+      <c r="A78" s="20">
         <v>77.0</v>
       </c>
-      <c r="B78" s="23">
+      <c r="B78" s="21">
         <v>44249.0</v>
       </c>
-      <c r="C78" s="24">
+      <c r="C78" s="22">
         <f t="shared" si="1"/>
         <v>44249</v>
       </c>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
     </row>
     <row r="79">
-      <c r="A79" s="22">
+      <c r="A79" s="20">
         <v>78.0</v>
       </c>
-      <c r="B79" s="23">
+      <c r="B79" s="21">
         <v>44250.0</v>
       </c>
-      <c r="C79" s="24">
+      <c r="C79" s="22">
         <f t="shared" si="1"/>
         <v>44250</v>
       </c>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
     </row>
     <row r="80">
-      <c r="A80" s="22">
+      <c r="A80" s="20">
         <v>79.0</v>
       </c>
-      <c r="B80" s="23">
+      <c r="B80" s="21">
         <v>44251.0</v>
       </c>
-      <c r="C80" s="24">
+      <c r="C80" s="22">
         <f t="shared" si="1"/>
         <v>44251</v>
       </c>
-      <c r="D80" s="25"/>
-      <c r="E80" s="25"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
     </row>
     <row r="81">
-      <c r="A81" s="22">
+      <c r="A81" s="20">
         <v>80.0</v>
       </c>
-      <c r="B81" s="23">
+      <c r="B81" s="21">
         <v>44252.0</v>
       </c>
-      <c r="C81" s="24">
+      <c r="C81" s="22">
         <f t="shared" si="1"/>
         <v>44252</v>
       </c>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="23"/>
     </row>
     <row r="82">
-      <c r="A82" s="22">
+      <c r="A82" s="20">
         <v>81.0</v>
       </c>
-      <c r="B82" s="23">
+      <c r="B82" s="21">
         <v>44253.0</v>
       </c>
-      <c r="C82" s="24">
+      <c r="C82" s="22">
         <f t="shared" si="1"/>
         <v>44253</v>
       </c>
-      <c r="D82" s="25"/>
-      <c r="E82" s="25"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="23"/>
     </row>
     <row r="83">
-      <c r="A83" s="26">
+      <c r="A83" s="24">
         <v>82.0</v>
       </c>
-      <c r="B83" s="27">
+      <c r="B83" s="25">
         <v>44254.0</v>
       </c>
-      <c r="C83" s="28">
+      <c r="C83" s="26">
         <f t="shared" si="1"/>
         <v>44254</v>
       </c>
-      <c r="D83" s="29"/>
-      <c r="E83" s="29"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="27"/>
     </row>
     <row r="84">
-      <c r="A84" s="26">
+      <c r="A84" s="24">
         <v>83.0</v>
       </c>
-      <c r="B84" s="27">
+      <c r="B84" s="25">
         <v>44255.0</v>
       </c>
-      <c r="C84" s="28">
+      <c r="C84" s="26">
         <f t="shared" si="1"/>
         <v>44255</v>
       </c>
-      <c r="D84" s="29"/>
-      <c r="E84" s="29"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="27"/>
     </row>
     <row r="85">
-      <c r="A85" s="22">
+      <c r="A85" s="20">
         <v>84.0</v>
       </c>
-      <c r="B85" s="23">
+      <c r="B85" s="21">
         <v>44256.0</v>
       </c>
-      <c r="C85" s="24">
+      <c r="C85" s="22">
         <f t="shared" si="1"/>
         <v>44256</v>
       </c>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="23"/>
     </row>
     <row r="86">
-      <c r="A86" s="22">
+      <c r="A86" s="20">
         <v>85.0</v>
       </c>
-      <c r="B86" s="23">
+      <c r="B86" s="21">
         <v>44257.0</v>
       </c>
-      <c r="C86" s="24">
+      <c r="C86" s="22">
         <f t="shared" si="1"/>
         <v>44257</v>
       </c>
-      <c r="D86" s="25"/>
-      <c r="E86" s="25"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="23"/>
     </row>
     <row r="87">
-      <c r="A87" s="22">
+      <c r="A87" s="20">
         <v>86.0</v>
       </c>
-      <c r="B87" s="23">
+      <c r="B87" s="21">
         <v>44258.0</v>
       </c>
-      <c r="C87" s="24">
+      <c r="C87" s="22">
         <f t="shared" si="1"/>
         <v>44258</v>
       </c>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="23"/>
     </row>
     <row r="88">
-      <c r="A88" s="22">
+      <c r="A88" s="20">
         <v>87.0</v>
       </c>
-      <c r="B88" s="23">
+      <c r="B88" s="21">
         <v>44259.0</v>
       </c>
-      <c r="C88" s="24">
+      <c r="C88" s="22">
         <f t="shared" si="1"/>
         <v>44259</v>
       </c>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="23"/>
     </row>
     <row r="89">
-      <c r="A89" s="22">
+      <c r="A89" s="20">
         <v>88.0</v>
       </c>
-      <c r="B89" s="23">
+      <c r="B89" s="21">
         <v>44260.0</v>
       </c>
-      <c r="C89" s="24">
+      <c r="C89" s="22">
         <f t="shared" si="1"/>
         <v>44260</v>
       </c>
-      <c r="D89" s="25"/>
-      <c r="E89" s="25"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
     </row>
     <row r="90">
-      <c r="A90" s="26">
+      <c r="A90" s="24">
         <v>89.0</v>
       </c>
-      <c r="B90" s="27">
+      <c r="B90" s="25">
         <v>44261.0</v>
       </c>
-      <c r="C90" s="28">
+      <c r="C90" s="26">
         <f t="shared" si="1"/>
         <v>44261</v>
       </c>
-      <c r="D90" s="29"/>
-      <c r="E90" s="29"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="27"/>
     </row>
     <row r="91">
-      <c r="A91" s="26">
+      <c r="A91" s="24">
         <v>90.0</v>
       </c>
-      <c r="B91" s="27">
+      <c r="B91" s="25">
         <v>44262.0</v>
       </c>
-      <c r="C91" s="28">
+      <c r="C91" s="26">
         <f t="shared" si="1"/>
         <v>44262</v>
       </c>
-      <c r="D91" s="29"/>
-      <c r="E91" s="29"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="27"/>
     </row>
     <row r="92">
-      <c r="A92" s="22">
+      <c r="A92" s="20">
         <v>91.0</v>
       </c>
-      <c r="B92" s="23">
+      <c r="B92" s="21">
         <v>44263.0</v>
       </c>
-      <c r="C92" s="24">
+      <c r="C92" s="22">
         <f t="shared" si="1"/>
         <v>44263</v>
       </c>
-      <c r="D92" s="25"/>
-      <c r="E92" s="25"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="23"/>
     </row>
     <row r="93">
-      <c r="A93" s="22">
+      <c r="A93" s="20">
         <v>92.0</v>
       </c>
-      <c r="B93" s="23">
+      <c r="B93" s="21">
         <v>44264.0</v>
       </c>
-      <c r="C93" s="24">
+      <c r="C93" s="22">
         <f t="shared" si="1"/>
         <v>44264</v>
       </c>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="23"/>
     </row>
     <row r="94">
-      <c r="A94" s="22">
+      <c r="A94" s="20">
         <v>93.0</v>
       </c>
-      <c r="B94" s="23">
+      <c r="B94" s="21">
         <v>44265.0</v>
       </c>
-      <c r="C94" s="24">
+      <c r="C94" s="22">
         <f t="shared" si="1"/>
         <v>44265</v>
       </c>
-      <c r="D94" s="25"/>
-      <c r="E94" s="25"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="23"/>
     </row>
     <row r="95">
-      <c r="A95" s="22">
+      <c r="A95" s="20">
         <v>94.0</v>
       </c>
-      <c r="B95" s="23">
+      <c r="B95" s="21">
         <v>44266.0</v>
       </c>
-      <c r="C95" s="24">
+      <c r="C95" s="22">
         <f t="shared" si="1"/>
         <v>44266</v>
       </c>
-      <c r="D95" s="25"/>
-      <c r="E95" s="25"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="23"/>
     </row>
     <row r="96">
-      <c r="A96" s="22">
+      <c r="A96" s="20">
         <v>95.0</v>
       </c>
-      <c r="B96" s="23">
+      <c r="B96" s="21">
         <v>44267.0</v>
       </c>
-      <c r="C96" s="24">
+      <c r="C96" s="22">
         <f t="shared" si="1"/>
         <v>44267</v>
       </c>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="23"/>
     </row>
     <row r="97">
-      <c r="A97" s="26">
+      <c r="A97" s="24">
         <v>96.0</v>
       </c>
-      <c r="B97" s="27">
+      <c r="B97" s="25">
         <v>44268.0</v>
       </c>
-      <c r="C97" s="28">
+      <c r="C97" s="26">
         <f t="shared" si="1"/>
         <v>44268</v>
       </c>
-      <c r="D97" s="29"/>
-      <c r="E97" s="29"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="27"/>
     </row>
     <row r="98">
-      <c r="A98" s="26">
+      <c r="A98" s="24">
         <v>97.0</v>
       </c>
-      <c r="B98" s="27">
+      <c r="B98" s="25">
         <v>44269.0</v>
       </c>
-      <c r="C98" s="28">
+      <c r="C98" s="26">
         <f t="shared" si="1"/>
         <v>44269</v>
       </c>
-      <c r="D98" s="29"/>
-      <c r="E98" s="29"/>
+      <c r="D98" s="27"/>
+      <c r="E98" s="27"/>
     </row>
     <row r="99">
-      <c r="A99" s="22">
+      <c r="A99" s="20">
         <v>98.0</v>
       </c>
-      <c r="B99" s="23">
+      <c r="B99" s="21">
         <v>44270.0</v>
       </c>
-      <c r="C99" s="24">
+      <c r="C99" s="22">
         <f t="shared" si="1"/>
         <v>44270</v>
       </c>
-      <c r="D99" s="25"/>
-      <c r="E99" s="25"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="23"/>
     </row>
     <row r="100">
-      <c r="A100" s="22">
+      <c r="A100" s="20">
         <v>99.0</v>
       </c>
-      <c r="B100" s="23">
+      <c r="B100" s="21">
         <v>44271.0</v>
       </c>
-      <c r="C100" s="24">
+      <c r="C100" s="22">
         <f t="shared" si="1"/>
         <v>44271</v>
       </c>
-      <c r="D100" s="25"/>
-      <c r="E100" s="25"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="23"/>
     </row>
     <row r="101">
-      <c r="A101" s="22">
+      <c r="A101" s="20">
         <v>100.0</v>
       </c>
-      <c r="B101" s="23">
+      <c r="B101" s="21">
         <v>44272.0</v>
       </c>
-      <c r="C101" s="24">
+      <c r="C101" s="22">
         <f t="shared" si="1"/>
         <v>44272</v>
       </c>
-      <c r="D101" s="22" t="s">
+      <c r="D101" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="E101" s="25"/>
+      <c r="E101" s="23"/>
     </row>
   </sheetData>
   <drawing r:id="rId2"/>
@@ -4757,79 +4741,79 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="28" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="2" ht="22.5" customHeight="1">
-      <c r="A2" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="29" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1">
-      <c r="A3" s="31">
+      <c r="A3" s="29">
         <v>2.0</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="29" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1">
-      <c r="A4" s="31">
+      <c r="A4" s="29">
         <v>3.0</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="29" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1">
-      <c r="A5" s="31">
+      <c r="A5" s="29">
         <v>4.0</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="29" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1">
-      <c r="A6" s="31">
+      <c r="A6" s="29">
         <v>5.0</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="29" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1">
-      <c r="A7" s="31">
+      <c r="A7" s="29">
         <v>6.0</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="29" t="s">
         <v>198</v>
       </c>
     </row>
@@ -4857,514 +4841,514 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="30" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="33">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="34">
+      <c r="A2" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="32">
         <v>44251.0</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="33" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="36">
+      <c r="A3" s="34">
         <f>IF(AND(ISBLANK(B3), ISBLANK(#REF!)),"",$A$2+1)</f>
         <v>2</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="38"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
     </row>
     <row r="4">
-      <c r="A4" s="36"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="38"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="36"/>
     </row>
     <row r="5">
-      <c r="A5" s="36"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="38"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="36"/>
     </row>
     <row r="6">
-      <c r="A6" s="40"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="38"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="36"/>
     </row>
     <row r="7">
-      <c r="A7" s="36"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="38"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="36"/>
     </row>
     <row r="8">
-      <c r="A8" s="36"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="38"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="36"/>
     </row>
     <row r="9">
-      <c r="A9" s="36"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="38"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="36"/>
     </row>
     <row r="10">
-      <c r="A10" s="36"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="38"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="36"/>
     </row>
     <row r="11">
-      <c r="A11" s="36"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="38"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="36"/>
     </row>
     <row r="12">
-      <c r="A12" s="36"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="38"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="36"/>
     </row>
     <row r="13">
-      <c r="A13" s="36"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="38"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="36"/>
     </row>
     <row r="14">
-      <c r="A14" s="36"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="42"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="40"/>
     </row>
     <row r="15">
-      <c r="A15" s="36"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="40"/>
     </row>
     <row r="16">
-      <c r="A16" s="36"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="40"/>
     </row>
     <row r="17">
-      <c r="A17" s="36"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="40"/>
     </row>
     <row r="18">
-      <c r="A18" s="36"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="42"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="40"/>
     </row>
     <row r="19">
-      <c r="A19" s="36"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="42"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="40"/>
     </row>
     <row r="20">
-      <c r="A20" s="36"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="42"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="40"/>
     </row>
     <row r="21">
-      <c r="A21" s="36"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="38"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="36"/>
     </row>
     <row r="22">
-      <c r="A22" s="36"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="38"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="36"/>
     </row>
     <row r="23">
-      <c r="A23" s="36"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="38"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="36"/>
     </row>
     <row r="24">
-      <c r="A24" s="36"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="38"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="36"/>
     </row>
     <row r="25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="38"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="36"/>
     </row>
     <row r="26">
-      <c r="A26" s="36"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="38"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="36"/>
     </row>
     <row r="27">
-      <c r="A27" s="36"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="38"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="36"/>
     </row>
     <row r="28">
-      <c r="A28" s="36"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="38"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="36"/>
     </row>
     <row r="29">
-      <c r="A29" s="36"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="38"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="36"/>
     </row>
     <row r="30">
-      <c r="A30" s="36"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="38"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="36"/>
     </row>
     <row r="31">
-      <c r="A31" s="36"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="38"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="36"/>
     </row>
     <row r="32">
-      <c r="A32" s="36"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="38"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="36"/>
     </row>
     <row r="33">
-      <c r="A33" s="36"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="38"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="36"/>
     </row>
     <row r="34">
-      <c r="A34" s="36"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="38"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="36"/>
     </row>
     <row r="35">
-      <c r="A35" s="36"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="38"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="36"/>
     </row>
     <row r="36">
-      <c r="A36" s="36"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="38"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="36"/>
     </row>
     <row r="37">
-      <c r="A37" s="36"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="38"/>
+      <c r="A37" s="34"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="36"/>
     </row>
     <row r="38">
-      <c r="A38" s="36"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="38"/>
+      <c r="A38" s="34"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="36"/>
     </row>
     <row r="39">
-      <c r="A39" s="36"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="38"/>
+      <c r="A39" s="34"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="36"/>
     </row>
     <row r="40">
-      <c r="A40" s="36"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="38"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="36"/>
     </row>
     <row r="41">
-      <c r="A41" s="36"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="38"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="36"/>
     </row>
     <row r="42">
-      <c r="A42" s="36"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="38"/>
+      <c r="A42" s="34"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="36"/>
     </row>
     <row r="43">
-      <c r="A43" s="36"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="38"/>
+      <c r="A43" s="34"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="36"/>
     </row>
     <row r="44">
-      <c r="A44" s="36"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="38"/>
+      <c r="A44" s="34"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="36"/>
     </row>
     <row r="45">
-      <c r="A45" s="36"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="38"/>
+      <c r="A45" s="34"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="36"/>
     </row>
     <row r="46">
-      <c r="A46" s="36"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="38"/>
+      <c r="A46" s="34"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="36"/>
     </row>
     <row r="47">
-      <c r="A47" s="36"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="38"/>
+      <c r="A47" s="34"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="36"/>
     </row>
     <row r="48">
-      <c r="A48" s="36"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="38"/>
+      <c r="A48" s="34"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="36"/>
     </row>
     <row r="49">
-      <c r="A49" s="36"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="38"/>
+      <c r="A49" s="34"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="36"/>
     </row>
     <row r="50">
-      <c r="A50" s="36"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="38"/>
+      <c r="A50" s="34"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="36"/>
     </row>
     <row r="51">
-      <c r="A51" s="36"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="38"/>
+      <c r="A51" s="34"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="36"/>
     </row>
     <row r="52">
-      <c r="A52" s="36"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="38"/>
+      <c r="A52" s="34"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="36"/>
     </row>
     <row r="53">
-      <c r="A53" s="36"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="38"/>
+      <c r="A53" s="34"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="36"/>
     </row>
     <row r="54">
-      <c r="A54" s="36"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="38"/>
+      <c r="A54" s="34"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="36"/>
     </row>
     <row r="55">
-      <c r="A55" s="36"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="38"/>
+      <c r="A55" s="34"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="36"/>
     </row>
     <row r="56">
-      <c r="A56" s="36"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="38"/>
+      <c r="A56" s="34"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="36"/>
     </row>
     <row r="57">
-      <c r="A57" s="36"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="38"/>
+      <c r="A57" s="34"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="36"/>
     </row>
     <row r="58">
-      <c r="A58" s="36"/>
-      <c r="B58" s="39"/>
-      <c r="C58" s="38"/>
+      <c r="A58" s="34"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="36"/>
     </row>
     <row r="59">
-      <c r="A59" s="36"/>
-      <c r="B59" s="39"/>
-      <c r="C59" s="38"/>
+      <c r="A59" s="34"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="36"/>
     </row>
     <row r="60">
-      <c r="A60" s="36"/>
-      <c r="B60" s="39"/>
-      <c r="C60" s="38"/>
+      <c r="A60" s="34"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="36"/>
     </row>
     <row r="61">
-      <c r="A61" s="36"/>
-      <c r="B61" s="39"/>
-      <c r="C61" s="38"/>
+      <c r="A61" s="34"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="36"/>
     </row>
     <row r="62">
-      <c r="A62" s="36"/>
-      <c r="B62" s="39"/>
-      <c r="C62" s="38"/>
+      <c r="A62" s="34"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="36"/>
     </row>
     <row r="63">
-      <c r="A63" s="36"/>
-      <c r="B63" s="39"/>
-      <c r="C63" s="38"/>
+      <c r="A63" s="34"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="36"/>
     </row>
     <row r="64">
-      <c r="A64" s="36"/>
-      <c r="B64" s="39"/>
-      <c r="C64" s="38"/>
+      <c r="A64" s="34"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="36"/>
     </row>
     <row r="65">
-      <c r="A65" s="36"/>
-      <c r="B65" s="39"/>
-      <c r="C65" s="38"/>
+      <c r="A65" s="34"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="36"/>
     </row>
     <row r="66">
-      <c r="A66" s="36"/>
-      <c r="B66" s="39"/>
-      <c r="C66" s="38"/>
+      <c r="A66" s="34"/>
+      <c r="B66" s="37"/>
+      <c r="C66" s="36"/>
     </row>
     <row r="67">
-      <c r="A67" s="36"/>
-      <c r="B67" s="39"/>
-      <c r="C67" s="38"/>
+      <c r="A67" s="34"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="36"/>
     </row>
     <row r="68">
-      <c r="A68" s="36"/>
-      <c r="B68" s="39"/>
-      <c r="C68" s="38"/>
+      <c r="A68" s="34"/>
+      <c r="B68" s="37"/>
+      <c r="C68" s="36"/>
     </row>
     <row r="69">
-      <c r="A69" s="36"/>
-      <c r="B69" s="39"/>
-      <c r="C69" s="38"/>
+      <c r="A69" s="34"/>
+      <c r="B69" s="37"/>
+      <c r="C69" s="36"/>
     </row>
     <row r="70">
-      <c r="A70" s="36"/>
-      <c r="B70" s="39"/>
-      <c r="C70" s="38"/>
+      <c r="A70" s="34"/>
+      <c r="B70" s="37"/>
+      <c r="C70" s="36"/>
     </row>
     <row r="71">
-      <c r="A71" s="36"/>
-      <c r="B71" s="39"/>
-      <c r="C71" s="38"/>
+      <c r="A71" s="34"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="36"/>
     </row>
     <row r="72">
-      <c r="A72" s="36"/>
-      <c r="B72" s="39"/>
-      <c r="C72" s="38"/>
+      <c r="A72" s="34"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="36"/>
     </row>
     <row r="73">
-      <c r="A73" s="36"/>
-      <c r="B73" s="39"/>
-      <c r="C73" s="38"/>
+      <c r="A73" s="34"/>
+      <c r="B73" s="37"/>
+      <c r="C73" s="36"/>
     </row>
     <row r="74">
-      <c r="A74" s="36"/>
-      <c r="B74" s="39"/>
-      <c r="C74" s="38"/>
+      <c r="A74" s="34"/>
+      <c r="B74" s="37"/>
+      <c r="C74" s="36"/>
     </row>
     <row r="75">
-      <c r="A75" s="36"/>
-      <c r="B75" s="39"/>
-      <c r="C75" s="38"/>
+      <c r="A75" s="34"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="36"/>
     </row>
     <row r="76">
-      <c r="A76" s="36"/>
-      <c r="B76" s="39"/>
-      <c r="C76" s="38"/>
+      <c r="A76" s="34"/>
+      <c r="B76" s="37"/>
+      <c r="C76" s="36"/>
     </row>
     <row r="77">
-      <c r="A77" s="36"/>
-      <c r="B77" s="39"/>
-      <c r="C77" s="38"/>
+      <c r="A77" s="34"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="36"/>
     </row>
     <row r="78">
-      <c r="A78" s="36"/>
-      <c r="B78" s="39"/>
-      <c r="C78" s="38"/>
+      <c r="A78" s="34"/>
+      <c r="B78" s="37"/>
+      <c r="C78" s="36"/>
     </row>
     <row r="79">
-      <c r="A79" s="36"/>
-      <c r="B79" s="39"/>
-      <c r="C79" s="38"/>
+      <c r="A79" s="34"/>
+      <c r="B79" s="37"/>
+      <c r="C79" s="36"/>
     </row>
     <row r="80">
-      <c r="A80" s="36"/>
-      <c r="B80" s="39"/>
-      <c r="C80" s="38"/>
+      <c r="A80" s="34"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="36"/>
     </row>
     <row r="81">
-      <c r="A81" s="36"/>
-      <c r="B81" s="39"/>
-      <c r="C81" s="38"/>
+      <c r="A81" s="34"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="36"/>
     </row>
     <row r="82">
-      <c r="A82" s="36"/>
-      <c r="B82" s="39"/>
-      <c r="C82" s="38"/>
+      <c r="A82" s="34"/>
+      <c r="B82" s="37"/>
+      <c r="C82" s="36"/>
     </row>
     <row r="83">
-      <c r="A83" s="36"/>
-      <c r="B83" s="39"/>
-      <c r="C83" s="38"/>
+      <c r="A83" s="34"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="36"/>
     </row>
     <row r="84">
-      <c r="A84" s="36"/>
-      <c r="B84" s="39"/>
-      <c r="C84" s="38"/>
+      <c r="A84" s="34"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="36"/>
     </row>
     <row r="85">
-      <c r="A85" s="36"/>
-      <c r="B85" s="39"/>
-      <c r="C85" s="38"/>
+      <c r="A85" s="34"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="36"/>
     </row>
     <row r="86">
-      <c r="A86" s="36"/>
-      <c r="B86" s="39"/>
-      <c r="C86" s="38"/>
+      <c r="A86" s="34"/>
+      <c r="B86" s="37"/>
+      <c r="C86" s="36"/>
     </row>
     <row r="87">
-      <c r="A87" s="36"/>
-      <c r="B87" s="39"/>
-      <c r="C87" s="38"/>
+      <c r="A87" s="34"/>
+      <c r="B87" s="37"/>
+      <c r="C87" s="36"/>
     </row>
     <row r="88">
-      <c r="A88" s="36"/>
-      <c r="B88" s="39"/>
-      <c r="C88" s="38"/>
+      <c r="A88" s="34"/>
+      <c r="B88" s="37"/>
+      <c r="C88" s="36"/>
     </row>
     <row r="89">
-      <c r="A89" s="36"/>
-      <c r="B89" s="39"/>
-      <c r="C89" s="38"/>
+      <c r="A89" s="34"/>
+      <c r="B89" s="37"/>
+      <c r="C89" s="36"/>
     </row>
     <row r="90">
-      <c r="A90" s="36"/>
-      <c r="B90" s="39"/>
-      <c r="C90" s="38"/>
+      <c r="A90" s="34"/>
+      <c r="B90" s="37"/>
+      <c r="C90" s="36"/>
     </row>
     <row r="91">
-      <c r="A91" s="36"/>
-      <c r="B91" s="39"/>
-      <c r="C91" s="38"/>
+      <c r="A91" s="34"/>
+      <c r="B91" s="37"/>
+      <c r="C91" s="36"/>
     </row>
     <row r="92">
-      <c r="A92" s="36"/>
-      <c r="B92" s="39"/>
-      <c r="C92" s="38"/>
+      <c r="A92" s="34"/>
+      <c r="B92" s="37"/>
+      <c r="C92" s="36"/>
     </row>
     <row r="93">
-      <c r="A93" s="36"/>
-      <c r="B93" s="39"/>
-      <c r="C93" s="38"/>
+      <c r="A93" s="34"/>
+      <c r="B93" s="37"/>
+      <c r="C93" s="36"/>
     </row>
     <row r="94">
-      <c r="A94" s="36"/>
-      <c r="B94" s="39"/>
-      <c r="C94" s="38"/>
+      <c r="A94" s="34"/>
+      <c r="B94" s="37"/>
+      <c r="C94" s="36"/>
     </row>
     <row r="95">
-      <c r="A95" s="36"/>
-      <c r="B95" s="39"/>
-      <c r="C95" s="38"/>
+      <c r="A95" s="34"/>
+      <c r="B95" s="37"/>
+      <c r="C95" s="36"/>
     </row>
     <row r="96">
-      <c r="A96" s="36"/>
-      <c r="B96" s="39"/>
-      <c r="C96" s="38"/>
+      <c r="A96" s="34"/>
+      <c r="B96" s="37"/>
+      <c r="C96" s="36"/>
     </row>
     <row r="97">
-      <c r="A97" s="36"/>
-      <c r="B97" s="39"/>
-      <c r="C97" s="38"/>
+      <c r="A97" s="34"/>
+      <c r="B97" s="37"/>
+      <c r="C97" s="36"/>
     </row>
     <row r="98">
-      <c r="A98" s="36"/>
-      <c r="B98" s="39"/>
-      <c r="C98" s="38"/>
+      <c r="A98" s="34"/>
+      <c r="B98" s="37"/>
+      <c r="C98" s="36"/>
     </row>
     <row r="99">
-      <c r="A99" s="36"/>
-      <c r="B99" s="39"/>
-      <c r="C99" s="38"/>
+      <c r="A99" s="34"/>
+      <c r="B99" s="37"/>
+      <c r="C99" s="36"/>
     </row>
   </sheetData>
   <dataValidations>
@@ -5391,233 +5375,233 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="41" t="s">
         <v>201</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="41" t="s">
         <v>202</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="41" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="42" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="44" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="43" t="s">
         <v>206</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="44" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="44" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="42" t="s">
         <v>209</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="43" t="s">
         <v>210</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="44" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="44" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="43" t="s">
         <v>214</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="44" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="44" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="44" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="44" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="44" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="44" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="44" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="44" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="43" t="s">
         <v>224</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="44" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="42" t="s">
         <v>226</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="44" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="44" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="44" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="44" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="46" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="47" t="s">
         <v>233</v>
       </c>
     </row>

--- a/data/100 Day Tracker Data.xlsx
+++ b/data/100 Day Tracker Data.xlsx
@@ -1,35 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f6c5a3bf1cc44f38/Documents/GitHub/transition-agenda/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_B7F8BCE42FB757C54A7853E6B1973EB040C167DB" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{57AAF9F2-A5D8-4868-96DC-3DBB74E45F1E}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Actions" sheetId="1" r:id="rId4"/>
-    <sheet state="hidden" name="Actions As Provided 129" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Days" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Committees" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Progress Updates" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Parties" sheetId="6" r:id="rId9"/>
+    <sheet name="Actions" sheetId="1" r:id="rId1"/>
+    <sheet name="Actions As Provided 129" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Days" sheetId="3" r:id="rId3"/>
+    <sheet name="Committees" sheetId="4" r:id="rId4"/>
+    <sheet name="Progress Updates" sheetId="5" r:id="rId5"/>
+    <sheet name="Parties" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Actions!$A$1:$F$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Actions!$A$1:$F$59</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A1">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <t xml:space="preserve">Im comfortable with changing this, but let me know if you want me to hold for approval.
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Im comfortable with changing this, but let me know if you want me to hold for approval.
 	-Markele Cullins
 ----
 Please do not edit this column. This will update programmatically based on data in the Progress Updates tab.
 	-Brendan Hellweg</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -37,15 +65,22 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A1">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
-        <t xml:space="preserve">Worth thinking about whether they want a true "first X days" system or if something with looser time restrictions is a better fit
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Worth thinking about whether they want a true "first X days" system or if something with looser time restrictions is a better fit
 	-Brendan Hellweg</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -53,15 +88,22 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="C20">
+    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
-        <t xml:space="preserve">This may change during the period the tracker is live.
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>This may change during the period the tracker is live.
 	-Natalie Schultz-Henry</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -784,92 +826,100 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="ddd"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="166" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
-    <numFmt numFmtId="167" formatCode="M/d/yyyy"/>
+    <numFmt numFmtId="165" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
   </numFmts>
   <fonts count="16">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="-webkit-standard"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <u/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="7">
@@ -877,7 +927,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -911,7 +961,13 @@
     </fill>
   </fills>
   <borders count="4">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -925,199 +981,166 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FFB7B7B7"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FFB7B7B7"/>
       </top>
       <bottom style="thin">
         <color rgb="FFB7B7B7"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="48">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="2" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1307,31 +1330,34 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="9.86"/>
-    <col customWidth="1" min="2" max="2" width="30.43"/>
-    <col customWidth="1" min="3" max="3" width="53.43"/>
-    <col customWidth="1" min="4" max="4" width="70.29"/>
-    <col customWidth="1" min="5" max="5" width="19.29"/>
-    <col customWidth="1" min="6" max="6" width="19.57"/>
+    <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" customWidth="1"/>
+    <col min="3" max="3" width="53.44140625" customWidth="1"/>
+    <col min="4" max="4" width="70.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="13.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1351,9 +1377,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="31.5" customHeight="1">
+    <row r="2" spans="1:6" ht="31.5" customHeight="1">
       <c r="A2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
@@ -1368,12 +1394,12 @@
         <v>9</v>
       </c>
       <c r="F2" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="31.5" customHeight="1">
       <c r="A3" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>6</v>
@@ -1388,12 +1414,12 @@
         <v>9</v>
       </c>
       <c r="F3" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="31.5" customHeight="1">
       <c r="A4" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>6</v>
@@ -1408,12 +1434,12 @@
         <v>14</v>
       </c>
       <c r="F4" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="31.5" customHeight="1">
       <c r="A5" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>6</v>
@@ -1428,12 +1454,12 @@
         <v>9</v>
       </c>
       <c r="F5" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="31.5" customHeight="1">
       <c r="A6" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>6</v>
@@ -1448,12 +1474,12 @@
         <v>9</v>
       </c>
       <c r="F6" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="31.5" customHeight="1">
       <c r="A7" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>6</v>
@@ -1468,12 +1494,12 @@
         <v>14</v>
       </c>
       <c r="F7" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="31.5" customHeight="1">
       <c r="A8" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>6</v>
@@ -1488,12 +1514,12 @@
         <v>14</v>
       </c>
       <c r="F8" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="31.5" customHeight="1">
       <c r="A9" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>6</v>
@@ -1508,12 +1534,12 @@
         <v>14</v>
       </c>
       <c r="F9" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="31.5" customHeight="1">
       <c r="A10" s="3">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>6</v>
@@ -1528,12 +1554,12 @@
         <v>25</v>
       </c>
       <c r="F10" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="31.5" customHeight="1">
       <c r="A11" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>6</v>
@@ -1548,12 +1574,12 @@
         <v>14</v>
       </c>
       <c r="F11" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="31.5" customHeight="1">
       <c r="A12" s="3">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>6</v>
@@ -1568,12 +1594,12 @@
         <v>25</v>
       </c>
       <c r="F12" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="31.5" customHeight="1">
       <c r="A13" s="3">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>6</v>
@@ -1588,12 +1614,12 @@
         <v>25</v>
       </c>
       <c r="F13" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="31.5" customHeight="1">
       <c r="A14" s="3">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>30</v>
@@ -1608,12 +1634,12 @@
         <v>9</v>
       </c>
       <c r="F14" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="31.5" customHeight="1">
       <c r="A15" s="3">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>30</v>
@@ -1625,15 +1651,15 @@
         <v>34</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F15" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="31.5" customHeight="1">
       <c r="A16" s="3">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>30</v>
@@ -1648,12 +1674,12 @@
         <v>25</v>
       </c>
       <c r="F16" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="31.5" customHeight="1">
       <c r="A17" s="3">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>30</v>
@@ -1668,12 +1694,12 @@
         <v>14</v>
       </c>
       <c r="F17" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="31.5" customHeight="1">
       <c r="A18" s="3">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>30</v>
@@ -1688,12 +1714,12 @@
         <v>14</v>
       </c>
       <c r="F18" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="31.5" customHeight="1">
       <c r="A19" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>30</v>
@@ -1708,12 +1734,12 @@
         <v>25</v>
       </c>
       <c r="F19" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="31.5" customHeight="1">
       <c r="A20" s="3">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>30</v>
@@ -1728,12 +1754,12 @@
         <v>25</v>
       </c>
       <c r="F20" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="31.5" customHeight="1">
       <c r="A21" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>30</v>
@@ -1748,12 +1774,12 @@
         <v>14</v>
       </c>
       <c r="F21" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="22" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="31.5" customHeight="1">
       <c r="A22" s="3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>30</v>
@@ -1768,12 +1794,12 @@
         <v>25</v>
       </c>
       <c r="F22" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="23" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="31.5" customHeight="1">
       <c r="A23" s="3">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>30</v>
@@ -1788,12 +1814,12 @@
         <v>25</v>
       </c>
       <c r="F23" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="24" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="31.5" customHeight="1">
       <c r="A24" s="3">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>30</v>
@@ -1808,12 +1834,12 @@
         <v>25</v>
       </c>
       <c r="F24" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="25" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="31.5" customHeight="1">
       <c r="A25" s="3">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>30</v>
@@ -1828,12 +1854,12 @@
         <v>14</v>
       </c>
       <c r="F25" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="26" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="31.5" customHeight="1">
       <c r="A26" s="3">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>30</v>
@@ -1848,12 +1874,12 @@
         <v>9</v>
       </c>
       <c r="F26" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="27" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="31.5" customHeight="1">
       <c r="A27" s="3">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>54</v>
@@ -1868,12 +1894,12 @@
         <v>14</v>
       </c>
       <c r="F27" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="28" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="31.5" customHeight="1">
       <c r="A28" s="3">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>54</v>
@@ -1888,12 +1914,12 @@
         <v>14</v>
       </c>
       <c r="F28" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="29" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="31.5" customHeight="1">
       <c r="A29" s="3">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>54</v>
@@ -1908,12 +1934,12 @@
         <v>9</v>
       </c>
       <c r="F29" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="30" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="31.5" customHeight="1">
       <c r="A30" s="3">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>54</v>
@@ -1928,12 +1954,12 @@
         <v>25</v>
       </c>
       <c r="F30" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="31" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="31.5" customHeight="1">
       <c r="A31" s="3">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>54</v>
@@ -1948,12 +1974,12 @@
         <v>25</v>
       </c>
       <c r="F31" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="32" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="31.5" customHeight="1">
       <c r="A32" s="3">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>54</v>
@@ -1968,12 +1994,12 @@
         <v>9</v>
       </c>
       <c r="F32" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="33" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="31.5" customHeight="1">
       <c r="A33" s="3">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>54</v>
@@ -1988,12 +2014,12 @@
         <v>25</v>
       </c>
       <c r="F33" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="34" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="31.5" customHeight="1">
       <c r="A34" s="3">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>68</v>
@@ -2008,12 +2034,12 @@
         <v>9</v>
       </c>
       <c r="F34" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="35" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="31.5" customHeight="1">
       <c r="A35" s="3">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>68</v>
@@ -2028,12 +2054,12 @@
         <v>14</v>
       </c>
       <c r="F35" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="36" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="31.5" customHeight="1">
       <c r="A36" s="3">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>68</v>
@@ -2048,12 +2074,12 @@
         <v>14</v>
       </c>
       <c r="F36" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="37" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="31.5" customHeight="1">
       <c r="A37" s="3">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>68</v>
@@ -2068,12 +2094,12 @@
         <v>9</v>
       </c>
       <c r="F37" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="38" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="31.5" customHeight="1">
       <c r="A38" s="3">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>68</v>
@@ -2088,12 +2114,12 @@
         <v>14</v>
       </c>
       <c r="F38" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="39" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="31.5" customHeight="1">
       <c r="A39" s="3">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>68</v>
@@ -2108,12 +2134,12 @@
         <v>14</v>
       </c>
       <c r="F39" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="40" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="31.5" customHeight="1">
       <c r="A40" s="3">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>68</v>
@@ -2128,12 +2154,12 @@
         <v>14</v>
       </c>
       <c r="F40" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="41" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="31.5" customHeight="1">
       <c r="A41" s="3">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>68</v>
@@ -2148,12 +2174,12 @@
         <v>14</v>
       </c>
       <c r="F41" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="42" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="31.5" customHeight="1">
       <c r="A42" s="3">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>68</v>
@@ -2168,12 +2194,12 @@
         <v>25</v>
       </c>
       <c r="F42" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="43" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="31.5" customHeight="1">
       <c r="A43" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>68</v>
@@ -2188,12 +2214,12 @@
         <v>25</v>
       </c>
       <c r="F43" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="44" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="31.5" customHeight="1">
       <c r="A44" s="3">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>68</v>
@@ -2208,12 +2234,12 @@
         <v>25</v>
       </c>
       <c r="F44" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="45" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="31.5" customHeight="1">
       <c r="A45" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>68</v>
@@ -2228,12 +2254,12 @@
         <v>25</v>
       </c>
       <c r="F45" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="46" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="31.5" customHeight="1">
       <c r="A46" s="3">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>87</v>
@@ -2248,12 +2274,12 @@
         <v>9</v>
       </c>
       <c r="F46" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="47" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="31.5" customHeight="1">
       <c r="A47" s="3">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>87</v>
@@ -2268,12 +2294,12 @@
         <v>25</v>
       </c>
       <c r="F47" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="48" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="31.5" customHeight="1">
       <c r="A48" s="3">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>87</v>
@@ -2288,12 +2314,12 @@
         <v>14</v>
       </c>
       <c r="F48" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="49" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="31.5" customHeight="1">
       <c r="A49" s="3">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>87</v>
@@ -2308,12 +2334,12 @@
         <v>9</v>
       </c>
       <c r="F49" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="50" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="31.5" customHeight="1">
       <c r="A50" s="3">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>87</v>
@@ -2328,12 +2354,12 @@
         <v>9</v>
       </c>
       <c r="F50" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="51" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="31.5" customHeight="1">
       <c r="A51" s="3">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>87</v>
@@ -2348,12 +2374,12 @@
         <v>25</v>
       </c>
       <c r="F51" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="52" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="31.5" customHeight="1">
       <c r="A52" s="3">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>87</v>
@@ -2368,12 +2394,12 @@
         <v>14</v>
       </c>
       <c r="F52" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="53" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="31.5" customHeight="1">
       <c r="A53" s="3">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>87</v>
@@ -2388,12 +2414,12 @@
         <v>25</v>
       </c>
       <c r="F53" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="54" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="31.5" customHeight="1">
       <c r="A54" s="3">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>87</v>
@@ -2408,12 +2434,12 @@
         <v>9</v>
       </c>
       <c r="F54" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="55" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="31.5" customHeight="1">
       <c r="A55" s="3">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>102</v>
@@ -2428,12 +2454,12 @@
         <v>14</v>
       </c>
       <c r="F55" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="56" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="31.5" customHeight="1">
       <c r="A56" s="3">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>102</v>
@@ -2448,12 +2474,12 @@
         <v>25</v>
       </c>
       <c r="F56" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="57" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="31.5" customHeight="1">
       <c r="A57" s="3">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>102</v>
@@ -2468,12 +2494,12 @@
         <v>14</v>
       </c>
       <c r="F57" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="58" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="31.5" customHeight="1">
       <c r="A58" s="3">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>102</v>
@@ -2488,12 +2514,12 @@
         <v>14</v>
       </c>
       <c r="F58" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="59" ht="31.5" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="31.5" customHeight="1">
       <c r="A59" s="9">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>102</v>
@@ -2508,37 +2534,40 @@
         <v>25</v>
       </c>
       <c r="F59" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$F$59">
-    <sortState ref="A1:F59">
-      <sortCondition ref="A1:A59"/>
-      <sortCondition ref="E1:E59"/>
-    </sortState>
-  </autoFilter>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Please choose from one of the 10 committees." sqref="B2:B59">
-      <formula1>Committees!$B$2:$B$7</formula1>
-    </dataValidation>
-  </dataValidations>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <autoFilter ref="A1:F59" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Please choose from one of the 10 committees." xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>Committees!$B$2:$B$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B59</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4">
       <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
@@ -2550,7 +2579,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4">
       <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
@@ -2564,7 +2593,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4">
       <c r="A3" s="13" t="s">
         <v>113</v>
       </c>
@@ -2578,7 +2607,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4">
       <c r="A4" s="13" t="s">
         <v>12</v>
       </c>
@@ -2590,7 +2619,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4">
       <c r="A5" s="13" t="s">
         <v>17</v>
       </c>
@@ -2604,7 +2633,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4">
       <c r="A6" s="13" t="s">
         <v>117</v>
       </c>
@@ -2616,7 +2645,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4">
       <c r="A7" s="13" t="s">
         <v>19</v>
       </c>
@@ -2628,7 +2657,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -2642,7 +2671,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4">
       <c r="A9" s="13" t="s">
         <v>122</v>
       </c>
@@ -2654,7 +2683,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4">
       <c r="A10" s="13" t="s">
         <v>23</v>
       </c>
@@ -2666,7 +2695,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4">
       <c r="A11" s="13" t="s">
         <v>28</v>
       </c>
@@ -2678,13 +2707,13 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4">
       <c r="A13" s="16" t="s">
         <v>30</v>
       </c>
@@ -2692,7 +2721,7 @@
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4">
       <c r="A14" s="13" t="s">
         <v>31</v>
       </c>
@@ -2706,7 +2735,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4">
       <c r="A15" s="13" t="s">
         <v>33</v>
       </c>
@@ -2718,7 +2747,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4">
       <c r="A16" s="13" t="s">
         <v>132</v>
       </c>
@@ -2730,7 +2759,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4">
       <c r="A17" s="13" t="s">
         <v>134</v>
       </c>
@@ -2742,7 +2771,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4">
       <c r="A18" s="13" t="s">
         <v>40</v>
       </c>
@@ -2754,7 +2783,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4">
       <c r="A19" s="13" t="s">
         <v>136</v>
       </c>
@@ -2766,7 +2795,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4">
       <c r="A20" s="13" t="s">
         <v>138</v>
       </c>
@@ -2778,7 +2807,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4">
       <c r="A21" s="13" t="s">
         <v>140</v>
       </c>
@@ -2790,7 +2819,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4">
       <c r="A22" s="13" t="s">
         <v>142</v>
       </c>
@@ -2802,7 +2831,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4">
       <c r="A23" s="13" t="s">
         <v>46</v>
       </c>
@@ -2814,7 +2843,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4">
       <c r="A24" s="13" t="s">
         <v>47</v>
       </c>
@@ -2826,7 +2855,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4">
       <c r="A25" s="13" t="s">
         <v>147</v>
       </c>
@@ -2838,7 +2867,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4">
       <c r="A26" s="13" t="s">
         <v>150</v>
       </c>
@@ -2850,7 +2879,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4">
       <c r="A27" s="13" t="s">
         <v>50</v>
       </c>
@@ -2862,7 +2891,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4">
       <c r="A28" s="13" t="s">
         <v>52</v>
       </c>
@@ -2876,13 +2905,13 @@
         <v>153</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4">
       <c r="A30" s="16" t="s">
         <v>54</v>
       </c>
@@ -2890,7 +2919,7 @@
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:4">
       <c r="A31" s="13" t="s">
         <v>55</v>
       </c>
@@ -2904,7 +2933,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:4">
       <c r="A32" s="13" t="s">
         <v>57</v>
       </c>
@@ -2918,7 +2947,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:4">
       <c r="A33" s="13" t="s">
         <v>59</v>
       </c>
@@ -2932,7 +2961,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:4">
       <c r="A34" s="13" t="s">
         <v>61</v>
       </c>
@@ -2944,13 +2973,13 @@
         <v>160</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:4">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:4">
       <c r="A36" s="16" t="s">
         <v>68</v>
       </c>
@@ -2958,7 +2987,7 @@
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:4">
       <c r="A37" s="13" t="s">
         <v>161</v>
       </c>
@@ -2972,7 +3001,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:4">
       <c r="A38" s="13" t="s">
         <v>162</v>
       </c>
@@ -2984,7 +3013,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:4">
       <c r="A39" s="13" t="s">
         <v>164</v>
       </c>
@@ -2998,7 +3027,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:4">
       <c r="A40" s="13" t="s">
         <v>73</v>
       </c>
@@ -3012,7 +3041,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:4">
       <c r="A41" s="13" t="s">
         <v>167</v>
       </c>
@@ -3026,7 +3055,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:4">
       <c r="A42" s="13" t="s">
         <v>77</v>
       </c>
@@ -3038,7 +3067,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:4">
       <c r="A43" s="13" t="s">
         <v>168</v>
       </c>
@@ -3050,7 +3079,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:4">
       <c r="A44" s="13" t="s">
         <v>170</v>
       </c>
@@ -3062,7 +3091,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:4">
       <c r="A45" s="13" t="s">
         <v>172</v>
       </c>
@@ -3074,7 +3103,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:4">
       <c r="A46" s="13" t="s">
         <v>84</v>
       </c>
@@ -3086,13 +3115,13 @@
         <v>119</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:4">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:4">
       <c r="A48" s="16" t="s">
         <v>87</v>
       </c>
@@ -3100,7 +3129,7 @@
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:4">
       <c r="A49" s="13" t="s">
         <v>88</v>
       </c>
@@ -3114,7 +3143,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:4">
       <c r="A50" s="13" t="s">
         <v>90</v>
       </c>
@@ -3126,7 +3155,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:4">
       <c r="A51" s="13" t="s">
         <v>174</v>
       </c>
@@ -3140,7 +3169,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:4">
       <c r="A52" s="13" t="s">
         <v>93</v>
       </c>
@@ -3154,7 +3183,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:4">
       <c r="A53" s="13" t="s">
         <v>94</v>
       </c>
@@ -3168,7 +3197,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:4">
       <c r="A54" s="13" t="s">
         <v>95</v>
       </c>
@@ -3180,13 +3209,13 @@
         <v>119</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:4">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:4">
       <c r="A56" s="16" t="s">
         <v>102</v>
       </c>
@@ -3194,7 +3223,7 @@
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:4">
       <c r="A57" s="13" t="s">
         <v>103</v>
       </c>
@@ -3206,7 +3235,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:4">
       <c r="A58" s="13" t="s">
         <v>104</v>
       </c>
@@ -3218,7 +3247,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:4">
       <c r="A59" s="13" t="s">
         <v>177</v>
       </c>
@@ -3230,7 +3259,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:4">
       <c r="A60" s="13" t="s">
         <v>105</v>
       </c>
@@ -3242,7 +3271,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:4">
       <c r="A61" s="13" t="s">
         <v>106</v>
       </c>
@@ -3254,7 +3283,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:4">
       <c r="A62" s="13" t="s">
         <v>107</v>
       </c>
@@ -3267,29 +3296,30 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="4" max="4" width="25.71"/>
-    <col customWidth="1" min="5" max="5" width="43.0"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="42.75" customHeight="1">
+    <row r="1" spans="1:5" ht="42.75" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>180</v>
       </c>
@@ -3306,15 +3336,15 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" ht="13.8">
       <c r="A2" s="20">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="21">
-        <v>44173.0</v>
+        <v>44173</v>
       </c>
       <c r="C2" s="22">
-        <f t="shared" ref="C2:C101" si="1">B2</f>
+        <f t="shared" ref="C2:C101" si="0">B2</f>
         <v>44173</v>
       </c>
       <c r="D2" s="20" t="s">
@@ -3322,337 +3352,337 @@
       </c>
       <c r="E2" s="23"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" ht="13.8">
       <c r="A3" s="20">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="21">
-        <v>44174.0</v>
+        <v>44174</v>
       </c>
       <c r="C3" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44174</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" ht="13.8">
       <c r="A4" s="20">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="21">
-        <v>44175.0</v>
+        <v>44175</v>
       </c>
       <c r="C4" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44175</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" ht="13.8">
       <c r="A5" s="20">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="21">
-        <v>44176.0</v>
+        <v>44176</v>
       </c>
       <c r="C5" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44176</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" ht="13.8">
       <c r="A6" s="24">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="25">
-        <v>44177.0</v>
+        <v>44177</v>
       </c>
       <c r="C6" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44177</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" ht="13.8">
       <c r="A7" s="24">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="25">
-        <v>44178.0</v>
+        <v>44178</v>
       </c>
       <c r="C7" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44178</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" ht="13.8">
       <c r="A8" s="20">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="21">
-        <v>44179.0</v>
+        <v>44179</v>
       </c>
       <c r="C8" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44179</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" ht="13.8">
       <c r="A9" s="20">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="21">
-        <v>44180.0</v>
+        <v>44180</v>
       </c>
       <c r="C9" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44180</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" ht="13.8">
       <c r="A10" s="20">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="21">
-        <v>44181.0</v>
+        <v>44181</v>
       </c>
       <c r="C10" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44181</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" ht="13.8">
       <c r="A11" s="20">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="21">
-        <v>44182.0</v>
+        <v>44182</v>
       </c>
       <c r="C11" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44182</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" ht="13.8">
       <c r="A12" s="20">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="21">
-        <v>44183.0</v>
+        <v>44183</v>
       </c>
       <c r="C12" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44183</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" ht="13.8">
       <c r="A13" s="24">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="25">
-        <v>44184.0</v>
+        <v>44184</v>
       </c>
       <c r="C13" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44184</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" ht="13.8">
       <c r="A14" s="24">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="25">
-        <v>44185.0</v>
+        <v>44185</v>
       </c>
       <c r="C14" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44185</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" ht="13.8">
       <c r="A15" s="20">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="21">
-        <v>44186.0</v>
+        <v>44186</v>
       </c>
       <c r="C15" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44186</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" ht="13.8">
       <c r="A16" s="20">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="21">
-        <v>44187.0</v>
+        <v>44187</v>
       </c>
       <c r="C16" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44187</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" ht="13.8">
       <c r="A17" s="20">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="21">
-        <v>44188.0</v>
+        <v>44188</v>
       </c>
       <c r="C17" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44188</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" ht="13.8">
       <c r="A18" s="20">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B18" s="21">
-        <v>44189.0</v>
+        <v>44189</v>
       </c>
       <c r="C18" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44189</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="23"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" ht="13.8">
       <c r="A19" s="20">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B19" s="21">
-        <v>44190.0</v>
+        <v>44190</v>
       </c>
       <c r="C19" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44190</v>
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" ht="13.8">
       <c r="A20" s="24">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B20" s="25">
-        <v>44191.0</v>
+        <v>44191</v>
       </c>
       <c r="C20" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44191</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" ht="13.8">
       <c r="A21" s="24">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B21" s="25">
-        <v>44192.0</v>
+        <v>44192</v>
       </c>
       <c r="C21" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44192</v>
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" ht="13.8">
       <c r="A22" s="20">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B22" s="21">
-        <v>44193.0</v>
+        <v>44193</v>
       </c>
       <c r="C22" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44193</v>
       </c>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" ht="13.8">
       <c r="A23" s="20">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B23" s="21">
-        <v>44194.0</v>
+        <v>44194</v>
       </c>
       <c r="C23" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44194</v>
       </c>
       <c r="D23" s="23"/>
       <c r="E23" s="23"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" ht="13.8">
       <c r="A24" s="20">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B24" s="21">
-        <v>44195.0</v>
+        <v>44195</v>
       </c>
       <c r="C24" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44195</v>
       </c>
       <c r="D24" s="23"/>
       <c r="E24" s="23"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" ht="13.8">
       <c r="A25" s="20">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B25" s="21">
-        <v>44196.0</v>
+        <v>44196</v>
       </c>
       <c r="C25" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44196</v>
       </c>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5" ht="13.8">
       <c r="A26" s="20">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B26" s="21">
-        <v>44197.0</v>
+        <v>44197</v>
       </c>
       <c r="C26" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44197</v>
       </c>
       <c r="D26" s="20" t="s">
@@ -3660,351 +3690,351 @@
       </c>
       <c r="E26" s="23"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:5" ht="13.8">
       <c r="A27" s="24">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B27" s="25">
-        <v>44198.0</v>
+        <v>44198</v>
       </c>
       <c r="C27" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44198</v>
       </c>
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:5" ht="13.8">
       <c r="A28" s="24">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B28" s="25">
-        <v>44199.0</v>
+        <v>44199</v>
       </c>
       <c r="C28" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44199</v>
       </c>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:5" ht="13.8">
       <c r="A29" s="20">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B29" s="21">
-        <v>44200.0</v>
+        <v>44200</v>
       </c>
       <c r="C29" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44200</v>
       </c>
       <c r="D29" s="23"/>
       <c r="E29" s="23"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:5" ht="13.8">
       <c r="A30" s="20">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B30" s="21">
-        <v>44201.0</v>
+        <v>44201</v>
       </c>
       <c r="C30" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44201</v>
       </c>
       <c r="D30" s="23"/>
       <c r="E30" s="23"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:5" ht="13.8">
       <c r="A31" s="20">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B31" s="21">
-        <v>44202.0</v>
+        <v>44202</v>
       </c>
       <c r="C31" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44202</v>
       </c>
       <c r="D31" s="23"/>
       <c r="E31" s="23"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:5" ht="13.8">
       <c r="A32" s="20">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B32" s="21">
-        <v>44203.0</v>
+        <v>44203</v>
       </c>
       <c r="C32" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44203</v>
       </c>
       <c r="D32" s="23"/>
       <c r="E32" s="23"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" ht="13.8">
       <c r="A33" s="20">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B33" s="21">
-        <v>44204.0</v>
+        <v>44204</v>
       </c>
       <c r="C33" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44204</v>
       </c>
       <c r="D33" s="23"/>
       <c r="E33" s="23"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:5" ht="13.8">
       <c r="A34" s="24">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B34" s="25">
-        <v>44205.0</v>
+        <v>44205</v>
       </c>
       <c r="C34" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44205</v>
       </c>
       <c r="D34" s="27"/>
       <c r="E34" s="27"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:5" ht="13.8">
       <c r="A35" s="24">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B35" s="25">
-        <v>44206.0</v>
+        <v>44206</v>
       </c>
       <c r="C35" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44206</v>
       </c>
       <c r="D35" s="27"/>
       <c r="E35" s="27"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:5" ht="13.8">
       <c r="A36" s="20">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B36" s="21">
-        <v>44207.0</v>
+        <v>44207</v>
       </c>
       <c r="C36" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44207</v>
       </c>
       <c r="D36" s="23"/>
       <c r="E36" s="23"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:5" ht="13.8">
       <c r="A37" s="20">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B37" s="21">
-        <v>44208.0</v>
+        <v>44208</v>
       </c>
       <c r="C37" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44208</v>
       </c>
       <c r="D37" s="23"/>
       <c r="E37" s="23"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:5" ht="13.8">
       <c r="A38" s="20">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B38" s="21">
-        <v>44209.0</v>
+        <v>44209</v>
       </c>
       <c r="C38" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44209</v>
       </c>
       <c r="D38" s="23"/>
       <c r="E38" s="23"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:5" ht="13.8">
       <c r="A39" s="20">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B39" s="21">
-        <v>44210.0</v>
+        <v>44210</v>
       </c>
       <c r="C39" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44210</v>
       </c>
       <c r="D39" s="23"/>
       <c r="E39" s="23"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:5" ht="13.8">
       <c r="A40" s="20">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B40" s="21">
-        <v>44211.0</v>
+        <v>44211</v>
       </c>
       <c r="C40" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44211</v>
       </c>
       <c r="D40" s="23"/>
       <c r="E40" s="23"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:5" ht="13.8">
       <c r="A41" s="24">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B41" s="25">
-        <v>44212.0</v>
+        <v>44212</v>
       </c>
       <c r="C41" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44212</v>
       </c>
       <c r="D41" s="27"/>
       <c r="E41" s="27"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:5" ht="13.8">
       <c r="A42" s="24">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B42" s="25">
-        <v>44213.0</v>
+        <v>44213</v>
       </c>
       <c r="C42" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44213</v>
       </c>
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:5" ht="13.8">
       <c r="A43" s="20">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="B43" s="21">
-        <v>44214.0</v>
+        <v>44214</v>
       </c>
       <c r="C43" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44214</v>
       </c>
       <c r="D43" s="23"/>
       <c r="E43" s="23"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:5" ht="13.8">
       <c r="A44" s="20">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="B44" s="21">
-        <v>44215.0</v>
+        <v>44215</v>
       </c>
       <c r="C44" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44215</v>
       </c>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:5" ht="13.8">
       <c r="A45" s="20">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="B45" s="21">
-        <v>44216.0</v>
+        <v>44216</v>
       </c>
       <c r="C45" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44216</v>
       </c>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:5" ht="13.8">
       <c r="A46" s="20">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B46" s="21">
-        <v>44217.0</v>
+        <v>44217</v>
       </c>
       <c r="C46" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44217</v>
       </c>
       <c r="D46" s="23"/>
       <c r="E46" s="23"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:5" ht="13.8">
       <c r="A47" s="20">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="B47" s="21">
-        <v>44218.0</v>
+        <v>44218</v>
       </c>
       <c r="C47" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44218</v>
       </c>
       <c r="D47" s="23"/>
       <c r="E47" s="23"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:5" ht="13.8">
       <c r="A48" s="24">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B48" s="25">
-        <v>44219.0</v>
+        <v>44219</v>
       </c>
       <c r="C48" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44219</v>
       </c>
       <c r="D48" s="27"/>
       <c r="E48" s="27"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:5" ht="13.8">
       <c r="A49" s="24">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="B49" s="25">
-        <v>44220.0</v>
+        <v>44220</v>
       </c>
       <c r="C49" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44220</v>
       </c>
       <c r="D49" s="27"/>
       <c r="E49" s="27"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:5" ht="13.8">
       <c r="A50" s="20">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="B50" s="21">
-        <v>44221.0</v>
+        <v>44221</v>
       </c>
       <c r="C50" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44221</v>
       </c>
       <c r="D50" s="23"/>
       <c r="E50" s="23"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:5" ht="13.8">
       <c r="A51" s="20">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B51" s="21">
-        <v>44222.0</v>
+        <v>44222</v>
       </c>
       <c r="C51" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44222</v>
       </c>
       <c r="D51" s="20" t="s">
@@ -4012,351 +4042,351 @@
       </c>
       <c r="E51" s="23"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:5" ht="13.8">
       <c r="A52" s="20">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B52" s="21">
-        <v>44223.0</v>
+        <v>44223</v>
       </c>
       <c r="C52" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44223</v>
       </c>
       <c r="D52" s="20"/>
       <c r="E52" s="23"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:5" ht="13.8">
       <c r="A53" s="20">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="B53" s="21">
-        <v>44224.0</v>
+        <v>44224</v>
       </c>
       <c r="C53" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44224</v>
       </c>
       <c r="D53" s="23"/>
       <c r="E53" s="23"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:5" ht="13.8">
       <c r="A54" s="20">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="B54" s="21">
-        <v>44225.0</v>
+        <v>44225</v>
       </c>
       <c r="C54" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44225</v>
       </c>
       <c r="D54" s="23"/>
       <c r="E54" s="23"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:5" ht="13.8">
       <c r="A55" s="24">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="B55" s="25">
-        <v>44226.0</v>
+        <v>44226</v>
       </c>
       <c r="C55" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44226</v>
       </c>
       <c r="D55" s="27"/>
       <c r="E55" s="27"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:5" ht="13.8">
       <c r="A56" s="24">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="B56" s="25">
-        <v>44227.0</v>
+        <v>44227</v>
       </c>
       <c r="C56" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44227</v>
       </c>
       <c r="D56" s="27"/>
       <c r="E56" s="27"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:5" ht="13.8">
       <c r="A57" s="20">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="B57" s="21">
-        <v>44228.0</v>
+        <v>44228</v>
       </c>
       <c r="C57" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44228</v>
       </c>
       <c r="D57" s="23"/>
       <c r="E57" s="23"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:5" ht="13.8">
       <c r="A58" s="20">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="B58" s="21">
-        <v>44229.0</v>
+        <v>44229</v>
       </c>
       <c r="C58" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44229</v>
       </c>
       <c r="D58" s="23"/>
       <c r="E58" s="23"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:5" ht="13.8">
       <c r="A59" s="20">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="B59" s="21">
-        <v>44230.0</v>
+        <v>44230</v>
       </c>
       <c r="C59" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44230</v>
       </c>
       <c r="D59" s="23"/>
       <c r="E59" s="23"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:5" ht="13.8">
       <c r="A60" s="20">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="B60" s="21">
-        <v>44231.0</v>
+        <v>44231</v>
       </c>
       <c r="C60" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44231</v>
       </c>
       <c r="D60" s="23"/>
       <c r="E60" s="23"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:5" ht="13.8">
       <c r="A61" s="20">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="B61" s="21">
-        <v>44232.0</v>
+        <v>44232</v>
       </c>
       <c r="C61" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44232</v>
       </c>
       <c r="D61" s="23"/>
       <c r="E61" s="23"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:5" ht="13.8">
       <c r="A62" s="24">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="B62" s="25">
-        <v>44233.0</v>
+        <v>44233</v>
       </c>
       <c r="C62" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44233</v>
       </c>
       <c r="D62" s="27"/>
       <c r="E62" s="27"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:5" ht="13.8">
       <c r="A63" s="24">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="B63" s="25">
-        <v>44234.0</v>
+        <v>44234</v>
       </c>
       <c r="C63" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44234</v>
       </c>
       <c r="D63" s="27"/>
       <c r="E63" s="27"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:5" ht="13.8">
       <c r="A64" s="20">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="B64" s="21">
-        <v>44235.0</v>
+        <v>44235</v>
       </c>
       <c r="C64" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44235</v>
       </c>
       <c r="D64" s="23"/>
       <c r="E64" s="23"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:5" ht="13.8">
       <c r="A65" s="20">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="B65" s="21">
-        <v>44236.0</v>
+        <v>44236</v>
       </c>
       <c r="C65" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44236</v>
       </c>
       <c r="D65" s="23"/>
       <c r="E65" s="23"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:5" ht="13.8">
       <c r="A66" s="20">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="B66" s="21">
-        <v>44237.0</v>
+        <v>44237</v>
       </c>
       <c r="C66" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44237</v>
       </c>
       <c r="D66" s="23"/>
       <c r="E66" s="23"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:5" ht="13.8">
       <c r="A67" s="20">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="B67" s="21">
-        <v>44238.0</v>
+        <v>44238</v>
       </c>
       <c r="C67" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44238</v>
       </c>
       <c r="D67" s="23"/>
       <c r="E67" s="23"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:5" ht="13.8">
       <c r="A68" s="20">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="B68" s="21">
-        <v>44239.0</v>
+        <v>44239</v>
       </c>
       <c r="C68" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44239</v>
       </c>
       <c r="D68" s="23"/>
       <c r="E68" s="23"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:5" ht="13.8">
       <c r="A69" s="24">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="B69" s="25">
-        <v>44240.0</v>
+        <v>44240</v>
       </c>
       <c r="C69" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44240</v>
       </c>
       <c r="D69" s="27"/>
       <c r="E69" s="27"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:5" ht="13.8">
       <c r="A70" s="24">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="B70" s="25">
-        <v>44241.0</v>
+        <v>44241</v>
       </c>
       <c r="C70" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44241</v>
       </c>
       <c r="D70" s="27"/>
       <c r="E70" s="27"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:5" ht="13.8">
       <c r="A71" s="20">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="B71" s="21">
-        <v>44242.0</v>
+        <v>44242</v>
       </c>
       <c r="C71" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44242</v>
       </c>
       <c r="D71" s="23"/>
       <c r="E71" s="23"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:5" ht="13.8">
       <c r="A72" s="20">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="B72" s="21">
-        <v>44243.0</v>
+        <v>44243</v>
       </c>
       <c r="C72" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44243</v>
       </c>
       <c r="D72" s="23"/>
       <c r="E72" s="23"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:5" ht="13.8">
       <c r="A73" s="20">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="B73" s="21">
-        <v>44244.0</v>
+        <v>44244</v>
       </c>
       <c r="C73" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44244</v>
       </c>
       <c r="D73" s="23"/>
       <c r="E73" s="23"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:5" ht="13.8">
       <c r="A74" s="20">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="B74" s="21">
-        <v>44245.0</v>
+        <v>44245</v>
       </c>
       <c r="C74" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44245</v>
       </c>
       <c r="D74" s="23"/>
       <c r="E74" s="23"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:5" ht="13.8">
       <c r="A75" s="20">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="B75" s="21">
-        <v>44246.0</v>
+        <v>44246</v>
       </c>
       <c r="C75" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44246</v>
       </c>
       <c r="D75" s="23"/>
       <c r="E75" s="23"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:5" ht="13.8">
       <c r="A76" s="24">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="B76" s="25">
-        <v>44247.0</v>
+        <v>44247</v>
       </c>
       <c r="C76" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44247</v>
       </c>
       <c r="D76" s="24" t="s">
@@ -4364,351 +4394,351 @@
       </c>
       <c r="E76" s="27"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:5" ht="13.8">
       <c r="A77" s="24">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="B77" s="25">
-        <v>44248.0</v>
+        <v>44248</v>
       </c>
       <c r="C77" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44248</v>
       </c>
       <c r="D77" s="27"/>
       <c r="E77" s="27"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:5" ht="13.8">
       <c r="A78" s="20">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="B78" s="21">
-        <v>44249.0</v>
+        <v>44249</v>
       </c>
       <c r="C78" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44249</v>
       </c>
       <c r="D78" s="23"/>
       <c r="E78" s="23"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:5" ht="13.8">
       <c r="A79" s="20">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="B79" s="21">
-        <v>44250.0</v>
+        <v>44250</v>
       </c>
       <c r="C79" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44250</v>
       </c>
       <c r="D79" s="23"/>
       <c r="E79" s="23"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:5" ht="13.8">
       <c r="A80" s="20">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="B80" s="21">
-        <v>44251.0</v>
+        <v>44251</v>
       </c>
       <c r="C80" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44251</v>
       </c>
       <c r="D80" s="23"/>
       <c r="E80" s="23"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:5" ht="13.8">
       <c r="A81" s="20">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="B81" s="21">
-        <v>44252.0</v>
+        <v>44252</v>
       </c>
       <c r="C81" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44252</v>
       </c>
       <c r="D81" s="23"/>
       <c r="E81" s="23"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:5" ht="13.8">
       <c r="A82" s="20">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="B82" s="21">
-        <v>44253.0</v>
+        <v>44253</v>
       </c>
       <c r="C82" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44253</v>
       </c>
       <c r="D82" s="23"/>
       <c r="E82" s="23"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:5" ht="13.8">
       <c r="A83" s="24">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="B83" s="25">
-        <v>44254.0</v>
+        <v>44254</v>
       </c>
       <c r="C83" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44254</v>
       </c>
       <c r="D83" s="27"/>
       <c r="E83" s="27"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:5" ht="13.8">
       <c r="A84" s="24">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="B84" s="25">
-        <v>44255.0</v>
+        <v>44255</v>
       </c>
       <c r="C84" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44255</v>
       </c>
       <c r="D84" s="27"/>
       <c r="E84" s="27"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:5" ht="13.8">
       <c r="A85" s="20">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="B85" s="21">
-        <v>44256.0</v>
+        <v>44256</v>
       </c>
       <c r="C85" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44256</v>
       </c>
       <c r="D85" s="23"/>
       <c r="E85" s="23"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:5" ht="13.8">
       <c r="A86" s="20">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="B86" s="21">
-        <v>44257.0</v>
+        <v>44257</v>
       </c>
       <c r="C86" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44257</v>
       </c>
       <c r="D86" s="23"/>
       <c r="E86" s="23"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:5" ht="13.8">
       <c r="A87" s="20">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="B87" s="21">
-        <v>44258.0</v>
+        <v>44258</v>
       </c>
       <c r="C87" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44258</v>
       </c>
       <c r="D87" s="23"/>
       <c r="E87" s="23"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:5" ht="13.8">
       <c r="A88" s="20">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="B88" s="21">
-        <v>44259.0</v>
+        <v>44259</v>
       </c>
       <c r="C88" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44259</v>
       </c>
       <c r="D88" s="23"/>
       <c r="E88" s="23"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:5" ht="13.8">
       <c r="A89" s="20">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="B89" s="21">
-        <v>44260.0</v>
+        <v>44260</v>
       </c>
       <c r="C89" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44260</v>
       </c>
       <c r="D89" s="23"/>
       <c r="E89" s="23"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:5" ht="13.8">
       <c r="A90" s="24">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="B90" s="25">
-        <v>44261.0</v>
+        <v>44261</v>
       </c>
       <c r="C90" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44261</v>
       </c>
       <c r="D90" s="27"/>
       <c r="E90" s="27"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:5" ht="13.8">
       <c r="A91" s="24">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="B91" s="25">
-        <v>44262.0</v>
+        <v>44262</v>
       </c>
       <c r="C91" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44262</v>
       </c>
       <c r="D91" s="27"/>
       <c r="E91" s="27"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:5" ht="13.8">
       <c r="A92" s="20">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="B92" s="21">
-        <v>44263.0</v>
+        <v>44263</v>
       </c>
       <c r="C92" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44263</v>
       </c>
       <c r="D92" s="23"/>
       <c r="E92" s="23"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:5" ht="13.8">
       <c r="A93" s="20">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="B93" s="21">
-        <v>44264.0</v>
+        <v>44264</v>
       </c>
       <c r="C93" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44264</v>
       </c>
       <c r="D93" s="23"/>
       <c r="E93" s="23"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:5" ht="13.8">
       <c r="A94" s="20">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="B94" s="21">
-        <v>44265.0</v>
+        <v>44265</v>
       </c>
       <c r="C94" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44265</v>
       </c>
       <c r="D94" s="23"/>
       <c r="E94" s="23"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:5" ht="13.8">
       <c r="A95" s="20">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="B95" s="21">
-        <v>44266.0</v>
+        <v>44266</v>
       </c>
       <c r="C95" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44266</v>
       </c>
       <c r="D95" s="23"/>
       <c r="E95" s="23"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:5" ht="13.8">
       <c r="A96" s="20">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="B96" s="21">
-        <v>44267.0</v>
+        <v>44267</v>
       </c>
       <c r="C96" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44267</v>
       </c>
       <c r="D96" s="23"/>
       <c r="E96" s="23"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:5" ht="13.8">
       <c r="A97" s="24">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="B97" s="25">
-        <v>44268.0</v>
+        <v>44268</v>
       </c>
       <c r="C97" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44268</v>
       </c>
       <c r="D97" s="27"/>
       <c r="E97" s="27"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:5" ht="13.8">
       <c r="A98" s="24">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="B98" s="25">
-        <v>44269.0</v>
+        <v>44269</v>
       </c>
       <c r="C98" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44269</v>
       </c>
       <c r="D98" s="27"/>
       <c r="E98" s="27"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:5" ht="13.8">
       <c r="A99" s="20">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="B99" s="21">
-        <v>44270.0</v>
+        <v>44270</v>
       </c>
       <c r="C99" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44270</v>
       </c>
       <c r="D99" s="23"/>
       <c r="E99" s="23"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:5" ht="13.8">
       <c r="A100" s="20">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="B100" s="21">
-        <v>44271.0</v>
+        <v>44271</v>
       </c>
       <c r="C100" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44271</v>
       </c>
       <c r="D100" s="23"/>
       <c r="E100" s="23"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:5" ht="13.8">
       <c r="A101" s="20">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="B101" s="21">
-        <v>44272.0</v>
+        <v>44272</v>
       </c>
       <c r="C101" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44272</v>
       </c>
       <c r="D101" s="20" t="s">
@@ -4717,30 +4747,31 @@
       <c r="E101" s="23"/>
     </row>
   </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="2" width="57.29"/>
-    <col customWidth="1" min="3" max="3" width="61.57"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="57.33203125" customWidth="1"/>
+    <col min="3" max="3" width="61.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="13.8">
       <c r="A1" s="28" t="s">
         <v>190</v>
       </c>
@@ -4751,9 +4782,9 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" ht="22.5" customHeight="1">
+    <row r="2" spans="1:3" ht="22.5" customHeight="1">
       <c r="A2" s="29">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
@@ -4762,9 +4793,9 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" ht="22.5" customHeight="1">
+    <row r="3" spans="1:3" ht="22.5" customHeight="1">
       <c r="A3" s="29">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>30</v>
@@ -4773,9 +4804,9 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" ht="22.5" customHeight="1">
+    <row r="4" spans="1:3" ht="22.5" customHeight="1">
       <c r="A4" s="29">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>54</v>
@@ -4784,9 +4815,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" ht="22.5" customHeight="1">
+    <row r="5" spans="1:3" ht="22.5" customHeight="1">
       <c r="A5" s="29">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>68</v>
@@ -4795,9 +4826,9 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" ht="22.5" customHeight="1">
+    <row r="6" spans="1:3" ht="22.5" customHeight="1">
       <c r="A6" s="29">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>87</v>
@@ -4806,9 +4837,9 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" ht="22.5" customHeight="1">
+    <row r="7" spans="1:3" ht="22.5" customHeight="1">
       <c r="A7" s="29">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>102</v>
@@ -4818,29 +4849,30 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="2" width="11.71"/>
-    <col customWidth="1" min="3" max="3" width="77.57"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="77.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3">
       <c r="A1" s="30" t="s">
         <v>190</v>
       </c>
@@ -4851,18 +4883,18 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3">
       <c r="A2" s="31">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="32">
-        <v>44251.0</v>
+        <v>44251</v>
       </c>
       <c r="C2" s="33" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3">
       <c r="A3" s="34">
         <f>IF(AND(ISBLANK(B3), ISBLANK(#REF!)),"",$A$2+1)</f>
         <v>2</v>
@@ -4870,511 +4902,512 @@
       <c r="B3" s="35"/>
       <c r="C3" s="36"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3">
       <c r="A4" s="34"/>
       <c r="B4" s="37"/>
       <c r="C4" s="36"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3">
       <c r="A5" s="34"/>
       <c r="B5" s="37"/>
       <c r="C5" s="36"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3">
       <c r="A6" s="38"/>
       <c r="B6" s="37"/>
       <c r="C6" s="36"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3">
       <c r="A7" s="34"/>
       <c r="B7" s="37"/>
       <c r="C7" s="36"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3">
       <c r="A8" s="34"/>
       <c r="B8" s="37"/>
       <c r="C8" s="36"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3">
       <c r="A9" s="34"/>
       <c r="B9" s="37"/>
       <c r="C9" s="36"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3">
       <c r="A10" s="34"/>
       <c r="B10" s="37"/>
       <c r="C10" s="36"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3">
       <c r="A11" s="34"/>
       <c r="B11" s="37"/>
       <c r="C11" s="36"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3">
       <c r="A12" s="34"/>
       <c r="B12" s="37"/>
       <c r="C12" s="36"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3">
       <c r="A13" s="34"/>
       <c r="B13" s="37"/>
       <c r="C13" s="36"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3">
       <c r="A14" s="34"/>
       <c r="B14" s="39"/>
       <c r="C14" s="40"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3">
       <c r="A15" s="34"/>
       <c r="B15" s="39"/>
       <c r="C15" s="40"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3">
       <c r="A16" s="34"/>
       <c r="B16" s="39"/>
       <c r="C16" s="40"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3">
       <c r="A17" s="34"/>
       <c r="B17" s="39"/>
       <c r="C17" s="40"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3">
       <c r="A18" s="34"/>
       <c r="B18" s="39"/>
       <c r="C18" s="40"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3">
       <c r="A19" s="34"/>
       <c r="B19" s="39"/>
       <c r="C19" s="40"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3">
       <c r="A20" s="34"/>
       <c r="B20" s="39"/>
       <c r="C20" s="40"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3">
       <c r="A21" s="34"/>
       <c r="B21" s="37"/>
       <c r="C21" s="36"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3">
       <c r="A22" s="34"/>
       <c r="B22" s="37"/>
       <c r="C22" s="36"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3">
       <c r="A23" s="34"/>
       <c r="B23" s="37"/>
       <c r="C23" s="36"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3">
       <c r="A24" s="34"/>
       <c r="B24" s="37"/>
       <c r="C24" s="36"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3">
       <c r="A25" s="34"/>
       <c r="B25" s="37"/>
       <c r="C25" s="36"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3">
       <c r="A26" s="34"/>
       <c r="B26" s="37"/>
       <c r="C26" s="36"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3">
       <c r="A27" s="34"/>
       <c r="B27" s="37"/>
       <c r="C27" s="36"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3">
       <c r="A28" s="34"/>
       <c r="B28" s="37"/>
       <c r="C28" s="36"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3">
       <c r="A29" s="34"/>
       <c r="B29" s="37"/>
       <c r="C29" s="36"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3">
       <c r="A30" s="34"/>
       <c r="B30" s="37"/>
       <c r="C30" s="36"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3">
       <c r="A31" s="34"/>
       <c r="B31" s="37"/>
       <c r="C31" s="36"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3">
       <c r="A32" s="34"/>
       <c r="B32" s="37"/>
       <c r="C32" s="36"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:3">
       <c r="A33" s="34"/>
       <c r="B33" s="37"/>
       <c r="C33" s="36"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3">
       <c r="A34" s="34"/>
       <c r="B34" s="37"/>
       <c r="C34" s="36"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3">
       <c r="A35" s="34"/>
       <c r="B35" s="37"/>
       <c r="C35" s="36"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:3">
       <c r="A36" s="34"/>
       <c r="B36" s="37"/>
       <c r="C36" s="36"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:3">
       <c r="A37" s="34"/>
       <c r="B37" s="37"/>
       <c r="C37" s="36"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:3">
       <c r="A38" s="34"/>
       <c r="B38" s="37"/>
       <c r="C38" s="36"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:3">
       <c r="A39" s="34"/>
       <c r="B39" s="37"/>
       <c r="C39" s="36"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:3">
       <c r="A40" s="34"/>
       <c r="B40" s="37"/>
       <c r="C40" s="36"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:3">
       <c r="A41" s="34"/>
       <c r="B41" s="37"/>
       <c r="C41" s="36"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:3">
       <c r="A42" s="34"/>
       <c r="B42" s="37"/>
       <c r="C42" s="36"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:3">
       <c r="A43" s="34"/>
       <c r="B43" s="37"/>
       <c r="C43" s="36"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:3">
       <c r="A44" s="34"/>
       <c r="B44" s="37"/>
       <c r="C44" s="36"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:3">
       <c r="A45" s="34"/>
       <c r="B45" s="37"/>
       <c r="C45" s="36"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:3">
       <c r="A46" s="34"/>
       <c r="B46" s="37"/>
       <c r="C46" s="36"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:3">
       <c r="A47" s="34"/>
       <c r="B47" s="37"/>
       <c r="C47" s="36"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:3">
       <c r="A48" s="34"/>
       <c r="B48" s="37"/>
       <c r="C48" s="36"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:3">
       <c r="A49" s="34"/>
       <c r="B49" s="37"/>
       <c r="C49" s="36"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:3">
       <c r="A50" s="34"/>
       <c r="B50" s="37"/>
       <c r="C50" s="36"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:3">
       <c r="A51" s="34"/>
       <c r="B51" s="37"/>
       <c r="C51" s="36"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:3">
       <c r="A52" s="34"/>
       <c r="B52" s="37"/>
       <c r="C52" s="36"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:3">
       <c r="A53" s="34"/>
       <c r="B53" s="37"/>
       <c r="C53" s="36"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:3">
       <c r="A54" s="34"/>
       <c r="B54" s="37"/>
       <c r="C54" s="36"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:3">
       <c r="A55" s="34"/>
       <c r="B55" s="37"/>
       <c r="C55" s="36"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:3">
       <c r="A56" s="34"/>
       <c r="B56" s="37"/>
       <c r="C56" s="36"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:3">
       <c r="A57" s="34"/>
       <c r="B57" s="37"/>
       <c r="C57" s="36"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:3">
       <c r="A58" s="34"/>
       <c r="B58" s="37"/>
       <c r="C58" s="36"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:3">
       <c r="A59" s="34"/>
       <c r="B59" s="37"/>
       <c r="C59" s="36"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:3">
       <c r="A60" s="34"/>
       <c r="B60" s="37"/>
       <c r="C60" s="36"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:3">
       <c r="A61" s="34"/>
       <c r="B61" s="37"/>
       <c r="C61" s="36"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:3">
       <c r="A62" s="34"/>
       <c r="B62" s="37"/>
       <c r="C62" s="36"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:3">
       <c r="A63" s="34"/>
       <c r="B63" s="37"/>
       <c r="C63" s="36"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:3">
       <c r="A64" s="34"/>
       <c r="B64" s="37"/>
       <c r="C64" s="36"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:3">
       <c r="A65" s="34"/>
       <c r="B65" s="37"/>
       <c r="C65" s="36"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:3">
       <c r="A66" s="34"/>
       <c r="B66" s="37"/>
       <c r="C66" s="36"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:3">
       <c r="A67" s="34"/>
       <c r="B67" s="37"/>
       <c r="C67" s="36"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:3">
       <c r="A68" s="34"/>
       <c r="B68" s="37"/>
       <c r="C68" s="36"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:3">
       <c r="A69" s="34"/>
       <c r="B69" s="37"/>
       <c r="C69" s="36"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:3">
       <c r="A70" s="34"/>
       <c r="B70" s="37"/>
       <c r="C70" s="36"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:3">
       <c r="A71" s="34"/>
       <c r="B71" s="37"/>
       <c r="C71" s="36"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:3">
       <c r="A72" s="34"/>
       <c r="B72" s="37"/>
       <c r="C72" s="36"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:3">
       <c r="A73" s="34"/>
       <c r="B73" s="37"/>
       <c r="C73" s="36"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:3">
       <c r="A74" s="34"/>
       <c r="B74" s="37"/>
       <c r="C74" s="36"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:3">
       <c r="A75" s="34"/>
       <c r="B75" s="37"/>
       <c r="C75" s="36"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:3">
       <c r="A76" s="34"/>
       <c r="B76" s="37"/>
       <c r="C76" s="36"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:3">
       <c r="A77" s="34"/>
       <c r="B77" s="37"/>
       <c r="C77" s="36"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:3">
       <c r="A78" s="34"/>
       <c r="B78" s="37"/>
       <c r="C78" s="36"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:3">
       <c r="A79" s="34"/>
       <c r="B79" s="37"/>
       <c r="C79" s="36"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:3">
       <c r="A80" s="34"/>
       <c r="B80" s="37"/>
       <c r="C80" s="36"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:3">
       <c r="A81" s="34"/>
       <c r="B81" s="37"/>
       <c r="C81" s="36"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:3">
       <c r="A82" s="34"/>
       <c r="B82" s="37"/>
       <c r="C82" s="36"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:3">
       <c r="A83" s="34"/>
       <c r="B83" s="37"/>
       <c r="C83" s="36"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:3">
       <c r="A84" s="34"/>
       <c r="B84" s="37"/>
       <c r="C84" s="36"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:3">
       <c r="A85" s="34"/>
       <c r="B85" s="37"/>
       <c r="C85" s="36"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:3">
       <c r="A86" s="34"/>
       <c r="B86" s="37"/>
       <c r="C86" s="36"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:3">
       <c r="A87" s="34"/>
       <c r="B87" s="37"/>
       <c r="C87" s="36"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:3">
       <c r="A88" s="34"/>
       <c r="B88" s="37"/>
       <c r="C88" s="36"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:3">
       <c r="A89" s="34"/>
       <c r="B89" s="37"/>
       <c r="C89" s="36"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:3">
       <c r="A90" s="34"/>
       <c r="B90" s="37"/>
       <c r="C90" s="36"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:3">
       <c r="A91" s="34"/>
       <c r="B91" s="37"/>
       <c r="C91" s="36"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:3">
       <c r="A92" s="34"/>
       <c r="B92" s="37"/>
       <c r="C92" s="36"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:3">
       <c r="A93" s="34"/>
       <c r="B93" s="37"/>
       <c r="C93" s="36"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:3">
       <c r="A94" s="34"/>
       <c r="B94" s="37"/>
       <c r="C94" s="36"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:3">
       <c r="A95" s="34"/>
       <c r="B95" s="37"/>
       <c r="C95" s="36"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:3">
       <c r="A96" s="34"/>
       <c r="B96" s="37"/>
       <c r="C96" s="36"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:3">
       <c r="A97" s="34"/>
       <c r="B97" s="37"/>
       <c r="C97" s="36"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:3">
       <c r="A98" s="34"/>
       <c r="B98" s="37"/>
       <c r="C98" s="36"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:3">
       <c r="A99" s="34"/>
       <c r="B99" s="37"/>
       <c r="C99" s="36"/>
     </row>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 12/8/2020" sqref="B2:B99">
-      <formula1>44173.0</formula1>
+  <dataValidations count="1">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 12/8/2020" sqref="B2:B99" xr:uid="{00000000-0002-0000-0400-000000000000}">
+      <formula1>44173</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="56.71"/>
-    <col customWidth="1" min="3" max="3" width="45.0"/>
+    <col min="2" max="2" width="56.6640625" customWidth="1"/>
+    <col min="3" max="3" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3">
       <c r="A1" s="41" t="s">
         <v>201</v>
       </c>
@@ -5385,7 +5418,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3">
       <c r="A2" s="42" t="s">
         <v>173</v>
       </c>
@@ -5396,7 +5429,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3">
       <c r="A3" s="42" t="s">
         <v>205</v>
       </c>
@@ -5407,7 +5440,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3">
       <c r="A4" s="42" t="s">
         <v>146</v>
       </c>
@@ -5418,7 +5451,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3">
       <c r="A5" s="42" t="s">
         <v>209</v>
       </c>
@@ -5429,7 +5462,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3">
       <c r="A6" s="42" t="s">
         <v>114</v>
       </c>
@@ -5440,7 +5473,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3">
       <c r="A7" s="42" t="s">
         <v>176</v>
       </c>
@@ -5451,7 +5484,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3">
       <c r="A8" s="42" t="s">
         <v>118</v>
       </c>
@@ -5462,7 +5495,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3">
       <c r="A9" s="42" t="s">
         <v>148</v>
       </c>
@@ -5473,7 +5506,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3">
       <c r="A10" s="42" t="s">
         <v>137</v>
       </c>
@@ -5484,7 +5517,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3">
       <c r="A11" s="42" t="s">
         <v>152</v>
       </c>
@@ -5495,7 +5528,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3">
       <c r="A12" s="42" t="s">
         <v>120</v>
       </c>
@@ -5506,7 +5539,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3">
       <c r="A13" s="42" t="s">
         <v>166</v>
       </c>
@@ -5517,7 +5550,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3">
       <c r="A14" s="42" t="s">
         <v>159</v>
       </c>
@@ -5528,7 +5561,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3">
       <c r="A15" s="42" t="s">
         <v>223</v>
       </c>
@@ -5539,7 +5572,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3">
       <c r="A16" s="42" t="s">
         <v>226</v>
       </c>
@@ -5550,7 +5583,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3">
       <c r="A17" s="42" t="s">
         <v>127</v>
       </c>
@@ -5561,7 +5594,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3">
       <c r="A18" s="42" t="s">
         <v>156</v>
       </c>
@@ -5572,7 +5605,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3">
       <c r="A19" s="42" t="s">
         <v>169</v>
       </c>
@@ -5583,7 +5616,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3">
       <c r="A20" s="42" t="s">
         <v>111</v>
       </c>
@@ -5594,7 +5627,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3">
       <c r="A21" s="42" t="s">
         <v>165</v>
       </c>
@@ -5607,28 +5640,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId2" ref="C2"/>
-    <hyperlink r:id="rId3" ref="C3"/>
-    <hyperlink r:id="rId4" ref="C4"/>
-    <hyperlink r:id="rId5" ref="C5"/>
-    <hyperlink r:id="rId6" ref="C6"/>
-    <hyperlink r:id="rId7" ref="C7"/>
-    <hyperlink r:id="rId8" ref="C8"/>
-    <hyperlink r:id="rId9" ref="C9"/>
-    <hyperlink r:id="rId10" ref="C10"/>
-    <hyperlink r:id="rId11" ref="C11"/>
-    <hyperlink r:id="rId12" ref="C12"/>
-    <hyperlink r:id="rId13" ref="C13"/>
-    <hyperlink r:id="rId14" ref="C14"/>
-    <hyperlink r:id="rId15" ref="C15"/>
-    <hyperlink r:id="rId16" ref="C16"/>
-    <hyperlink r:id="rId17" ref="C17"/>
-    <hyperlink r:id="rId18" ref="C18"/>
-    <hyperlink r:id="rId19" ref="C19"/>
-    <hyperlink r:id="rId20" ref="C20"/>
-    <hyperlink r:id="rId21" ref="C21"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{00000000-0004-0000-0500-00000B000000}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{00000000-0004-0000-0500-00000C000000}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{00000000-0004-0000-0500-00000D000000}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{00000000-0004-0000-0500-00000E000000}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{00000000-0004-0000-0500-00000F000000}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{00000000-0004-0000-0500-000010000000}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{00000000-0004-0000-0500-000011000000}"/>
+    <hyperlink ref="C20" r:id="rId19" xr:uid="{00000000-0004-0000-0500-000012000000}"/>
+    <hyperlink ref="C21" r:id="rId20" xr:uid="{00000000-0004-0000-0500-000013000000}"/>
   </hyperlinks>
-  <drawing r:id="rId22"/>
-  <legacyDrawing r:id="rId23"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId21"/>
 </worksheet>
 </file>
--- a/data/100 Day Tracker Data.xlsx
+++ b/data/100 Day Tracker Data.xlsx
@@ -1,63 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f6c5a3bf1cc44f38/Documents/GitHub/transition-agenda/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_B7F8BCE42FB757C54A7853E6B1973EB040C167DB" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{57AAF9F2-A5D8-4868-96DC-3DBB74E45F1E}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Actions" sheetId="1" r:id="rId1"/>
-    <sheet name="Actions As Provided 129" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="Days" sheetId="3" r:id="rId3"/>
-    <sheet name="Committees" sheetId="4" r:id="rId4"/>
-    <sheet name="Progress Updates" sheetId="5" r:id="rId5"/>
-    <sheet name="Parties" sheetId="6" r:id="rId6"/>
+    <sheet state="visible" name="Actions" sheetId="1" r:id="rId4"/>
+    <sheet state="hidden" name="Actions As Provided 129" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Days" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Committees" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Progress Updates" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Parties" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Actions!$A$1:$F$59</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Actions!$A$1:$F$59</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment authorId="0" ref="E31">
       <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>Im comfortable with changing this, but let me know if you want me to hold for approval.
+        <t xml:space="preserve">This may change to in progress, 3/1 start date.
+	-Markele Cullins</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A1">
+      <text>
+        <t xml:space="preserve">Im comfortable with changing this, but let me know if you want me to hold for approval.
 	-Markele Cullins
 ----
 Please do not edit this column. This will update programmatically based on data in the Progress Updates tab.
 	-Brendan Hellweg</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -65,22 +43,15 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment authorId="0" ref="A1">
       <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>Worth thinking about whether they want a true "first X days" system or if something with looser time restrictions is a better fit
+        <t xml:space="preserve">Worth thinking about whether they want a true "first X days" system or if something with looser time restrictions is a better fit
 	-Brendan Hellweg</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -88,22 +59,15 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment authorId="0" ref="C20">
       <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>This may change during the period the tracker is live.
+        <t xml:space="preserve">This may change during the period the tracker is live.
 	-Natalie Schultz-Henry</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -437,7 +401,7 @@
     <t>Design and release Open Checkbook for Baltimore to increase transparency and accountability.</t>
   </si>
   <si>
-    <t>Baltimore City Information &amp; Technology, Baltimore City Department of Finance</t>
+    <t>Mayor's Office of Performance and Innovation, Baltimore City Department of Finance</t>
   </si>
   <si>
     <t>Status</t>
@@ -826,100 +790,92 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="ddd"/>
-    <numFmt numFmtId="165" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="166" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
+    <numFmt numFmtId="167" formatCode="M/d/yyyy"/>
   </numFmts>
   <fonts count="16">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
+      <name val="&quot;Libre Franklin&quot;"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="-webkit-standard"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.0"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="&quot;Libre Franklin&quot;"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="9.0"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="&quot;Libre Franklin&quot;"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
       <color rgb="FF1155CC"/>
-      <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
       <color rgb="FF0000FF"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="7">
@@ -927,7 +883,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -961,13 +917,7 @@
     </fill>
   </fills>
   <borders count="4">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -981,166 +931,199 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color rgb="FFB7B7B7"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color rgb="FFB7B7B7"/>
       </top>
       <bottom style="thin">
         <color rgb="FFB7B7B7"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="48">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="3" fillId="3" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="2" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="3" fillId="3" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="3" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf borderId="0" fillId="6" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1330,34 +1313,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" customWidth="1"/>
-    <col min="3" max="3" width="53.44140625" customWidth="1"/>
-    <col min="4" max="4" width="70.33203125" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="9.86"/>
+    <col customWidth="1" min="2" max="2" width="30.43"/>
+    <col customWidth="1" min="3" max="3" width="53.43"/>
+    <col customWidth="1" min="4" max="4" width="70.29"/>
+    <col customWidth="1" min="5" max="5" width="19.29"/>
+    <col customWidth="1" min="6" max="6" width="19.57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.8">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1377,9 +1357,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="31.5" customHeight="1">
+    <row r="2" ht="31.5" customHeight="1">
       <c r="A2" s="3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
@@ -1394,12 +1374,12 @@
         <v>9</v>
       </c>
       <c r="F2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3" ht="31.5" customHeight="1">
       <c r="A3" s="3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>6</v>
@@ -1414,12 +1394,12 @@
         <v>9</v>
       </c>
       <c r="F3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4" ht="31.5" customHeight="1">
       <c r="A4" s="3">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>6</v>
@@ -1434,12 +1414,12 @@
         <v>14</v>
       </c>
       <c r="F4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5" ht="31.5" customHeight="1">
       <c r="A5" s="3">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>6</v>
@@ -1454,12 +1434,12 @@
         <v>9</v>
       </c>
       <c r="F5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6" ht="31.5" customHeight="1">
       <c r="A6" s="3">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>6</v>
@@ -1474,12 +1454,12 @@
         <v>9</v>
       </c>
       <c r="F6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7" ht="31.5" customHeight="1">
       <c r="A7" s="3">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>6</v>
@@ -1494,12 +1474,12 @@
         <v>14</v>
       </c>
       <c r="F7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8" ht="31.5" customHeight="1">
       <c r="A8" s="3">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>6</v>
@@ -1514,12 +1494,12 @@
         <v>14</v>
       </c>
       <c r="F8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9" ht="31.5" customHeight="1">
       <c r="A9" s="3">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>6</v>
@@ -1534,12 +1514,12 @@
         <v>14</v>
       </c>
       <c r="F9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10" ht="31.5" customHeight="1">
       <c r="A10" s="3">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>6</v>
@@ -1554,12 +1534,12 @@
         <v>25</v>
       </c>
       <c r="F10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11" ht="31.5" customHeight="1">
       <c r="A11" s="3">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>6</v>
@@ -1574,12 +1554,12 @@
         <v>14</v>
       </c>
       <c r="F11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12" ht="31.5" customHeight="1">
       <c r="A12" s="3">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>6</v>
@@ -1594,12 +1574,12 @@
         <v>25</v>
       </c>
       <c r="F12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13" ht="31.5" customHeight="1">
       <c r="A13" s="3">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>6</v>
@@ -1614,12 +1594,12 @@
         <v>25</v>
       </c>
       <c r="F13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14" ht="31.5" customHeight="1">
       <c r="A14" s="3">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>30</v>
@@ -1634,12 +1614,12 @@
         <v>9</v>
       </c>
       <c r="F14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15" ht="31.5" customHeight="1">
       <c r="A15" s="3">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>30</v>
@@ -1650,16 +1630,16 @@
       <c r="D15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16" ht="31.5" customHeight="1">
       <c r="A16" s="3">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>30</v>
@@ -1674,12 +1654,12 @@
         <v>25</v>
       </c>
       <c r="F16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17" ht="31.5" customHeight="1">
       <c r="A17" s="3">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>30</v>
@@ -1694,12 +1674,12 @@
         <v>14</v>
       </c>
       <c r="F17" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18" ht="31.5" customHeight="1">
       <c r="A18" s="3">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>30</v>
@@ -1714,12 +1694,12 @@
         <v>14</v>
       </c>
       <c r="F18" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19" ht="31.5" customHeight="1">
       <c r="A19" s="3">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>30</v>
@@ -1734,12 +1714,12 @@
         <v>25</v>
       </c>
       <c r="F19" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="20" ht="31.5" customHeight="1">
       <c r="A20" s="3">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>30</v>
@@ -1754,12 +1734,12 @@
         <v>25</v>
       </c>
       <c r="F20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="21" ht="31.5" customHeight="1">
       <c r="A21" s="3">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>30</v>
@@ -1774,12 +1754,12 @@
         <v>14</v>
       </c>
       <c r="F21" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="22" ht="31.5" customHeight="1">
       <c r="A22" s="3">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>30</v>
@@ -1794,12 +1774,12 @@
         <v>25</v>
       </c>
       <c r="F22" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="23" ht="31.5" customHeight="1">
       <c r="A23" s="3">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>30</v>
@@ -1814,12 +1794,12 @@
         <v>25</v>
       </c>
       <c r="F23" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="24" ht="31.5" customHeight="1">
       <c r="A24" s="3">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>30</v>
@@ -1834,12 +1814,12 @@
         <v>25</v>
       </c>
       <c r="F24" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="25" ht="31.5" customHeight="1">
       <c r="A25" s="3">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>30</v>
@@ -1854,12 +1834,12 @@
         <v>14</v>
       </c>
       <c r="F25" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="26" ht="31.5" customHeight="1">
       <c r="A26" s="3">
-        <v>25</v>
+        <v>25.0</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>30</v>
@@ -1874,12 +1854,12 @@
         <v>9</v>
       </c>
       <c r="F26" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="27" ht="31.5" customHeight="1">
       <c r="A27" s="3">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>54</v>
@@ -1894,12 +1874,12 @@
         <v>14</v>
       </c>
       <c r="F27" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="28" ht="31.5" customHeight="1">
       <c r="A28" s="3">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>54</v>
@@ -1914,12 +1894,12 @@
         <v>14</v>
       </c>
       <c r="F28" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="29" ht="31.5" customHeight="1">
       <c r="A29" s="3">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>54</v>
@@ -1934,12 +1914,12 @@
         <v>9</v>
       </c>
       <c r="F29" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="30" ht="31.5" customHeight="1">
       <c r="A30" s="3">
-        <v>29</v>
+        <v>29.0</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>54</v>
@@ -1954,12 +1934,12 @@
         <v>25</v>
       </c>
       <c r="F30" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="31" ht="31.5" customHeight="1">
       <c r="A31" s="3">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>54</v>
@@ -1970,16 +1950,16 @@
       <c r="D31" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F31" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="32" ht="31.5" customHeight="1">
       <c r="A32" s="3">
-        <v>31</v>
+        <v>31.0</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>54</v>
@@ -1994,12 +1974,12 @@
         <v>9</v>
       </c>
       <c r="F32" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="33" ht="31.5" customHeight="1">
       <c r="A33" s="3">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>54</v>
@@ -2014,12 +1994,12 @@
         <v>25</v>
       </c>
       <c r="F33" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="34" ht="31.5" customHeight="1">
       <c r="A34" s="3">
-        <v>33</v>
+        <v>33.0</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>68</v>
@@ -2034,12 +2014,12 @@
         <v>9</v>
       </c>
       <c r="F34" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="35" ht="31.5" customHeight="1">
       <c r="A35" s="3">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>68</v>
@@ -2054,12 +2034,12 @@
         <v>14</v>
       </c>
       <c r="F35" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="36" ht="31.5" customHeight="1">
       <c r="A36" s="3">
-        <v>35</v>
+        <v>35.0</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>68</v>
@@ -2074,12 +2054,12 @@
         <v>14</v>
       </c>
       <c r="F36" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="37" ht="31.5" customHeight="1">
       <c r="A37" s="3">
-        <v>36</v>
+        <v>36.0</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>68</v>
@@ -2094,12 +2074,12 @@
         <v>9</v>
       </c>
       <c r="F37" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="38" ht="31.5" customHeight="1">
       <c r="A38" s="3">
-        <v>37</v>
+        <v>37.0</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>68</v>
@@ -2114,12 +2094,12 @@
         <v>14</v>
       </c>
       <c r="F38" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="39" ht="31.5" customHeight="1">
       <c r="A39" s="3">
-        <v>38</v>
+        <v>38.0</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>68</v>
@@ -2134,12 +2114,12 @@
         <v>14</v>
       </c>
       <c r="F39" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="40" ht="31.5" customHeight="1">
       <c r="A40" s="3">
-        <v>39</v>
+        <v>39.0</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>68</v>
@@ -2154,12 +2134,12 @@
         <v>14</v>
       </c>
       <c r="F40" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="41" ht="31.5" customHeight="1">
       <c r="A41" s="3">
-        <v>40</v>
+        <v>40.0</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>68</v>
@@ -2174,12 +2154,12 @@
         <v>14</v>
       </c>
       <c r="F41" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="42" ht="31.5" customHeight="1">
       <c r="A42" s="3">
-        <v>41</v>
+        <v>41.0</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>68</v>
@@ -2194,12 +2174,12 @@
         <v>25</v>
       </c>
       <c r="F42" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="43" ht="31.5" customHeight="1">
       <c r="A43" s="3">
-        <v>42</v>
+        <v>42.0</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>68</v>
@@ -2214,12 +2194,12 @@
         <v>25</v>
       </c>
       <c r="F43" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="44" ht="31.5" customHeight="1">
       <c r="A44" s="3">
-        <v>43</v>
+        <v>43.0</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>68</v>
@@ -2234,12 +2214,12 @@
         <v>25</v>
       </c>
       <c r="F44" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="45" ht="31.5" customHeight="1">
       <c r="A45" s="3">
-        <v>44</v>
+        <v>44.0</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>68</v>
@@ -2254,12 +2234,12 @@
         <v>25</v>
       </c>
       <c r="F45" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="46" ht="31.5" customHeight="1">
       <c r="A46" s="3">
-        <v>45</v>
+        <v>45.0</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>87</v>
@@ -2274,12 +2254,12 @@
         <v>9</v>
       </c>
       <c r="F46" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="47" ht="31.5" customHeight="1">
       <c r="A47" s="3">
-        <v>46</v>
+        <v>46.0</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>87</v>
@@ -2294,12 +2274,12 @@
         <v>25</v>
       </c>
       <c r="F47" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="48" ht="31.5" customHeight="1">
       <c r="A48" s="3">
-        <v>47</v>
+        <v>47.0</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>87</v>
@@ -2314,12 +2294,12 @@
         <v>14</v>
       </c>
       <c r="F48" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="49" ht="31.5" customHeight="1">
       <c r="A49" s="3">
-        <v>48</v>
+        <v>48.0</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>87</v>
@@ -2334,12 +2314,12 @@
         <v>9</v>
       </c>
       <c r="F49" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="50" ht="31.5" customHeight="1">
       <c r="A50" s="3">
-        <v>49</v>
+        <v>49.0</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>87</v>
@@ -2354,12 +2334,12 @@
         <v>9</v>
       </c>
       <c r="F50" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="51" ht="31.5" customHeight="1">
       <c r="A51" s="3">
-        <v>50</v>
+        <v>50.0</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>87</v>
@@ -2374,12 +2354,12 @@
         <v>25</v>
       </c>
       <c r="F51" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="52" ht="31.5" customHeight="1">
       <c r="A52" s="3">
-        <v>51</v>
+        <v>51.0</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>87</v>
@@ -2394,12 +2374,12 @@
         <v>14</v>
       </c>
       <c r="F52" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="53" ht="31.5" customHeight="1">
       <c r="A53" s="3">
-        <v>52</v>
+        <v>52.0</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>87</v>
@@ -2414,12 +2394,12 @@
         <v>25</v>
       </c>
       <c r="F53" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="54" ht="31.5" customHeight="1">
       <c r="A54" s="3">
-        <v>53</v>
+        <v>53.0</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>87</v>
@@ -2434,12 +2414,12 @@
         <v>9</v>
       </c>
       <c r="F54" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="55" ht="31.5" customHeight="1">
       <c r="A55" s="3">
-        <v>54</v>
+        <v>54.0</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>102</v>
@@ -2454,12 +2434,12 @@
         <v>14</v>
       </c>
       <c r="F55" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="56" ht="31.5" customHeight="1">
       <c r="A56" s="3">
-        <v>55</v>
+        <v>55.0</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>102</v>
@@ -2474,12 +2454,12 @@
         <v>25</v>
       </c>
       <c r="F56" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="57" ht="31.5" customHeight="1">
       <c r="A57" s="3">
-        <v>56</v>
+        <v>56.0</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>102</v>
@@ -2494,12 +2474,12 @@
         <v>14</v>
       </c>
       <c r="F57" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="58" ht="31.5" customHeight="1">
       <c r="A58" s="3">
-        <v>57</v>
+        <v>57.0</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>102</v>
@@ -2514,12 +2494,12 @@
         <v>14</v>
       </c>
       <c r="F58" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="31.5" customHeight="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="59" ht="31.5" customHeight="1">
       <c r="A59" s="9">
-        <v>58</v>
+        <v>58.0</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>102</v>
@@ -2527,47 +2507,44 @@
       <c r="C59" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="6" t="s">
         <v>108</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F59" s="3">
-        <v>1</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F59" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Please choose from one of the 10 committees." xr:uid="{00000000-0002-0000-0000-000000000000}">
-          <x14:formula1>
-            <xm:f>Committees!$B$2:$B$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B59</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <autoFilter ref="$A$1:$F$59">
+    <sortState ref="A1:F59">
+      <sortCondition ref="A1:A59"/>
+      <sortCondition ref="E1:E59"/>
+    </sortState>
+  </autoFilter>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Please choose from one of the 10 committees." sqref="B2:B59">
+      <formula1>Committees!$B$2:$B$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1">
       <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
@@ -2579,7 +2556,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2">
       <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
@@ -2593,7 +2570,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3">
       <c r="A3" s="13" t="s">
         <v>113</v>
       </c>
@@ -2607,7 +2584,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4">
       <c r="A4" s="13" t="s">
         <v>12</v>
       </c>
@@ -2619,7 +2596,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5">
       <c r="A5" s="13" t="s">
         <v>17</v>
       </c>
@@ -2633,7 +2610,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6">
       <c r="A6" s="13" t="s">
         <v>117</v>
       </c>
@@ -2645,7 +2622,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7">
       <c r="A7" s="13" t="s">
         <v>19</v>
       </c>
@@ -2657,7 +2634,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -2671,7 +2648,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9">
       <c r="A9" s="13" t="s">
         <v>122</v>
       </c>
@@ -2683,7 +2660,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10">
       <c r="A10" s="13" t="s">
         <v>23</v>
       </c>
@@ -2695,7 +2672,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11">
       <c r="A11" s="13" t="s">
         <v>28</v>
       </c>
@@ -2707,13 +2684,13 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13">
       <c r="A13" s="16" t="s">
         <v>30</v>
       </c>
@@ -2721,7 +2698,7 @@
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14">
       <c r="A14" s="13" t="s">
         <v>31</v>
       </c>
@@ -2735,7 +2712,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15">
       <c r="A15" s="13" t="s">
         <v>33</v>
       </c>
@@ -2747,7 +2724,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16">
       <c r="A16" s="13" t="s">
         <v>132</v>
       </c>
@@ -2759,7 +2736,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17">
       <c r="A17" s="13" t="s">
         <v>134</v>
       </c>
@@ -2771,7 +2748,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18">
       <c r="A18" s="13" t="s">
         <v>40</v>
       </c>
@@ -2783,7 +2760,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19">
       <c r="A19" s="13" t="s">
         <v>136</v>
       </c>
@@ -2795,7 +2772,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20">
       <c r="A20" s="13" t="s">
         <v>138</v>
       </c>
@@ -2807,7 +2784,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21">
       <c r="A21" s="13" t="s">
         <v>140</v>
       </c>
@@ -2819,7 +2796,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22">
       <c r="A22" s="13" t="s">
         <v>142</v>
       </c>
@@ -2831,7 +2808,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23">
       <c r="A23" s="13" t="s">
         <v>46</v>
       </c>
@@ -2843,7 +2820,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24">
       <c r="A24" s="13" t="s">
         <v>47</v>
       </c>
@@ -2855,7 +2832,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25">
       <c r="A25" s="13" t="s">
         <v>147</v>
       </c>
@@ -2867,7 +2844,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26">
       <c r="A26" s="13" t="s">
         <v>150</v>
       </c>
@@ -2879,7 +2856,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27">
       <c r="A27" s="13" t="s">
         <v>50</v>
       </c>
@@ -2891,7 +2868,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28">
       <c r="A28" s="13" t="s">
         <v>52</v>
       </c>
@@ -2905,13 +2882,13 @@
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30">
       <c r="A30" s="16" t="s">
         <v>54</v>
       </c>
@@ -2919,7 +2896,7 @@
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31">
       <c r="A31" s="13" t="s">
         <v>55</v>
       </c>
@@ -2933,7 +2910,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32">
       <c r="A32" s="13" t="s">
         <v>57</v>
       </c>
@@ -2947,7 +2924,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33">
       <c r="A33" s="13" t="s">
         <v>59</v>
       </c>
@@ -2961,7 +2938,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34">
       <c r="A34" s="13" t="s">
         <v>61</v>
       </c>
@@ -2973,13 +2950,13 @@
         <v>160</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36">
       <c r="A36" s="16" t="s">
         <v>68</v>
       </c>
@@ -2987,7 +2964,7 @@
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37">
       <c r="A37" s="13" t="s">
         <v>161</v>
       </c>
@@ -3001,7 +2978,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38">
       <c r="A38" s="13" t="s">
         <v>162</v>
       </c>
@@ -3013,7 +2990,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39">
       <c r="A39" s="13" t="s">
         <v>164</v>
       </c>
@@ -3027,7 +3004,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40">
       <c r="A40" s="13" t="s">
         <v>73</v>
       </c>
@@ -3041,7 +3018,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41">
       <c r="A41" s="13" t="s">
         <v>167</v>
       </c>
@@ -3055,7 +3032,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42">
       <c r="A42" s="13" t="s">
         <v>77</v>
       </c>
@@ -3067,7 +3044,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43">
       <c r="A43" s="13" t="s">
         <v>168</v>
       </c>
@@ -3079,7 +3056,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44">
       <c r="A44" s="13" t="s">
         <v>170</v>
       </c>
@@ -3091,7 +3068,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45">
       <c r="A45" s="13" t="s">
         <v>172</v>
       </c>
@@ -3103,7 +3080,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46">
       <c r="A46" s="13" t="s">
         <v>84</v>
       </c>
@@ -3115,13 +3092,13 @@
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48">
       <c r="A48" s="16" t="s">
         <v>87</v>
       </c>
@@ -3129,7 +3106,7 @@
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49">
       <c r="A49" s="13" t="s">
         <v>88</v>
       </c>
@@ -3143,7 +3120,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50">
       <c r="A50" s="13" t="s">
         <v>90</v>
       </c>
@@ -3155,7 +3132,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51">
       <c r="A51" s="13" t="s">
         <v>174</v>
       </c>
@@ -3169,7 +3146,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52">
       <c r="A52" s="13" t="s">
         <v>93</v>
       </c>
@@ -3183,7 +3160,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53">
       <c r="A53" s="13" t="s">
         <v>94</v>
       </c>
@@ -3197,7 +3174,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54">
       <c r="A54" s="13" t="s">
         <v>95</v>
       </c>
@@ -3209,13 +3186,13 @@
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56">
       <c r="A56" s="16" t="s">
         <v>102</v>
       </c>
@@ -3223,7 +3200,7 @@
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57">
       <c r="A57" s="13" t="s">
         <v>103</v>
       </c>
@@ -3235,7 +3212,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58">
       <c r="A58" s="13" t="s">
         <v>104</v>
       </c>
@@ -3247,7 +3224,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59">
       <c r="A59" s="13" t="s">
         <v>177</v>
       </c>
@@ -3259,7 +3236,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60">
       <c r="A60" s="13" t="s">
         <v>105</v>
       </c>
@@ -3271,7 +3248,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61">
       <c r="A61" s="13" t="s">
         <v>106</v>
       </c>
@@ -3283,7 +3260,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62">
       <c r="A62" s="13" t="s">
         <v>107</v>
       </c>
@@ -3296,30 +3273,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="43" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="10.86"/>
+    <col customWidth="1" min="4" max="4" width="25.71"/>
+    <col customWidth="1" min="5" max="5" width="43.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="42.75" customHeight="1">
+    <row r="1" ht="42.75" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>180</v>
       </c>
@@ -3336,15 +3312,15 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.8">
+    <row r="2">
       <c r="A2" s="20">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="B2" s="21">
-        <v>44173</v>
+        <v>44173.0</v>
       </c>
       <c r="C2" s="22">
-        <f t="shared" ref="C2:C101" si="0">B2</f>
+        <f t="shared" ref="C2:C101" si="1">B2</f>
         <v>44173</v>
       </c>
       <c r="D2" s="20" t="s">
@@ -3352,337 +3328,337 @@
       </c>
       <c r="E2" s="23"/>
     </row>
-    <row r="3" spans="1:5" ht="13.8">
+    <row r="3">
       <c r="A3" s="20">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="B3" s="21">
-        <v>44174</v>
+        <v>44174.0</v>
       </c>
       <c r="C3" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44174</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
     </row>
-    <row r="4" spans="1:5" ht="13.8">
+    <row r="4">
       <c r="A4" s="20">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="B4" s="21">
-        <v>44175</v>
+        <v>44175.0</v>
       </c>
       <c r="C4" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44175</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
     </row>
-    <row r="5" spans="1:5" ht="13.8">
+    <row r="5">
       <c r="A5" s="20">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="B5" s="21">
-        <v>44176</v>
+        <v>44176.0</v>
       </c>
       <c r="C5" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44176</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
     </row>
-    <row r="6" spans="1:5" ht="13.8">
+    <row r="6">
       <c r="A6" s="24">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="B6" s="25">
-        <v>44177</v>
+        <v>44177.0</v>
       </c>
       <c r="C6" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44177</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
     </row>
-    <row r="7" spans="1:5" ht="13.8">
+    <row r="7">
       <c r="A7" s="24">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="B7" s="25">
-        <v>44178</v>
+        <v>44178.0</v>
       </c>
       <c r="C7" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44178</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
     </row>
-    <row r="8" spans="1:5" ht="13.8">
+    <row r="8">
       <c r="A8" s="20">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="B8" s="21">
-        <v>44179</v>
+        <v>44179.0</v>
       </c>
       <c r="C8" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44179</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
     </row>
-    <row r="9" spans="1:5" ht="13.8">
+    <row r="9">
       <c r="A9" s="20">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="B9" s="21">
-        <v>44180</v>
+        <v>44180.0</v>
       </c>
       <c r="C9" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44180</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
     </row>
-    <row r="10" spans="1:5" ht="13.8">
+    <row r="10">
       <c r="A10" s="20">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="B10" s="21">
-        <v>44181</v>
+        <v>44181.0</v>
       </c>
       <c r="C10" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44181</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
     </row>
-    <row r="11" spans="1:5" ht="13.8">
+    <row r="11">
       <c r="A11" s="20">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="B11" s="21">
-        <v>44182</v>
+        <v>44182.0</v>
       </c>
       <c r="C11" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44182</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
     </row>
-    <row r="12" spans="1:5" ht="13.8">
+    <row r="12">
       <c r="A12" s="20">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="B12" s="21">
-        <v>44183</v>
+        <v>44183.0</v>
       </c>
       <c r="C12" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44183</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
     </row>
-    <row r="13" spans="1:5" ht="13.8">
+    <row r="13">
       <c r="A13" s="24">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="B13" s="25">
-        <v>44184</v>
+        <v>44184.0</v>
       </c>
       <c r="C13" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44184</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
     </row>
-    <row r="14" spans="1:5" ht="13.8">
+    <row r="14">
       <c r="A14" s="24">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="B14" s="25">
-        <v>44185</v>
+        <v>44185.0</v>
       </c>
       <c r="C14" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44185</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
     </row>
-    <row r="15" spans="1:5" ht="13.8">
+    <row r="15">
       <c r="A15" s="20">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="B15" s="21">
-        <v>44186</v>
+        <v>44186.0</v>
       </c>
       <c r="C15" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44186</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
     </row>
-    <row r="16" spans="1:5" ht="13.8">
+    <row r="16">
       <c r="A16" s="20">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="B16" s="21">
-        <v>44187</v>
+        <v>44187.0</v>
       </c>
       <c r="C16" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44187</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
     </row>
-    <row r="17" spans="1:5" ht="13.8">
+    <row r="17">
       <c r="A17" s="20">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="B17" s="21">
-        <v>44188</v>
+        <v>44188.0</v>
       </c>
       <c r="C17" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44188</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
     </row>
-    <row r="18" spans="1:5" ht="13.8">
+    <row r="18">
       <c r="A18" s="20">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="B18" s="21">
-        <v>44189</v>
+        <v>44189.0</v>
       </c>
       <c r="C18" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44189</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="23"/>
     </row>
-    <row r="19" spans="1:5" ht="13.8">
+    <row r="19">
       <c r="A19" s="20">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="B19" s="21">
-        <v>44190</v>
+        <v>44190.0</v>
       </c>
       <c r="C19" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44190</v>
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
     </row>
-    <row r="20" spans="1:5" ht="13.8">
+    <row r="20">
       <c r="A20" s="24">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="B20" s="25">
-        <v>44191</v>
+        <v>44191.0</v>
       </c>
       <c r="C20" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44191</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
     </row>
-    <row r="21" spans="1:5" ht="13.8">
+    <row r="21">
       <c r="A21" s="24">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="B21" s="25">
-        <v>44192</v>
+        <v>44192.0</v>
       </c>
       <c r="C21" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44192</v>
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
     </row>
-    <row r="22" spans="1:5" ht="13.8">
+    <row r="22">
       <c r="A22" s="20">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="B22" s="21">
-        <v>44193</v>
+        <v>44193.0</v>
       </c>
       <c r="C22" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44193</v>
       </c>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
     </row>
-    <row r="23" spans="1:5" ht="13.8">
+    <row r="23">
       <c r="A23" s="20">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="B23" s="21">
-        <v>44194</v>
+        <v>44194.0</v>
       </c>
       <c r="C23" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44194</v>
       </c>
       <c r="D23" s="23"/>
       <c r="E23" s="23"/>
     </row>
-    <row r="24" spans="1:5" ht="13.8">
+    <row r="24">
       <c r="A24" s="20">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="B24" s="21">
-        <v>44195</v>
+        <v>44195.0</v>
       </c>
       <c r="C24" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44195</v>
       </c>
       <c r="D24" s="23"/>
       <c r="E24" s="23"/>
     </row>
-    <row r="25" spans="1:5" ht="13.8">
+    <row r="25">
       <c r="A25" s="20">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="B25" s="21">
-        <v>44196</v>
+        <v>44196.0</v>
       </c>
       <c r="C25" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44196</v>
       </c>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
     </row>
-    <row r="26" spans="1:5" ht="13.8">
+    <row r="26">
       <c r="A26" s="20">
-        <v>25</v>
+        <v>25.0</v>
       </c>
       <c r="B26" s="21">
-        <v>44197</v>
+        <v>44197.0</v>
       </c>
       <c r="C26" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44197</v>
       </c>
       <c r="D26" s="20" t="s">
@@ -3690,351 +3666,351 @@
       </c>
       <c r="E26" s="23"/>
     </row>
-    <row r="27" spans="1:5" ht="13.8">
+    <row r="27">
       <c r="A27" s="24">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="B27" s="25">
-        <v>44198</v>
+        <v>44198.0</v>
       </c>
       <c r="C27" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44198</v>
       </c>
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
     </row>
-    <row r="28" spans="1:5" ht="13.8">
+    <row r="28">
       <c r="A28" s="24">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="B28" s="25">
-        <v>44199</v>
+        <v>44199.0</v>
       </c>
       <c r="C28" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44199</v>
       </c>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
     </row>
-    <row r="29" spans="1:5" ht="13.8">
+    <row r="29">
       <c r="A29" s="20">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="B29" s="21">
-        <v>44200</v>
+        <v>44200.0</v>
       </c>
       <c r="C29" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44200</v>
       </c>
       <c r="D29" s="23"/>
       <c r="E29" s="23"/>
     </row>
-    <row r="30" spans="1:5" ht="13.8">
+    <row r="30">
       <c r="A30" s="20">
-        <v>29</v>
+        <v>29.0</v>
       </c>
       <c r="B30" s="21">
-        <v>44201</v>
+        <v>44201.0</v>
       </c>
       <c r="C30" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44201</v>
       </c>
       <c r="D30" s="23"/>
       <c r="E30" s="23"/>
     </row>
-    <row r="31" spans="1:5" ht="13.8">
+    <row r="31">
       <c r="A31" s="20">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="B31" s="21">
-        <v>44202</v>
+        <v>44202.0</v>
       </c>
       <c r="C31" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44202</v>
       </c>
       <c r="D31" s="23"/>
       <c r="E31" s="23"/>
     </row>
-    <row r="32" spans="1:5" ht="13.8">
+    <row r="32">
       <c r="A32" s="20">
-        <v>31</v>
+        <v>31.0</v>
       </c>
       <c r="B32" s="21">
-        <v>44203</v>
+        <v>44203.0</v>
       </c>
       <c r="C32" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44203</v>
       </c>
       <c r="D32" s="23"/>
       <c r="E32" s="23"/>
     </row>
-    <row r="33" spans="1:5" ht="13.8">
+    <row r="33">
       <c r="A33" s="20">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="B33" s="21">
-        <v>44204</v>
+        <v>44204.0</v>
       </c>
       <c r="C33" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44204</v>
       </c>
       <c r="D33" s="23"/>
       <c r="E33" s="23"/>
     </row>
-    <row r="34" spans="1:5" ht="13.8">
+    <row r="34">
       <c r="A34" s="24">
-        <v>33</v>
+        <v>33.0</v>
       </c>
       <c r="B34" s="25">
-        <v>44205</v>
+        <v>44205.0</v>
       </c>
       <c r="C34" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44205</v>
       </c>
       <c r="D34" s="27"/>
       <c r="E34" s="27"/>
     </row>
-    <row r="35" spans="1:5" ht="13.8">
+    <row r="35">
       <c r="A35" s="24">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="B35" s="25">
-        <v>44206</v>
+        <v>44206.0</v>
       </c>
       <c r="C35" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44206</v>
       </c>
       <c r="D35" s="27"/>
       <c r="E35" s="27"/>
     </row>
-    <row r="36" spans="1:5" ht="13.8">
+    <row r="36">
       <c r="A36" s="20">
-        <v>35</v>
+        <v>35.0</v>
       </c>
       <c r="B36" s="21">
-        <v>44207</v>
+        <v>44207.0</v>
       </c>
       <c r="C36" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44207</v>
       </c>
       <c r="D36" s="23"/>
       <c r="E36" s="23"/>
     </row>
-    <row r="37" spans="1:5" ht="13.8">
+    <row r="37">
       <c r="A37" s="20">
-        <v>36</v>
+        <v>36.0</v>
       </c>
       <c r="B37" s="21">
-        <v>44208</v>
+        <v>44208.0</v>
       </c>
       <c r="C37" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44208</v>
       </c>
       <c r="D37" s="23"/>
       <c r="E37" s="23"/>
     </row>
-    <row r="38" spans="1:5" ht="13.8">
+    <row r="38">
       <c r="A38" s="20">
-        <v>37</v>
+        <v>37.0</v>
       </c>
       <c r="B38" s="21">
-        <v>44209</v>
+        <v>44209.0</v>
       </c>
       <c r="C38" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44209</v>
       </c>
       <c r="D38" s="23"/>
       <c r="E38" s="23"/>
     </row>
-    <row r="39" spans="1:5" ht="13.8">
+    <row r="39">
       <c r="A39" s="20">
-        <v>38</v>
+        <v>38.0</v>
       </c>
       <c r="B39" s="21">
-        <v>44210</v>
+        <v>44210.0</v>
       </c>
       <c r="C39" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44210</v>
       </c>
       <c r="D39" s="23"/>
       <c r="E39" s="23"/>
     </row>
-    <row r="40" spans="1:5" ht="13.8">
+    <row r="40">
       <c r="A40" s="20">
-        <v>39</v>
+        <v>39.0</v>
       </c>
       <c r="B40" s="21">
-        <v>44211</v>
+        <v>44211.0</v>
       </c>
       <c r="C40" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44211</v>
       </c>
       <c r="D40" s="23"/>
       <c r="E40" s="23"/>
     </row>
-    <row r="41" spans="1:5" ht="13.8">
+    <row r="41">
       <c r="A41" s="24">
-        <v>40</v>
+        <v>40.0</v>
       </c>
       <c r="B41" s="25">
-        <v>44212</v>
+        <v>44212.0</v>
       </c>
       <c r="C41" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44212</v>
       </c>
       <c r="D41" s="27"/>
       <c r="E41" s="27"/>
     </row>
-    <row r="42" spans="1:5" ht="13.8">
+    <row r="42">
       <c r="A42" s="24">
-        <v>41</v>
+        <v>41.0</v>
       </c>
       <c r="B42" s="25">
-        <v>44213</v>
+        <v>44213.0</v>
       </c>
       <c r="C42" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44213</v>
       </c>
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
     </row>
-    <row r="43" spans="1:5" ht="13.8">
+    <row r="43">
       <c r="A43" s="20">
-        <v>42</v>
+        <v>42.0</v>
       </c>
       <c r="B43" s="21">
-        <v>44214</v>
+        <v>44214.0</v>
       </c>
       <c r="C43" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44214</v>
       </c>
       <c r="D43" s="23"/>
       <c r="E43" s="23"/>
     </row>
-    <row r="44" spans="1:5" ht="13.8">
+    <row r="44">
       <c r="A44" s="20">
-        <v>43</v>
+        <v>43.0</v>
       </c>
       <c r="B44" s="21">
-        <v>44215</v>
+        <v>44215.0</v>
       </c>
       <c r="C44" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44215</v>
       </c>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
     </row>
-    <row r="45" spans="1:5" ht="13.8">
+    <row r="45">
       <c r="A45" s="20">
-        <v>44</v>
+        <v>44.0</v>
       </c>
       <c r="B45" s="21">
-        <v>44216</v>
+        <v>44216.0</v>
       </c>
       <c r="C45" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44216</v>
       </c>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
     </row>
-    <row r="46" spans="1:5" ht="13.8">
+    <row r="46">
       <c r="A46" s="20">
-        <v>45</v>
+        <v>45.0</v>
       </c>
       <c r="B46" s="21">
-        <v>44217</v>
+        <v>44217.0</v>
       </c>
       <c r="C46" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44217</v>
       </c>
       <c r="D46" s="23"/>
       <c r="E46" s="23"/>
     </row>
-    <row r="47" spans="1:5" ht="13.8">
+    <row r="47">
       <c r="A47" s="20">
-        <v>46</v>
+        <v>46.0</v>
       </c>
       <c r="B47" s="21">
-        <v>44218</v>
+        <v>44218.0</v>
       </c>
       <c r="C47" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44218</v>
       </c>
       <c r="D47" s="23"/>
       <c r="E47" s="23"/>
     </row>
-    <row r="48" spans="1:5" ht="13.8">
+    <row r="48">
       <c r="A48" s="24">
-        <v>47</v>
+        <v>47.0</v>
       </c>
       <c r="B48" s="25">
-        <v>44219</v>
+        <v>44219.0</v>
       </c>
       <c r="C48" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44219</v>
       </c>
       <c r="D48" s="27"/>
       <c r="E48" s="27"/>
     </row>
-    <row r="49" spans="1:5" ht="13.8">
+    <row r="49">
       <c r="A49" s="24">
-        <v>48</v>
+        <v>48.0</v>
       </c>
       <c r="B49" s="25">
-        <v>44220</v>
+        <v>44220.0</v>
       </c>
       <c r="C49" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44220</v>
       </c>
       <c r="D49" s="27"/>
       <c r="E49" s="27"/>
     </row>
-    <row r="50" spans="1:5" ht="13.8">
+    <row r="50">
       <c r="A50" s="20">
-        <v>49</v>
+        <v>49.0</v>
       </c>
       <c r="B50" s="21">
-        <v>44221</v>
+        <v>44221.0</v>
       </c>
       <c r="C50" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44221</v>
       </c>
       <c r="D50" s="23"/>
       <c r="E50" s="23"/>
     </row>
-    <row r="51" spans="1:5" ht="13.8">
+    <row r="51">
       <c r="A51" s="20">
-        <v>50</v>
+        <v>50.0</v>
       </c>
       <c r="B51" s="21">
-        <v>44222</v>
+        <v>44222.0</v>
       </c>
       <c r="C51" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44222</v>
       </c>
       <c r="D51" s="20" t="s">
@@ -4042,351 +4018,351 @@
       </c>
       <c r="E51" s="23"/>
     </row>
-    <row r="52" spans="1:5" ht="13.8">
+    <row r="52">
       <c r="A52" s="20">
-        <v>51</v>
+        <v>51.0</v>
       </c>
       <c r="B52" s="21">
-        <v>44223</v>
+        <v>44223.0</v>
       </c>
       <c r="C52" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44223</v>
       </c>
       <c r="D52" s="20"/>
       <c r="E52" s="23"/>
     </row>
-    <row r="53" spans="1:5" ht="13.8">
+    <row r="53">
       <c r="A53" s="20">
-        <v>52</v>
+        <v>52.0</v>
       </c>
       <c r="B53" s="21">
-        <v>44224</v>
+        <v>44224.0</v>
       </c>
       <c r="C53" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44224</v>
       </c>
       <c r="D53" s="23"/>
       <c r="E53" s="23"/>
     </row>
-    <row r="54" spans="1:5" ht="13.8">
+    <row r="54">
       <c r="A54" s="20">
-        <v>53</v>
+        <v>53.0</v>
       </c>
       <c r="B54" s="21">
-        <v>44225</v>
+        <v>44225.0</v>
       </c>
       <c r="C54" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44225</v>
       </c>
       <c r="D54" s="23"/>
       <c r="E54" s="23"/>
     </row>
-    <row r="55" spans="1:5" ht="13.8">
+    <row r="55">
       <c r="A55" s="24">
-        <v>54</v>
+        <v>54.0</v>
       </c>
       <c r="B55" s="25">
-        <v>44226</v>
+        <v>44226.0</v>
       </c>
       <c r="C55" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44226</v>
       </c>
       <c r="D55" s="27"/>
       <c r="E55" s="27"/>
     </row>
-    <row r="56" spans="1:5" ht="13.8">
+    <row r="56">
       <c r="A56" s="24">
-        <v>55</v>
+        <v>55.0</v>
       </c>
       <c r="B56" s="25">
-        <v>44227</v>
+        <v>44227.0</v>
       </c>
       <c r="C56" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44227</v>
       </c>
       <c r="D56" s="27"/>
       <c r="E56" s="27"/>
     </row>
-    <row r="57" spans="1:5" ht="13.8">
+    <row r="57">
       <c r="A57" s="20">
-        <v>56</v>
+        <v>56.0</v>
       </c>
       <c r="B57" s="21">
-        <v>44228</v>
+        <v>44228.0</v>
       </c>
       <c r="C57" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44228</v>
       </c>
       <c r="D57" s="23"/>
       <c r="E57" s="23"/>
     </row>
-    <row r="58" spans="1:5" ht="13.8">
+    <row r="58">
       <c r="A58" s="20">
-        <v>57</v>
+        <v>57.0</v>
       </c>
       <c r="B58" s="21">
-        <v>44229</v>
+        <v>44229.0</v>
       </c>
       <c r="C58" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44229</v>
       </c>
       <c r="D58" s="23"/>
       <c r="E58" s="23"/>
     </row>
-    <row r="59" spans="1:5" ht="13.8">
+    <row r="59">
       <c r="A59" s="20">
-        <v>58</v>
+        <v>58.0</v>
       </c>
       <c r="B59" s="21">
-        <v>44230</v>
+        <v>44230.0</v>
       </c>
       <c r="C59" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44230</v>
       </c>
       <c r="D59" s="23"/>
       <c r="E59" s="23"/>
     </row>
-    <row r="60" spans="1:5" ht="13.8">
+    <row r="60">
       <c r="A60" s="20">
-        <v>59</v>
+        <v>59.0</v>
       </c>
       <c r="B60" s="21">
-        <v>44231</v>
+        <v>44231.0</v>
       </c>
       <c r="C60" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44231</v>
       </c>
       <c r="D60" s="23"/>
       <c r="E60" s="23"/>
     </row>
-    <row r="61" spans="1:5" ht="13.8">
+    <row r="61">
       <c r="A61" s="20">
-        <v>60</v>
+        <v>60.0</v>
       </c>
       <c r="B61" s="21">
-        <v>44232</v>
+        <v>44232.0</v>
       </c>
       <c r="C61" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44232</v>
       </c>
       <c r="D61" s="23"/>
       <c r="E61" s="23"/>
     </row>
-    <row r="62" spans="1:5" ht="13.8">
+    <row r="62">
       <c r="A62" s="24">
-        <v>61</v>
+        <v>61.0</v>
       </c>
       <c r="B62" s="25">
-        <v>44233</v>
+        <v>44233.0</v>
       </c>
       <c r="C62" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44233</v>
       </c>
       <c r="D62" s="27"/>
       <c r="E62" s="27"/>
     </row>
-    <row r="63" spans="1:5" ht="13.8">
+    <row r="63">
       <c r="A63" s="24">
-        <v>62</v>
+        <v>62.0</v>
       </c>
       <c r="B63" s="25">
-        <v>44234</v>
+        <v>44234.0</v>
       </c>
       <c r="C63" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44234</v>
       </c>
       <c r="D63" s="27"/>
       <c r="E63" s="27"/>
     </row>
-    <row r="64" spans="1:5" ht="13.8">
+    <row r="64">
       <c r="A64" s="20">
-        <v>63</v>
+        <v>63.0</v>
       </c>
       <c r="B64" s="21">
-        <v>44235</v>
+        <v>44235.0</v>
       </c>
       <c r="C64" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44235</v>
       </c>
       <c r="D64" s="23"/>
       <c r="E64" s="23"/>
     </row>
-    <row r="65" spans="1:5" ht="13.8">
+    <row r="65">
       <c r="A65" s="20">
-        <v>64</v>
+        <v>64.0</v>
       </c>
       <c r="B65" s="21">
-        <v>44236</v>
+        <v>44236.0</v>
       </c>
       <c r="C65" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44236</v>
       </c>
       <c r="D65" s="23"/>
       <c r="E65" s="23"/>
     </row>
-    <row r="66" spans="1:5" ht="13.8">
+    <row r="66">
       <c r="A66" s="20">
-        <v>65</v>
+        <v>65.0</v>
       </c>
       <c r="B66" s="21">
-        <v>44237</v>
+        <v>44237.0</v>
       </c>
       <c r="C66" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44237</v>
       </c>
       <c r="D66" s="23"/>
       <c r="E66" s="23"/>
     </row>
-    <row r="67" spans="1:5" ht="13.8">
+    <row r="67">
       <c r="A67" s="20">
-        <v>66</v>
+        <v>66.0</v>
       </c>
       <c r="B67" s="21">
-        <v>44238</v>
+        <v>44238.0</v>
       </c>
       <c r="C67" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44238</v>
       </c>
       <c r="D67" s="23"/>
       <c r="E67" s="23"/>
     </row>
-    <row r="68" spans="1:5" ht="13.8">
+    <row r="68">
       <c r="A68" s="20">
-        <v>67</v>
+        <v>67.0</v>
       </c>
       <c r="B68" s="21">
-        <v>44239</v>
+        <v>44239.0</v>
       </c>
       <c r="C68" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44239</v>
       </c>
       <c r="D68" s="23"/>
       <c r="E68" s="23"/>
     </row>
-    <row r="69" spans="1:5" ht="13.8">
+    <row r="69">
       <c r="A69" s="24">
-        <v>68</v>
+        <v>68.0</v>
       </c>
       <c r="B69" s="25">
-        <v>44240</v>
+        <v>44240.0</v>
       </c>
       <c r="C69" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44240</v>
       </c>
       <c r="D69" s="27"/>
       <c r="E69" s="27"/>
     </row>
-    <row r="70" spans="1:5" ht="13.8">
+    <row r="70">
       <c r="A70" s="24">
-        <v>69</v>
+        <v>69.0</v>
       </c>
       <c r="B70" s="25">
-        <v>44241</v>
+        <v>44241.0</v>
       </c>
       <c r="C70" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44241</v>
       </c>
       <c r="D70" s="27"/>
       <c r="E70" s="27"/>
     </row>
-    <row r="71" spans="1:5" ht="13.8">
+    <row r="71">
       <c r="A71" s="20">
-        <v>70</v>
+        <v>70.0</v>
       </c>
       <c r="B71" s="21">
-        <v>44242</v>
+        <v>44242.0</v>
       </c>
       <c r="C71" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44242</v>
       </c>
       <c r="D71" s="23"/>
       <c r="E71" s="23"/>
     </row>
-    <row r="72" spans="1:5" ht="13.8">
+    <row r="72">
       <c r="A72" s="20">
-        <v>71</v>
+        <v>71.0</v>
       </c>
       <c r="B72" s="21">
-        <v>44243</v>
+        <v>44243.0</v>
       </c>
       <c r="C72" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44243</v>
       </c>
       <c r="D72" s="23"/>
       <c r="E72" s="23"/>
     </row>
-    <row r="73" spans="1:5" ht="13.8">
+    <row r="73">
       <c r="A73" s="20">
-        <v>72</v>
+        <v>72.0</v>
       </c>
       <c r="B73" s="21">
-        <v>44244</v>
+        <v>44244.0</v>
       </c>
       <c r="C73" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44244</v>
       </c>
       <c r="D73" s="23"/>
       <c r="E73" s="23"/>
     </row>
-    <row r="74" spans="1:5" ht="13.8">
+    <row r="74">
       <c r="A74" s="20">
-        <v>73</v>
+        <v>73.0</v>
       </c>
       <c r="B74" s="21">
-        <v>44245</v>
+        <v>44245.0</v>
       </c>
       <c r="C74" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44245</v>
       </c>
       <c r="D74" s="23"/>
       <c r="E74" s="23"/>
     </row>
-    <row r="75" spans="1:5" ht="13.8">
+    <row r="75">
       <c r="A75" s="20">
-        <v>74</v>
+        <v>74.0</v>
       </c>
       <c r="B75" s="21">
-        <v>44246</v>
+        <v>44246.0</v>
       </c>
       <c r="C75" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44246</v>
       </c>
       <c r="D75" s="23"/>
       <c r="E75" s="23"/>
     </row>
-    <row r="76" spans="1:5" ht="13.8">
+    <row r="76">
       <c r="A76" s="24">
-        <v>75</v>
+        <v>75.0</v>
       </c>
       <c r="B76" s="25">
-        <v>44247</v>
+        <v>44247.0</v>
       </c>
       <c r="C76" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44247</v>
       </c>
       <c r="D76" s="24" t="s">
@@ -4394,351 +4370,351 @@
       </c>
       <c r="E76" s="27"/>
     </row>
-    <row r="77" spans="1:5" ht="13.8">
+    <row r="77">
       <c r="A77" s="24">
-        <v>76</v>
+        <v>76.0</v>
       </c>
       <c r="B77" s="25">
-        <v>44248</v>
+        <v>44248.0</v>
       </c>
       <c r="C77" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44248</v>
       </c>
       <c r="D77" s="27"/>
       <c r="E77" s="27"/>
     </row>
-    <row r="78" spans="1:5" ht="13.8">
+    <row r="78">
       <c r="A78" s="20">
-        <v>77</v>
+        <v>77.0</v>
       </c>
       <c r="B78" s="21">
-        <v>44249</v>
+        <v>44249.0</v>
       </c>
       <c r="C78" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44249</v>
       </c>
       <c r="D78" s="23"/>
       <c r="E78" s="23"/>
     </row>
-    <row r="79" spans="1:5" ht="13.8">
+    <row r="79">
       <c r="A79" s="20">
-        <v>78</v>
+        <v>78.0</v>
       </c>
       <c r="B79" s="21">
-        <v>44250</v>
+        <v>44250.0</v>
       </c>
       <c r="C79" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44250</v>
       </c>
       <c r="D79" s="23"/>
       <c r="E79" s="23"/>
     </row>
-    <row r="80" spans="1:5" ht="13.8">
+    <row r="80">
       <c r="A80" s="20">
-        <v>79</v>
+        <v>79.0</v>
       </c>
       <c r="B80" s="21">
-        <v>44251</v>
+        <v>44251.0</v>
       </c>
       <c r="C80" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44251</v>
       </c>
       <c r="D80" s="23"/>
       <c r="E80" s="23"/>
     </row>
-    <row r="81" spans="1:5" ht="13.8">
+    <row r="81">
       <c r="A81" s="20">
-        <v>80</v>
+        <v>80.0</v>
       </c>
       <c r="B81" s="21">
-        <v>44252</v>
+        <v>44252.0</v>
       </c>
       <c r="C81" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44252</v>
       </c>
       <c r="D81" s="23"/>
       <c r="E81" s="23"/>
     </row>
-    <row r="82" spans="1:5" ht="13.8">
+    <row r="82">
       <c r="A82" s="20">
-        <v>81</v>
+        <v>81.0</v>
       </c>
       <c r="B82" s="21">
-        <v>44253</v>
+        <v>44253.0</v>
       </c>
       <c r="C82" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44253</v>
       </c>
       <c r="D82" s="23"/>
       <c r="E82" s="23"/>
     </row>
-    <row r="83" spans="1:5" ht="13.8">
+    <row r="83">
       <c r="A83" s="24">
-        <v>82</v>
+        <v>82.0</v>
       </c>
       <c r="B83" s="25">
-        <v>44254</v>
+        <v>44254.0</v>
       </c>
       <c r="C83" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44254</v>
       </c>
       <c r="D83" s="27"/>
       <c r="E83" s="27"/>
     </row>
-    <row r="84" spans="1:5" ht="13.8">
+    <row r="84">
       <c r="A84" s="24">
-        <v>83</v>
+        <v>83.0</v>
       </c>
       <c r="B84" s="25">
-        <v>44255</v>
+        <v>44255.0</v>
       </c>
       <c r="C84" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44255</v>
       </c>
       <c r="D84" s="27"/>
       <c r="E84" s="27"/>
     </row>
-    <row r="85" spans="1:5" ht="13.8">
+    <row r="85">
       <c r="A85" s="20">
-        <v>84</v>
+        <v>84.0</v>
       </c>
       <c r="B85" s="21">
-        <v>44256</v>
+        <v>44256.0</v>
       </c>
       <c r="C85" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44256</v>
       </c>
       <c r="D85" s="23"/>
       <c r="E85" s="23"/>
     </row>
-    <row r="86" spans="1:5" ht="13.8">
+    <row r="86">
       <c r="A86" s="20">
-        <v>85</v>
+        <v>85.0</v>
       </c>
       <c r="B86" s="21">
-        <v>44257</v>
+        <v>44257.0</v>
       </c>
       <c r="C86" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44257</v>
       </c>
       <c r="D86" s="23"/>
       <c r="E86" s="23"/>
     </row>
-    <row r="87" spans="1:5" ht="13.8">
+    <row r="87">
       <c r="A87" s="20">
-        <v>86</v>
+        <v>86.0</v>
       </c>
       <c r="B87" s="21">
-        <v>44258</v>
+        <v>44258.0</v>
       </c>
       <c r="C87" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44258</v>
       </c>
       <c r="D87" s="23"/>
       <c r="E87" s="23"/>
     </row>
-    <row r="88" spans="1:5" ht="13.8">
+    <row r="88">
       <c r="A88" s="20">
-        <v>87</v>
+        <v>87.0</v>
       </c>
       <c r="B88" s="21">
-        <v>44259</v>
+        <v>44259.0</v>
       </c>
       <c r="C88" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44259</v>
       </c>
       <c r="D88" s="23"/>
       <c r="E88" s="23"/>
     </row>
-    <row r="89" spans="1:5" ht="13.8">
+    <row r="89">
       <c r="A89" s="20">
-        <v>88</v>
+        <v>88.0</v>
       </c>
       <c r="B89" s="21">
-        <v>44260</v>
+        <v>44260.0</v>
       </c>
       <c r="C89" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44260</v>
       </c>
       <c r="D89" s="23"/>
       <c r="E89" s="23"/>
     </row>
-    <row r="90" spans="1:5" ht="13.8">
+    <row r="90">
       <c r="A90" s="24">
-        <v>89</v>
+        <v>89.0</v>
       </c>
       <c r="B90" s="25">
-        <v>44261</v>
+        <v>44261.0</v>
       </c>
       <c r="C90" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44261</v>
       </c>
       <c r="D90" s="27"/>
       <c r="E90" s="27"/>
     </row>
-    <row r="91" spans="1:5" ht="13.8">
+    <row r="91">
       <c r="A91" s="24">
-        <v>90</v>
+        <v>90.0</v>
       </c>
       <c r="B91" s="25">
-        <v>44262</v>
+        <v>44262.0</v>
       </c>
       <c r="C91" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44262</v>
       </c>
       <c r="D91" s="27"/>
       <c r="E91" s="27"/>
     </row>
-    <row r="92" spans="1:5" ht="13.8">
+    <row r="92">
       <c r="A92" s="20">
-        <v>91</v>
+        <v>91.0</v>
       </c>
       <c r="B92" s="21">
-        <v>44263</v>
+        <v>44263.0</v>
       </c>
       <c r="C92" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44263</v>
       </c>
       <c r="D92" s="23"/>
       <c r="E92" s="23"/>
     </row>
-    <row r="93" spans="1:5" ht="13.8">
+    <row r="93">
       <c r="A93" s="20">
-        <v>92</v>
+        <v>92.0</v>
       </c>
       <c r="B93" s="21">
-        <v>44264</v>
+        <v>44264.0</v>
       </c>
       <c r="C93" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44264</v>
       </c>
       <c r="D93" s="23"/>
       <c r="E93" s="23"/>
     </row>
-    <row r="94" spans="1:5" ht="13.8">
+    <row r="94">
       <c r="A94" s="20">
-        <v>93</v>
+        <v>93.0</v>
       </c>
       <c r="B94" s="21">
-        <v>44265</v>
+        <v>44265.0</v>
       </c>
       <c r="C94" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44265</v>
       </c>
       <c r="D94" s="23"/>
       <c r="E94" s="23"/>
     </row>
-    <row r="95" spans="1:5" ht="13.8">
+    <row r="95">
       <c r="A95" s="20">
-        <v>94</v>
+        <v>94.0</v>
       </c>
       <c r="B95" s="21">
-        <v>44266</v>
+        <v>44266.0</v>
       </c>
       <c r="C95" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44266</v>
       </c>
       <c r="D95" s="23"/>
       <c r="E95" s="23"/>
     </row>
-    <row r="96" spans="1:5" ht="13.8">
+    <row r="96">
       <c r="A96" s="20">
-        <v>95</v>
+        <v>95.0</v>
       </c>
       <c r="B96" s="21">
-        <v>44267</v>
+        <v>44267.0</v>
       </c>
       <c r="C96" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44267</v>
       </c>
       <c r="D96" s="23"/>
       <c r="E96" s="23"/>
     </row>
-    <row r="97" spans="1:5" ht="13.8">
+    <row r="97">
       <c r="A97" s="24">
-        <v>96</v>
+        <v>96.0</v>
       </c>
       <c r="B97" s="25">
-        <v>44268</v>
+        <v>44268.0</v>
       </c>
       <c r="C97" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44268</v>
       </c>
       <c r="D97" s="27"/>
       <c r="E97" s="27"/>
     </row>
-    <row r="98" spans="1:5" ht="13.8">
+    <row r="98">
       <c r="A98" s="24">
-        <v>97</v>
+        <v>97.0</v>
       </c>
       <c r="B98" s="25">
-        <v>44269</v>
+        <v>44269.0</v>
       </c>
       <c r="C98" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44269</v>
       </c>
       <c r="D98" s="27"/>
       <c r="E98" s="27"/>
     </row>
-    <row r="99" spans="1:5" ht="13.8">
+    <row r="99">
       <c r="A99" s="20">
-        <v>98</v>
+        <v>98.0</v>
       </c>
       <c r="B99" s="21">
-        <v>44270</v>
+        <v>44270.0</v>
       </c>
       <c r="C99" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44270</v>
       </c>
       <c r="D99" s="23"/>
       <c r="E99" s="23"/>
     </row>
-    <row r="100" spans="1:5" ht="13.8">
+    <row r="100">
       <c r="A100" s="20">
-        <v>99</v>
+        <v>99.0</v>
       </c>
       <c r="B100" s="21">
-        <v>44271</v>
+        <v>44271.0</v>
       </c>
       <c r="C100" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44271</v>
       </c>
       <c r="D100" s="23"/>
       <c r="E100" s="23"/>
     </row>
-    <row r="101" spans="1:5" ht="13.8">
+    <row r="101">
       <c r="A101" s="20">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="B101" s="21">
-        <v>44272</v>
+        <v>44272.0</v>
       </c>
       <c r="C101" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44272</v>
       </c>
       <c r="D101" s="20" t="s">
@@ -4747,31 +4723,30 @@
       <c r="E101" s="23"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="57.33203125" customWidth="1"/>
-    <col min="3" max="3" width="61.5546875" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="8.71"/>
+    <col customWidth="1" min="2" max="2" width="57.29"/>
+    <col customWidth="1" min="3" max="3" width="61.57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.8">
+    <row r="1">
       <c r="A1" s="28" t="s">
         <v>190</v>
       </c>
@@ -4782,9 +4757,9 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="22.5" customHeight="1">
+    <row r="2" ht="22.5" customHeight="1">
       <c r="A2" s="29">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
@@ -4793,9 +4768,9 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="22.5" customHeight="1">
+    <row r="3" ht="22.5" customHeight="1">
       <c r="A3" s="29">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>30</v>
@@ -4804,9 +4779,9 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="22.5" customHeight="1">
+    <row r="4" ht="22.5" customHeight="1">
       <c r="A4" s="29">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>54</v>
@@ -4815,9 +4790,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="22.5" customHeight="1">
+    <row r="5" ht="22.5" customHeight="1">
       <c r="A5" s="29">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>68</v>
@@ -4826,9 +4801,9 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="22.5" customHeight="1">
+    <row r="6" ht="22.5" customHeight="1">
       <c r="A6" s="29">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>87</v>
@@ -4837,9 +4812,9 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="22.5" customHeight="1">
+    <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="29">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>102</v>
@@ -4849,30 +4824,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="77.5546875" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="8.71"/>
+    <col customWidth="1" min="2" max="2" width="11.71"/>
+    <col customWidth="1" min="3" max="3" width="77.57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1">
       <c r="A1" s="30" t="s">
         <v>190</v>
       </c>
@@ -4883,18 +4857,18 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2">
       <c r="A2" s="31">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="B2" s="32">
-        <v>44251</v>
+        <v>44251.0</v>
       </c>
       <c r="C2" s="33" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3">
       <c r="A3" s="34">
         <f>IF(AND(ISBLANK(B3), ISBLANK(#REF!)),"",$A$2+1)</f>
         <v>2</v>
@@ -4902,512 +4876,511 @@
       <c r="B3" s="35"/>
       <c r="C3" s="36"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4">
       <c r="A4" s="34"/>
       <c r="B4" s="37"/>
       <c r="C4" s="36"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5">
       <c r="A5" s="34"/>
       <c r="B5" s="37"/>
       <c r="C5" s="36"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6">
       <c r="A6" s="38"/>
       <c r="B6" s="37"/>
       <c r="C6" s="36"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7">
       <c r="A7" s="34"/>
       <c r="B7" s="37"/>
       <c r="C7" s="36"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8">
       <c r="A8" s="34"/>
       <c r="B8" s="37"/>
       <c r="C8" s="36"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9">
       <c r="A9" s="34"/>
       <c r="B9" s="37"/>
       <c r="C9" s="36"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10">
       <c r="A10" s="34"/>
       <c r="B10" s="37"/>
       <c r="C10" s="36"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11">
       <c r="A11" s="34"/>
       <c r="B11" s="37"/>
       <c r="C11" s="36"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12">
       <c r="A12" s="34"/>
       <c r="B12" s="37"/>
       <c r="C12" s="36"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13">
       <c r="A13" s="34"/>
       <c r="B13" s="37"/>
       <c r="C13" s="36"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14">
       <c r="A14" s="34"/>
       <c r="B14" s="39"/>
       <c r="C14" s="40"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15">
       <c r="A15" s="34"/>
       <c r="B15" s="39"/>
       <c r="C15" s="40"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16">
       <c r="A16" s="34"/>
       <c r="B16" s="39"/>
       <c r="C16" s="40"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17">
       <c r="A17" s="34"/>
       <c r="B17" s="39"/>
       <c r="C17" s="40"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18">
       <c r="A18" s="34"/>
       <c r="B18" s="39"/>
       <c r="C18" s="40"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19">
       <c r="A19" s="34"/>
       <c r="B19" s="39"/>
       <c r="C19" s="40"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20">
       <c r="A20" s="34"/>
       <c r="B20" s="39"/>
       <c r="C20" s="40"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21">
       <c r="A21" s="34"/>
       <c r="B21" s="37"/>
       <c r="C21" s="36"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22">
       <c r="A22" s="34"/>
       <c r="B22" s="37"/>
       <c r="C22" s="36"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23">
       <c r="A23" s="34"/>
       <c r="B23" s="37"/>
       <c r="C23" s="36"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24">
       <c r="A24" s="34"/>
       <c r="B24" s="37"/>
       <c r="C24" s="36"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25">
       <c r="A25" s="34"/>
       <c r="B25" s="37"/>
       <c r="C25" s="36"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26">
       <c r="A26" s="34"/>
       <c r="B26" s="37"/>
       <c r="C26" s="36"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27">
       <c r="A27" s="34"/>
       <c r="B27" s="37"/>
       <c r="C27" s="36"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28">
       <c r="A28" s="34"/>
       <c r="B28" s="37"/>
       <c r="C28" s="36"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29">
       <c r="A29" s="34"/>
       <c r="B29" s="37"/>
       <c r="C29" s="36"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30">
       <c r="A30" s="34"/>
       <c r="B30" s="37"/>
       <c r="C30" s="36"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31">
       <c r="A31" s="34"/>
       <c r="B31" s="37"/>
       <c r="C31" s="36"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32">
       <c r="A32" s="34"/>
       <c r="B32" s="37"/>
       <c r="C32" s="36"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33">
       <c r="A33" s="34"/>
       <c r="B33" s="37"/>
       <c r="C33" s="36"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34">
       <c r="A34" s="34"/>
       <c r="B34" s="37"/>
       <c r="C34" s="36"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35">
       <c r="A35" s="34"/>
       <c r="B35" s="37"/>
       <c r="C35" s="36"/>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36">
       <c r="A36" s="34"/>
       <c r="B36" s="37"/>
       <c r="C36" s="36"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37">
       <c r="A37" s="34"/>
       <c r="B37" s="37"/>
       <c r="C37" s="36"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38">
       <c r="A38" s="34"/>
       <c r="B38" s="37"/>
       <c r="C38" s="36"/>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39">
       <c r="A39" s="34"/>
       <c r="B39" s="37"/>
       <c r="C39" s="36"/>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40">
       <c r="A40" s="34"/>
       <c r="B40" s="37"/>
       <c r="C40" s="36"/>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41">
       <c r="A41" s="34"/>
       <c r="B41" s="37"/>
       <c r="C41" s="36"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42">
       <c r="A42" s="34"/>
       <c r="B42" s="37"/>
       <c r="C42" s="36"/>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43">
       <c r="A43" s="34"/>
       <c r="B43" s="37"/>
       <c r="C43" s="36"/>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44">
       <c r="A44" s="34"/>
       <c r="B44" s="37"/>
       <c r="C44" s="36"/>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45">
       <c r="A45" s="34"/>
       <c r="B45" s="37"/>
       <c r="C45" s="36"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46">
       <c r="A46" s="34"/>
       <c r="B46" s="37"/>
       <c r="C46" s="36"/>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47">
       <c r="A47" s="34"/>
       <c r="B47" s="37"/>
       <c r="C47" s="36"/>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48">
       <c r="A48" s="34"/>
       <c r="B48" s="37"/>
       <c r="C48" s="36"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49">
       <c r="A49" s="34"/>
       <c r="B49" s="37"/>
       <c r="C49" s="36"/>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50">
       <c r="A50" s="34"/>
       <c r="B50" s="37"/>
       <c r="C50" s="36"/>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51">
       <c r="A51" s="34"/>
       <c r="B51" s="37"/>
       <c r="C51" s="36"/>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52">
       <c r="A52" s="34"/>
       <c r="B52" s="37"/>
       <c r="C52" s="36"/>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53">
       <c r="A53" s="34"/>
       <c r="B53" s="37"/>
       <c r="C53" s="36"/>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54">
       <c r="A54" s="34"/>
       <c r="B54" s="37"/>
       <c r="C54" s="36"/>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55">
       <c r="A55" s="34"/>
       <c r="B55" s="37"/>
       <c r="C55" s="36"/>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56">
       <c r="A56" s="34"/>
       <c r="B56" s="37"/>
       <c r="C56" s="36"/>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57">
       <c r="A57" s="34"/>
       <c r="B57" s="37"/>
       <c r="C57" s="36"/>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58">
       <c r="A58" s="34"/>
       <c r="B58" s="37"/>
       <c r="C58" s="36"/>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59">
       <c r="A59" s="34"/>
       <c r="B59" s="37"/>
       <c r="C59" s="36"/>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60">
       <c r="A60" s="34"/>
       <c r="B60" s="37"/>
       <c r="C60" s="36"/>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61">
       <c r="A61" s="34"/>
       <c r="B61" s="37"/>
       <c r="C61" s="36"/>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62">
       <c r="A62" s="34"/>
       <c r="B62" s="37"/>
       <c r="C62" s="36"/>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63">
       <c r="A63" s="34"/>
       <c r="B63" s="37"/>
       <c r="C63" s="36"/>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64">
       <c r="A64" s="34"/>
       <c r="B64" s="37"/>
       <c r="C64" s="36"/>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65">
       <c r="A65" s="34"/>
       <c r="B65" s="37"/>
       <c r="C65" s="36"/>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66">
       <c r="A66" s="34"/>
       <c r="B66" s="37"/>
       <c r="C66" s="36"/>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67">
       <c r="A67" s="34"/>
       <c r="B67" s="37"/>
       <c r="C67" s="36"/>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68">
       <c r="A68" s="34"/>
       <c r="B68" s="37"/>
       <c r="C68" s="36"/>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69">
       <c r="A69" s="34"/>
       <c r="B69" s="37"/>
       <c r="C69" s="36"/>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70">
       <c r="A70" s="34"/>
       <c r="B70" s="37"/>
       <c r="C70" s="36"/>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71">
       <c r="A71" s="34"/>
       <c r="B71" s="37"/>
       <c r="C71" s="36"/>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72">
       <c r="A72" s="34"/>
       <c r="B72" s="37"/>
       <c r="C72" s="36"/>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73">
       <c r="A73" s="34"/>
       <c r="B73" s="37"/>
       <c r="C73" s="36"/>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74">
       <c r="A74" s="34"/>
       <c r="B74" s="37"/>
       <c r="C74" s="36"/>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75">
       <c r="A75" s="34"/>
       <c r="B75" s="37"/>
       <c r="C75" s="36"/>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76">
       <c r="A76" s="34"/>
       <c r="B76" s="37"/>
       <c r="C76" s="36"/>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77">
       <c r="A77" s="34"/>
       <c r="B77" s="37"/>
       <c r="C77" s="36"/>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78">
       <c r="A78" s="34"/>
       <c r="B78" s="37"/>
       <c r="C78" s="36"/>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79">
       <c r="A79" s="34"/>
       <c r="B79" s="37"/>
       <c r="C79" s="36"/>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80">
       <c r="A80" s="34"/>
       <c r="B80" s="37"/>
       <c r="C80" s="36"/>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81">
       <c r="A81" s="34"/>
       <c r="B81" s="37"/>
       <c r="C81" s="36"/>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82">
       <c r="A82" s="34"/>
       <c r="B82" s="37"/>
       <c r="C82" s="36"/>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83">
       <c r="A83" s="34"/>
       <c r="B83" s="37"/>
       <c r="C83" s="36"/>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84">
       <c r="A84" s="34"/>
       <c r="B84" s="37"/>
       <c r="C84" s="36"/>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85">
       <c r="A85" s="34"/>
       <c r="B85" s="37"/>
       <c r="C85" s="36"/>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86">
       <c r="A86" s="34"/>
       <c r="B86" s="37"/>
       <c r="C86" s="36"/>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87">
       <c r="A87" s="34"/>
       <c r="B87" s="37"/>
       <c r="C87" s="36"/>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88">
       <c r="A88" s="34"/>
       <c r="B88" s="37"/>
       <c r="C88" s="36"/>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89">
       <c r="A89" s="34"/>
       <c r="B89" s="37"/>
       <c r="C89" s="36"/>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90">
       <c r="A90" s="34"/>
       <c r="B90" s="37"/>
       <c r="C90" s="36"/>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91">
       <c r="A91" s="34"/>
       <c r="B91" s="37"/>
       <c r="C91" s="36"/>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92">
       <c r="A92" s="34"/>
       <c r="B92" s="37"/>
       <c r="C92" s="36"/>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93">
       <c r="A93" s="34"/>
       <c r="B93" s="37"/>
       <c r="C93" s="36"/>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94">
       <c r="A94" s="34"/>
       <c r="B94" s="37"/>
       <c r="C94" s="36"/>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95">
       <c r="A95" s="34"/>
       <c r="B95" s="37"/>
       <c r="C95" s="36"/>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96">
       <c r="A96" s="34"/>
       <c r="B96" s="37"/>
       <c r="C96" s="36"/>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97">
       <c r="A97" s="34"/>
       <c r="B97" s="37"/>
       <c r="C97" s="36"/>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98">
       <c r="A98" s="34"/>
       <c r="B98" s="37"/>
       <c r="C98" s="36"/>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99">
       <c r="A99" s="34"/>
       <c r="B99" s="37"/>
       <c r="C99" s="36"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 12/8/2020" sqref="B2:B99" xr:uid="{00000000-0002-0000-0400-000000000000}">
-      <formula1>44173</formula1>
+  <dataValidations>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 12/8/2020" sqref="B2:B99">
+      <formula1>44173.0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="56.6640625" customWidth="1"/>
-    <col min="3" max="3" width="45" customWidth="1"/>
+    <col customWidth="1" min="2" max="2" width="56.71"/>
+    <col customWidth="1" min="3" max="3" width="45.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1">
       <c r="A1" s="41" t="s">
         <v>201</v>
       </c>
@@ -5418,7 +5391,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2">
       <c r="A2" s="42" t="s">
         <v>173</v>
       </c>
@@ -5429,7 +5402,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3">
       <c r="A3" s="42" t="s">
         <v>205</v>
       </c>
@@ -5440,7 +5413,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4">
       <c r="A4" s="42" t="s">
         <v>146</v>
       </c>
@@ -5451,7 +5424,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5">
       <c r="A5" s="42" t="s">
         <v>209</v>
       </c>
@@ -5462,7 +5435,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6">
       <c r="A6" s="42" t="s">
         <v>114</v>
       </c>
@@ -5473,7 +5446,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7">
       <c r="A7" s="42" t="s">
         <v>176</v>
       </c>
@@ -5484,7 +5457,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8">
       <c r="A8" s="42" t="s">
         <v>118</v>
       </c>
@@ -5495,7 +5468,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9">
       <c r="A9" s="42" t="s">
         <v>148</v>
       </c>
@@ -5506,7 +5479,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10">
       <c r="A10" s="42" t="s">
         <v>137</v>
       </c>
@@ -5517,7 +5490,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11">
       <c r="A11" s="42" t="s">
         <v>152</v>
       </c>
@@ -5528,7 +5501,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12">
       <c r="A12" s="42" t="s">
         <v>120</v>
       </c>
@@ -5539,7 +5512,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13">
       <c r="A13" s="42" t="s">
         <v>166</v>
       </c>
@@ -5550,7 +5523,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14">
       <c r="A14" s="42" t="s">
         <v>159</v>
       </c>
@@ -5561,7 +5534,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15">
       <c r="A15" s="42" t="s">
         <v>223</v>
       </c>
@@ -5572,7 +5545,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16">
       <c r="A16" s="42" t="s">
         <v>226</v>
       </c>
@@ -5583,7 +5556,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17">
       <c r="A17" s="42" t="s">
         <v>127</v>
       </c>
@@ -5594,7 +5567,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18">
       <c r="A18" s="42" t="s">
         <v>156</v>
       </c>
@@ -5605,7 +5578,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19">
       <c r="A19" s="42" t="s">
         <v>169</v>
       </c>
@@ -5616,7 +5589,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20">
       <c r="A20" s="42" t="s">
         <v>111</v>
       </c>
@@ -5627,7 +5600,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21">
       <c r="A21" s="42" t="s">
         <v>165</v>
       </c>
@@ -5640,28 +5613,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{00000000-0004-0000-0500-00000B000000}"/>
-    <hyperlink ref="C14" r:id="rId13" xr:uid="{00000000-0004-0000-0500-00000C000000}"/>
-    <hyperlink ref="C15" r:id="rId14" xr:uid="{00000000-0004-0000-0500-00000D000000}"/>
-    <hyperlink ref="C16" r:id="rId15" xr:uid="{00000000-0004-0000-0500-00000E000000}"/>
-    <hyperlink ref="C17" r:id="rId16" xr:uid="{00000000-0004-0000-0500-00000F000000}"/>
-    <hyperlink ref="C18" r:id="rId17" xr:uid="{00000000-0004-0000-0500-000010000000}"/>
-    <hyperlink ref="C19" r:id="rId18" xr:uid="{00000000-0004-0000-0500-000011000000}"/>
-    <hyperlink ref="C20" r:id="rId19" xr:uid="{00000000-0004-0000-0500-000012000000}"/>
-    <hyperlink ref="C21" r:id="rId20" xr:uid="{00000000-0004-0000-0500-000013000000}"/>
+    <hyperlink r:id="rId2" ref="C2"/>
+    <hyperlink r:id="rId3" ref="C3"/>
+    <hyperlink r:id="rId4" ref="C4"/>
+    <hyperlink r:id="rId5" ref="C5"/>
+    <hyperlink r:id="rId6" ref="C6"/>
+    <hyperlink r:id="rId7" ref="C7"/>
+    <hyperlink r:id="rId8" ref="C8"/>
+    <hyperlink r:id="rId9" ref="C9"/>
+    <hyperlink r:id="rId10" ref="C10"/>
+    <hyperlink r:id="rId11" ref="C11"/>
+    <hyperlink r:id="rId12" ref="C12"/>
+    <hyperlink r:id="rId13" ref="C13"/>
+    <hyperlink r:id="rId14" ref="C14"/>
+    <hyperlink r:id="rId15" ref="C15"/>
+    <hyperlink r:id="rId16" ref="C16"/>
+    <hyperlink r:id="rId17" ref="C17"/>
+    <hyperlink r:id="rId18" ref="C18"/>
+    <hyperlink r:id="rId19" ref="C19"/>
+    <hyperlink r:id="rId20" ref="C20"/>
+    <hyperlink r:id="rId21" ref="C21"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId21"/>
+  <drawing r:id="rId22"/>
+  <legacyDrawing r:id="rId23"/>
 </worksheet>
 </file>
--- a/data/100 Day Tracker Data.xlsx
+++ b/data/100 Day Tracker Data.xlsx
@@ -23,9 +23,33 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="E31">
+    <comment authorId="0" ref="E36">
       <text>
-        <t xml:space="preserve">This may change to in progress, 3/1 start date.
+        <t xml:space="preserve">Need to confirm if this will change to in progress with the procurement announcement.
+	-Markele Cullins</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E42">
+      <text>
+        <t xml:space="preserve">Need clarification
+	-Markele Cullins</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E28">
+      <text>
+        <t xml:space="preserve">Need to follow up to make sure there is some way we can link this to BDC, and make it clear on the weekly updates.
+	-Markele Cullins</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E15">
+      <text>
+        <t xml:space="preserve">Need to figure out what is the measure to make this complete.
+	-Markele Cullins</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E49">
+      <text>
+        <t xml:space="preserve">This will change to in progress on 3/19/21
 	-Markele Cullins</t>
       </text>
     </comment>
@@ -75,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="242">
   <si>
     <t>Action #</t>
   </si>
@@ -98,15 +122,42 @@
     <t>Building Public Safety</t>
   </si>
   <si>
+    <t>Begin implementing a Group Violence Reduction Strategy.</t>
+  </si>
+  <si>
+    <t>Baltimore Police Department, Mayor's Office of Neighborhood Safety &amp; Engagement</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Meet with community leaders and residents around a shared vision for public safety.</t>
+  </si>
+  <si>
+    <t>Mayor's Office, Mayor's Office of Neighborhood Safety &amp; Engagement</t>
+  </si>
+  <si>
+    <t>Develop a 911 call diversion working group and draft protocol.</t>
+  </si>
+  <si>
+    <t>Restart the Criminal Justice Coordinating Council underneath the Mayor's Office of Neighborhood Safety and Engagement.</t>
+  </si>
+  <si>
+    <t>Mayor's Office of Neighborhood Safety &amp; Engagement</t>
+  </si>
+  <si>
+    <t>Convene the first meeting of the Public Safety Advisory Commission.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayor's Office of Neighborhood Safety &amp; Engagement </t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
     <t>Create Mayor's Office of Neighborhood Safety and Engagement.</t>
   </si>
   <si>
-    <t>Mayor's Office of Neighborhood Safety &amp; Engagement</t>
-  </si>
-  <si>
-    <t>Complete</t>
-  </si>
-  <si>
     <t>Hold PoliceStat meetings every-other-week to build stronger accountability within BPD and improve service delivery.</t>
   </si>
   <si>
@@ -119,9 +170,6 @@
     <t>Mayor's Office, Mayor's Office of Neighborhood Safety &amp; Engagement, Baltimore City Health Department, Baltimore Police Department</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
     <t>Commit to monthly updates on major consent decree milestones reached and increase community engagement.</t>
   </si>
   <si>
@@ -140,99 +188,177 @@
     <t>Baltimore City Department of Transportation</t>
   </si>
   <si>
-    <t>Begin implementing a Group Violence Reduction Strategy.</t>
-  </si>
-  <si>
-    <t>Baltimore Police Department, Mayor's Office of Neighborhood Safety &amp; Engagement</t>
-  </si>
-  <si>
-    <t>Meet with community leaders and residents around a shared vision for public safety.</t>
-  </si>
-  <si>
-    <t>Mayor's Office, Mayor's Office of Neighborhood Safety &amp; Engagement</t>
+    <t>Building Public Trust</t>
+  </si>
+  <si>
+    <t>Expand who has to file annual financial disclosures.</t>
+  </si>
+  <si>
+    <t>Baltimore City Ethics Board</t>
   </si>
   <si>
     <t>Not Yet Started</t>
   </si>
   <si>
-    <t>Develop a 911 call diversion working group and draft protocol.</t>
-  </si>
-  <si>
-    <t>Restart the Criminal Justice Coordinating Council underneath the Mayor's Office of Neighborhood Safety and Engagement.</t>
-  </si>
-  <si>
-    <t>Convene the first meeting of the Public Safety Advisory Commission.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayor's Office of Neighborhood Safety &amp; Engagement </t>
+    <t>Kick off community engagement plan to introduce City Administrator and other senior officials to public.</t>
+  </si>
+  <si>
+    <t>Mayor's Office</t>
+  </si>
+  <si>
+    <t>Establish, through CitiStat, performance management to ensure greater accountability and more equitable delivery of City services for residents.</t>
+  </si>
+  <si>
+    <t>Mayor's Office of Performance &amp; Innovation</t>
+  </si>
+  <si>
+    <t>Announce an action plan to reform Baltimore's water billing system.</t>
+  </si>
+  <si>
+    <t>Baltimore City Department of Public Works</t>
+  </si>
+  <si>
+    <t>Appoint a permanent Department of Public Works Director.</t>
+  </si>
+  <si>
+    <t>Appoint a permanent Housing Commissioner.</t>
+  </si>
+  <si>
+    <t>Appoint a permanent Homeless Services Director.</t>
+  </si>
+  <si>
+    <t>Mayor's Office of Homeless Services</t>
+  </si>
+  <si>
+    <t>Initiate a process to remove the backlog of transportation and infrastructure related 311 service requests in historically marginalized communities.</t>
+  </si>
+  <si>
+    <t>Baltimore City Department of Public Works, Baltimore City Department of Transportation</t>
+  </si>
+  <si>
+    <t>Initiate a process improvement project to establish a more seamless system for applying for and receiving city-owned properties.</t>
+  </si>
+  <si>
+    <t>Make stronger commitments to cleaning up sewage backups.</t>
+  </si>
+  <si>
+    <t>Hire Baltimore's first City Administrator.</t>
+  </si>
+  <si>
+    <t>Restore recycling services, which were suspended due to COVID-19.</t>
+  </si>
+  <si>
+    <t>COVID-19 Recovery</t>
+  </si>
+  <si>
+    <t>Create a dashboard to track CARES act funding to ensure equitable distribution.</t>
+  </si>
+  <si>
+    <t>Baltimore City Department of Finance</t>
+  </si>
+  <si>
+    <t>Use Rapid Rehousing dollars to move additional people and families experiencing homelessness to more permanent housing.</t>
+  </si>
+  <si>
+    <t>Identify clear point of contact for local businesses to more effectively navigate city government.</t>
+  </si>
+  <si>
+    <t>Mayor's Office, Baltimore Development Corporation</t>
+  </si>
+  <si>
+    <t>Deploy $6 million in direct support for families impacted by COVID-19.</t>
+  </si>
+  <si>
+    <t>Mayor's Office of Children and Family Success</t>
+  </si>
+  <si>
+    <t>Expand Baltimore's eviction prevention efforts.</t>
+  </si>
+  <si>
+    <t>Baltimore City Department of Housing and Community Development, Mayor's Office of Children and Family Success</t>
+  </si>
+  <si>
+    <t>Develop and communicate a COVID-19 vaccination prioritization strategy.</t>
+  </si>
+  <si>
+    <t>Baltimore City Health Department</t>
+  </si>
+  <si>
+    <t>Extend emergency shelter in local hotels when CARES Act funding expires.</t>
+  </si>
+  <si>
+    <t>Cap restaurant delivery fees on third-party app services.</t>
+  </si>
+  <si>
+    <t>Implement the COVID-19: Prevention, Control, and Support strategy to mitigate the disproportionate impact the pandemic on the Latino community.</t>
+  </si>
+  <si>
+    <t>Baltimore City Health Department, Mayor's Office of Immigrant Affairs</t>
   </si>
   <si>
     <t>Making Baltimore Equitable</t>
   </si>
   <si>
+    <t>Elevate Sustainability Director to a cabinet-level position.</t>
+  </si>
+  <si>
+    <t>Mayor's Office, Baltimore City Department of Planning</t>
+  </si>
+  <si>
+    <t>Activate small and local business preference in the procurement process.</t>
+  </si>
+  <si>
+    <t>Baltimore City Department of Finance, Baltimore City Bureau of Procurement</t>
+  </si>
+  <si>
+    <t>Hire a Digital Equity Director.</t>
+  </si>
+  <si>
+    <t>Make Baltimore City’s hiring practices more equitable.</t>
+  </si>
+  <si>
+    <t>Baltimore City Department of Human Resources</t>
+  </si>
+  <si>
+    <t>Identify a senior official in each agency to be responsible for equity.</t>
+  </si>
+  <si>
+    <t>Commit to moving Baltimore towards zero waste and begin making shifts toward a more sustainable city.</t>
+  </si>
+  <si>
+    <t>Mayor's Office, Baltimore City Department of Planning and Baltimore City Department of Public Works</t>
+  </si>
+  <si>
+    <t>Create improved transparency into the retention, attraction, and growth of City neighborhoods.</t>
+  </si>
+  <si>
+    <t>Baltimore City Department of Housing &amp; Community Development, Baltimore City Department of Planning, Baltimore City Department of Finance</t>
+  </si>
+  <si>
+    <t>Prioritize tracking data for City developments and projects that receive TIFs around local hiring and workforce development.</t>
+  </si>
+  <si>
+    <t>Mayor's Office of Employment Development, Baltimore Development Corporation</t>
+  </si>
+  <si>
+    <t>Establish a Hiring Task Force to review HR practices to meet equity requirements and continue to professionalize our workforce.</t>
+  </si>
+  <si>
+    <t>Prioritize the Baltimore Greenway Trails Network.</t>
+  </si>
+  <si>
+    <t>Baltimore City Department of Planning, Baltimore City Department of Transportation, Baltimore City Department of Recreation &amp; Parks</t>
+  </si>
+  <si>
     <t>Hire Baltimore's first Chief Equity Officer.</t>
   </si>
   <si>
     <t>Mayor's Office, Baltimore City Office of Equity &amp; Civil Rights</t>
   </si>
   <si>
-    <t>Hire a Digital Equity Director.</t>
-  </si>
-  <si>
-    <t>Mayor's Office</t>
-  </si>
-  <si>
-    <t>Make Baltimore City’s hiring practices more equitable.</t>
-  </si>
-  <si>
-    <t>Baltimore City Department of Human Resources</t>
-  </si>
-  <si>
-    <t>Identify a senior official in each agency to be responsible for equity.</t>
-  </si>
-  <si>
-    <t>Commit to moving Baltimore towards zero waste and begin making shifts toward a more sustainable city.</t>
-  </si>
-  <si>
-    <t>Mayor's Office, Baltimore City Department of Planning and Baltimore City Department of Public Works</t>
-  </si>
-  <si>
-    <t>Elevate Sustainability Director to a cabinet-level position.</t>
-  </si>
-  <si>
-    <t>Mayor's Office, Baltimore City Department of Planning</t>
-  </si>
-  <si>
-    <t>Create improved transparency into the retention, attraction, and growth of City neighborhoods.</t>
-  </si>
-  <si>
-    <t>Baltimore City Department of Housing &amp; Community Development, Baltimore City Department of Planning, Baltimore City Department of Finance</t>
-  </si>
-  <si>
     <t>Initiate a full reform of the procurement process.</t>
   </si>
   <si>
-    <t>Baltimore City Department of Finance, Baltimore City Bureau of Procurement</t>
-  </si>
-  <si>
-    <t>Activate small and local business preference in the procurement process.</t>
-  </si>
-  <si>
-    <t>Prioritize tracking data for City developments and projects that receive TIFs around local hiring and workforce development.</t>
-  </si>
-  <si>
-    <t>Baltimore Development Corporation</t>
-  </si>
-  <si>
-    <t>Establish a Hiring Task Force to review HR practices to meet equity requirements and continue to professionalize our workforce.</t>
-  </si>
-  <si>
-    <t>Prioritize the Baltimore Greenway Trails Network.</t>
-  </si>
-  <si>
-    <t>Baltimore City Department of Planning, Baltimore City Department of Transportation, Baltimore City Department of Recreation &amp; Parks</t>
-  </si>
-  <si>
     <t>Join Climate Mayors in supporting the spirit and goals of the Paris Climate Agreement.</t>
   </si>
   <si>
@@ -242,6 +368,21 @@
     <t>Prioritizing Our Youth</t>
   </si>
   <si>
+    <t>Develop plan for equitable and age-appropriate access in partnership with sports, arts, and cultural institutions that create recreational services during this unprecedented pandemic.</t>
+  </si>
+  <si>
+    <t>Baltimore City Department of Recreation &amp; Parks</t>
+  </si>
+  <si>
+    <t>Partner with the Youth Commission to establish cabinet member youth shadows.</t>
+  </si>
+  <si>
+    <t>Baltimore City Youth Commission, Mayor's Office of Children and Family Success</t>
+  </si>
+  <si>
+    <t>Host biannual Youth Summits with the Mayor to bring attention to youth-focused issues in the City.</t>
+  </si>
+  <si>
     <t>Support the overrides of the Blueprint for Maryland's Future and Built to Learn.</t>
   </si>
   <si>
@@ -260,138 +401,18 @@
     <t>Mayor's Office of Children and Family Success, Baltimore City Health Department</t>
   </si>
   <si>
-    <t>Develop plan for equitable and age-appropriate access in partnership with sports, arts, and cultural institutions that create recreational services during this unprecedented pandemic.</t>
-  </si>
-  <si>
-    <t>Baltimore City Department of Recreation &amp; Parks</t>
-  </si>
-  <si>
-    <t>Partner with the Youth Commission to establish cabinet member youth shadows.</t>
-  </si>
-  <si>
-    <t>Baltimore City Youth Commission, Mayor's Office of Children and Family Success</t>
-  </si>
-  <si>
     <t>Join Mayors for Guaranteed Income with a focus on supporting youth and families.</t>
   </si>
   <si>
-    <t>Mayor's Office of Children and Family Success</t>
-  </si>
-  <si>
-    <t>Host biannual Youth Summits with the Mayor to bring attention to youth-focused issues in the City.</t>
-  </si>
-  <si>
-    <t>Building Public Trust</t>
-  </si>
-  <si>
-    <t>Hire Baltimore's first City Administrator.</t>
-  </si>
-  <si>
-    <t>Kick off community engagement plan to introduce City Administrator and other senior officials to public.</t>
-  </si>
-  <si>
-    <t>Establish, through CitiStat, performance management to ensure greater accountability and more equitable delivery of City services for residents.</t>
-  </si>
-  <si>
-    <t>Mayor's Office of Performance &amp; Innovation</t>
-  </si>
-  <si>
-    <t>Restore recycling services, which were suspended due to COVID-19.</t>
-  </si>
-  <si>
-    <t>Baltimore City Department of Public Works</t>
-  </si>
-  <si>
-    <t>Announce an action plan to reform Baltimore's water billing system.</t>
-  </si>
-  <si>
-    <t>Appoint a permanent Department of Public Works Director.</t>
-  </si>
-  <si>
-    <t>Appoint a permanent Housing Commissioner.</t>
-  </si>
-  <si>
-    <t>Baltimore City Department of Housing &amp; Community Development</t>
-  </si>
-  <si>
-    <t>Appoint a permanent Homeless Services Director.</t>
-  </si>
-  <si>
-    <t>Mayor's Office of Homeless Services</t>
-  </si>
-  <si>
-    <t>Initiate a process to remove the backlog of transportation and infrastructure related 311 service requests in historically marginalized communities.</t>
-  </si>
-  <si>
-    <t>Baltimore City Department of Public Works, Baltimore City Department of Transportation</t>
-  </si>
-  <si>
-    <t>Initiate a process improvement project to establish a more seamless system for applying for and receiving city-owned properties.</t>
-  </si>
-  <si>
-    <t>Make stronger commitments to cleaning up sewage backups.</t>
-  </si>
-  <si>
-    <t>Expand who has to file annual financial disclosures.</t>
-  </si>
-  <si>
-    <t>Baltimore City Ethics Board</t>
-  </si>
-  <si>
-    <t>COVID-19 Recovery</t>
-  </si>
-  <si>
-    <t>Develop and communicate a COVID-19 vaccination prioritization strategy.</t>
-  </si>
-  <si>
-    <t>Baltimore City Health Department</t>
-  </si>
-  <si>
-    <t>Create a dashboard to track CARES act funding to ensure equitable distribution.</t>
-  </si>
-  <si>
-    <t>Baltimore City Department of Finance</t>
-  </si>
-  <si>
-    <t>Use Rapid Rehousing dollars to move additional people and families experiencing homelessness to more permanent housing.</t>
-  </si>
-  <si>
-    <t>Extend emergency shelter in local hotels when CARES Act funding expires.</t>
-  </si>
-  <si>
-    <t>Cap restaurant delivery fees on third-party app services.</t>
-  </si>
-  <si>
-    <t>Identify clear point of contact for local businesses to more effectively navigate city government.</t>
-  </si>
-  <si>
-    <t>Mayor's Office, Baltimore Development Corporation</t>
-  </si>
-  <si>
-    <t>Deploy $6 million in direct support for families impacted by COVID-19.</t>
-  </si>
-  <si>
-    <t>Expand Baltimore's eviction prevention efforts.</t>
-  </si>
-  <si>
-    <t>Baltimore City Department of Housing and Community Development, Mayor's Office of Children and Family Success</t>
-  </si>
-  <si>
-    <t>Implement the COVID-19: Prevention, Control, and Support strategy to mitigate the disproportionate impact the pandemic on the Latino community.</t>
-  </si>
-  <si>
-    <t>Baltimore City Health Department, Mayor's Office of Immigrant Affairs</t>
-  </si>
-  <si>
     <t>Responsible Stewardship of City Resources</t>
   </si>
   <si>
+    <t>Begin a holistic review of tax credits to address inefficiencies, redundancies, or new credits that would build a more equitable city.</t>
+  </si>
+  <si>
     <t>Begin holistic, top-to-bottom assessment of city agencies and process to inventory city property.</t>
   </si>
   <si>
-    <t>Begin a holistic review of tax credits to address inefficiencies, redundancies, or new credits that would build a more equitable city.</t>
-  </si>
-  <si>
     <t>Expand community engagement in the budget process.</t>
   </si>
   <si>
@@ -401,7 +422,7 @@
     <t>Design and release Open Checkbook for Baltimore to increase transparency and accountability.</t>
   </si>
   <si>
-    <t>Mayor's Office of Performance and Innovation, Baltimore City Department of Finance</t>
+    <t>Baltimore City Information &amp; Technology, Baltimore City Department of Finance</t>
   </si>
   <si>
     <t>Status</t>
@@ -645,6 +666,27 @@
   </si>
   <si>
     <t>End of first 100 days</t>
+  </si>
+  <si>
+    <t>Fri</t>
+  </si>
+  <si>
+    <t>Sat</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Tue</t>
+  </si>
+  <si>
+    <t>Wed</t>
+  </si>
+  <si>
+    <t>Thu</t>
   </si>
   <si>
     <t>Number</t>
@@ -709,6 +751,9 @@
     <t>technology.baltimorecity.gov</t>
   </si>
   <si>
+    <t>Baltimore Development Corporation</t>
+  </si>
+  <si>
     <t>baltimoredevelopment.com</t>
   </si>
   <si>
@@ -731,6 +776,9 @@
   </si>
   <si>
     <t>generalservices.baltimorecity.gov</t>
+  </si>
+  <si>
+    <t>Baltimore City Department of Housing &amp; Community Development</t>
   </si>
   <si>
     <t>dhcd.baltimorecity.gov</t>
@@ -949,7 +997,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="53">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -963,19 +1011,19 @@
       <alignment horizontal="right" readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+      <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
@@ -1020,16 +1068,31 @@
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
@@ -1359,7 +1422,7 @@
     </row>
     <row r="2" ht="31.5" customHeight="1">
       <c r="A2" s="3">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
@@ -1379,7 +1442,7 @@
     </row>
     <row r="3" ht="31.5" customHeight="1">
       <c r="A3" s="3">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>6</v>
@@ -1399,7 +1462,7 @@
     </row>
     <row r="4" ht="31.5" customHeight="1">
       <c r="A4" s="3">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>6</v>
@@ -1408,10 +1471,10 @@
         <v>12</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F4" s="3">
         <v>1.0</v>
@@ -1419,18 +1482,18 @@
     </row>
     <row r="5" ht="31.5" customHeight="1">
       <c r="A5" s="3">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="3">
@@ -1439,19 +1502,19 @@
     </row>
     <row r="6" ht="31.5" customHeight="1">
       <c r="A6" s="3">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="F6" s="3">
         <v>1.0</v>
@@ -1459,19 +1522,19 @@
     </row>
     <row r="7" ht="31.5" customHeight="1">
       <c r="A7" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="4" t="s">
+        <v>1.0</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F7" s="3">
         <v>1.0</v>
@@ -1479,9 +1542,9 @@
     </row>
     <row r="8" ht="31.5" customHeight="1">
       <c r="A8" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="4" t="s">
+        <v>2.0</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1491,7 +1554,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F8" s="3">
         <v>1.0</v>
@@ -1499,9 +1562,9 @@
     </row>
     <row r="9" ht="31.5" customHeight="1">
       <c r="A9" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="7" t="s">
+        <v>3.0</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1510,8 +1573,8 @@
       <c r="D9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>14</v>
+      <c r="E9" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="F9" s="3">
         <v>1.0</v>
@@ -1519,9 +1582,9 @@
     </row>
     <row r="10" ht="31.5" customHeight="1">
       <c r="A10" s="3">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="7" t="s">
+        <v>4.0</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -1531,7 +1594,7 @@
         <v>24</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F10" s="3">
         <v>1.0</v>
@@ -1539,19 +1602,19 @@
     </row>
     <row r="11" ht="31.5" customHeight="1">
       <c r="A11" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="7" t="s">
+        <v>5.0</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F11" s="3">
         <v>1.0</v>
@@ -1559,19 +1622,19 @@
     </row>
     <row r="12" ht="31.5" customHeight="1">
       <c r="A12" s="3">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="7" t="s">
+        <v>6.0</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F12" s="3">
         <v>1.0</v>
@@ -1579,19 +1642,19 @@
     </row>
     <row r="13" ht="31.5" customHeight="1">
       <c r="A13" s="3">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="7" t="s">
+        <v>7.0</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>25</v>
+      <c r="E13" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="F13" s="3">
         <v>1.0</v>
@@ -1599,19 +1662,19 @@
     </row>
     <row r="14" ht="31.5" customHeight="1">
       <c r="A14" s="3">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="7" t="s">
+        <v>44.0</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="F14" s="3">
         <v>1.0</v>
@@ -1619,10 +1682,10 @@
     </row>
     <row r="15" ht="31.5" customHeight="1">
       <c r="A15" s="3">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>30</v>
+        <v>34.0</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>33</v>
@@ -1630,8 +1693,8 @@
       <c r="D15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>14</v>
+      <c r="E15" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="F15" s="3">
         <v>1.0</v>
@@ -1639,10 +1702,10 @@
     </row>
     <row r="16" ht="31.5" customHeight="1">
       <c r="A16" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>30</v>
+        <v>35.0</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>35</v>
@@ -1651,7 +1714,7 @@
         <v>36</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F16" s="3">
         <v>1.0</v>
@@ -1659,19 +1722,19 @@
     </row>
     <row r="17" ht="31.5" customHeight="1">
       <c r="A17" s="3">
-        <v>16.0</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>30</v>
+        <v>37.0</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F17" s="3">
         <v>1.0</v>
@@ -1679,19 +1742,19 @@
     </row>
     <row r="18" ht="31.5" customHeight="1">
       <c r="A18" s="3">
-        <v>17.0</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>30</v>
+        <v>38.0</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="E18" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F18" s="3">
         <v>1.0</v>
@@ -1699,19 +1762,19 @@
     </row>
     <row r="19" ht="31.5" customHeight="1">
       <c r="A19" s="3">
-        <v>18.0</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>30</v>
+        <v>39.0</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F19" s="3">
         <v>1.0</v>
@@ -1719,19 +1782,19 @@
     </row>
     <row r="20" ht="31.5" customHeight="1">
       <c r="A20" s="3">
-        <v>19.0</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>30</v>
+        <v>40.0</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="E20" s="5" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F20" s="3">
         <v>1.0</v>
@@ -1739,19 +1802,19 @@
     </row>
     <row r="21" ht="31.5" customHeight="1">
       <c r="A21" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>30</v>
+        <v>41.0</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>14</v>
+      <c r="E21" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="F21" s="3">
         <v>1.0</v>
@@ -1759,59 +1822,59 @@
     </row>
     <row r="22" ht="31.5" customHeight="1">
       <c r="A22" s="3">
-        <v>21.0</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>30</v>
+        <v>42.0</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F22" s="3">
         <v>1.0</v>
       </c>
     </row>
-    <row r="23" ht="31.5" customHeight="1">
+    <row r="23" ht="53.25" customHeight="1">
       <c r="A23" s="3">
-        <v>22.0</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>30</v>
+        <v>43.0</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>25</v>
+        <v>38</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="F23" s="3">
         <v>1.0</v>
       </c>
     </row>
-    <row r="24" ht="31.5" customHeight="1">
+    <row r="24" ht="43.5" customHeight="1">
       <c r="A24" s="3">
-        <v>23.0</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>30</v>
+        <v>33.0</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F24" s="3">
         <v>1.0</v>
@@ -1819,19 +1882,19 @@
     </row>
     <row r="25" ht="31.5" customHeight="1">
       <c r="A25" s="3">
-        <v>24.0</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>30</v>
+        <v>36.0</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F25" s="3">
         <v>1.0</v>
@@ -1839,19 +1902,19 @@
     </row>
     <row r="26" ht="31.5" customHeight="1">
       <c r="A26" s="3">
-        <v>25.0</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>30</v>
+        <v>46.0</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F26" s="3">
         <v>1.0</v>
@@ -1859,19 +1922,19 @@
     </row>
     <row r="27" ht="31.5" customHeight="1">
       <c r="A27" s="3">
-        <v>26.0</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>54</v>
+        <v>47.0</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F27" s="3">
         <v>1.0</v>
@@ -1879,19 +1942,19 @@
     </row>
     <row r="28" ht="31.5" customHeight="1">
       <c r="A28" s="3">
-        <v>27.0</v>
-      </c>
-      <c r="B28" s="7" t="s">
+        <v>50.0</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="E28" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F28" s="3">
         <v>1.0</v>
@@ -1899,39 +1962,39 @@
     </row>
     <row r="29" ht="31.5" customHeight="1">
       <c r="A29" s="3">
-        <v>28.0</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>54</v>
+        <v>51.0</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F29" s="3">
         <v>1.0</v>
       </c>
     </row>
-    <row r="30" ht="31.5" customHeight="1">
+    <row r="30" ht="59.25" customHeight="1">
       <c r="A30" s="3">
-        <v>29.0</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>54</v>
+        <v>52.0</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F30" s="3">
         <v>1.0</v>
@@ -1939,19 +2002,19 @@
     </row>
     <row r="31" ht="31.5" customHeight="1">
       <c r="A31" s="3">
-        <v>30.0</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>54</v>
+        <v>45.0</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>25</v>
+        <v>60</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="F31" s="3">
         <v>1.0</v>
@@ -1959,19 +2022,19 @@
     </row>
     <row r="32" ht="31.5" customHeight="1">
       <c r="A32" s="3">
-        <v>31.0</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>54</v>
+        <v>48.0</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F32" s="3">
         <v>1.0</v>
@@ -1979,19 +2042,19 @@
     </row>
     <row r="33" ht="31.5" customHeight="1">
       <c r="A33" s="3">
-        <v>32.0</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>54</v>
+        <v>49.0</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F33" s="3">
         <v>1.0</v>
@@ -1999,19 +2062,19 @@
     </row>
     <row r="34" ht="31.5" customHeight="1">
       <c r="A34" s="3">
-        <v>33.0</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>68</v>
+        <v>53.0</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F34" s="3">
         <v>1.0</v>
@@ -2019,19 +2082,19 @@
     </row>
     <row r="35" ht="31.5" customHeight="1">
       <c r="A35" s="3">
-        <v>34.0</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>68</v>
+        <v>18.0</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F35" s="3">
         <v>1.0</v>
@@ -2039,19 +2102,19 @@
     </row>
     <row r="36" ht="31.5" customHeight="1">
       <c r="A36" s="3">
-        <v>35.0</v>
-      </c>
-      <c r="B36" s="7" t="s">
+        <v>21.0</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="D36" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F36" s="3">
         <v>1.0</v>
@@ -2059,19 +2122,19 @@
     </row>
     <row r="37" ht="31.5" customHeight="1">
       <c r="A37" s="3">
-        <v>36.0</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>68</v>
+        <v>14.0</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F37" s="3">
         <v>1.0</v>
@@ -2079,19 +2142,19 @@
     </row>
     <row r="38" ht="31.5" customHeight="1">
       <c r="A38" s="3">
-        <v>37.0</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>68</v>
+        <v>15.0</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>14</v>
+        <v>72</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="F38" s="3">
         <v>1.0</v>
@@ -2099,19 +2162,19 @@
     </row>
     <row r="39" ht="31.5" customHeight="1">
       <c r="A39" s="3">
-        <v>38.0</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>68</v>
+        <v>16.0</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F39" s="3">
         <v>1.0</v>
@@ -2119,19 +2182,19 @@
     </row>
     <row r="40" ht="31.5" customHeight="1">
       <c r="A40" s="3">
-        <v>39.0</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>68</v>
+        <v>17.0</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F40" s="3">
         <v>1.0</v>
@@ -2139,19 +2202,19 @@
     </row>
     <row r="41" ht="31.5" customHeight="1">
       <c r="A41" s="3">
-        <v>40.0</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>68</v>
+        <v>19.0</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F41" s="3">
         <v>1.0</v>
@@ -2159,19 +2222,19 @@
     </row>
     <row r="42" ht="31.5" customHeight="1">
       <c r="A42" s="3">
-        <v>41.0</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>68</v>
+        <v>22.0</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F42" s="3">
         <v>1.0</v>
@@ -2179,19 +2242,19 @@
     </row>
     <row r="43" ht="31.5" customHeight="1">
       <c r="A43" s="3">
-        <v>42.0</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>68</v>
+        <v>23.0</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F43" s="3">
         <v>1.0</v>
@@ -2199,19 +2262,19 @@
     </row>
     <row r="44" ht="31.5" customHeight="1">
       <c r="A44" s="3">
-        <v>43.0</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>68</v>
+        <v>24.0</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F44" s="3">
         <v>1.0</v>
@@ -2219,19 +2282,19 @@
     </row>
     <row r="45" ht="31.5" customHeight="1">
       <c r="A45" s="3">
-        <v>44.0</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>68</v>
+        <v>13.0</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F45" s="3">
         <v>1.0</v>
@@ -2239,19 +2302,19 @@
     </row>
     <row r="46" ht="31.5" customHeight="1">
       <c r="A46" s="3">
-        <v>45.0</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>87</v>
+        <v>20.0</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>9</v>
+        <v>69</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="F46" s="3">
         <v>1.0</v>
@@ -2259,19 +2322,19 @@
     </row>
     <row r="47" ht="31.5" customHeight="1">
       <c r="A47" s="3">
-        <v>46.0</v>
-      </c>
-      <c r="B47" s="7" t="s">
+        <v>25.0</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>91</v>
-      </c>
       <c r="E47" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F47" s="3">
         <v>1.0</v>
@@ -2279,19 +2342,19 @@
     </row>
     <row r="48" ht="31.5" customHeight="1">
       <c r="A48" s="3">
-        <v>47.0</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>87</v>
+        <v>29.0</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>14</v>
+        <v>90</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="F48" s="3">
         <v>1.0</v>
@@ -2299,16 +2362,16 @@
     </row>
     <row r="49" ht="31.5" customHeight="1">
       <c r="A49" s="3">
-        <v>48.0</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>87</v>
+        <v>30.0</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>9</v>
@@ -2319,16 +2382,16 @@
     </row>
     <row r="50" ht="31.5" customHeight="1">
       <c r="A50" s="3">
-        <v>49.0</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>87</v>
+        <v>32.0</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>9</v>
@@ -2339,19 +2402,19 @@
     </row>
     <row r="51" ht="31.5" customHeight="1">
       <c r="A51" s="3">
-        <v>50.0</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>87</v>
+        <v>26.0</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="C51" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>96</v>
-      </c>
       <c r="E51" s="5" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F51" s="3">
         <v>1.0</v>
@@ -2359,19 +2422,19 @@
     </row>
     <row r="52" ht="31.5" customHeight="1">
       <c r="A52" s="3">
-        <v>51.0</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>87</v>
+        <v>27.0</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="C52" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D52" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="E52" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F52" s="3">
         <v>1.0</v>
@@ -2379,19 +2442,19 @@
     </row>
     <row r="53" ht="31.5" customHeight="1">
       <c r="A53" s="3">
-        <v>52.0</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>87</v>
+        <v>28.0</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="5" t="s">
         <v>99</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F53" s="3">
         <v>1.0</v>
@@ -2399,19 +2462,19 @@
     </row>
     <row r="54" ht="31.5" customHeight="1">
       <c r="A54" s="3">
-        <v>53.0</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>87</v>
+        <v>31.0</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>100</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F54" s="3">
         <v>1.0</v>
@@ -2419,19 +2482,19 @@
     </row>
     <row r="55" ht="31.5" customHeight="1">
       <c r="A55" s="3">
-        <v>54.0</v>
-      </c>
-      <c r="B55" s="7" t="s">
+        <v>55.0</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>103</v>
-      </c>
       <c r="D55" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F55" s="3">
         <v>1.0</v>
@@ -2439,19 +2502,19 @@
     </row>
     <row r="56" ht="31.5" customHeight="1">
       <c r="A56" s="3">
-        <v>55.0</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>102</v>
+        <v>54.0</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F56" s="3">
         <v>1.0</v>
@@ -2461,17 +2524,17 @@
       <c r="A57" s="3">
         <v>56.0</v>
       </c>
-      <c r="B57" s="7" t="s">
-        <v>102</v>
+      <c r="B57" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F57" s="3">
         <v>1.0</v>
@@ -2481,17 +2544,17 @@
       <c r="A58" s="3">
         <v>57.0</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>102</v>
+      <c r="B58" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F58" s="3">
         <v>1.0</v>
@@ -2501,17 +2564,17 @@
       <c r="A59" s="9">
         <v>58.0</v>
       </c>
-      <c r="B59" s="7" t="s">
-        <v>102</v>
+      <c r="B59" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="C59" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D59" s="6" t="s">
-        <v>108</v>
-      </c>
       <c r="E59" s="5" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F59" s="3">
         <v>1.0</v>
@@ -2520,8 +2583,9 @@
   </sheetData>
   <autoFilter ref="$A$1:$F$59">
     <sortState ref="A1:F59">
+      <sortCondition ref="B1:B59"/>
+      <sortCondition descending="1" ref="E1:E59"/>
       <sortCondition ref="A1:A59"/>
-      <sortCondition ref="E1:E59"/>
     </sortState>
   </autoFilter>
   <dataValidations>
@@ -2550,138 +2614,138 @@
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>109</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="13" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>111</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>115</v>
-      </c>
       <c r="D3" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="13" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="13" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>111</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>117</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>118</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="13" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="13" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>122</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>123</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="13" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="13" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12">
@@ -2692,7 +2756,7 @@
     </row>
     <row r="13">
       <c r="A13" s="16" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="14"/>
@@ -2700,186 +2764,186 @@
     </row>
     <row r="14">
       <c r="A14" s="13" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="B14" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>129</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="13" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>134</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>135</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="13" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>137</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>138</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>139</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>140</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>141</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>142</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>143</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="13" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="13" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>147</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>148</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="13" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="13" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="B28" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="12" t="s">
         <v>152</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="29">
@@ -2890,7 +2954,7 @@
     </row>
     <row r="30">
       <c r="A30" s="16" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="14"/>
@@ -2898,56 +2962,56 @@
     </row>
     <row r="31">
       <c r="A31" s="13" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="B31" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="12" t="s">
         <v>154</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="13" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="13" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="B33" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="12" t="s">
         <v>157</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="13" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35">
@@ -2958,7 +3022,7 @@
     </row>
     <row r="36">
       <c r="A36" s="16" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="14"/>
@@ -2966,130 +3030,130 @@
     </row>
     <row r="37">
       <c r="A37" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="B39" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="B39" s="12" t="s">
-        <v>165</v>
-      </c>
       <c r="C39" s="12" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="13" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="13" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B43" s="12" t="s">
         <v>168</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>169</v>
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B44" s="12" t="s">
         <v>170</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>171</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C45" s="14"/>
       <c r="D45" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="13" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C46" s="14"/>
       <c r="D46" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47">
@@ -3100,7 +3164,7 @@
     </row>
     <row r="48">
       <c r="A48" s="16" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="B48" s="11"/>
       <c r="C48" s="14"/>
@@ -3108,82 +3172,82 @@
     </row>
     <row r="49">
       <c r="A49" s="13" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="13" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="13" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="13" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="13" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C54" s="14"/>
       <c r="D54" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55">
@@ -3194,7 +3258,7 @@
     </row>
     <row r="56">
       <c r="A56" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="14"/>
@@ -3205,71 +3269,71 @@
         <v>103</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C57" s="14"/>
       <c r="D57" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C58" s="14"/>
       <c r="D58" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B59" s="12" t="s">
         <v>177</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>178</v>
       </c>
       <c r="C59" s="14"/>
       <c r="D59" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C60" s="14"/>
       <c r="D60" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C61" s="14"/>
       <c r="D61" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C62" s="14"/>
       <c r="D62" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3297,40 +3361,40 @@
   <sheetData>
     <row r="1" ht="42.75" customHeight="1">
       <c r="A1" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>183</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="20">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B2" s="21">
         <v>44173.0</v>
       </c>
       <c r="C2" s="22">
-        <f t="shared" ref="C2:C101" si="1">B2</f>
+        <f t="shared" ref="C2:C102" si="1">B2</f>
         <v>44173</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E2" s="23"/>
     </row>
     <row r="3">
       <c r="A3" s="20">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B3" s="21">
         <v>44174.0</v>
@@ -3344,7 +3408,7 @@
     </row>
     <row r="4">
       <c r="A4" s="20">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B4" s="21">
         <v>44175.0</v>
@@ -3358,7 +3422,7 @@
     </row>
     <row r="5">
       <c r="A5" s="20">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B5" s="21">
         <v>44176.0</v>
@@ -3371,36 +3435,36 @@
       <c r="E5" s="23"/>
     </row>
     <row r="6">
-      <c r="A6" s="24">
+      <c r="A6" s="20">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="24">
+        <v>44177.0</v>
+      </c>
+      <c r="C6" s="25">
+        <f t="shared" si="1"/>
+        <v>44177</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="20">
         <v>5.0</v>
       </c>
-      <c r="B6" s="25">
-        <v>44177.0</v>
-      </c>
-      <c r="C6" s="26">
-        <f t="shared" si="1"/>
-        <v>44177</v>
-      </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="24">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="25">
+      <c r="B7" s="24">
         <v>44178.0</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="25">
         <f t="shared" si="1"/>
         <v>44178</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
     </row>
     <row r="8">
       <c r="A8" s="20">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B8" s="21">
         <v>44179.0</v>
@@ -3414,7 +3478,7 @@
     </row>
     <row r="9">
       <c r="A9" s="20">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="B9" s="21">
         <v>44180.0</v>
@@ -3428,7 +3492,7 @@
     </row>
     <row r="10">
       <c r="A10" s="20">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="B10" s="21">
         <v>44181.0</v>
@@ -3442,7 +3506,7 @@
     </row>
     <row r="11">
       <c r="A11" s="20">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="B11" s="21">
         <v>44182.0</v>
@@ -3456,7 +3520,7 @@
     </row>
     <row r="12">
       <c r="A12" s="20">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="B12" s="21">
         <v>44183.0</v>
@@ -3469,36 +3533,36 @@
       <c r="E12" s="23"/>
     </row>
     <row r="13">
-      <c r="A13" s="24">
+      <c r="A13" s="20">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="24">
+        <v>44184.0</v>
+      </c>
+      <c r="C13" s="25">
+        <f t="shared" si="1"/>
+        <v>44184</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="20">
         <v>12.0</v>
       </c>
-      <c r="B13" s="25">
-        <v>44184.0</v>
-      </c>
-      <c r="C13" s="26">
-        <f t="shared" si="1"/>
-        <v>44184</v>
-      </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="24">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="25">
+      <c r="B14" s="24">
         <v>44185.0</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="25">
         <f t="shared" si="1"/>
         <v>44185</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
     </row>
     <row r="15">
       <c r="A15" s="20">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="B15" s="21">
         <v>44186.0</v>
@@ -3512,7 +3576,7 @@
     </row>
     <row r="16">
       <c r="A16" s="20">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="B16" s="21">
         <v>44187.0</v>
@@ -3526,7 +3590,7 @@
     </row>
     <row r="17">
       <c r="A17" s="20">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="B17" s="21">
         <v>44188.0</v>
@@ -3540,7 +3604,7 @@
     </row>
     <row r="18">
       <c r="A18" s="20">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="B18" s="21">
         <v>44189.0</v>
@@ -3554,7 +3618,7 @@
     </row>
     <row r="19">
       <c r="A19" s="20">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="B19" s="21">
         <v>44190.0</v>
@@ -3567,36 +3631,36 @@
       <c r="E19" s="23"/>
     </row>
     <row r="20">
-      <c r="A20" s="24">
+      <c r="A20" s="20">
+        <v>18.0</v>
+      </c>
+      <c r="B20" s="24">
+        <v>44191.0</v>
+      </c>
+      <c r="C20" s="25">
+        <f t="shared" si="1"/>
+        <v>44191</v>
+      </c>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="20">
         <v>19.0</v>
       </c>
-      <c r="B20" s="25">
-        <v>44191.0</v>
-      </c>
-      <c r="C20" s="26">
-        <f t="shared" si="1"/>
-        <v>44191</v>
-      </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="24">
-        <v>20.0</v>
-      </c>
-      <c r="B21" s="25">
+      <c r="B21" s="24">
         <v>44192.0</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="25">
         <f t="shared" si="1"/>
         <v>44192</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
     </row>
     <row r="22">
       <c r="A22" s="20">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="B22" s="21">
         <v>44193.0</v>
@@ -3610,7 +3674,7 @@
     </row>
     <row r="23">
       <c r="A23" s="20">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="B23" s="21">
         <v>44194.0</v>
@@ -3624,7 +3688,7 @@
     </row>
     <row r="24">
       <c r="A24" s="20">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="B24" s="21">
         <v>44195.0</v>
@@ -3638,7 +3702,7 @@
     </row>
     <row r="25">
       <c r="A25" s="20">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="B25" s="21">
         <v>44196.0</v>
@@ -3652,7 +3716,7 @@
     </row>
     <row r="26">
       <c r="A26" s="20">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="B26" s="21">
         <v>44197.0</v>
@@ -3662,41 +3726,41 @@
         <v>44197</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E26" s="23"/>
     </row>
     <row r="27">
-      <c r="A27" s="24">
+      <c r="A27" s="20">
+        <v>25.0</v>
+      </c>
+      <c r="B27" s="24">
+        <v>44198.0</v>
+      </c>
+      <c r="C27" s="25">
+        <f t="shared" si="1"/>
+        <v>44198</v>
+      </c>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="20">
         <v>26.0</v>
       </c>
-      <c r="B27" s="25">
-        <v>44198.0</v>
-      </c>
-      <c r="C27" s="26">
-        <f t="shared" si="1"/>
-        <v>44198</v>
-      </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="24">
-        <v>27.0</v>
-      </c>
-      <c r="B28" s="25">
+      <c r="B28" s="24">
         <v>44199.0</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C28" s="25">
         <f t="shared" si="1"/>
         <v>44199</v>
       </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
     </row>
     <row r="29">
       <c r="A29" s="20">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="B29" s="21">
         <v>44200.0</v>
@@ -3710,7 +3774,7 @@
     </row>
     <row r="30">
       <c r="A30" s="20">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="B30" s="21">
         <v>44201.0</v>
@@ -3724,7 +3788,7 @@
     </row>
     <row r="31">
       <c r="A31" s="20">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
       <c r="B31" s="21">
         <v>44202.0</v>
@@ -3738,7 +3802,7 @@
     </row>
     <row r="32">
       <c r="A32" s="20">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
       <c r="B32" s="21">
         <v>44203.0</v>
@@ -3752,7 +3816,7 @@
     </row>
     <row r="33">
       <c r="A33" s="20">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
       <c r="B33" s="21">
         <v>44204.0</v>
@@ -3765,36 +3829,36 @@
       <c r="E33" s="23"/>
     </row>
     <row r="34">
-      <c r="A34" s="24">
+      <c r="A34" s="20">
+        <v>32.0</v>
+      </c>
+      <c r="B34" s="24">
+        <v>44205.0</v>
+      </c>
+      <c r="C34" s="25">
+        <f t="shared" si="1"/>
+        <v>44205</v>
+      </c>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="20">
         <v>33.0</v>
       </c>
-      <c r="B34" s="25">
-        <v>44205.0</v>
-      </c>
-      <c r="C34" s="26">
-        <f t="shared" si="1"/>
-        <v>44205</v>
-      </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="24">
-        <v>34.0</v>
-      </c>
-      <c r="B35" s="25">
+      <c r="B35" s="24">
         <v>44206.0</v>
       </c>
-      <c r="C35" s="26">
+      <c r="C35" s="25">
         <f t="shared" si="1"/>
         <v>44206</v>
       </c>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
     </row>
     <row r="36">
       <c r="A36" s="20">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="B36" s="21">
         <v>44207.0</v>
@@ -3808,7 +3872,7 @@
     </row>
     <row r="37">
       <c r="A37" s="20">
-        <v>36.0</v>
+        <v>35.0</v>
       </c>
       <c r="B37" s="21">
         <v>44208.0</v>
@@ -3822,7 +3886,7 @@
     </row>
     <row r="38">
       <c r="A38" s="20">
-        <v>37.0</v>
+        <v>36.0</v>
       </c>
       <c r="B38" s="21">
         <v>44209.0</v>
@@ -3836,7 +3900,7 @@
     </row>
     <row r="39">
       <c r="A39" s="20">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="B39" s="21">
         <v>44210.0</v>
@@ -3850,7 +3914,7 @@
     </row>
     <row r="40">
       <c r="A40" s="20">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
       <c r="B40" s="21">
         <v>44211.0</v>
@@ -3863,36 +3927,36 @@
       <c r="E40" s="23"/>
     </row>
     <row r="41">
-      <c r="A41" s="24">
+      <c r="A41" s="20">
+        <v>39.0</v>
+      </c>
+      <c r="B41" s="24">
+        <v>44212.0</v>
+      </c>
+      <c r="C41" s="25">
+        <f t="shared" si="1"/>
+        <v>44212</v>
+      </c>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="20">
         <v>40.0</v>
       </c>
-      <c r="B41" s="25">
-        <v>44212.0</v>
-      </c>
-      <c r="C41" s="26">
-        <f t="shared" si="1"/>
-        <v>44212</v>
-      </c>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="24">
-        <v>41.0</v>
-      </c>
-      <c r="B42" s="25">
+      <c r="B42" s="24">
         <v>44213.0</v>
       </c>
-      <c r="C42" s="26">
+      <c r="C42" s="25">
         <f t="shared" si="1"/>
         <v>44213</v>
       </c>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
     </row>
     <row r="43">
       <c r="A43" s="20">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="B43" s="21">
         <v>44214.0</v>
@@ -3906,7 +3970,7 @@
     </row>
     <row r="44">
       <c r="A44" s="20">
-        <v>43.0</v>
+        <v>42.0</v>
       </c>
       <c r="B44" s="21">
         <v>44215.0</v>
@@ -3920,7 +3984,7 @@
     </row>
     <row r="45">
       <c r="A45" s="20">
-        <v>44.0</v>
+        <v>43.0</v>
       </c>
       <c r="B45" s="21">
         <v>44216.0</v>
@@ -3934,7 +3998,7 @@
     </row>
     <row r="46">
       <c r="A46" s="20">
-        <v>45.0</v>
+        <v>44.0</v>
       </c>
       <c r="B46" s="21">
         <v>44217.0</v>
@@ -3948,7 +4012,7 @@
     </row>
     <row r="47">
       <c r="A47" s="20">
-        <v>46.0</v>
+        <v>45.0</v>
       </c>
       <c r="B47" s="21">
         <v>44218.0</v>
@@ -3961,36 +4025,36 @@
       <c r="E47" s="23"/>
     </row>
     <row r="48">
-      <c r="A48" s="24">
+      <c r="A48" s="20">
+        <v>46.0</v>
+      </c>
+      <c r="B48" s="24">
+        <v>44219.0</v>
+      </c>
+      <c r="C48" s="25">
+        <f t="shared" si="1"/>
+        <v>44219</v>
+      </c>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="20">
         <v>47.0</v>
       </c>
-      <c r="B48" s="25">
-        <v>44219.0</v>
-      </c>
-      <c r="C48" s="26">
-        <f t="shared" si="1"/>
-        <v>44219</v>
-      </c>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="24">
-        <v>48.0</v>
-      </c>
-      <c r="B49" s="25">
+      <c r="B49" s="24">
         <v>44220.0</v>
       </c>
-      <c r="C49" s="26">
+      <c r="C49" s="25">
         <f t="shared" si="1"/>
         <v>44220</v>
       </c>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
     </row>
     <row r="50">
       <c r="A50" s="20">
-        <v>49.0</v>
+        <v>48.0</v>
       </c>
       <c r="B50" s="21">
         <v>44221.0</v>
@@ -4004,7 +4068,7 @@
     </row>
     <row r="51">
       <c r="A51" s="20">
-        <v>50.0</v>
+        <v>49.0</v>
       </c>
       <c r="B51" s="21">
         <v>44222.0</v>
@@ -4014,13 +4078,13 @@
         <v>44222</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E51" s="23"/>
     </row>
     <row r="52">
       <c r="A52" s="20">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
       <c r="B52" s="21">
         <v>44223.0</v>
@@ -4034,7 +4098,7 @@
     </row>
     <row r="53">
       <c r="A53" s="20">
-        <v>52.0</v>
+        <v>51.0</v>
       </c>
       <c r="B53" s="21">
         <v>44224.0</v>
@@ -4048,7 +4112,7 @@
     </row>
     <row r="54">
       <c r="A54" s="20">
-        <v>53.0</v>
+        <v>52.0</v>
       </c>
       <c r="B54" s="21">
         <v>44225.0</v>
@@ -4061,36 +4125,36 @@
       <c r="E54" s="23"/>
     </row>
     <row r="55">
-      <c r="A55" s="24">
+      <c r="A55" s="20">
+        <v>53.0</v>
+      </c>
+      <c r="B55" s="24">
+        <v>44226.0</v>
+      </c>
+      <c r="C55" s="25">
+        <f t="shared" si="1"/>
+        <v>44226</v>
+      </c>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="20">
         <v>54.0</v>
       </c>
-      <c r="B55" s="25">
-        <v>44226.0</v>
-      </c>
-      <c r="C55" s="26">
-        <f t="shared" si="1"/>
-        <v>44226</v>
-      </c>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="24">
-        <v>55.0</v>
-      </c>
-      <c r="B56" s="25">
+      <c r="B56" s="24">
         <v>44227.0</v>
       </c>
-      <c r="C56" s="26">
+      <c r="C56" s="25">
         <f t="shared" si="1"/>
         <v>44227</v>
       </c>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
     </row>
     <row r="57">
       <c r="A57" s="20">
-        <v>56.0</v>
+        <v>55.0</v>
       </c>
       <c r="B57" s="21">
         <v>44228.0</v>
@@ -4104,7 +4168,7 @@
     </row>
     <row r="58">
       <c r="A58" s="20">
-        <v>57.0</v>
+        <v>56.0</v>
       </c>
       <c r="B58" s="21">
         <v>44229.0</v>
@@ -4118,7 +4182,7 @@
     </row>
     <row r="59">
       <c r="A59" s="20">
-        <v>58.0</v>
+        <v>57.0</v>
       </c>
       <c r="B59" s="21">
         <v>44230.0</v>
@@ -4132,7 +4196,7 @@
     </row>
     <row r="60">
       <c r="A60" s="20">
-        <v>59.0</v>
+        <v>58.0</v>
       </c>
       <c r="B60" s="21">
         <v>44231.0</v>
@@ -4146,7 +4210,7 @@
     </row>
     <row r="61">
       <c r="A61" s="20">
-        <v>60.0</v>
+        <v>59.0</v>
       </c>
       <c r="B61" s="21">
         <v>44232.0</v>
@@ -4159,36 +4223,36 @@
       <c r="E61" s="23"/>
     </row>
     <row r="62">
-      <c r="A62" s="24">
+      <c r="A62" s="20">
+        <v>60.0</v>
+      </c>
+      <c r="B62" s="24">
+        <v>44233.0</v>
+      </c>
+      <c r="C62" s="25">
+        <f t="shared" si="1"/>
+        <v>44233</v>
+      </c>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="20">
         <v>61.0</v>
       </c>
-      <c r="B62" s="25">
-        <v>44233.0</v>
-      </c>
-      <c r="C62" s="26">
-        <f t="shared" si="1"/>
-        <v>44233</v>
-      </c>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="24">
-        <v>62.0</v>
-      </c>
-      <c r="B63" s="25">
+      <c r="B63" s="24">
         <v>44234.0</v>
       </c>
-      <c r="C63" s="26">
+      <c r="C63" s="25">
         <f t="shared" si="1"/>
         <v>44234</v>
       </c>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
     </row>
     <row r="64">
       <c r="A64" s="20">
-        <v>63.0</v>
+        <v>62.0</v>
       </c>
       <c r="B64" s="21">
         <v>44235.0</v>
@@ -4202,7 +4266,7 @@
     </row>
     <row r="65">
       <c r="A65" s="20">
-        <v>64.0</v>
+        <v>63.0</v>
       </c>
       <c r="B65" s="21">
         <v>44236.0</v>
@@ -4216,7 +4280,7 @@
     </row>
     <row r="66">
       <c r="A66" s="20">
-        <v>65.0</v>
+        <v>64.0</v>
       </c>
       <c r="B66" s="21">
         <v>44237.0</v>
@@ -4230,7 +4294,7 @@
     </row>
     <row r="67">
       <c r="A67" s="20">
-        <v>66.0</v>
+        <v>65.0</v>
       </c>
       <c r="B67" s="21">
         <v>44238.0</v>
@@ -4244,7 +4308,7 @@
     </row>
     <row r="68">
       <c r="A68" s="20">
-        <v>67.0</v>
+        <v>66.0</v>
       </c>
       <c r="B68" s="21">
         <v>44239.0</v>
@@ -4257,36 +4321,36 @@
       <c r="E68" s="23"/>
     </row>
     <row r="69">
-      <c r="A69" s="24">
+      <c r="A69" s="20">
+        <v>67.0</v>
+      </c>
+      <c r="B69" s="24">
+        <v>44240.0</v>
+      </c>
+      <c r="C69" s="25">
+        <f t="shared" si="1"/>
+        <v>44240</v>
+      </c>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="20">
         <v>68.0</v>
       </c>
-      <c r="B69" s="25">
-        <v>44240.0</v>
-      </c>
-      <c r="C69" s="26">
-        <f t="shared" si="1"/>
-        <v>44240</v>
-      </c>
-      <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="24">
-        <v>69.0</v>
-      </c>
-      <c r="B70" s="25">
+      <c r="B70" s="24">
         <v>44241.0</v>
       </c>
-      <c r="C70" s="26">
+      <c r="C70" s="25">
         <f t="shared" si="1"/>
         <v>44241</v>
       </c>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
     </row>
     <row r="71">
       <c r="A71" s="20">
-        <v>70.0</v>
+        <v>69.0</v>
       </c>
       <c r="B71" s="21">
         <v>44242.0</v>
@@ -4300,7 +4364,7 @@
     </row>
     <row r="72">
       <c r="A72" s="20">
-        <v>71.0</v>
+        <v>70.0</v>
       </c>
       <c r="B72" s="21">
         <v>44243.0</v>
@@ -4314,7 +4378,7 @@
     </row>
     <row r="73">
       <c r="A73" s="20">
-        <v>72.0</v>
+        <v>71.0</v>
       </c>
       <c r="B73" s="21">
         <v>44244.0</v>
@@ -4328,7 +4392,7 @@
     </row>
     <row r="74">
       <c r="A74" s="20">
-        <v>73.0</v>
+        <v>72.0</v>
       </c>
       <c r="B74" s="21">
         <v>44245.0</v>
@@ -4342,7 +4406,7 @@
     </row>
     <row r="75">
       <c r="A75" s="20">
-        <v>74.0</v>
+        <v>73.0</v>
       </c>
       <c r="B75" s="21">
         <v>44246.0</v>
@@ -4355,38 +4419,38 @@
       <c r="E75" s="23"/>
     </row>
     <row r="76">
-      <c r="A76" s="24">
+      <c r="A76" s="20">
+        <v>74.0</v>
+      </c>
+      <c r="B76" s="24">
+        <v>44247.0</v>
+      </c>
+      <c r="C76" s="25">
+        <f t="shared" si="1"/>
+        <v>44247</v>
+      </c>
+      <c r="D76" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="E76" s="26"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="20">
         <v>75.0</v>
       </c>
-      <c r="B76" s="25">
-        <v>44247.0</v>
-      </c>
-      <c r="C76" s="26">
-        <f t="shared" si="1"/>
-        <v>44247</v>
-      </c>
-      <c r="D76" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="E76" s="27"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="24">
-        <v>76.0</v>
-      </c>
-      <c r="B77" s="25">
+      <c r="B77" s="24">
         <v>44248.0</v>
       </c>
-      <c r="C77" s="26">
+      <c r="C77" s="25">
         <f t="shared" si="1"/>
         <v>44248</v>
       </c>
-      <c r="D77" s="27"/>
-      <c r="E77" s="27"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="26"/>
     </row>
     <row r="78">
       <c r="A78" s="20">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="B78" s="21">
         <v>44249.0</v>
@@ -4400,7 +4464,7 @@
     </row>
     <row r="79">
       <c r="A79" s="20">
-        <v>78.0</v>
+        <v>77.0</v>
       </c>
       <c r="B79" s="21">
         <v>44250.0</v>
@@ -4414,7 +4478,7 @@
     </row>
     <row r="80">
       <c r="A80" s="20">
-        <v>79.0</v>
+        <v>78.0</v>
       </c>
       <c r="B80" s="21">
         <v>44251.0</v>
@@ -4428,7 +4492,7 @@
     </row>
     <row r="81">
       <c r="A81" s="20">
-        <v>80.0</v>
+        <v>79.0</v>
       </c>
       <c r="B81" s="21">
         <v>44252.0</v>
@@ -4442,7 +4506,7 @@
     </row>
     <row r="82">
       <c r="A82" s="20">
-        <v>81.0</v>
+        <v>80.0</v>
       </c>
       <c r="B82" s="21">
         <v>44253.0</v>
@@ -4455,36 +4519,36 @@
       <c r="E82" s="23"/>
     </row>
     <row r="83">
-      <c r="A83" s="24">
+      <c r="A83" s="20">
+        <v>81.0</v>
+      </c>
+      <c r="B83" s="24">
+        <v>44254.0</v>
+      </c>
+      <c r="C83" s="25">
+        <f t="shared" si="1"/>
+        <v>44254</v>
+      </c>
+      <c r="D83" s="26"/>
+      <c r="E83" s="26"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="20">
         <v>82.0</v>
       </c>
-      <c r="B83" s="25">
-        <v>44254.0</v>
-      </c>
-      <c r="C83" s="26">
-        <f t="shared" si="1"/>
-        <v>44254</v>
-      </c>
-      <c r="D83" s="27"/>
-      <c r="E83" s="27"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="24">
-        <v>83.0</v>
-      </c>
-      <c r="B84" s="25">
+      <c r="B84" s="24">
         <v>44255.0</v>
       </c>
-      <c r="C84" s="26">
+      <c r="C84" s="25">
         <f t="shared" si="1"/>
         <v>44255</v>
       </c>
-      <c r="D84" s="27"/>
-      <c r="E84" s="27"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="26"/>
     </row>
     <row r="85">
       <c r="A85" s="20">
-        <v>84.0</v>
+        <v>83.0</v>
       </c>
       <c r="B85" s="21">
         <v>44256.0</v>
@@ -4498,7 +4562,7 @@
     </row>
     <row r="86">
       <c r="A86" s="20">
-        <v>85.0</v>
+        <v>84.0</v>
       </c>
       <c r="B86" s="21">
         <v>44257.0</v>
@@ -4512,7 +4576,7 @@
     </row>
     <row r="87">
       <c r="A87" s="20">
-        <v>86.0</v>
+        <v>85.0</v>
       </c>
       <c r="B87" s="21">
         <v>44258.0</v>
@@ -4526,7 +4590,7 @@
     </row>
     <row r="88">
       <c r="A88" s="20">
-        <v>87.0</v>
+        <v>86.0</v>
       </c>
       <c r="B88" s="21">
         <v>44259.0</v>
@@ -4540,7 +4604,7 @@
     </row>
     <row r="89">
       <c r="A89" s="20">
-        <v>88.0</v>
+        <v>87.0</v>
       </c>
       <c r="B89" s="21">
         <v>44260.0</v>
@@ -4553,36 +4617,36 @@
       <c r="E89" s="23"/>
     </row>
     <row r="90">
-      <c r="A90" s="24">
+      <c r="A90" s="20">
+        <v>88.0</v>
+      </c>
+      <c r="B90" s="24">
+        <v>44261.0</v>
+      </c>
+      <c r="C90" s="25">
+        <f t="shared" si="1"/>
+        <v>44261</v>
+      </c>
+      <c r="D90" s="26"/>
+      <c r="E90" s="26"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="20">
         <v>89.0</v>
       </c>
-      <c r="B90" s="25">
-        <v>44261.0</v>
-      </c>
-      <c r="C90" s="26">
-        <f t="shared" si="1"/>
-        <v>44261</v>
-      </c>
-      <c r="D90" s="27"/>
-      <c r="E90" s="27"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="24">
-        <v>90.0</v>
-      </c>
-      <c r="B91" s="25">
+      <c r="B91" s="24">
         <v>44262.0</v>
       </c>
-      <c r="C91" s="26">
+      <c r="C91" s="25">
         <f t="shared" si="1"/>
         <v>44262</v>
       </c>
-      <c r="D91" s="27"/>
-      <c r="E91" s="27"/>
+      <c r="D91" s="26"/>
+      <c r="E91" s="26"/>
     </row>
     <row r="92">
       <c r="A92" s="20">
-        <v>91.0</v>
+        <v>90.0</v>
       </c>
       <c r="B92" s="21">
         <v>44263.0</v>
@@ -4596,7 +4660,7 @@
     </row>
     <row r="93">
       <c r="A93" s="20">
-        <v>92.0</v>
+        <v>91.0</v>
       </c>
       <c r="B93" s="21">
         <v>44264.0</v>
@@ -4610,7 +4674,7 @@
     </row>
     <row r="94">
       <c r="A94" s="20">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
       <c r="B94" s="21">
         <v>44265.0</v>
@@ -4624,7 +4688,7 @@
     </row>
     <row r="95">
       <c r="A95" s="20">
-        <v>94.0</v>
+        <v>93.0</v>
       </c>
       <c r="B95" s="21">
         <v>44266.0</v>
@@ -4638,7 +4702,7 @@
     </row>
     <row r="96">
       <c r="A96" s="20">
-        <v>95.0</v>
+        <v>94.0</v>
       </c>
       <c r="B96" s="21">
         <v>44267.0</v>
@@ -4651,36 +4715,36 @@
       <c r="E96" s="23"/>
     </row>
     <row r="97">
-      <c r="A97" s="24">
+      <c r="A97" s="20">
+        <v>95.0</v>
+      </c>
+      <c r="B97" s="24">
+        <v>44268.0</v>
+      </c>
+      <c r="C97" s="25">
+        <f t="shared" si="1"/>
+        <v>44268</v>
+      </c>
+      <c r="D97" s="26"/>
+      <c r="E97" s="26"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="20">
         <v>96.0</v>
       </c>
-      <c r="B97" s="25">
-        <v>44268.0</v>
-      </c>
-      <c r="C97" s="26">
-        <f t="shared" si="1"/>
-        <v>44268</v>
-      </c>
-      <c r="D97" s="27"/>
-      <c r="E97" s="27"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="24">
-        <v>97.0</v>
-      </c>
-      <c r="B98" s="25">
+      <c r="B98" s="24">
         <v>44269.0</v>
       </c>
-      <c r="C98" s="26">
+      <c r="C98" s="25">
         <f t="shared" si="1"/>
         <v>44269</v>
       </c>
-      <c r="D98" s="27"/>
-      <c r="E98" s="27"/>
+      <c r="D98" s="26"/>
+      <c r="E98" s="26"/>
     </row>
     <row r="99">
       <c r="A99" s="20">
-        <v>98.0</v>
+        <v>97.0</v>
       </c>
       <c r="B99" s="21">
         <v>44270.0</v>
@@ -4694,7 +4758,7 @@
     </row>
     <row r="100">
       <c r="A100" s="20">
-        <v>99.0</v>
+        <v>98.0</v>
       </c>
       <c r="B100" s="21">
         <v>44271.0</v>
@@ -4708,7 +4772,7 @@
     </row>
     <row r="101">
       <c r="A101" s="20">
-        <v>100.0</v>
+        <v>99.0</v>
       </c>
       <c r="B101" s="21">
         <v>44272.0</v>
@@ -4717,10 +4781,3767 @@
         <f t="shared" si="1"/>
         <v>44272</v>
       </c>
-      <c r="D101" s="20" t="s">
+      <c r="E101" s="23"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="20">
+        <v>100.0</v>
+      </c>
+      <c r="B102" s="21">
+        <v>44273.0</v>
+      </c>
+      <c r="C102" s="22">
+        <f t="shared" si="1"/>
+        <v>44273</v>
+      </c>
+      <c r="D102" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="E102" s="23"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="28">
+        <v>101.0</v>
+      </c>
+      <c r="B103" s="29">
+        <v>44274.0</v>
+      </c>
+      <c r="C103" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="E101" s="23"/>
+      <c r="D103" s="20"/>
+      <c r="E103" s="23"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="28">
+        <v>102.0</v>
+      </c>
+      <c r="B104" s="29">
+        <v>44275.0</v>
+      </c>
+      <c r="C104" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="D104" s="20"/>
+      <c r="E104" s="23"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="28">
+        <v>103.0</v>
+      </c>
+      <c r="B105" s="31">
+        <v>44276.0</v>
+      </c>
+      <c r="C105" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="D105" s="20"/>
+      <c r="E105" s="23"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="28">
+        <v>104.0</v>
+      </c>
+      <c r="B106" s="31">
+        <v>44277.0</v>
+      </c>
+      <c r="C106" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D106" s="20"/>
+      <c r="E106" s="23"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="28">
+        <v>105.0</v>
+      </c>
+      <c r="B107" s="31">
+        <v>44278.0</v>
+      </c>
+      <c r="C107" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D107" s="20"/>
+      <c r="E107" s="23"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="28">
+        <v>106.0</v>
+      </c>
+      <c r="B108" s="29">
+        <v>44279.0</v>
+      </c>
+      <c r="C108" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="D108" s="20"/>
+      <c r="E108" s="23"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="28">
+        <v>107.0</v>
+      </c>
+      <c r="B109" s="29">
+        <v>44280.0</v>
+      </c>
+      <c r="C109" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="D109" s="20"/>
+      <c r="E109" s="23"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="28">
+        <v>108.0</v>
+      </c>
+      <c r="B110" s="29">
+        <v>44281.0</v>
+      </c>
+      <c r="C110" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="D110" s="20"/>
+      <c r="E110" s="23"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="28">
+        <v>109.0</v>
+      </c>
+      <c r="B111" s="31">
+        <v>44282.0</v>
+      </c>
+      <c r="C111" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="D111" s="20"/>
+      <c r="E111" s="23"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="28">
+        <v>110.0</v>
+      </c>
+      <c r="B112" s="31">
+        <v>44283.0</v>
+      </c>
+      <c r="C112" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="D112" s="20"/>
+      <c r="E112" s="23"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="28">
+        <v>111.0</v>
+      </c>
+      <c r="B113" s="31">
+        <v>44284.0</v>
+      </c>
+      <c r="C113" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D113" s="20"/>
+      <c r="E113" s="23"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="28">
+        <v>112.0</v>
+      </c>
+      <c r="B114" s="29">
+        <v>44285.0</v>
+      </c>
+      <c r="C114" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="D114" s="20"/>
+      <c r="E114" s="23"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="28">
+        <v>113.0</v>
+      </c>
+      <c r="B115" s="29">
+        <v>44286.0</v>
+      </c>
+      <c r="C115" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D115" s="20"/>
+      <c r="E115" s="23"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="28">
+        <v>114.0</v>
+      </c>
+      <c r="B116" s="29">
+        <v>44287.0</v>
+      </c>
+      <c r="C116" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="D116" s="20"/>
+      <c r="E116" s="23"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="28">
+        <v>115.0</v>
+      </c>
+      <c r="B117" s="31">
+        <v>44288.0</v>
+      </c>
+      <c r="C117" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="D117" s="20"/>
+      <c r="E117" s="23"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="28">
+        <v>116.0</v>
+      </c>
+      <c r="B118" s="31">
+        <v>44289.0</v>
+      </c>
+      <c r="C118" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="D118" s="20"/>
+      <c r="E118" s="23"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="28">
+        <v>117.0</v>
+      </c>
+      <c r="B119" s="31">
+        <v>44290.0</v>
+      </c>
+      <c r="C119" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="D119" s="20"/>
+      <c r="E119" s="23"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="28">
+        <v>118.0</v>
+      </c>
+      <c r="B120" s="29">
+        <v>44291.0</v>
+      </c>
+      <c r="C120" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="D120" s="20"/>
+      <c r="E120" s="23"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="28">
+        <v>119.0</v>
+      </c>
+      <c r="B121" s="29">
+        <v>44292.0</v>
+      </c>
+      <c r="C121" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D121" s="20"/>
+      <c r="E121" s="23"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="28">
+        <v>120.0</v>
+      </c>
+      <c r="B122" s="29">
+        <v>44293.0</v>
+      </c>
+      <c r="C122" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D122" s="20"/>
+      <c r="E122" s="23"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="28">
+        <v>121.0</v>
+      </c>
+      <c r="B123" s="31">
+        <v>44294.0</v>
+      </c>
+      <c r="C123" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D123" s="20"/>
+      <c r="E123" s="23"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="28">
+        <v>122.0</v>
+      </c>
+      <c r="B124" s="31">
+        <v>44295.0</v>
+      </c>
+      <c r="C124" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="D124" s="20"/>
+      <c r="E124" s="23"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="28">
+        <v>123.0</v>
+      </c>
+      <c r="B125" s="31">
+        <v>44296.0</v>
+      </c>
+      <c r="C125" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="D125" s="20"/>
+      <c r="E125" s="23"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="28">
+        <v>124.0</v>
+      </c>
+      <c r="B126" s="29">
+        <v>44297.0</v>
+      </c>
+      <c r="C126" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="D126" s="20"/>
+      <c r="E126" s="23"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="28">
+        <v>125.0</v>
+      </c>
+      <c r="B127" s="29">
+        <v>44298.0</v>
+      </c>
+      <c r="C127" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D127" s="20"/>
+      <c r="E127" s="23"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="28">
+        <v>126.0</v>
+      </c>
+      <c r="B128" s="29">
+        <v>44299.0</v>
+      </c>
+      <c r="C128" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D128" s="20"/>
+      <c r="E128" s="23"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="28">
+        <v>127.0</v>
+      </c>
+      <c r="B129" s="31">
+        <v>44300.0</v>
+      </c>
+      <c r="C129" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="D129" s="20"/>
+      <c r="E129" s="23"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="28">
+        <v>128.0</v>
+      </c>
+      <c r="B130" s="31">
+        <v>44301.0</v>
+      </c>
+      <c r="C130" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="D130" s="20"/>
+      <c r="E130" s="23"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="28">
+        <v>129.0</v>
+      </c>
+      <c r="B131" s="31">
+        <v>44302.0</v>
+      </c>
+      <c r="C131" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="D131" s="20"/>
+      <c r="E131" s="23"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="28">
+        <v>130.0</v>
+      </c>
+      <c r="B132" s="29">
+        <v>44303.0</v>
+      </c>
+      <c r="C132" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="D132" s="20"/>
+      <c r="E132" s="23"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="28">
+        <v>131.0</v>
+      </c>
+      <c r="B133" s="29">
+        <v>44304.0</v>
+      </c>
+      <c r="C133" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="D133" s="20"/>
+      <c r="E133" s="23"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="28">
+        <v>132.0</v>
+      </c>
+      <c r="B134" s="29">
+        <v>44305.0</v>
+      </c>
+      <c r="C134" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D134" s="20"/>
+      <c r="E134" s="23"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="28">
+        <v>133.0</v>
+      </c>
+      <c r="B135" s="31">
+        <v>44306.0</v>
+      </c>
+      <c r="C135" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="D135" s="20"/>
+      <c r="E135" s="23"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="28">
+        <v>134.0</v>
+      </c>
+      <c r="B136" s="31">
+        <v>44307.0</v>
+      </c>
+      <c r="C136" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D136" s="20"/>
+      <c r="E136" s="23"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="28">
+        <v>135.0</v>
+      </c>
+      <c r="B137" s="31">
+        <v>44308.0</v>
+      </c>
+      <c r="C137" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="D137" s="20"/>
+      <c r="E137" s="23"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="28">
+        <v>136.0</v>
+      </c>
+      <c r="B138" s="29">
+        <v>44309.0</v>
+      </c>
+      <c r="C138" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="D138" s="20"/>
+      <c r="E138" s="23"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="28">
+        <v>137.0</v>
+      </c>
+      <c r="B139" s="29">
+        <v>44310.0</v>
+      </c>
+      <c r="C139" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="D139" s="20"/>
+      <c r="E139" s="23"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="28">
+        <v>138.0</v>
+      </c>
+      <c r="B140" s="29">
+        <v>44311.0</v>
+      </c>
+      <c r="C140" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="D140" s="20"/>
+      <c r="E140" s="23"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="28">
+        <v>139.0</v>
+      </c>
+      <c r="B141" s="31">
+        <v>44312.0</v>
+      </c>
+      <c r="C141" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="D141" s="20"/>
+      <c r="E141" s="23"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="28">
+        <v>140.0</v>
+      </c>
+      <c r="B142" s="31">
+        <v>44313.0</v>
+      </c>
+      <c r="C142" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D142" s="20"/>
+      <c r="E142" s="23"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="28">
+        <v>141.0</v>
+      </c>
+      <c r="B143" s="31">
+        <v>44314.0</v>
+      </c>
+      <c r="C143" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D143" s="20"/>
+      <c r="E143" s="23"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="28">
+        <v>142.0</v>
+      </c>
+      <c r="B144" s="29">
+        <v>44315.0</v>
+      </c>
+      <c r="C144" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D144" s="20"/>
+      <c r="E144" s="23"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="28">
+        <v>143.0</v>
+      </c>
+      <c r="B145" s="29">
+        <v>44316.0</v>
+      </c>
+      <c r="C145" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="D145" s="20"/>
+      <c r="E145" s="23"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="28">
+        <v>144.0</v>
+      </c>
+      <c r="B146" s="29">
+        <v>44317.0</v>
+      </c>
+      <c r="C146" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="D146" s="20"/>
+      <c r="E146" s="23"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="28">
+        <v>145.0</v>
+      </c>
+      <c r="B147" s="31">
+        <v>44318.0</v>
+      </c>
+      <c r="C147" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="D147" s="20"/>
+      <c r="E147" s="23"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="28">
+        <v>146.0</v>
+      </c>
+      <c r="B148" s="31">
+        <v>44319.0</v>
+      </c>
+      <c r="C148" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D148" s="20"/>
+      <c r="E148" s="23"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="28">
+        <v>147.0</v>
+      </c>
+      <c r="B149" s="31">
+        <v>44320.0</v>
+      </c>
+      <c r="C149" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D149" s="20"/>
+      <c r="E149" s="23"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="28">
+        <v>148.0</v>
+      </c>
+      <c r="B150" s="29">
+        <v>44321.0</v>
+      </c>
+      <c r="C150" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="D150" s="20"/>
+      <c r="E150" s="23"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="28">
+        <v>149.0</v>
+      </c>
+      <c r="B151" s="29">
+        <v>44322.0</v>
+      </c>
+      <c r="C151" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="D151" s="20"/>
+      <c r="E151" s="23"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="28">
+        <v>150.0</v>
+      </c>
+      <c r="B152" s="29">
+        <v>44323.0</v>
+      </c>
+      <c r="C152" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="D152" s="20"/>
+      <c r="E152" s="23"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="28">
+        <v>151.0</v>
+      </c>
+      <c r="B153" s="31">
+        <v>44324.0</v>
+      </c>
+      <c r="C153" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="D153" s="20"/>
+      <c r="E153" s="23"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="28">
+        <v>152.0</v>
+      </c>
+      <c r="B154" s="31">
+        <v>44325.0</v>
+      </c>
+      <c r="C154" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="D154" s="20"/>
+      <c r="E154" s="23"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="28">
+        <v>153.0</v>
+      </c>
+      <c r="B155" s="31">
+        <v>44326.0</v>
+      </c>
+      <c r="C155" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D155" s="20"/>
+      <c r="E155" s="23"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="28">
+        <v>154.0</v>
+      </c>
+      <c r="B156" s="29">
+        <v>44327.0</v>
+      </c>
+      <c r="C156" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="D156" s="20"/>
+      <c r="E156" s="23"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="28">
+        <v>155.0</v>
+      </c>
+      <c r="B157" s="29">
+        <v>44328.0</v>
+      </c>
+      <c r="C157" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D157" s="20"/>
+      <c r="E157" s="23"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="28">
+        <v>156.0</v>
+      </c>
+      <c r="B158" s="29">
+        <v>44329.0</v>
+      </c>
+      <c r="C158" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="D158" s="20"/>
+      <c r="E158" s="23"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="28">
+        <v>157.0</v>
+      </c>
+      <c r="B159" s="31">
+        <v>44330.0</v>
+      </c>
+      <c r="C159" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="D159" s="20"/>
+      <c r="E159" s="23"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="28">
+        <v>158.0</v>
+      </c>
+      <c r="B160" s="31">
+        <v>44331.0</v>
+      </c>
+      <c r="C160" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="D160" s="20"/>
+      <c r="E160" s="23"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="28">
+        <v>159.0</v>
+      </c>
+      <c r="B161" s="31">
+        <v>44332.0</v>
+      </c>
+      <c r="C161" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="D161" s="20"/>
+      <c r="E161" s="23"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="28">
+        <v>160.0</v>
+      </c>
+      <c r="B162" s="29">
+        <v>44333.0</v>
+      </c>
+      <c r="C162" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="D162" s="20"/>
+      <c r="E162" s="23"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="28">
+        <v>161.0</v>
+      </c>
+      <c r="B163" s="29">
+        <v>44334.0</v>
+      </c>
+      <c r="C163" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D163" s="20"/>
+      <c r="E163" s="23"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="28">
+        <v>162.0</v>
+      </c>
+      <c r="B164" s="29">
+        <v>44335.0</v>
+      </c>
+      <c r="C164" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D164" s="20"/>
+      <c r="E164" s="23"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="28">
+        <v>163.0</v>
+      </c>
+      <c r="B165" s="31">
+        <v>44336.0</v>
+      </c>
+      <c r="C165" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D165" s="20"/>
+      <c r="E165" s="23"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="28">
+        <v>164.0</v>
+      </c>
+      <c r="B166" s="31">
+        <v>44337.0</v>
+      </c>
+      <c r="C166" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="D166" s="20"/>
+      <c r="E166" s="23"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="28">
+        <v>165.0</v>
+      </c>
+      <c r="B167" s="31">
+        <v>44338.0</v>
+      </c>
+      <c r="C167" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="D167" s="20"/>
+      <c r="E167" s="23"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="28">
+        <v>166.0</v>
+      </c>
+      <c r="B168" s="29">
+        <v>44339.0</v>
+      </c>
+      <c r="C168" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="D168" s="20"/>
+      <c r="E168" s="23"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="28">
+        <v>167.0</v>
+      </c>
+      <c r="B169" s="29">
+        <v>44340.0</v>
+      </c>
+      <c r="C169" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D169" s="20"/>
+      <c r="E169" s="23"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="28">
+        <v>168.0</v>
+      </c>
+      <c r="B170" s="29">
+        <v>44341.0</v>
+      </c>
+      <c r="C170" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D170" s="20"/>
+      <c r="E170" s="23"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="28">
+        <v>169.0</v>
+      </c>
+      <c r="B171" s="31">
+        <v>44342.0</v>
+      </c>
+      <c r="C171" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="D171" s="20"/>
+      <c r="E171" s="23"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="28">
+        <v>170.0</v>
+      </c>
+      <c r="B172" s="31">
+        <v>44343.0</v>
+      </c>
+      <c r="C172" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="D172" s="20"/>
+      <c r="E172" s="23"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="28">
+        <v>171.0</v>
+      </c>
+      <c r="B173" s="31">
+        <v>44344.0</v>
+      </c>
+      <c r="C173" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="D173" s="20"/>
+      <c r="E173" s="23"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="28">
+        <v>172.0</v>
+      </c>
+      <c r="B174" s="29">
+        <v>44345.0</v>
+      </c>
+      <c r="C174" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="D174" s="20"/>
+      <c r="E174" s="23"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="28">
+        <v>173.0</v>
+      </c>
+      <c r="B175" s="29">
+        <v>44346.0</v>
+      </c>
+      <c r="C175" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="D175" s="20"/>
+      <c r="E175" s="23"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="28">
+        <v>174.0</v>
+      </c>
+      <c r="B176" s="29">
+        <v>44347.0</v>
+      </c>
+      <c r="C176" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D176" s="20"/>
+      <c r="E176" s="23"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="28">
+        <v>175.0</v>
+      </c>
+      <c r="B177" s="31">
+        <v>44348.0</v>
+      </c>
+      <c r="C177" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="D177" s="20"/>
+      <c r="E177" s="23"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="28">
+        <v>176.0</v>
+      </c>
+      <c r="B178" s="31">
+        <v>44349.0</v>
+      </c>
+      <c r="C178" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D178" s="20"/>
+      <c r="E178" s="23"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="28">
+        <v>177.0</v>
+      </c>
+      <c r="B179" s="31">
+        <v>44350.0</v>
+      </c>
+      <c r="C179" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="D179" s="20"/>
+      <c r="E179" s="23"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="28">
+        <v>178.0</v>
+      </c>
+      <c r="B180" s="29">
+        <v>44351.0</v>
+      </c>
+      <c r="C180" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="D180" s="20"/>
+      <c r="E180" s="23"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="28">
+        <v>179.0</v>
+      </c>
+      <c r="B181" s="29">
+        <v>44352.0</v>
+      </c>
+      <c r="C181" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="D181" s="20"/>
+      <c r="E181" s="23"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="28">
+        <v>180.0</v>
+      </c>
+      <c r="B182" s="29">
+        <v>44353.0</v>
+      </c>
+      <c r="C182" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="D182" s="20"/>
+      <c r="E182" s="23"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="28">
+        <v>181.0</v>
+      </c>
+      <c r="B183" s="31">
+        <v>44354.0</v>
+      </c>
+      <c r="C183" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="D183" s="20"/>
+      <c r="E183" s="23"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="28">
+        <v>182.0</v>
+      </c>
+      <c r="B184" s="31">
+        <v>44355.0</v>
+      </c>
+      <c r="C184" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D184" s="20"/>
+      <c r="E184" s="23"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="28">
+        <v>183.0</v>
+      </c>
+      <c r="B185" s="31">
+        <v>44356.0</v>
+      </c>
+      <c r="C185" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D185" s="20"/>
+      <c r="E185" s="23"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="28">
+        <v>184.0</v>
+      </c>
+      <c r="B186" s="29">
+        <v>44357.0</v>
+      </c>
+      <c r="C186" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D186" s="20"/>
+      <c r="E186" s="23"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="28">
+        <v>185.0</v>
+      </c>
+      <c r="B187" s="29">
+        <v>44358.0</v>
+      </c>
+      <c r="C187" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="D187" s="20"/>
+      <c r="E187" s="23"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="28">
+        <v>186.0</v>
+      </c>
+      <c r="B188" s="29">
+        <v>44359.0</v>
+      </c>
+      <c r="C188" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="D188" s="20"/>
+      <c r="E188" s="23"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="28">
+        <v>187.0</v>
+      </c>
+      <c r="B189" s="31">
+        <v>44360.0</v>
+      </c>
+      <c r="C189" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="D189" s="20"/>
+      <c r="E189" s="23"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="28">
+        <v>188.0</v>
+      </c>
+      <c r="B190" s="31">
+        <v>44361.0</v>
+      </c>
+      <c r="C190" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D190" s="20"/>
+      <c r="E190" s="23"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="28">
+        <v>189.0</v>
+      </c>
+      <c r="B191" s="31">
+        <v>44362.0</v>
+      </c>
+      <c r="C191" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D191" s="20"/>
+      <c r="E191" s="23"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="28">
+        <v>190.0</v>
+      </c>
+      <c r="B192" s="29">
+        <v>44363.0</v>
+      </c>
+      <c r="C192" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="D192" s="20"/>
+      <c r="E192" s="23"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="28">
+        <v>191.0</v>
+      </c>
+      <c r="B193" s="29">
+        <v>44364.0</v>
+      </c>
+      <c r="C193" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="D193" s="20"/>
+      <c r="E193" s="23"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="28">
+        <v>192.0</v>
+      </c>
+      <c r="B194" s="29">
+        <v>44365.0</v>
+      </c>
+      <c r="C194" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="D194" s="20"/>
+      <c r="E194" s="23"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="28">
+        <v>193.0</v>
+      </c>
+      <c r="B195" s="31">
+        <v>44366.0</v>
+      </c>
+      <c r="C195" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="D195" s="20"/>
+      <c r="E195" s="23"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="28">
+        <v>194.0</v>
+      </c>
+      <c r="B196" s="31">
+        <v>44367.0</v>
+      </c>
+      <c r="C196" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="D196" s="20"/>
+      <c r="E196" s="23"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="28">
+        <v>195.0</v>
+      </c>
+      <c r="B197" s="31">
+        <v>44368.0</v>
+      </c>
+      <c r="C197" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D197" s="20"/>
+      <c r="E197" s="23"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="28">
+        <v>196.0</v>
+      </c>
+      <c r="B198" s="29">
+        <v>44369.0</v>
+      </c>
+      <c r="C198" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="D198" s="20"/>
+      <c r="E198" s="23"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="28">
+        <v>197.0</v>
+      </c>
+      <c r="B199" s="29">
+        <v>44370.0</v>
+      </c>
+      <c r="C199" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D199" s="20"/>
+      <c r="E199" s="23"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="28">
+        <v>198.0</v>
+      </c>
+      <c r="B200" s="29">
+        <v>44371.0</v>
+      </c>
+      <c r="C200" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="D200" s="20"/>
+      <c r="E200" s="23"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="28">
+        <v>199.0</v>
+      </c>
+      <c r="B201" s="31">
+        <v>44372.0</v>
+      </c>
+      <c r="C201" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="D201" s="20"/>
+      <c r="E201" s="23"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="28">
+        <v>200.0</v>
+      </c>
+      <c r="B202" s="31">
+        <v>44373.0</v>
+      </c>
+      <c r="C202" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="D202" s="20"/>
+      <c r="E202" s="23"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="28">
+        <v>201.0</v>
+      </c>
+      <c r="B203" s="31">
+        <v>44374.0</v>
+      </c>
+      <c r="C203" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="D203" s="20"/>
+      <c r="E203" s="23"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="28">
+        <v>202.0</v>
+      </c>
+      <c r="B204" s="29">
+        <v>44375.0</v>
+      </c>
+      <c r="C204" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="D204" s="20"/>
+      <c r="E204" s="23"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="28">
+        <v>203.0</v>
+      </c>
+      <c r="B205" s="29">
+        <v>44376.0</v>
+      </c>
+      <c r="C205" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D205" s="20"/>
+      <c r="E205" s="23"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="28">
+        <v>204.0</v>
+      </c>
+      <c r="B206" s="29">
+        <v>44377.0</v>
+      </c>
+      <c r="C206" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D206" s="20"/>
+      <c r="E206" s="23"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="28">
+        <v>205.0</v>
+      </c>
+      <c r="B207" s="31">
+        <v>44378.0</v>
+      </c>
+      <c r="C207" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D207" s="20"/>
+      <c r="E207" s="23"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="28">
+        <v>206.0</v>
+      </c>
+      <c r="B208" s="31">
+        <v>44379.0</v>
+      </c>
+      <c r="C208" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="D208" s="20"/>
+      <c r="E208" s="23"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="28">
+        <v>207.0</v>
+      </c>
+      <c r="B209" s="31">
+        <v>44380.0</v>
+      </c>
+      <c r="C209" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="D209" s="20"/>
+      <c r="E209" s="23"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="28">
+        <v>208.0</v>
+      </c>
+      <c r="B210" s="29">
+        <v>44381.0</v>
+      </c>
+      <c r="C210" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="D210" s="20"/>
+      <c r="E210" s="23"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="28">
+        <v>209.0</v>
+      </c>
+      <c r="B211" s="29">
+        <v>44382.0</v>
+      </c>
+      <c r="C211" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D211" s="20"/>
+      <c r="E211" s="23"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="28">
+        <v>210.0</v>
+      </c>
+      <c r="B212" s="29">
+        <v>44383.0</v>
+      </c>
+      <c r="C212" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D212" s="20"/>
+      <c r="E212" s="23"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="28">
+        <v>211.0</v>
+      </c>
+      <c r="B213" s="31">
+        <v>44384.0</v>
+      </c>
+      <c r="C213" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="D213" s="20"/>
+      <c r="E213" s="23"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="28">
+        <v>212.0</v>
+      </c>
+      <c r="B214" s="31">
+        <v>44385.0</v>
+      </c>
+      <c r="C214" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="D214" s="20"/>
+      <c r="E214" s="23"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="28">
+        <v>213.0</v>
+      </c>
+      <c r="B215" s="31">
+        <v>44386.0</v>
+      </c>
+      <c r="C215" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="D215" s="20"/>
+      <c r="E215" s="23"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="28">
+        <v>214.0</v>
+      </c>
+      <c r="B216" s="29">
+        <v>44387.0</v>
+      </c>
+      <c r="C216" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="D216" s="20"/>
+      <c r="E216" s="23"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="28">
+        <v>215.0</v>
+      </c>
+      <c r="B217" s="29">
+        <v>44388.0</v>
+      </c>
+      <c r="C217" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="D217" s="20"/>
+      <c r="E217" s="23"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="28">
+        <v>216.0</v>
+      </c>
+      <c r="B218" s="29">
+        <v>44389.0</v>
+      </c>
+      <c r="C218" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D218" s="20"/>
+      <c r="E218" s="23"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="28">
+        <v>217.0</v>
+      </c>
+      <c r="B219" s="31">
+        <v>44390.0</v>
+      </c>
+      <c r="C219" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="D219" s="20"/>
+      <c r="E219" s="23"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="28">
+        <v>218.0</v>
+      </c>
+      <c r="B220" s="31">
+        <v>44391.0</v>
+      </c>
+      <c r="C220" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D220" s="20"/>
+      <c r="E220" s="23"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="28">
+        <v>219.0</v>
+      </c>
+      <c r="B221" s="31">
+        <v>44392.0</v>
+      </c>
+      <c r="C221" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="D221" s="20"/>
+      <c r="E221" s="23"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="28">
+        <v>220.0</v>
+      </c>
+      <c r="B222" s="29">
+        <v>44393.0</v>
+      </c>
+      <c r="C222" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="D222" s="20"/>
+      <c r="E222" s="23"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="28">
+        <v>221.0</v>
+      </c>
+      <c r="B223" s="29">
+        <v>44394.0</v>
+      </c>
+      <c r="C223" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="D223" s="20"/>
+      <c r="E223" s="23"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="28">
+        <v>222.0</v>
+      </c>
+      <c r="B224" s="29">
+        <v>44395.0</v>
+      </c>
+      <c r="C224" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="D224" s="20"/>
+      <c r="E224" s="23"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="28">
+        <v>223.0</v>
+      </c>
+      <c r="B225" s="31">
+        <v>44396.0</v>
+      </c>
+      <c r="C225" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="D225" s="20"/>
+      <c r="E225" s="23"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="28">
+        <v>224.0</v>
+      </c>
+      <c r="B226" s="31">
+        <v>44397.0</v>
+      </c>
+      <c r="C226" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D226" s="20"/>
+      <c r="E226" s="23"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="28">
+        <v>225.0</v>
+      </c>
+      <c r="B227" s="31">
+        <v>44398.0</v>
+      </c>
+      <c r="C227" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D227" s="20"/>
+      <c r="E227" s="23"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="28">
+        <v>226.0</v>
+      </c>
+      <c r="B228" s="29">
+        <v>44399.0</v>
+      </c>
+      <c r="C228" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D228" s="20"/>
+      <c r="E228" s="23"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="28">
+        <v>227.0</v>
+      </c>
+      <c r="B229" s="29">
+        <v>44400.0</v>
+      </c>
+      <c r="C229" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="D229" s="20"/>
+      <c r="E229" s="23"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="28">
+        <v>228.0</v>
+      </c>
+      <c r="B230" s="29">
+        <v>44401.0</v>
+      </c>
+      <c r="C230" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="D230" s="20"/>
+      <c r="E230" s="23"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="28">
+        <v>229.0</v>
+      </c>
+      <c r="B231" s="31">
+        <v>44402.0</v>
+      </c>
+      <c r="C231" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="D231" s="20"/>
+      <c r="E231" s="23"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="28">
+        <v>230.0</v>
+      </c>
+      <c r="B232" s="31">
+        <v>44403.0</v>
+      </c>
+      <c r="C232" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D232" s="20"/>
+      <c r="E232" s="23"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="28">
+        <v>231.0</v>
+      </c>
+      <c r="B233" s="31">
+        <v>44404.0</v>
+      </c>
+      <c r="C233" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D233" s="20"/>
+      <c r="E233" s="23"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="28">
+        <v>232.0</v>
+      </c>
+      <c r="B234" s="29">
+        <v>44405.0</v>
+      </c>
+      <c r="C234" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="D234" s="20"/>
+      <c r="E234" s="23"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="28">
+        <v>233.0</v>
+      </c>
+      <c r="B235" s="29">
+        <v>44406.0</v>
+      </c>
+      <c r="C235" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="D235" s="20"/>
+      <c r="E235" s="23"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="28">
+        <v>234.0</v>
+      </c>
+      <c r="B236" s="29">
+        <v>44407.0</v>
+      </c>
+      <c r="C236" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="D236" s="20"/>
+      <c r="E236" s="23"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="28">
+        <v>235.0</v>
+      </c>
+      <c r="B237" s="31">
+        <v>44408.0</v>
+      </c>
+      <c r="C237" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="D237" s="20"/>
+      <c r="E237" s="23"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="28">
+        <v>236.0</v>
+      </c>
+      <c r="B238" s="31">
+        <v>44409.0</v>
+      </c>
+      <c r="C238" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="D238" s="20"/>
+      <c r="E238" s="23"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="28">
+        <v>237.0</v>
+      </c>
+      <c r="B239" s="31">
+        <v>44410.0</v>
+      </c>
+      <c r="C239" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D239" s="20"/>
+      <c r="E239" s="23"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="28">
+        <v>238.0</v>
+      </c>
+      <c r="B240" s="29">
+        <v>44411.0</v>
+      </c>
+      <c r="C240" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="D240" s="20"/>
+      <c r="E240" s="23"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="28">
+        <v>239.0</v>
+      </c>
+      <c r="B241" s="29">
+        <v>44412.0</v>
+      </c>
+      <c r="C241" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D241" s="20"/>
+      <c r="E241" s="23"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="28">
+        <v>240.0</v>
+      </c>
+      <c r="B242" s="29">
+        <v>44413.0</v>
+      </c>
+      <c r="C242" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="D242" s="20"/>
+      <c r="E242" s="23"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="28">
+        <v>241.0</v>
+      </c>
+      <c r="B243" s="31">
+        <v>44414.0</v>
+      </c>
+      <c r="C243" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="D243" s="20"/>
+      <c r="E243" s="23"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="28">
+        <v>242.0</v>
+      </c>
+      <c r="B244" s="31">
+        <v>44415.0</v>
+      </c>
+      <c r="C244" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="D244" s="20"/>
+      <c r="E244" s="23"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="28">
+        <v>243.0</v>
+      </c>
+      <c r="B245" s="31">
+        <v>44416.0</v>
+      </c>
+      <c r="C245" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="D245" s="20"/>
+      <c r="E245" s="23"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="28">
+        <v>244.0</v>
+      </c>
+      <c r="B246" s="29">
+        <v>44417.0</v>
+      </c>
+      <c r="C246" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="D246" s="20"/>
+      <c r="E246" s="23"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="28">
+        <v>245.0</v>
+      </c>
+      <c r="B247" s="29">
+        <v>44418.0</v>
+      </c>
+      <c r="C247" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D247" s="20"/>
+      <c r="E247" s="23"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="28">
+        <v>246.0</v>
+      </c>
+      <c r="B248" s="29">
+        <v>44419.0</v>
+      </c>
+      <c r="C248" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D248" s="20"/>
+      <c r="E248" s="23"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="28">
+        <v>247.0</v>
+      </c>
+      <c r="B249" s="31">
+        <v>44420.0</v>
+      </c>
+      <c r="C249" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D249" s="20"/>
+      <c r="E249" s="23"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="28">
+        <v>248.0</v>
+      </c>
+      <c r="B250" s="31">
+        <v>44421.0</v>
+      </c>
+      <c r="C250" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="D250" s="20"/>
+      <c r="E250" s="23"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="28">
+        <v>249.0</v>
+      </c>
+      <c r="B251" s="31">
+        <v>44422.0</v>
+      </c>
+      <c r="C251" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="D251" s="20"/>
+      <c r="E251" s="23"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="28">
+        <v>250.0</v>
+      </c>
+      <c r="B252" s="29">
+        <v>44423.0</v>
+      </c>
+      <c r="C252" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="D252" s="20"/>
+      <c r="E252" s="23"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="28">
+        <v>251.0</v>
+      </c>
+      <c r="B253" s="29">
+        <v>44424.0</v>
+      </c>
+      <c r="C253" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D253" s="20"/>
+      <c r="E253" s="23"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="28">
+        <v>252.0</v>
+      </c>
+      <c r="B254" s="29">
+        <v>44425.0</v>
+      </c>
+      <c r="C254" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D254" s="20"/>
+      <c r="E254" s="23"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="28">
+        <v>253.0</v>
+      </c>
+      <c r="B255" s="31">
+        <v>44426.0</v>
+      </c>
+      <c r="C255" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="D255" s="20"/>
+      <c r="E255" s="23"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="28">
+        <v>254.0</v>
+      </c>
+      <c r="B256" s="31">
+        <v>44427.0</v>
+      </c>
+      <c r="C256" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="D256" s="20"/>
+      <c r="E256" s="23"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="28">
+        <v>255.0</v>
+      </c>
+      <c r="B257" s="31">
+        <v>44428.0</v>
+      </c>
+      <c r="C257" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="D257" s="20"/>
+      <c r="E257" s="23"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="28">
+        <v>256.0</v>
+      </c>
+      <c r="B258" s="29">
+        <v>44429.0</v>
+      </c>
+      <c r="C258" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="D258" s="20"/>
+      <c r="E258" s="23"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="28">
+        <v>257.0</v>
+      </c>
+      <c r="B259" s="29">
+        <v>44430.0</v>
+      </c>
+      <c r="C259" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="D259" s="20"/>
+      <c r="E259" s="23"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="28">
+        <v>258.0</v>
+      </c>
+      <c r="B260" s="29">
+        <v>44431.0</v>
+      </c>
+      <c r="C260" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D260" s="20"/>
+      <c r="E260" s="23"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="28">
+        <v>259.0</v>
+      </c>
+      <c r="B261" s="31">
+        <v>44432.0</v>
+      </c>
+      <c r="C261" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="D261" s="20"/>
+      <c r="E261" s="23"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="28">
+        <v>260.0</v>
+      </c>
+      <c r="B262" s="31">
+        <v>44433.0</v>
+      </c>
+      <c r="C262" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D262" s="20"/>
+      <c r="E262" s="23"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="28">
+        <v>261.0</v>
+      </c>
+      <c r="B263" s="31">
+        <v>44434.0</v>
+      </c>
+      <c r="C263" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="D263" s="20"/>
+      <c r="E263" s="23"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="28">
+        <v>262.0</v>
+      </c>
+      <c r="B264" s="29">
+        <v>44435.0</v>
+      </c>
+      <c r="C264" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="D264" s="20"/>
+      <c r="E264" s="23"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="28">
+        <v>263.0</v>
+      </c>
+      <c r="B265" s="29">
+        <v>44436.0</v>
+      </c>
+      <c r="C265" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="D265" s="20"/>
+      <c r="E265" s="23"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="28">
+        <v>264.0</v>
+      </c>
+      <c r="B266" s="29">
+        <v>44437.0</v>
+      </c>
+      <c r="C266" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="D266" s="20"/>
+      <c r="E266" s="23"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="28">
+        <v>265.0</v>
+      </c>
+      <c r="B267" s="31">
+        <v>44438.0</v>
+      </c>
+      <c r="C267" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="D267" s="20"/>
+      <c r="E267" s="23"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="28">
+        <v>266.0</v>
+      </c>
+      <c r="B268" s="31">
+        <v>44439.0</v>
+      </c>
+      <c r="C268" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D268" s="20"/>
+      <c r="E268" s="23"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="28">
+        <v>267.0</v>
+      </c>
+      <c r="B269" s="31">
+        <v>44440.0</v>
+      </c>
+      <c r="C269" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D269" s="20"/>
+      <c r="E269" s="23"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="28">
+        <v>268.0</v>
+      </c>
+      <c r="B270" s="29">
+        <v>44441.0</v>
+      </c>
+      <c r="C270" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D270" s="20"/>
+      <c r="E270" s="23"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="28">
+        <v>269.0</v>
+      </c>
+      <c r="B271" s="29">
+        <v>44442.0</v>
+      </c>
+      <c r="C271" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="D271" s="20"/>
+      <c r="E271" s="23"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="28">
+        <v>270.0</v>
+      </c>
+      <c r="B272" s="29">
+        <v>44443.0</v>
+      </c>
+      <c r="C272" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="D272" s="20"/>
+      <c r="E272" s="23"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="28">
+        <v>271.0</v>
+      </c>
+      <c r="B273" s="31">
+        <v>44444.0</v>
+      </c>
+      <c r="C273" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="D273" s="20"/>
+      <c r="E273" s="23"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="28">
+        <v>272.0</v>
+      </c>
+      <c r="B274" s="31">
+        <v>44445.0</v>
+      </c>
+      <c r="C274" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D274" s="20"/>
+      <c r="E274" s="23"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="28">
+        <v>273.0</v>
+      </c>
+      <c r="B275" s="31">
+        <v>44446.0</v>
+      </c>
+      <c r="C275" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D275" s="20"/>
+      <c r="E275" s="23"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="28">
+        <v>274.0</v>
+      </c>
+      <c r="B276" s="29">
+        <v>44447.0</v>
+      </c>
+      <c r="C276" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="D276" s="20"/>
+      <c r="E276" s="23"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="28">
+        <v>275.0</v>
+      </c>
+      <c r="B277" s="29">
+        <v>44448.0</v>
+      </c>
+      <c r="C277" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="D277" s="20"/>
+      <c r="E277" s="23"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="28">
+        <v>276.0</v>
+      </c>
+      <c r="B278" s="29">
+        <v>44449.0</v>
+      </c>
+      <c r="C278" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="D278" s="20"/>
+      <c r="E278" s="23"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="28">
+        <v>277.0</v>
+      </c>
+      <c r="B279" s="31">
+        <v>44450.0</v>
+      </c>
+      <c r="C279" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="D279" s="20"/>
+      <c r="E279" s="23"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="28">
+        <v>278.0</v>
+      </c>
+      <c r="B280" s="31">
+        <v>44451.0</v>
+      </c>
+      <c r="C280" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="D280" s="20"/>
+      <c r="E280" s="23"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="28">
+        <v>279.0</v>
+      </c>
+      <c r="B281" s="31">
+        <v>44452.0</v>
+      </c>
+      <c r="C281" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D281" s="20"/>
+      <c r="E281" s="23"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="28">
+        <v>280.0</v>
+      </c>
+      <c r="B282" s="29">
+        <v>44453.0</v>
+      </c>
+      <c r="C282" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="D282" s="20"/>
+      <c r="E282" s="23"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="28">
+        <v>281.0</v>
+      </c>
+      <c r="B283" s="29">
+        <v>44454.0</v>
+      </c>
+      <c r="C283" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D283" s="20"/>
+      <c r="E283" s="23"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="28">
+        <v>282.0</v>
+      </c>
+      <c r="B284" s="29">
+        <v>44455.0</v>
+      </c>
+      <c r="C284" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="D284" s="20"/>
+      <c r="E284" s="23"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="28">
+        <v>283.0</v>
+      </c>
+      <c r="B285" s="31">
+        <v>44456.0</v>
+      </c>
+      <c r="C285" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="D285" s="20"/>
+      <c r="E285" s="23"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="28">
+        <v>284.0</v>
+      </c>
+      <c r="B286" s="31">
+        <v>44457.0</v>
+      </c>
+      <c r="C286" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="D286" s="20"/>
+      <c r="E286" s="23"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="28">
+        <v>285.0</v>
+      </c>
+      <c r="B287" s="31">
+        <v>44458.0</v>
+      </c>
+      <c r="C287" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="D287" s="20"/>
+      <c r="E287" s="23"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="28">
+        <v>286.0</v>
+      </c>
+      <c r="B288" s="29">
+        <v>44459.0</v>
+      </c>
+      <c r="C288" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="D288" s="20"/>
+      <c r="E288" s="23"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="28">
+        <v>287.0</v>
+      </c>
+      <c r="B289" s="29">
+        <v>44460.0</v>
+      </c>
+      <c r="C289" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D289" s="20"/>
+      <c r="E289" s="23"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="28">
+        <v>288.0</v>
+      </c>
+      <c r="B290" s="29">
+        <v>44461.0</v>
+      </c>
+      <c r="C290" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D290" s="20"/>
+      <c r="E290" s="23"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="28">
+        <v>289.0</v>
+      </c>
+      <c r="B291" s="31">
+        <v>44462.0</v>
+      </c>
+      <c r="C291" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D291" s="20"/>
+      <c r="E291" s="23"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="28">
+        <v>290.0</v>
+      </c>
+      <c r="B292" s="31">
+        <v>44463.0</v>
+      </c>
+      <c r="C292" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="D292" s="20"/>
+      <c r="E292" s="23"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="28">
+        <v>291.0</v>
+      </c>
+      <c r="B293" s="31">
+        <v>44464.0</v>
+      </c>
+      <c r="C293" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="D293" s="20"/>
+      <c r="E293" s="23"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="28">
+        <v>292.0</v>
+      </c>
+      <c r="B294" s="29">
+        <v>44465.0</v>
+      </c>
+      <c r="C294" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="D294" s="20"/>
+      <c r="E294" s="23"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="28">
+        <v>293.0</v>
+      </c>
+      <c r="B295" s="29">
+        <v>44466.0</v>
+      </c>
+      <c r="C295" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D295" s="20"/>
+      <c r="E295" s="23"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="28">
+        <v>294.0</v>
+      </c>
+      <c r="B296" s="29">
+        <v>44467.0</v>
+      </c>
+      <c r="C296" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D296" s="20"/>
+      <c r="E296" s="23"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="28">
+        <v>295.0</v>
+      </c>
+      <c r="B297" s="31">
+        <v>44468.0</v>
+      </c>
+      <c r="C297" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="D297" s="20"/>
+      <c r="E297" s="23"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="28">
+        <v>296.0</v>
+      </c>
+      <c r="B298" s="31">
+        <v>44469.0</v>
+      </c>
+      <c r="C298" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="D298" s="20"/>
+      <c r="E298" s="23"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="28">
+        <v>297.0</v>
+      </c>
+      <c r="B299" s="31">
+        <v>44470.0</v>
+      </c>
+      <c r="C299" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="D299" s="20"/>
+      <c r="E299" s="23"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="28">
+        <v>298.0</v>
+      </c>
+      <c r="B300" s="29">
+        <v>44471.0</v>
+      </c>
+      <c r="C300" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="D300" s="20"/>
+      <c r="E300" s="23"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="28">
+        <v>299.0</v>
+      </c>
+      <c r="B301" s="29">
+        <v>44472.0</v>
+      </c>
+      <c r="C301" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="D301" s="20"/>
+      <c r="E301" s="23"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="28">
+        <v>300.0</v>
+      </c>
+      <c r="B302" s="29">
+        <v>44473.0</v>
+      </c>
+      <c r="C302" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D302" s="20"/>
+      <c r="E302" s="23"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="28">
+        <v>301.0</v>
+      </c>
+      <c r="B303" s="31">
+        <v>44474.0</v>
+      </c>
+      <c r="C303" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="D303" s="20"/>
+      <c r="E303" s="23"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="28">
+        <v>302.0</v>
+      </c>
+      <c r="B304" s="31">
+        <v>44475.0</v>
+      </c>
+      <c r="C304" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D304" s="20"/>
+      <c r="E304" s="23"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="28">
+        <v>303.0</v>
+      </c>
+      <c r="B305" s="31">
+        <v>44476.0</v>
+      </c>
+      <c r="C305" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="D305" s="20"/>
+      <c r="E305" s="23"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="28">
+        <v>304.0</v>
+      </c>
+      <c r="B306" s="29">
+        <v>44477.0</v>
+      </c>
+      <c r="C306" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="D306" s="20"/>
+      <c r="E306" s="23"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="28">
+        <v>305.0</v>
+      </c>
+      <c r="B307" s="29">
+        <v>44478.0</v>
+      </c>
+      <c r="C307" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="D307" s="20"/>
+      <c r="E307" s="23"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="28">
+        <v>306.0</v>
+      </c>
+      <c r="B308" s="29">
+        <v>44479.0</v>
+      </c>
+      <c r="C308" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="D308" s="20"/>
+      <c r="E308" s="23"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="28">
+        <v>307.0</v>
+      </c>
+      <c r="B309" s="31">
+        <v>44480.0</v>
+      </c>
+      <c r="C309" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="D309" s="20"/>
+      <c r="E309" s="23"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="28">
+        <v>308.0</v>
+      </c>
+      <c r="B310" s="31">
+        <v>44481.0</v>
+      </c>
+      <c r="C310" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D310" s="20"/>
+      <c r="E310" s="23"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="28">
+        <v>309.0</v>
+      </c>
+      <c r="B311" s="31">
+        <v>44482.0</v>
+      </c>
+      <c r="C311" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D311" s="20"/>
+      <c r="E311" s="23"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="28">
+        <v>310.0</v>
+      </c>
+      <c r="B312" s="29">
+        <v>44483.0</v>
+      </c>
+      <c r="C312" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D312" s="20"/>
+      <c r="E312" s="23"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="28">
+        <v>311.0</v>
+      </c>
+      <c r="B313" s="29">
+        <v>44484.0</v>
+      </c>
+      <c r="C313" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="D313" s="20"/>
+      <c r="E313" s="23"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="28">
+        <v>312.0</v>
+      </c>
+      <c r="B314" s="29">
+        <v>44485.0</v>
+      </c>
+      <c r="C314" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="D314" s="20"/>
+      <c r="E314" s="23"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="28">
+        <v>313.0</v>
+      </c>
+      <c r="B315" s="31">
+        <v>44486.0</v>
+      </c>
+      <c r="C315" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="D315" s="20"/>
+      <c r="E315" s="23"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="28">
+        <v>314.0</v>
+      </c>
+      <c r="B316" s="31">
+        <v>44487.0</v>
+      </c>
+      <c r="C316" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D316" s="20"/>
+      <c r="E316" s="23"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="28">
+        <v>315.0</v>
+      </c>
+      <c r="B317" s="31">
+        <v>44488.0</v>
+      </c>
+      <c r="C317" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D317" s="20"/>
+      <c r="E317" s="23"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="28">
+        <v>316.0</v>
+      </c>
+      <c r="B318" s="29">
+        <v>44489.0</v>
+      </c>
+      <c r="C318" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="D318" s="20"/>
+      <c r="E318" s="23"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="28">
+        <v>317.0</v>
+      </c>
+      <c r="B319" s="29">
+        <v>44490.0</v>
+      </c>
+      <c r="C319" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="D319" s="20"/>
+      <c r="E319" s="23"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="28">
+        <v>318.0</v>
+      </c>
+      <c r="B320" s="29">
+        <v>44491.0</v>
+      </c>
+      <c r="C320" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="D320" s="20"/>
+      <c r="E320" s="23"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="28">
+        <v>319.0</v>
+      </c>
+      <c r="B321" s="31">
+        <v>44492.0</v>
+      </c>
+      <c r="C321" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="D321" s="20"/>
+      <c r="E321" s="23"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="28">
+        <v>320.0</v>
+      </c>
+      <c r="B322" s="31">
+        <v>44493.0</v>
+      </c>
+      <c r="C322" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="D322" s="20"/>
+      <c r="E322" s="23"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="28">
+        <v>321.0</v>
+      </c>
+      <c r="B323" s="31">
+        <v>44494.0</v>
+      </c>
+      <c r="C323" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D323" s="20"/>
+      <c r="E323" s="23"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="28">
+        <v>322.0</v>
+      </c>
+      <c r="B324" s="29">
+        <v>44495.0</v>
+      </c>
+      <c r="C324" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="D324" s="20"/>
+      <c r="E324" s="23"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="28">
+        <v>323.0</v>
+      </c>
+      <c r="B325" s="29">
+        <v>44496.0</v>
+      </c>
+      <c r="C325" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D325" s="20"/>
+      <c r="E325" s="23"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="28">
+        <v>324.0</v>
+      </c>
+      <c r="B326" s="29">
+        <v>44497.0</v>
+      </c>
+      <c r="C326" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="D326" s="20"/>
+      <c r="E326" s="23"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="28">
+        <v>325.0</v>
+      </c>
+      <c r="B327" s="31">
+        <v>44498.0</v>
+      </c>
+      <c r="C327" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="D327" s="20"/>
+      <c r="E327" s="23"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="28">
+        <v>326.0</v>
+      </c>
+      <c r="B328" s="31">
+        <v>44499.0</v>
+      </c>
+      <c r="C328" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="D328" s="20"/>
+      <c r="E328" s="23"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="28">
+        <v>327.0</v>
+      </c>
+      <c r="B329" s="31">
+        <v>44500.0</v>
+      </c>
+      <c r="C329" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="D329" s="20"/>
+      <c r="E329" s="23"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="28">
+        <v>328.0</v>
+      </c>
+      <c r="B330" s="29">
+        <v>44501.0</v>
+      </c>
+      <c r="C330" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="D330" s="20"/>
+      <c r="E330" s="23"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="28">
+        <v>329.0</v>
+      </c>
+      <c r="B331" s="29">
+        <v>44502.0</v>
+      </c>
+      <c r="C331" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D331" s="20"/>
+      <c r="E331" s="23"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="28">
+        <v>330.0</v>
+      </c>
+      <c r="B332" s="29">
+        <v>44503.0</v>
+      </c>
+      <c r="C332" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D332" s="20"/>
+      <c r="E332" s="23"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="28">
+        <v>331.0</v>
+      </c>
+      <c r="B333" s="31">
+        <v>44504.0</v>
+      </c>
+      <c r="C333" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D333" s="20"/>
+      <c r="E333" s="23"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="28">
+        <v>332.0</v>
+      </c>
+      <c r="B334" s="31">
+        <v>44505.0</v>
+      </c>
+      <c r="C334" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="D334" s="20"/>
+      <c r="E334" s="23"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="28">
+        <v>333.0</v>
+      </c>
+      <c r="B335" s="31">
+        <v>44506.0</v>
+      </c>
+      <c r="C335" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="D335" s="20"/>
+      <c r="E335" s="23"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="28">
+        <v>334.0</v>
+      </c>
+      <c r="B336" s="29">
+        <v>44507.0</v>
+      </c>
+      <c r="C336" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="D336" s="20"/>
+      <c r="E336" s="23"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="28">
+        <v>335.0</v>
+      </c>
+      <c r="B337" s="29">
+        <v>44508.0</v>
+      </c>
+      <c r="C337" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D337" s="20"/>
+      <c r="E337" s="23"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="28">
+        <v>336.0</v>
+      </c>
+      <c r="B338" s="29">
+        <v>44509.0</v>
+      </c>
+      <c r="C338" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D338" s="20"/>
+      <c r="E338" s="23"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="28">
+        <v>337.0</v>
+      </c>
+      <c r="B339" s="31">
+        <v>44510.0</v>
+      </c>
+      <c r="C339" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="D339" s="20"/>
+      <c r="E339" s="23"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="28">
+        <v>338.0</v>
+      </c>
+      <c r="B340" s="31">
+        <v>44511.0</v>
+      </c>
+      <c r="C340" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="D340" s="20"/>
+      <c r="E340" s="23"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="28">
+        <v>339.0</v>
+      </c>
+      <c r="B341" s="31">
+        <v>44512.0</v>
+      </c>
+      <c r="C341" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="D341" s="20"/>
+      <c r="E341" s="23"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="28">
+        <v>340.0</v>
+      </c>
+      <c r="B342" s="29">
+        <v>44513.0</v>
+      </c>
+      <c r="C342" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="D342" s="20"/>
+      <c r="E342" s="23"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="28">
+        <v>341.0</v>
+      </c>
+      <c r="B343" s="29">
+        <v>44514.0</v>
+      </c>
+      <c r="C343" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="D343" s="20"/>
+      <c r="E343" s="23"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="28">
+        <v>342.0</v>
+      </c>
+      <c r="B344" s="29">
+        <v>44515.0</v>
+      </c>
+      <c r="C344" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D344" s="20"/>
+      <c r="E344" s="23"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="28">
+        <v>343.0</v>
+      </c>
+      <c r="B345" s="31">
+        <v>44516.0</v>
+      </c>
+      <c r="C345" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="D345" s="20"/>
+      <c r="E345" s="23"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="28">
+        <v>344.0</v>
+      </c>
+      <c r="B346" s="31">
+        <v>44517.0</v>
+      </c>
+      <c r="C346" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D346" s="20"/>
+      <c r="E346" s="23"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="28">
+        <v>345.0</v>
+      </c>
+      <c r="B347" s="31">
+        <v>44518.0</v>
+      </c>
+      <c r="C347" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="D347" s="20"/>
+      <c r="E347" s="23"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="28">
+        <v>346.0</v>
+      </c>
+      <c r="B348" s="29">
+        <v>44519.0</v>
+      </c>
+      <c r="C348" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="D348" s="20"/>
+      <c r="E348" s="23"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="28">
+        <v>347.0</v>
+      </c>
+      <c r="B349" s="29">
+        <v>44520.0</v>
+      </c>
+      <c r="C349" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="D349" s="20"/>
+      <c r="E349" s="23"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="28">
+        <v>348.0</v>
+      </c>
+      <c r="B350" s="29">
+        <v>44521.0</v>
+      </c>
+      <c r="C350" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="D350" s="20"/>
+      <c r="E350" s="23"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="28">
+        <v>349.0</v>
+      </c>
+      <c r="B351" s="31">
+        <v>44522.0</v>
+      </c>
+      <c r="C351" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="D351" s="20"/>
+      <c r="E351" s="23"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="28">
+        <v>350.0</v>
+      </c>
+      <c r="B352" s="31">
+        <v>44523.0</v>
+      </c>
+      <c r="C352" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D352" s="20"/>
+      <c r="E352" s="23"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="28">
+        <v>351.0</v>
+      </c>
+      <c r="B353" s="31">
+        <v>44524.0</v>
+      </c>
+      <c r="C353" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D353" s="20"/>
+      <c r="E353" s="23"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="28">
+        <v>352.0</v>
+      </c>
+      <c r="B354" s="29">
+        <v>44525.0</v>
+      </c>
+      <c r="C354" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D354" s="20"/>
+      <c r="E354" s="23"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="28">
+        <v>353.0</v>
+      </c>
+      <c r="B355" s="29">
+        <v>44526.0</v>
+      </c>
+      <c r="C355" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="D355" s="20"/>
+      <c r="E355" s="23"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="28">
+        <v>354.0</v>
+      </c>
+      <c r="B356" s="29">
+        <v>44527.0</v>
+      </c>
+      <c r="C356" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="D356" s="20"/>
+      <c r="E356" s="23"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="28">
+        <v>355.0</v>
+      </c>
+      <c r="B357" s="31">
+        <v>44528.0</v>
+      </c>
+      <c r="C357" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="D357" s="20"/>
+      <c r="E357" s="23"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="28">
+        <v>356.0</v>
+      </c>
+      <c r="B358" s="31">
+        <v>44529.0</v>
+      </c>
+      <c r="C358" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D358" s="20"/>
+      <c r="E358" s="23"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="28">
+        <v>357.0</v>
+      </c>
+      <c r="B359" s="31">
+        <v>44530.0</v>
+      </c>
+      <c r="C359" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D359" s="20"/>
+      <c r="E359" s="23"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="28">
+        <v>358.0</v>
+      </c>
+      <c r="B360" s="29">
+        <v>44531.0</v>
+      </c>
+      <c r="C360" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="D360" s="20"/>
+      <c r="E360" s="23"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="28">
+        <v>359.0</v>
+      </c>
+      <c r="B361" s="29">
+        <v>44532.0</v>
+      </c>
+      <c r="C361" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="D361" s="20"/>
+      <c r="E361" s="23"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="28">
+        <v>360.0</v>
+      </c>
+      <c r="B362" s="29">
+        <v>44533.0</v>
+      </c>
+      <c r="C362" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="D362" s="20"/>
+      <c r="E362" s="23"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="28">
+        <v>361.0</v>
+      </c>
+      <c r="B363" s="31">
+        <v>44534.0</v>
+      </c>
+      <c r="C363" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="D363" s="20"/>
+      <c r="E363" s="23"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="28">
+        <v>362.0</v>
+      </c>
+      <c r="B364" s="31">
+        <v>44535.0</v>
+      </c>
+      <c r="C364" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="D364" s="20"/>
+      <c r="E364" s="23"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="28">
+        <v>363.0</v>
+      </c>
+      <c r="B365" s="31">
+        <v>44536.0</v>
+      </c>
+      <c r="C365" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D365" s="20"/>
+      <c r="E365" s="23"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="28">
+        <v>364.0</v>
+      </c>
+      <c r="B366" s="29">
+        <v>44537.0</v>
+      </c>
+      <c r="C366" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="D366" s="20"/>
+      <c r="E366" s="23"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="28">
+        <v>365.0</v>
+      </c>
+      <c r="B367" s="29">
+        <v>44538.0</v>
+      </c>
+      <c r="C367" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D367" s="20"/>
+      <c r="E367" s="23"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="28">
+        <v>366.0</v>
+      </c>
+      <c r="B368" s="29">
+        <v>44539.0</v>
+      </c>
+      <c r="C368" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="D368" s="20"/>
+      <c r="E368" s="23"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="28">
+        <v>367.0</v>
+      </c>
+      <c r="B369" s="31">
+        <v>44540.0</v>
+      </c>
+      <c r="C369" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="D369" s="20"/>
+      <c r="E369" s="23"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="28">
+        <v>368.0</v>
+      </c>
+      <c r="B370" s="31">
+        <v>44541.0</v>
+      </c>
+      <c r="C370" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="D370" s="20"/>
+      <c r="E370" s="23"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="28">
+        <v>369.0</v>
+      </c>
+      <c r="B371" s="31">
+        <v>44542.0</v>
+      </c>
+      <c r="C371" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="D371" s="20"/>
+      <c r="E371" s="23"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="28">
+        <v>370.0</v>
+      </c>
+      <c r="B372" s="29">
+        <v>44543.0</v>
+      </c>
+      <c r="C372" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="D372" s="20"/>
+      <c r="E372" s="23"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="28">
+        <v>371.0</v>
+      </c>
+      <c r="B373" s="29">
+        <v>44544.0</v>
+      </c>
+      <c r="C373" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D373" s="20"/>
+      <c r="E373" s="23"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="28">
+        <v>372.0</v>
+      </c>
+      <c r="B374" s="29">
+        <v>44545.0</v>
+      </c>
+      <c r="C374" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D374" s="20"/>
+      <c r="E374" s="23"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="28">
+        <v>373.0</v>
+      </c>
+      <c r="B375" s="31">
+        <v>44546.0</v>
+      </c>
+      <c r="C375" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D375" s="20"/>
+      <c r="E375" s="23"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="28">
+        <v>374.0</v>
+      </c>
+      <c r="B376" s="31">
+        <v>44547.0</v>
+      </c>
+      <c r="C376" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="D376" s="20"/>
+      <c r="E376" s="23"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="28">
+        <v>375.0</v>
+      </c>
+      <c r="B377" s="31">
+        <v>44548.0</v>
+      </c>
+      <c r="C377" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="D377" s="20"/>
+      <c r="E377" s="23"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="28">
+        <v>376.0</v>
+      </c>
+      <c r="B378" s="29">
+        <v>44549.0</v>
+      </c>
+      <c r="C378" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="D378" s="20"/>
+      <c r="E378" s="23"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="28">
+        <v>377.0</v>
+      </c>
+      <c r="B379" s="29">
+        <v>44550.0</v>
+      </c>
+      <c r="C379" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D379" s="20"/>
+      <c r="E379" s="23"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="28">
+        <v>378.0</v>
+      </c>
+      <c r="B380" s="29">
+        <v>44551.0</v>
+      </c>
+      <c r="C380" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D380" s="20"/>
+      <c r="E380" s="23"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="28">
+        <v>379.0</v>
+      </c>
+      <c r="B381" s="31">
+        <v>44552.0</v>
+      </c>
+      <c r="C381" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="D381" s="20"/>
+      <c r="E381" s="23"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="28">
+        <v>380.0</v>
+      </c>
+      <c r="B382" s="31">
+        <v>44553.0</v>
+      </c>
+      <c r="C382" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="D382" s="20"/>
+      <c r="E382" s="23"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="28">
+        <v>381.0</v>
+      </c>
+      <c r="B383" s="31">
+        <v>44554.0</v>
+      </c>
+      <c r="C383" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="D383" s="20"/>
+      <c r="E383" s="23"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="28">
+        <v>382.0</v>
+      </c>
+      <c r="B384" s="29">
+        <v>44555.0</v>
+      </c>
+      <c r="C384" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="D384" s="20"/>
+      <c r="E384" s="23"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="28">
+        <v>383.0</v>
+      </c>
+      <c r="B385" s="29">
+        <v>44556.0</v>
+      </c>
+      <c r="C385" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="D385" s="20"/>
+      <c r="E385" s="23"/>
+    </row>
+    <row r="386">
+      <c r="A386" s="28">
+        <v>384.0</v>
+      </c>
+      <c r="B386" s="29">
+        <v>44557.0</v>
+      </c>
+      <c r="C386" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D386" s="20"/>
+      <c r="E386" s="23"/>
+    </row>
+    <row r="387">
+      <c r="A387" s="28">
+        <v>385.0</v>
+      </c>
+      <c r="B387" s="31">
+        <v>44558.0</v>
+      </c>
+      <c r="C387" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="D387" s="20"/>
+      <c r="E387" s="23"/>
+    </row>
+    <row r="388">
+      <c r="A388" s="28">
+        <v>386.0</v>
+      </c>
+      <c r="B388" s="31">
+        <v>44559.0</v>
+      </c>
+      <c r="C388" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D388" s="20"/>
+      <c r="E388" s="23"/>
+    </row>
+    <row r="389">
+      <c r="A389" s="28">
+        <v>387.0</v>
+      </c>
+      <c r="B389" s="31">
+        <v>44560.0</v>
+      </c>
+      <c r="C389" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="D389" s="20"/>
+      <c r="E389" s="23"/>
+    </row>
+    <row r="390">
+      <c r="A390" s="28">
+        <v>388.0</v>
+      </c>
+      <c r="B390" s="29">
+        <v>44561.0</v>
+      </c>
+      <c r="C390" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="D390" s="20"/>
+      <c r="E390" s="23"/>
     </row>
   </sheetData>
   <drawing r:id="rId2"/>
@@ -4747,80 +8568,80 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>192</v>
+      <c r="A1" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="2" ht="22.5" customHeight="1">
-      <c r="A2" s="29">
+      <c r="A2" s="34">
         <v>1.0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="29" t="s">
-        <v>193</v>
+      <c r="C2" s="34" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1">
-      <c r="A3" s="29">
+      <c r="A3" s="34">
         <v>2.0</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>194</v>
+      <c r="B3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1">
-      <c r="A4" s="29">
+      <c r="A4" s="34">
         <v>3.0</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>195</v>
+      <c r="B4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1">
-      <c r="A5" s="29">
+      <c r="A5" s="34">
         <v>4.0</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>196</v>
+      <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1">
-      <c r="A6" s="29">
+      <c r="A6" s="34">
         <v>5.0</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>197</v>
+      <c r="B6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1">
-      <c r="A7" s="29">
+      <c r="A7" s="34">
         <v>6.0</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>198</v>
+      <c r="B7" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -4847,514 +8668,514 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>199</v>
+      <c r="A1" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="31">
+      <c r="A2" s="36">
         <v>1.0</v>
       </c>
-      <c r="B2" s="32">
+      <c r="B2" s="37">
         <v>44251.0</v>
       </c>
-      <c r="C2" s="33" t="s">
-        <v>200</v>
+      <c r="C2" s="38" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="34">
+      <c r="A3" s="39">
         <f>IF(AND(ISBLANK(B3), ISBLANK(#REF!)),"",$A$2+1)</f>
         <v>2</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
     </row>
     <row r="4">
-      <c r="A4" s="34"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="36"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="41"/>
     </row>
     <row r="5">
-      <c r="A5" s="34"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="36"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="41"/>
     </row>
     <row r="6">
-      <c r="A6" s="38"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="36"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="41"/>
     </row>
     <row r="7">
-      <c r="A7" s="34"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="36"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="41"/>
     </row>
     <row r="8">
-      <c r="A8" s="34"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="36"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="41"/>
     </row>
     <row r="9">
-      <c r="A9" s="34"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="36"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="41"/>
     </row>
     <row r="10">
-      <c r="A10" s="34"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="36"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="41"/>
     </row>
     <row r="11">
-      <c r="A11" s="34"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="36"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="41"/>
     </row>
     <row r="12">
-      <c r="A12" s="34"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="36"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="41"/>
     </row>
     <row r="13">
-      <c r="A13" s="34"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="36"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="41"/>
     </row>
     <row r="14">
-      <c r="A14" s="34"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="40"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="45"/>
     </row>
     <row r="15">
-      <c r="A15" s="34"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="40"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
     </row>
     <row r="16">
-      <c r="A16" s="34"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="40"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
     </row>
     <row r="17">
-      <c r="A17" s="34"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="40"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
     </row>
     <row r="18">
-      <c r="A18" s="34"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="40"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="45"/>
     </row>
     <row r="19">
-      <c r="A19" s="34"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="40"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="45"/>
     </row>
     <row r="20">
-      <c r="A20" s="34"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="40"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
     </row>
     <row r="21">
-      <c r="A21" s="34"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="36"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="41"/>
     </row>
     <row r="22">
-      <c r="A22" s="34"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="36"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="41"/>
     </row>
     <row r="23">
-      <c r="A23" s="34"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="36"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="41"/>
     </row>
     <row r="24">
-      <c r="A24" s="34"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="36"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="41"/>
     </row>
     <row r="25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="36"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="41"/>
     </row>
     <row r="26">
-      <c r="A26" s="34"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="36"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="41"/>
     </row>
     <row r="27">
-      <c r="A27" s="34"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="36"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="41"/>
     </row>
     <row r="28">
-      <c r="A28" s="34"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="36"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="41"/>
     </row>
     <row r="29">
-      <c r="A29" s="34"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="36"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="41"/>
     </row>
     <row r="30">
-      <c r="A30" s="34"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="36"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="41"/>
     </row>
     <row r="31">
-      <c r="A31" s="34"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="36"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="41"/>
     </row>
     <row r="32">
-      <c r="A32" s="34"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="36"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="41"/>
     </row>
     <row r="33">
-      <c r="A33" s="34"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="36"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="41"/>
     </row>
     <row r="34">
-      <c r="A34" s="34"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="36"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="41"/>
     </row>
     <row r="35">
-      <c r="A35" s="34"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="36"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="41"/>
     </row>
     <row r="36">
-      <c r="A36" s="34"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="36"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="41"/>
     </row>
     <row r="37">
-      <c r="A37" s="34"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="36"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="41"/>
     </row>
     <row r="38">
-      <c r="A38" s="34"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="36"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="41"/>
     </row>
     <row r="39">
-      <c r="A39" s="34"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="36"/>
+      <c r="A39" s="39"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="41"/>
     </row>
     <row r="40">
-      <c r="A40" s="34"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="36"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="41"/>
     </row>
     <row r="41">
-      <c r="A41" s="34"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="36"/>
+      <c r="A41" s="39"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="41"/>
     </row>
     <row r="42">
-      <c r="A42" s="34"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="36"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="41"/>
     </row>
     <row r="43">
-      <c r="A43" s="34"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="36"/>
+      <c r="A43" s="39"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="41"/>
     </row>
     <row r="44">
-      <c r="A44" s="34"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="36"/>
+      <c r="A44" s="39"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="41"/>
     </row>
     <row r="45">
-      <c r="A45" s="34"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="36"/>
+      <c r="A45" s="39"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="41"/>
     </row>
     <row r="46">
-      <c r="A46" s="34"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="36"/>
+      <c r="A46" s="39"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="41"/>
     </row>
     <row r="47">
-      <c r="A47" s="34"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="36"/>
+      <c r="A47" s="39"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="41"/>
     </row>
     <row r="48">
-      <c r="A48" s="34"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="36"/>
+      <c r="A48" s="39"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="41"/>
     </row>
     <row r="49">
-      <c r="A49" s="34"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="36"/>
+      <c r="A49" s="39"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="41"/>
     </row>
     <row r="50">
-      <c r="A50" s="34"/>
-      <c r="B50" s="37"/>
-      <c r="C50" s="36"/>
+      <c r="A50" s="39"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="41"/>
     </row>
     <row r="51">
-      <c r="A51" s="34"/>
-      <c r="B51" s="37"/>
-      <c r="C51" s="36"/>
+      <c r="A51" s="39"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="41"/>
     </row>
     <row r="52">
-      <c r="A52" s="34"/>
-      <c r="B52" s="37"/>
-      <c r="C52" s="36"/>
+      <c r="A52" s="39"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="41"/>
     </row>
     <row r="53">
-      <c r="A53" s="34"/>
-      <c r="B53" s="37"/>
-      <c r="C53" s="36"/>
+      <c r="A53" s="39"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="41"/>
     </row>
     <row r="54">
-      <c r="A54" s="34"/>
-      <c r="B54" s="37"/>
-      <c r="C54" s="36"/>
+      <c r="A54" s="39"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="41"/>
     </row>
     <row r="55">
-      <c r="A55" s="34"/>
-      <c r="B55" s="37"/>
-      <c r="C55" s="36"/>
+      <c r="A55" s="39"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="41"/>
     </row>
     <row r="56">
-      <c r="A56" s="34"/>
-      <c r="B56" s="37"/>
-      <c r="C56" s="36"/>
+      <c r="A56" s="39"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="41"/>
     </row>
     <row r="57">
-      <c r="A57" s="34"/>
-      <c r="B57" s="37"/>
-      <c r="C57" s="36"/>
+      <c r="A57" s="39"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="41"/>
     </row>
     <row r="58">
-      <c r="A58" s="34"/>
-      <c r="B58" s="37"/>
-      <c r="C58" s="36"/>
+      <c r="A58" s="39"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="41"/>
     </row>
     <row r="59">
-      <c r="A59" s="34"/>
-      <c r="B59" s="37"/>
-      <c r="C59" s="36"/>
+      <c r="A59" s="39"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="41"/>
     </row>
     <row r="60">
-      <c r="A60" s="34"/>
-      <c r="B60" s="37"/>
-      <c r="C60" s="36"/>
+      <c r="A60" s="39"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="41"/>
     </row>
     <row r="61">
-      <c r="A61" s="34"/>
-      <c r="B61" s="37"/>
-      <c r="C61" s="36"/>
+      <c r="A61" s="39"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="41"/>
     </row>
     <row r="62">
-      <c r="A62" s="34"/>
-      <c r="B62" s="37"/>
-      <c r="C62" s="36"/>
+      <c r="A62" s="39"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="41"/>
     </row>
     <row r="63">
-      <c r="A63" s="34"/>
-      <c r="B63" s="37"/>
-      <c r="C63" s="36"/>
+      <c r="A63" s="39"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="41"/>
     </row>
     <row r="64">
-      <c r="A64" s="34"/>
-      <c r="B64" s="37"/>
-      <c r="C64" s="36"/>
+      <c r="A64" s="39"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="41"/>
     </row>
     <row r="65">
-      <c r="A65" s="34"/>
-      <c r="B65" s="37"/>
-      <c r="C65" s="36"/>
+      <c r="A65" s="39"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="41"/>
     </row>
     <row r="66">
-      <c r="A66" s="34"/>
-      <c r="B66" s="37"/>
-      <c r="C66" s="36"/>
+      <c r="A66" s="39"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="41"/>
     </row>
     <row r="67">
-      <c r="A67" s="34"/>
-      <c r="B67" s="37"/>
-      <c r="C67" s="36"/>
+      <c r="A67" s="39"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="41"/>
     </row>
     <row r="68">
-      <c r="A68" s="34"/>
-      <c r="B68" s="37"/>
-      <c r="C68" s="36"/>
+      <c r="A68" s="39"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="41"/>
     </row>
     <row r="69">
-      <c r="A69" s="34"/>
-      <c r="B69" s="37"/>
-      <c r="C69" s="36"/>
+      <c r="A69" s="39"/>
+      <c r="B69" s="42"/>
+      <c r="C69" s="41"/>
     </row>
     <row r="70">
-      <c r="A70" s="34"/>
-      <c r="B70" s="37"/>
-      <c r="C70" s="36"/>
+      <c r="A70" s="39"/>
+      <c r="B70" s="42"/>
+      <c r="C70" s="41"/>
     </row>
     <row r="71">
-      <c r="A71" s="34"/>
-      <c r="B71" s="37"/>
-      <c r="C71" s="36"/>
+      <c r="A71" s="39"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="41"/>
     </row>
     <row r="72">
-      <c r="A72" s="34"/>
-      <c r="B72" s="37"/>
-      <c r="C72" s="36"/>
+      <c r="A72" s="39"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="41"/>
     </row>
     <row r="73">
-      <c r="A73" s="34"/>
-      <c r="B73" s="37"/>
-      <c r="C73" s="36"/>
+      <c r="A73" s="39"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="41"/>
     </row>
     <row r="74">
-      <c r="A74" s="34"/>
-      <c r="B74" s="37"/>
-      <c r="C74" s="36"/>
+      <c r="A74" s="39"/>
+      <c r="B74" s="42"/>
+      <c r="C74" s="41"/>
     </row>
     <row r="75">
-      <c r="A75" s="34"/>
-      <c r="B75" s="37"/>
-      <c r="C75" s="36"/>
+      <c r="A75" s="39"/>
+      <c r="B75" s="42"/>
+      <c r="C75" s="41"/>
     </row>
     <row r="76">
-      <c r="A76" s="34"/>
-      <c r="B76" s="37"/>
-      <c r="C76" s="36"/>
+      <c r="A76" s="39"/>
+      <c r="B76" s="42"/>
+      <c r="C76" s="41"/>
     </row>
     <row r="77">
-      <c r="A77" s="34"/>
-      <c r="B77" s="37"/>
-      <c r="C77" s="36"/>
+      <c r="A77" s="39"/>
+      <c r="B77" s="42"/>
+      <c r="C77" s="41"/>
     </row>
     <row r="78">
-      <c r="A78" s="34"/>
-      <c r="B78" s="37"/>
-      <c r="C78" s="36"/>
+      <c r="A78" s="39"/>
+      <c r="B78" s="42"/>
+      <c r="C78" s="41"/>
     </row>
     <row r="79">
-      <c r="A79" s="34"/>
-      <c r="B79" s="37"/>
-      <c r="C79" s="36"/>
+      <c r="A79" s="39"/>
+      <c r="B79" s="42"/>
+      <c r="C79" s="41"/>
     </row>
     <row r="80">
-      <c r="A80" s="34"/>
-      <c r="B80" s="37"/>
-      <c r="C80" s="36"/>
+      <c r="A80" s="39"/>
+      <c r="B80" s="42"/>
+      <c r="C80" s="41"/>
     </row>
     <row r="81">
-      <c r="A81" s="34"/>
-      <c r="B81" s="37"/>
-      <c r="C81" s="36"/>
+      <c r="A81" s="39"/>
+      <c r="B81" s="42"/>
+      <c r="C81" s="41"/>
     </row>
     <row r="82">
-      <c r="A82" s="34"/>
-      <c r="B82" s="37"/>
-      <c r="C82" s="36"/>
+      <c r="A82" s="39"/>
+      <c r="B82" s="42"/>
+      <c r="C82" s="41"/>
     </row>
     <row r="83">
-      <c r="A83" s="34"/>
-      <c r="B83" s="37"/>
-      <c r="C83" s="36"/>
+      <c r="A83" s="39"/>
+      <c r="B83" s="42"/>
+      <c r="C83" s="41"/>
     </row>
     <row r="84">
-      <c r="A84" s="34"/>
-      <c r="B84" s="37"/>
-      <c r="C84" s="36"/>
+      <c r="A84" s="39"/>
+      <c r="B84" s="42"/>
+      <c r="C84" s="41"/>
     </row>
     <row r="85">
-      <c r="A85" s="34"/>
-      <c r="B85" s="37"/>
-      <c r="C85" s="36"/>
+      <c r="A85" s="39"/>
+      <c r="B85" s="42"/>
+      <c r="C85" s="41"/>
     </row>
     <row r="86">
-      <c r="A86" s="34"/>
-      <c r="B86" s="37"/>
-      <c r="C86" s="36"/>
+      <c r="A86" s="39"/>
+      <c r="B86" s="42"/>
+      <c r="C86" s="41"/>
     </row>
     <row r="87">
-      <c r="A87" s="34"/>
-      <c r="B87" s="37"/>
-      <c r="C87" s="36"/>
+      <c r="A87" s="39"/>
+      <c r="B87" s="42"/>
+      <c r="C87" s="41"/>
     </row>
     <row r="88">
-      <c r="A88" s="34"/>
-      <c r="B88" s="37"/>
-      <c r="C88" s="36"/>
+      <c r="A88" s="39"/>
+      <c r="B88" s="42"/>
+      <c r="C88" s="41"/>
     </row>
     <row r="89">
-      <c r="A89" s="34"/>
-      <c r="B89" s="37"/>
-      <c r="C89" s="36"/>
+      <c r="A89" s="39"/>
+      <c r="B89" s="42"/>
+      <c r="C89" s="41"/>
     </row>
     <row r="90">
-      <c r="A90" s="34"/>
-      <c r="B90" s="37"/>
-      <c r="C90" s="36"/>
+      <c r="A90" s="39"/>
+      <c r="B90" s="42"/>
+      <c r="C90" s="41"/>
     </row>
     <row r="91">
-      <c r="A91" s="34"/>
-      <c r="B91" s="37"/>
-      <c r="C91" s="36"/>
+      <c r="A91" s="39"/>
+      <c r="B91" s="42"/>
+      <c r="C91" s="41"/>
     </row>
     <row r="92">
-      <c r="A92" s="34"/>
-      <c r="B92" s="37"/>
-      <c r="C92" s="36"/>
+      <c r="A92" s="39"/>
+      <c r="B92" s="42"/>
+      <c r="C92" s="41"/>
     </row>
     <row r="93">
-      <c r="A93" s="34"/>
-      <c r="B93" s="37"/>
-      <c r="C93" s="36"/>
+      <c r="A93" s="39"/>
+      <c r="B93" s="42"/>
+      <c r="C93" s="41"/>
     </row>
     <row r="94">
-      <c r="A94" s="34"/>
-      <c r="B94" s="37"/>
-      <c r="C94" s="36"/>
+      <c r="A94" s="39"/>
+      <c r="B94" s="42"/>
+      <c r="C94" s="41"/>
     </row>
     <row r="95">
-      <c r="A95" s="34"/>
-      <c r="B95" s="37"/>
-      <c r="C95" s="36"/>
+      <c r="A95" s="39"/>
+      <c r="B95" s="42"/>
+      <c r="C95" s="41"/>
     </row>
     <row r="96">
-      <c r="A96" s="34"/>
-      <c r="B96" s="37"/>
-      <c r="C96" s="36"/>
+      <c r="A96" s="39"/>
+      <c r="B96" s="42"/>
+      <c r="C96" s="41"/>
     </row>
     <row r="97">
-      <c r="A97" s="34"/>
-      <c r="B97" s="37"/>
-      <c r="C97" s="36"/>
+      <c r="A97" s="39"/>
+      <c r="B97" s="42"/>
+      <c r="C97" s="41"/>
     </row>
     <row r="98">
-      <c r="A98" s="34"/>
-      <c r="B98" s="37"/>
-      <c r="C98" s="36"/>
+      <c r="A98" s="39"/>
+      <c r="B98" s="42"/>
+      <c r="C98" s="41"/>
     </row>
     <row r="99">
-      <c r="A99" s="34"/>
-      <c r="B99" s="37"/>
-      <c r="C99" s="36"/>
+      <c r="A99" s="39"/>
+      <c r="B99" s="42"/>
+      <c r="C99" s="41"/>
     </row>
   </sheetData>
   <dataValidations>
@@ -5381,234 +9202,234 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>202</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>203</v>
+      <c r="A1" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>204</v>
+      <c r="A2" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>207</v>
+      <c r="A3" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>208</v>
+      <c r="A4" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="42" t="s">
-        <v>209</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>210</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>211</v>
+      <c r="A5" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>213</v>
+      <c r="A6" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="42" t="s">
-        <v>176</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>214</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>215</v>
+      <c r="A7" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>216</v>
+      <c r="A8" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="B9" s="43" t="s">
+      <c r="A9" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>232</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="44" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="42" t="s">
-        <v>159</v>
-      </c>
-      <c r="B14" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="42" t="s">
-        <v>223</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>224</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="42" t="s">
-        <v>226</v>
-      </c>
-      <c r="B16" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="C16" s="44" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="44" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="B19" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="44" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="B20" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="47" t="s">
-        <v>233</v>
+      <c r="C21" s="52" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
